--- a/gd/美术需求文档/怪物需求/Ver0.3怪物需求.xlsx
+++ b/gd/美术需求文档/怪物需求/Ver0.3怪物需求.xlsx
@@ -10,7 +10,7 @@
     <sheet name="小怪" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="128">
   <si>
     <t>id</t>
   </si>
@@ -472,11 +472,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>女子身体，双手似爪，从腰部向下为蜘蛛形象
-强物斩，弱加血，木毒，物攻大招，附带木毒，被动技能：毒性身躯。被攻击时一定几率攻击者中毒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>手拿长矛，身披铁甲，蜥蜴头部，绿色主体
 中物刺，法弱，提升攻击，buff提升自身防御，大招嘲讽，被动保护色：降低被命中几率</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -489,6 +484,15 @@
   <si>
     <t>鹰的翅膀和爪子，人的身体。在哈皮形象设定的基础上，更接近光明的属性。
 物攻中斩，法攻弱，hot，大招驱散己方debuff，被动：法攻提高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女子身体，双手似爪，从腰部向下为蜘蛛形象
+强物斩，弱加血，木毒，物攻大招，附带黑毒，被动技能：毒性身躯。被攻击时一定几率攻击者中黑毒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +538,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +548,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,7 +572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -612,13 +622,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -893,7 +909,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -903,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115:J127"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67:I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -959,10 +975,10 @@
       <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="17"/>
       <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
@@ -992,34 +1008,34 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="17"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="7" t="s">
         <v>21</v>
       </c>
@@ -1040,16 +1056,16 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="17"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="7" t="s">
         <v>27</v>
       </c>
@@ -1070,16 +1086,16 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="17"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="7" t="s">
         <v>32</v>
       </c>
@@ -1099,16 +1115,16 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="17"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="16"/>
@@ -1124,16 +1140,16 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="17"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="16"/>
@@ -1149,16 +1165,16 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="17"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="16"/>
@@ -1174,16 +1190,16 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="17"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="16"/>
@@ -1199,16 +1215,16 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="17"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="16"/>
@@ -1224,16 +1240,16 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="17"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="16"/>
@@ -1249,16 +1265,16 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="17"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="16"/>
@@ -1274,16 +1290,16 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="17"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="16"/>
@@ -1299,16 +1315,16 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="17"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="16"/>
@@ -1325,16 +1341,16 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="33">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="17"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="13" t="s">
@@ -1390,10 +1406,10 @@
       <c r="J18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="18"/>
+      <c r="L18" s="17"/>
       <c r="M18" s="3" t="s">
         <v>10</v>
       </c>
@@ -1423,34 +1439,34 @@
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="J19" s="17"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="7" t="s">
         <v>21</v>
       </c>
@@ -1471,16 +1487,16 @@
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="17"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="7" t="s">
         <v>27</v>
       </c>
@@ -1501,16 +1517,16 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="17"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="7" t="s">
         <v>32</v>
       </c>
@@ -1530,16 +1546,16 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="17"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="16"/>
@@ -1555,16 +1571,16 @@
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="17"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="16"/>
@@ -1580,16 +1596,16 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="17"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="16"/>
@@ -1605,16 +1621,16 @@
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="17"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="16"/>
@@ -1630,16 +1646,16 @@
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="17"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="16"/>
@@ -1655,16 +1671,16 @@
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="17"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="19"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="16"/>
@@ -1680,16 +1696,16 @@
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="17"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="16"/>
@@ -1705,16 +1721,16 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="17"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="16"/>
@@ -1730,16 +1746,16 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="17"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
       <c r="M30" s="16"/>
@@ -1756,16 +1772,16 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="33">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="17"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="19"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
       <c r="M31" s="13" t="s">
@@ -1821,10 +1837,10 @@
       <c r="J34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="18" t="s">
+      <c r="K34" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="18"/>
+      <c r="L34" s="17"/>
       <c r="M34" s="3" t="s">
         <v>10</v>
       </c>
@@ -1854,34 +1870,34 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="I35" s="19" t="s">
+      <c r="H35" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="17"/>
+      <c r="J35" s="19"/>
       <c r="K35" s="7" t="s">
         <v>21</v>
       </c>
@@ -1902,16 +1918,16 @@
       </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="17"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
       <c r="K36" s="7" t="s">
         <v>27</v>
       </c>
@@ -1932,16 +1948,16 @@
       </c>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="17"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="19"/>
       <c r="K37" s="7" t="s">
         <v>32</v>
       </c>
@@ -1961,16 +1977,16 @@
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="17"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="19"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="16"/>
@@ -1986,16 +2002,16 @@
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="17"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="19"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="16"/>
@@ -2011,16 +2027,16 @@
       </c>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="17"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="19"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="16"/>
@@ -2036,16 +2052,16 @@
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="17"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="19"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="16"/>
@@ -2061,16 +2077,16 @@
       </c>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="17"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="19"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="16"/>
@@ -2086,16 +2102,16 @@
       </c>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="17"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="19"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="16"/>
@@ -2111,16 +2127,16 @@
       </c>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="17"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="19"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="16"/>
@@ -2136,16 +2152,16 @@
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="17"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="19"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="16"/>
@@ -2161,16 +2177,16 @@
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="17"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="19"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="16"/>
@@ -2187,16 +2203,16 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="33">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="17"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="19"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="13" t="s">
@@ -2252,10 +2268,10 @@
       <c r="J50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K50" s="18" t="s">
+      <c r="K50" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L50" s="18"/>
+      <c r="L50" s="17"/>
       <c r="M50" s="3" t="s">
         <v>10</v>
       </c>
@@ -2285,34 +2301,34 @@
       </c>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E51" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F51" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="I51" s="19" t="s">
+      <c r="H51" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="J51" s="17"/>
+      <c r="J51" s="19"/>
       <c r="K51" s="7" t="s">
         <v>21</v>
       </c>
@@ -2336,16 +2352,16 @@
       </c>
     </row>
     <row r="52" spans="1:21" ht="33">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="17"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="19"/>
       <c r="K52" s="7" t="s">
         <v>27</v>
       </c>
@@ -2368,16 +2384,16 @@
       </c>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="17"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="19"/>
       <c r="K53" s="7" t="s">
         <v>32</v>
       </c>
@@ -2400,16 +2416,16 @@
       </c>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="17"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="19"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="16"/>
@@ -2428,16 +2444,16 @@
       </c>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="17"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="19"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="16"/>
@@ -2456,16 +2472,16 @@
       </c>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="17"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="19"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="16"/>
@@ -2484,16 +2500,16 @@
       </c>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="17"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="19"/>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="16"/>
@@ -2512,16 +2528,16 @@
       </c>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="17"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="19"/>
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="16"/>
@@ -2540,16 +2556,16 @@
       </c>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="17"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="19"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
       <c r="M59" s="16"/>
@@ -2568,16 +2584,16 @@
       </c>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="17"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="19"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
       <c r="M60" s="16"/>
@@ -2596,16 +2612,16 @@
       </c>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="17"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="19"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
       <c r="M61" s="16"/>
@@ -2624,16 +2640,16 @@
       </c>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="17"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="19"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="16"/>
@@ -2652,16 +2668,16 @@
       </c>
     </row>
     <row r="63" spans="1:21" ht="33">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="17"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="19"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
       <c r="M63" s="13" t="s">
@@ -2714,10 +2730,10 @@
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="18" t="s">
+      <c r="K66" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L66" s="18"/>
+      <c r="L66" s="17"/>
       <c r="M66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2747,34 +2763,34 @@
       </c>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F67" s="17" t="s">
+      <c r="E67" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G67" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H67" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I67" s="19" t="s">
+      <c r="H67" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I67" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="J67" s="17"/>
+      <c r="J67" s="19"/>
       <c r="K67" s="7" t="s">
         <v>21</v>
       </c>
@@ -2798,16 +2814,16 @@
       </c>
     </row>
     <row r="68" spans="1:21" ht="33">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="17"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="19"/>
       <c r="K68" s="7" t="s">
         <v>27</v>
       </c>
@@ -2830,16 +2846,16 @@
       </c>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="17"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="19"/>
       <c r="K69" s="7" t="s">
         <v>32</v>
       </c>
@@ -2862,16 +2878,16 @@
       </c>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="17"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="19"/>
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
       <c r="M70" s="16"/>
@@ -2890,16 +2906,16 @@
       </c>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="17"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="19"/>
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
       <c r="M71" s="16"/>
@@ -2918,16 +2934,16 @@
       </c>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="17"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="19"/>
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
       <c r="M72" s="16"/>
@@ -2946,16 +2962,16 @@
       </c>
     </row>
     <row r="73" spans="1:21">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="17"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="19"/>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
       <c r="M73" s="16"/>
@@ -2974,16 +2990,16 @@
       </c>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="17"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="19"/>
       <c r="K74" s="12"/>
       <c r="L74" s="12"/>
       <c r="M74" s="16"/>
@@ -3002,16 +3018,16 @@
       </c>
     </row>
     <row r="75" spans="1:21">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="17"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="19"/>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
       <c r="M75" s="16"/>
@@ -3030,16 +3046,16 @@
       </c>
     </row>
     <row r="76" spans="1:21">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="17"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="19"/>
       <c r="K76" s="12"/>
       <c r="L76" s="12"/>
       <c r="M76" s="16"/>
@@ -3058,16 +3074,16 @@
       </c>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="17"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="19"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
       <c r="M77" s="16"/>
@@ -3086,16 +3102,16 @@
       </c>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="17"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="19"/>
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="16"/>
@@ -3114,16 +3130,16 @@
       </c>
     </row>
     <row r="79" spans="1:21" ht="33">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="17"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="19"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
       <c r="M79" s="13" t="s">
@@ -3176,10 +3192,10 @@
       <c r="J82" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K82" s="18" t="s">
+      <c r="K82" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L82" s="18"/>
+      <c r="L82" s="17"/>
       <c r="M82" s="3" t="s">
         <v>10</v>
       </c>
@@ -3209,34 +3225,34 @@
       </c>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E83" s="17" t="s">
+      <c r="E83" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F83" s="17" t="s">
+      <c r="F83" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G83" s="19" t="s">
+      <c r="G83" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H83" s="19" t="s">
+      <c r="H83" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="I83" s="19" t="s">
+      <c r="I83" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="J83" s="17"/>
+      <c r="J83" s="19"/>
       <c r="K83" s="7" t="s">
         <v>21</v>
       </c>
@@ -3260,16 +3276,16 @@
       </c>
     </row>
     <row r="84" spans="1:21" ht="33">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="17"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="19"/>
       <c r="K84" s="7" t="s">
         <v>27</v>
       </c>
@@ -3292,16 +3308,16 @@
       </c>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="17"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="19"/>
       <c r="K85" s="7" t="s">
         <v>32</v>
       </c>
@@ -3324,16 +3340,16 @@
       </c>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="17"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="19"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
       <c r="M86" s="16"/>
@@ -3352,16 +3368,16 @@
       </c>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="17"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="19"/>
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
       <c r="M87" s="16"/>
@@ -3380,16 +3396,16 @@
       </c>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="17"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="19"/>
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
       <c r="M88" s="16"/>
@@ -3408,16 +3424,16 @@
       </c>
     </row>
     <row r="89" spans="1:21">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="17"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="19"/>
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
       <c r="M89" s="16"/>
@@ -3436,16 +3452,16 @@
       </c>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="17"/>
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="19"/>
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
       <c r="M90" s="16"/>
@@ -3464,16 +3480,16 @@
       </c>
     </row>
     <row r="91" spans="1:21">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="17"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="19"/>
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
       <c r="M91" s="16"/>
@@ -3492,16 +3508,16 @@
       </c>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="17"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="19"/>
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
       <c r="M92" s="16"/>
@@ -3520,16 +3536,16 @@
       </c>
     </row>
     <row r="93" spans="1:21">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="17"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="19"/>
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
       <c r="M93" s="16"/>
@@ -3548,16 +3564,16 @@
       </c>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="17"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="19"/>
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
       <c r="M94" s="16"/>
@@ -3576,16 +3592,16 @@
       </c>
     </row>
     <row r="95" spans="1:21" ht="33">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="17"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="19"/>
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
       <c r="M95" s="13" t="s">
@@ -3655,10 +3671,10 @@
       <c r="J98" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K98" s="18" t="s">
+      <c r="K98" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L98" s="18"/>
+      <c r="L98" s="17"/>
       <c r="M98" s="3" t="s">
         <v>10</v>
       </c>
@@ -3688,34 +3704,34 @@
       </c>
     </row>
     <row r="99" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="D99" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="17" t="s">
+      <c r="E99" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F99" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G99" s="19" t="s">
+      <c r="G99" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H99" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="I99" s="19" t="s">
+      <c r="H99" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I99" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="J99" s="17"/>
+      <c r="J99" s="19"/>
       <c r="K99" s="7" t="s">
         <v>21</v>
       </c>
@@ -3739,16 +3755,16 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="33">
-      <c r="A100" s="19"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="17"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="19"/>
       <c r="K100" s="7" t="s">
         <v>27</v>
       </c>
@@ -3771,16 +3787,16 @@
       </c>
     </row>
     <row r="101" spans="1:21">
-      <c r="A101" s="19"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="17"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="19"/>
       <c r="K101" s="7" t="s">
         <v>32</v>
       </c>
@@ -3803,16 +3819,16 @@
       </c>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="19"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="17"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="19"/>
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
       <c r="M102" s="16"/>
@@ -3831,16 +3847,16 @@
       </c>
     </row>
     <row r="103" spans="1:21">
-      <c r="A103" s="19"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="17"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="19"/>
       <c r="K103" s="12"/>
       <c r="L103" s="12"/>
       <c r="M103" s="16"/>
@@ -3859,16 +3875,16 @@
       </c>
     </row>
     <row r="104" spans="1:21">
-      <c r="A104" s="19"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="17"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="19"/>
       <c r="K104" s="12"/>
       <c r="L104" s="12"/>
       <c r="M104" s="16"/>
@@ -3887,16 +3903,16 @@
       </c>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="19"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="17"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="19"/>
       <c r="K105" s="12"/>
       <c r="L105" s="12"/>
       <c r="M105" s="16"/>
@@ -3915,16 +3931,16 @@
       </c>
     </row>
     <row r="106" spans="1:21">
-      <c r="A106" s="19"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="17"/>
+      <c r="A106" s="18"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="19"/>
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
       <c r="M106" s="16"/>
@@ -3943,16 +3959,16 @@
       </c>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="19"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="17"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="19"/>
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
       <c r="M107" s="16"/>
@@ -3971,16 +3987,16 @@
       </c>
     </row>
     <row r="108" spans="1:21">
-      <c r="A108" s="19"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="17"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="19"/>
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
       <c r="M108" s="16"/>
@@ -3999,16 +4015,16 @@
       </c>
     </row>
     <row r="109" spans="1:21">
-      <c r="A109" s="19"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="17"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="19"/>
       <c r="K109" s="12"/>
       <c r="L109" s="12"/>
       <c r="M109" s="16"/>
@@ -4027,16 +4043,16 @@
       </c>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="19"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="17"/>
+      <c r="A110" s="18"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="19"/>
       <c r="K110" s="12"/>
       <c r="L110" s="12"/>
       <c r="M110" s="16"/>
@@ -4055,16 +4071,16 @@
       </c>
     </row>
     <row r="111" spans="1:21" ht="33">
-      <c r="A111" s="19"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="17"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="19"/>
       <c r="K111" s="12"/>
       <c r="L111" s="12"/>
       <c r="M111" s="13" t="s">
@@ -4134,10 +4150,10 @@
       <c r="J114" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K114" s="18" t="s">
+      <c r="K114" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L114" s="18"/>
+      <c r="L114" s="17"/>
       <c r="M114" s="3" t="s">
         <v>10</v>
       </c>
@@ -4167,34 +4183,34 @@
       </c>
     </row>
     <row r="115" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C115" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D115" s="17" t="s">
+      <c r="D115" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E115" s="17" t="s">
+      <c r="E115" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F115" s="17" t="s">
+      <c r="F115" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="G115" s="19" t="s">
+      <c r="G115" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H115" s="19" t="s">
+      <c r="H115" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="I115" s="19" t="s">
+      <c r="I115" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="J115" s="17"/>
+      <c r="J115" s="19"/>
       <c r="K115" s="7" t="s">
         <v>21</v>
       </c>
@@ -4218,16 +4234,16 @@
       </c>
     </row>
     <row r="116" spans="1:21" ht="33">
-      <c r="A116" s="19"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="17"/>
+      <c r="A116" s="18"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="19"/>
       <c r="K116" s="7" t="s">
         <v>27</v>
       </c>
@@ -4250,16 +4266,16 @@
       </c>
     </row>
     <row r="117" spans="1:21">
-      <c r="A117" s="19"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="17"/>
+      <c r="A117" s="18"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="19"/>
       <c r="K117" s="7" t="s">
         <v>32</v>
       </c>
@@ -4282,16 +4298,16 @@
       </c>
     </row>
     <row r="118" spans="1:21">
-      <c r="A118" s="19"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="17"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="19"/>
       <c r="K118" s="12"/>
       <c r="L118" s="12"/>
       <c r="M118" s="16"/>
@@ -4310,16 +4326,16 @@
       </c>
     </row>
     <row r="119" spans="1:21">
-      <c r="A119" s="19"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="17"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="19"/>
       <c r="K119" s="12"/>
       <c r="L119" s="12"/>
       <c r="M119" s="16"/>
@@ -4338,16 +4354,16 @@
       </c>
     </row>
     <row r="120" spans="1:21">
-      <c r="A120" s="19"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="17"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="17"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="19"/>
       <c r="K120" s="12"/>
       <c r="L120" s="12"/>
       <c r="M120" s="16"/>
@@ -4366,16 +4382,16 @@
       </c>
     </row>
     <row r="121" spans="1:21">
-      <c r="A121" s="19"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="17"/>
+      <c r="A121" s="18"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="19"/>
       <c r="K121" s="12"/>
       <c r="L121" s="12"/>
       <c r="M121" s="16"/>
@@ -4394,16 +4410,16 @@
       </c>
     </row>
     <row r="122" spans="1:21">
-      <c r="A122" s="19"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="17"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="19"/>
       <c r="K122" s="12"/>
       <c r="L122" s="12"/>
       <c r="M122" s="16"/>
@@ -4422,16 +4438,16 @@
       </c>
     </row>
     <row r="123" spans="1:21">
-      <c r="A123" s="19"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="17"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="19"/>
       <c r="K123" s="12"/>
       <c r="L123" s="12"/>
       <c r="M123" s="16"/>
@@ -4450,16 +4466,16 @@
       </c>
     </row>
     <row r="124" spans="1:21">
-      <c r="A124" s="19"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="17"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="19"/>
       <c r="K124" s="12"/>
       <c r="L124" s="12"/>
       <c r="M124" s="16"/>
@@ -4478,16 +4494,16 @@
       </c>
     </row>
     <row r="125" spans="1:21">
-      <c r="A125" s="19"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="17"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18"/>
+      <c r="J125" s="19"/>
       <c r="K125" s="12"/>
       <c r="L125" s="12"/>
       <c r="M125" s="16"/>
@@ -4506,16 +4522,16 @@
       </c>
     </row>
     <row r="126" spans="1:21">
-      <c r="A126" s="19"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="17"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+      <c r="J126" s="19"/>
       <c r="K126" s="12"/>
       <c r="L126" s="12"/>
       <c r="M126" s="16"/>
@@ -4534,16 +4550,16 @@
       </c>
     </row>
     <row r="127" spans="1:21" ht="33">
-      <c r="A127" s="19"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="17"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="17"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+      <c r="J127" s="19"/>
       <c r="K127" s="12"/>
       <c r="L127" s="12"/>
       <c r="M127" s="13" t="s">
@@ -4613,10 +4629,10 @@
       <c r="J130" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K130" s="18" t="s">
+      <c r="K130" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L130" s="18"/>
+      <c r="L130" s="17"/>
       <c r="M130" s="3" t="s">
         <v>10</v>
       </c>
@@ -4646,34 +4662,34 @@
       </c>
     </row>
     <row r="131" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A131" s="19" t="s">
+      <c r="A131" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B131" s="17" t="s">
+      <c r="B131" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C131" s="17" t="s">
+      <c r="C131" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D131" s="17" t="s">
+      <c r="D131" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E131" s="17" t="s">
+      <c r="E131" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F131" s="17" t="s">
+      <c r="F131" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="G131" s="19" t="s">
+      <c r="G131" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H131" s="19" t="s">
+      <c r="H131" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="I131" s="19" t="s">
+      <c r="I131" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="J131" s="17"/>
+      <c r="J131" s="19"/>
       <c r="K131" s="7" t="s">
         <v>21</v>
       </c>
@@ -4697,16 +4713,16 @@
       </c>
     </row>
     <row r="132" spans="1:21" ht="33">
-      <c r="A132" s="19"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="17"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="17"/>
+      <c r="A132" s="18"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="18"/>
+      <c r="J132" s="19"/>
       <c r="K132" s="7" t="s">
         <v>27</v>
       </c>
@@ -4729,16 +4745,16 @@
       </c>
     </row>
     <row r="133" spans="1:21">
-      <c r="A133" s="19"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="17"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="17"/>
+      <c r="A133" s="18"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+      <c r="J133" s="19"/>
       <c r="K133" s="7" t="s">
         <v>32</v>
       </c>
@@ -4761,16 +4777,16 @@
       </c>
     </row>
     <row r="134" spans="1:21">
-      <c r="A134" s="19"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="17"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="17"/>
+      <c r="A134" s="18"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="19"/>
       <c r="K134" s="12"/>
       <c r="L134" s="12"/>
       <c r="M134" s="16"/>
@@ -4789,16 +4805,16 @@
       </c>
     </row>
     <row r="135" spans="1:21">
-      <c r="A135" s="19"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="17"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="17"/>
+      <c r="A135" s="18"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="19"/>
       <c r="K135" s="12"/>
       <c r="L135" s="12"/>
       <c r="M135" s="16"/>
@@ -4817,16 +4833,16 @@
       </c>
     </row>
     <row r="136" spans="1:21">
-      <c r="A136" s="19"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="17"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="17"/>
+      <c r="A136" s="18"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="19"/>
       <c r="K136" s="12"/>
       <c r="L136" s="12"/>
       <c r="M136" s="16"/>
@@ -4845,16 +4861,16 @@
       </c>
     </row>
     <row r="137" spans="1:21">
-      <c r="A137" s="19"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="17"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="17"/>
+      <c r="A137" s="18"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="18"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="19"/>
       <c r="K137" s="12"/>
       <c r="L137" s="12"/>
       <c r="M137" s="16"/>
@@ -4873,16 +4889,16 @@
       </c>
     </row>
     <row r="138" spans="1:21">
-      <c r="A138" s="19"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="17"/>
+      <c r="A138" s="18"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="19"/>
       <c r="K138" s="12"/>
       <c r="L138" s="12"/>
       <c r="M138" s="16"/>
@@ -4901,16 +4917,16 @@
       </c>
     </row>
     <row r="139" spans="1:21">
-      <c r="A139" s="19"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
-      <c r="E139" s="17"/>
-      <c r="F139" s="17"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="17"/>
+      <c r="A139" s="18"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+      <c r="J139" s="19"/>
       <c r="K139" s="12"/>
       <c r="L139" s="12"/>
       <c r="M139" s="16"/>
@@ -4929,16 +4945,16 @@
       </c>
     </row>
     <row r="140" spans="1:21">
-      <c r="A140" s="19"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="17"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="17"/>
+      <c r="A140" s="18"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="18"/>
+      <c r="J140" s="19"/>
       <c r="K140" s="12"/>
       <c r="L140" s="12"/>
       <c r="M140" s="16"/>
@@ -4957,16 +4973,16 @@
       </c>
     </row>
     <row r="141" spans="1:21">
-      <c r="A141" s="19"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="17"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="17"/>
+      <c r="A141" s="18"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="19"/>
       <c r="K141" s="12"/>
       <c r="L141" s="12"/>
       <c r="M141" s="16"/>
@@ -4985,16 +5001,16 @@
       </c>
     </row>
     <row r="142" spans="1:21">
-      <c r="A142" s="19"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="17"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="17"/>
+      <c r="A142" s="18"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+      <c r="J142" s="19"/>
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
       <c r="M142" s="16"/>
@@ -5013,16 +5029,16 @@
       </c>
     </row>
     <row r="143" spans="1:21" ht="33">
-      <c r="A143" s="19"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="17"/>
+      <c r="A143" s="18"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="19"/>
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
       <c r="M143" s="13" t="s">
@@ -5092,10 +5108,10 @@
       <c r="J146" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K146" s="18" t="s">
+      <c r="K146" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L146" s="18"/>
+      <c r="L146" s="17"/>
       <c r="M146" s="3" t="s">
         <v>10</v>
       </c>
@@ -5125,34 +5141,34 @@
       </c>
     </row>
     <row r="147" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A147" s="19" t="s">
+      <c r="A147" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D147" s="17" t="s">
+      <c r="D147" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E147" s="17" t="s">
+      <c r="E147" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F147" s="17" t="s">
+      <c r="F147" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="G147" s="19" t="s">
+      <c r="G147" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H147" s="19" t="s">
+      <c r="H147" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="I147" s="19" t="s">
+      <c r="I147" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="J147" s="17"/>
+      <c r="J147" s="19"/>
       <c r="K147" s="7" t="s">
         <v>21</v>
       </c>
@@ -5176,16 +5192,16 @@
       </c>
     </row>
     <row r="148" spans="1:21" ht="33">
-      <c r="A148" s="19"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="17"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="17"/>
+      <c r="A148" s="18"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="19"/>
       <c r="K148" s="7" t="s">
         <v>27</v>
       </c>
@@ -5208,16 +5224,16 @@
       </c>
     </row>
     <row r="149" spans="1:21">
-      <c r="A149" s="19"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="17"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="17"/>
+      <c r="A149" s="18"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="19"/>
       <c r="K149" s="7" t="s">
         <v>32</v>
       </c>
@@ -5240,16 +5256,16 @@
       </c>
     </row>
     <row r="150" spans="1:21">
-      <c r="A150" s="19"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="17"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="17"/>
+      <c r="A150" s="18"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="19"/>
       <c r="K150" s="12"/>
       <c r="L150" s="12"/>
       <c r="M150" s="16"/>
@@ -5268,16 +5284,16 @@
       </c>
     </row>
     <row r="151" spans="1:21">
-      <c r="A151" s="19"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="17"/>
+      <c r="A151" s="18"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="19"/>
       <c r="K151" s="12"/>
       <c r="L151" s="12"/>
       <c r="M151" s="16"/>
@@ -5296,16 +5312,16 @@
       </c>
     </row>
     <row r="152" spans="1:21">
-      <c r="A152" s="19"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="17"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="17"/>
+      <c r="A152" s="18"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="19"/>
       <c r="K152" s="12"/>
       <c r="L152" s="12"/>
       <c r="M152" s="16"/>
@@ -5324,16 +5340,16 @@
       </c>
     </row>
     <row r="153" spans="1:21">
-      <c r="A153" s="19"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="17"/>
-      <c r="F153" s="17"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="17"/>
+      <c r="A153" s="18"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="19"/>
       <c r="K153" s="12"/>
       <c r="L153" s="12"/>
       <c r="M153" s="16"/>
@@ -5352,16 +5368,16 @@
       </c>
     </row>
     <row r="154" spans="1:21">
-      <c r="A154" s="19"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="17"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="17"/>
+      <c r="A154" s="18"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="19"/>
       <c r="K154" s="12"/>
       <c r="L154" s="12"/>
       <c r="M154" s="16"/>
@@ -5380,16 +5396,16 @@
       </c>
     </row>
     <row r="155" spans="1:21">
-      <c r="A155" s="19"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="17"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="17"/>
+      <c r="A155" s="18"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
+      <c r="J155" s="19"/>
       <c r="K155" s="12"/>
       <c r="L155" s="12"/>
       <c r="M155" s="16"/>
@@ -5408,16 +5424,16 @@
       </c>
     </row>
     <row r="156" spans="1:21">
-      <c r="A156" s="19"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="17"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="17"/>
+      <c r="A156" s="18"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="18"/>
+      <c r="J156" s="19"/>
       <c r="K156" s="12"/>
       <c r="L156" s="12"/>
       <c r="M156" s="16"/>
@@ -5436,16 +5452,16 @@
       </c>
     </row>
     <row r="157" spans="1:21">
-      <c r="A157" s="19"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="17"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="17"/>
+      <c r="A157" s="18"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="18"/>
+      <c r="J157" s="19"/>
       <c r="K157" s="12"/>
       <c r="L157" s="12"/>
       <c r="M157" s="16"/>
@@ -5464,16 +5480,16 @@
       </c>
     </row>
     <row r="158" spans="1:21">
-      <c r="A158" s="19"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="17"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="17"/>
+      <c r="A158" s="18"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="19"/>
       <c r="K158" s="12"/>
       <c r="L158" s="12"/>
       <c r="M158" s="16"/>
@@ -5492,16 +5508,16 @@
       </c>
     </row>
     <row r="159" spans="1:21" ht="33">
-      <c r="A159" s="19"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="17"/>
+      <c r="A159" s="18"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="18"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="18"/>
+      <c r="J159" s="19"/>
       <c r="K159" s="12"/>
       <c r="L159" s="12"/>
       <c r="M159" s="13" t="s">
@@ -5530,54 +5546,54 @@
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="M3:M14"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="C3:C15"/>
-    <mergeCell ref="D3:D15"/>
-    <mergeCell ref="E3:E15"/>
-    <mergeCell ref="G3:G15"/>
-    <mergeCell ref="H3:H15"/>
-    <mergeCell ref="I3:I15"/>
-    <mergeCell ref="J3:J15"/>
-    <mergeCell ref="F99:F111"/>
-    <mergeCell ref="J147:J159"/>
-    <mergeCell ref="M147:M158"/>
-    <mergeCell ref="M131:M142"/>
-    <mergeCell ref="M115:M126"/>
-    <mergeCell ref="F83:F95"/>
-    <mergeCell ref="F67:F79"/>
-    <mergeCell ref="F51:F63"/>
-    <mergeCell ref="J83:J95"/>
-    <mergeCell ref="M83:M94"/>
-    <mergeCell ref="G83:G95"/>
-    <mergeCell ref="H83:H95"/>
-    <mergeCell ref="I83:I95"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="A67:A79"/>
-    <mergeCell ref="B67:B79"/>
-    <mergeCell ref="C67:C79"/>
-    <mergeCell ref="D67:D79"/>
-    <mergeCell ref="E67:E79"/>
-    <mergeCell ref="G67:G79"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="A83:A95"/>
-    <mergeCell ref="B83:B95"/>
-    <mergeCell ref="C83:C95"/>
-    <mergeCell ref="D83:D95"/>
-    <mergeCell ref="E83:E95"/>
-    <mergeCell ref="M51:M62"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="H35:H47"/>
-    <mergeCell ref="I35:I47"/>
-    <mergeCell ref="J35:J47"/>
-    <mergeCell ref="M35:M46"/>
-    <mergeCell ref="H67:H79"/>
-    <mergeCell ref="I67:I79"/>
-    <mergeCell ref="J67:J79"/>
-    <mergeCell ref="M67:M78"/>
-    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M19:M30"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="B19:B31"/>
+    <mergeCell ref="C19:C31"/>
+    <mergeCell ref="D19:D31"/>
+    <mergeCell ref="E19:E31"/>
+    <mergeCell ref="G19:G31"/>
+    <mergeCell ref="H19:H31"/>
+    <mergeCell ref="I19:I31"/>
+    <mergeCell ref="A99:A111"/>
+    <mergeCell ref="B99:B111"/>
+    <mergeCell ref="C99:C111"/>
+    <mergeCell ref="D99:D111"/>
+    <mergeCell ref="E99:E111"/>
+    <mergeCell ref="G99:G111"/>
+    <mergeCell ref="H99:H111"/>
+    <mergeCell ref="I99:I111"/>
+    <mergeCell ref="J99:J111"/>
+    <mergeCell ref="A115:A127"/>
+    <mergeCell ref="B115:B127"/>
+    <mergeCell ref="C115:C127"/>
+    <mergeCell ref="D115:D127"/>
+    <mergeCell ref="E115:E127"/>
+    <mergeCell ref="G115:G127"/>
+    <mergeCell ref="H115:H127"/>
+    <mergeCell ref="I115:I127"/>
+    <mergeCell ref="J115:J127"/>
+    <mergeCell ref="F115:F127"/>
+    <mergeCell ref="A131:A143"/>
+    <mergeCell ref="B131:B143"/>
+    <mergeCell ref="C131:C143"/>
+    <mergeCell ref="D131:D143"/>
+    <mergeCell ref="E131:E143"/>
+    <mergeCell ref="G131:G143"/>
+    <mergeCell ref="H131:H143"/>
+    <mergeCell ref="I131:I143"/>
+    <mergeCell ref="J131:J143"/>
+    <mergeCell ref="F131:F143"/>
+    <mergeCell ref="A147:A159"/>
+    <mergeCell ref="B147:B159"/>
+    <mergeCell ref="C147:C159"/>
+    <mergeCell ref="D147:D159"/>
+    <mergeCell ref="E147:E159"/>
+    <mergeCell ref="G147:G159"/>
+    <mergeCell ref="H147:H159"/>
+    <mergeCell ref="I147:I159"/>
+    <mergeCell ref="F147:F159"/>
     <mergeCell ref="J19:J31"/>
     <mergeCell ref="A35:A47"/>
     <mergeCell ref="B35:B47"/>
@@ -5594,62 +5610,62 @@
     <mergeCell ref="C51:C63"/>
     <mergeCell ref="D51:D63"/>
     <mergeCell ref="E51:E63"/>
-    <mergeCell ref="K146:L146"/>
-    <mergeCell ref="A147:A159"/>
-    <mergeCell ref="B147:B159"/>
-    <mergeCell ref="C147:C159"/>
-    <mergeCell ref="D147:D159"/>
-    <mergeCell ref="E147:E159"/>
-    <mergeCell ref="G147:G159"/>
-    <mergeCell ref="H147:H159"/>
-    <mergeCell ref="I147:I159"/>
-    <mergeCell ref="F147:F159"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="A131:A143"/>
-    <mergeCell ref="B131:B143"/>
-    <mergeCell ref="C131:C143"/>
-    <mergeCell ref="D131:D143"/>
-    <mergeCell ref="E131:E143"/>
-    <mergeCell ref="G131:G143"/>
-    <mergeCell ref="H131:H143"/>
-    <mergeCell ref="I131:I143"/>
-    <mergeCell ref="J131:J143"/>
-    <mergeCell ref="F131:F143"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="A115:A127"/>
-    <mergeCell ref="B115:B127"/>
-    <mergeCell ref="C115:C127"/>
-    <mergeCell ref="D115:D127"/>
-    <mergeCell ref="E115:E127"/>
-    <mergeCell ref="G115:G127"/>
-    <mergeCell ref="H115:H127"/>
-    <mergeCell ref="I115:I127"/>
-    <mergeCell ref="J115:J127"/>
-    <mergeCell ref="F115:F127"/>
-    <mergeCell ref="M99:M110"/>
-    <mergeCell ref="F3:F15"/>
     <mergeCell ref="F19:F31"/>
     <mergeCell ref="F35:F47"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="H35:H47"/>
+    <mergeCell ref="I35:I47"/>
+    <mergeCell ref="J35:J47"/>
+    <mergeCell ref="M35:M46"/>
+    <mergeCell ref="H67:H79"/>
+    <mergeCell ref="I67:I79"/>
+    <mergeCell ref="J67:J79"/>
+    <mergeCell ref="M67:M78"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="A67:A79"/>
+    <mergeCell ref="B67:B79"/>
+    <mergeCell ref="C67:C79"/>
+    <mergeCell ref="D67:D79"/>
+    <mergeCell ref="E67:E79"/>
+    <mergeCell ref="G67:G79"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="A83:A95"/>
+    <mergeCell ref="B83:B95"/>
+    <mergeCell ref="C83:C95"/>
+    <mergeCell ref="D83:D95"/>
+    <mergeCell ref="E83:E95"/>
+    <mergeCell ref="F99:F111"/>
+    <mergeCell ref="J147:J159"/>
+    <mergeCell ref="M147:M158"/>
+    <mergeCell ref="M131:M142"/>
+    <mergeCell ref="M115:M126"/>
+    <mergeCell ref="F83:F95"/>
+    <mergeCell ref="F67:F79"/>
+    <mergeCell ref="F51:F63"/>
+    <mergeCell ref="J83:J95"/>
+    <mergeCell ref="M83:M94"/>
+    <mergeCell ref="G83:G95"/>
+    <mergeCell ref="H83:H95"/>
+    <mergeCell ref="I83:I95"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="M51:M62"/>
+    <mergeCell ref="K146:L146"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="M99:M110"/>
     <mergeCell ref="K98:L98"/>
-    <mergeCell ref="A99:A111"/>
-    <mergeCell ref="B99:B111"/>
-    <mergeCell ref="C99:C111"/>
-    <mergeCell ref="D99:D111"/>
-    <mergeCell ref="E99:E111"/>
-    <mergeCell ref="G99:G111"/>
-    <mergeCell ref="H99:H111"/>
-    <mergeCell ref="I99:I111"/>
-    <mergeCell ref="J99:J111"/>
-    <mergeCell ref="M19:M30"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A19:A31"/>
-    <mergeCell ref="B19:B31"/>
-    <mergeCell ref="C19:C31"/>
-    <mergeCell ref="D19:D31"/>
-    <mergeCell ref="E19:E31"/>
-    <mergeCell ref="G19:G31"/>
-    <mergeCell ref="H19:H31"/>
-    <mergeCell ref="I19:I31"/>
+    <mergeCell ref="M3:M14"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="C3:C15"/>
+    <mergeCell ref="D3:D15"/>
+    <mergeCell ref="E3:E15"/>
+    <mergeCell ref="G3:G15"/>
+    <mergeCell ref="H3:H15"/>
+    <mergeCell ref="I3:I15"/>
+    <mergeCell ref="J3:J15"/>
+    <mergeCell ref="F3:F15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/美术需求文档/怪物需求/Ver0.3怪物需求.xlsx
+++ b/gd/美术需求文档/怪物需求/Ver0.3怪物需求.xlsx
@@ -10,12 +10,12 @@
     <sheet name="小怪" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="275">
   <si>
     <t>id</t>
   </si>
@@ -406,10 +406,6 @@
   </si>
   <si>
     <t>通用特效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爪子展开时分别有刀光闪烁（类似拳皇放大招前），点击怪物复用刺击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -427,10 +423,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>旋转带起紫色粒子跟随，中间夹杂亮紫色的飘带状光，地方场地中间一道大裂痕，被劈的怪身上横向紫色刀光+紫色粒子星云爆炸。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>音效说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -501,10 +493,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>示威时伴随气旋冲击效果，挠复用斩效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用于战斗待机及村落待机，2秒循环，动作幅度不能太大</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -559,10 +547,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>展示肌肉时做闪光灯，挠复用斩效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单击，1.5秒，需要先往前跳50cm，跳起扬翅膀，然后用力扇动翅膀顺势转一圈，1.0秒时击中对手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -583,18 +567,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>蓄力时金色粒子漩涡装收到手捧的光球，放出法术时做光环散射状，己方全员身上金色光环散射</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>法攻，特写施法动作3秒（聚气+放出）。媚惑旋转舞姿聚气，收势时翅膀从上到下抖开施法。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>跳舞时顺着手臂的方向有紫色飘带，手挥过的位置留下紫色光球悬浮空中，抖翅膀施法时光球划出屏幕，敌方全体身上紫色光球爆炸特效。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单击，1.5秒，需要先往前跳50cm，举起手中的道具，砸，1.0秒时击中对手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -607,10 +583,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>聚气时有水流状特效从背后流出分别缠绕双手流向手掌，施法时手掌上的水流交汇浮于胸前，在溅射中形成浅蓝色半透明盾牌。己方全员身前均浮现该盾牌。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>xg_huapo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -663,10 +635,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>伴随旋转空翻绿色的藤蔓状特效从空中翻滚显现，汇聚成一根根木刺，扔出后敌方身上显示被木刺扎中的特效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单击，1.5秒，需要先往前跳50cm，晃晃头，用角冲撞攻击状，1.0秒时击中对手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -687,10 +655,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>嘶吼亮相时伴随碎裂的绿色外壳状特效（感觉像是皮肤崩开裂开），冲撞时角带刀光。敌方身上复用物攻特效。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单击，1.5秒，需要先往前跳50cm，玩弄鞭子，攻击时甩鞭子，1.0秒时击中对手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -703,10 +667,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>聚气时顺着鞭子旋转的方向，藤蔓和花朵特效从脚底旋转向上，放出时藤蔓和花朵都化为绿光和闪光向上冲出。被回复的对象身边均出现向上冲起的绿光</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单击，1.5秒，需要先往前跳50cm，笨拙的摇晃身体仰起（单腿傻傻离地）举起巴掌，挥出，1.0秒时击中对手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -731,10 +691,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>相扑式登场时左右脚踏地面分别激起水花，水花化成水龙卷，放出法术时分成小水龙卷爆开，对面敌人身上各自出现小水龙卷爆裂。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单击，1.5秒，需要先往前跳50cm，举起龙珠，砸向对方，1.0秒时击中对手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -747,10 +703,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>捧龙珠时伴随浅蓝色聚拢光效，上浮龙珠时光带做托举旋转上升状，升到头顶后每个角色头顶都浮现光球，放出时光球化成光柱洗礼角色然后消散。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单击，1.5秒，需要先往前跳50cm，挠挠耳朵，伸手，砸。1.0秒时击中对手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -763,10 +715,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>蹦跶时跟随动作发出光环随即消散，鼓掌放出法术时所有被加血对象身上复用直加血-强的加血特效。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>弱点拆分</t>
   </si>
   <si>
@@ -979,10 +927,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>蓄力时蓝色水流从地上身体周围卷起，放出时从身旁及身后卷起大浪，对面敌人身前大浪拍下。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>特写时有“叮”音效，聚气复用聚气音效，浪拍击用水流音效</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1008,6 +952,442 @@
   </si>
   <si>
     <t>单击，需要先往前跳50cm，1.0秒时摔喇叭，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>展示肌肉时做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闪光灯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，挠复用斩效果</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>爪子展开时分别有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刀光闪烁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（类似拳皇放大招前），点击怪物复用刺击</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>示威时伴随气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>旋冲击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果，挠复用斩效果</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>蹦跶时跟随动作发出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随即消散，鼓掌放出法术时所有被加血对象身上复用直加血-强的加血特效。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>捧龙珠时伴随浅蓝色聚拢光效，上浮龙珠时光带做托举旋转上升状，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>升到头顶后每个角色头顶都浮现光球，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放出时光球化成光柱洗礼角色然后消散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>相扑式登场时左右脚踏地面分别激起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，聚气，对面敌人身上各自出现小水龙卷爆裂（复用水龙卷）。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓄力时蓝色水流从地上身体周围卷起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，对面敌人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水箭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>落下（复用水箭）。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聚气时顺着鞭子旋转的方向，藤蔓和花朵特效从脚底旋转向上，放出时藤蔓和花朵都化为绿光和闪光向上冲出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。被回复的对象身边复用强效治疗特效</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓄力时金色粒子漩涡装收到手捧的光球，放出法术时做光环散射状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，己方全员身上复用金色气旋</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转带起紫色粒子跟随，中间夹杂亮紫色的飘带状光，被劈的怪身上横向紫色刀光+紫色粒子星云爆炸。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳舞时周身紫色气旋，抖翅膀施法时气旋扩散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，敌方全体身上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紫色光球爆炸特效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聚气时有水流状特效从背后流出汇聚胸前，施法是水球发光扩散（缓和非爆破，上盾效果）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，己方全员身前均浮现盾牌。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伴随旋转空翻绿色的藤蔓状特效从空中翻滚显现，汇聚成一根根木刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，扔出后敌方命中复用刺击</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嘶吼亮相时伴随碎裂的绿色外壳状特效（感觉像是皮肤崩开裂开），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冲撞时角带刀光。敌方身上复用物攻特效。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultPanshenPre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultXiyirenPre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultLuoxinfuPre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultHapiPre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转粒子：ultKairuisiPre
+刀光+星云：ultKairuisiHit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气旋：ultAnpushaPre
+爆炸：ultAnpushaHit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultAmutePre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultHuapoPre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultMantuoluoPre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultWaguiPre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultHetongPre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚拢上升：ultLonggongtongziPre
+光球洗礼：ultLonggongtongziHit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultMomoPre</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1015,7 +1395,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1046,8 +1426,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1072,6 +1465,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1087,7 +1486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,10 +1561,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,6 +1580,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1705,10 +2110,10 @@
   <dimension ref="A1:V279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I249" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="K249" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N268" sqref="N268"/>
+      <selection pane="bottomRight" activeCell="S265" sqref="S265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1726,7 +2131,7 @@
     <col min="16" max="16" width="11.25" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="6"/>
     <col min="18" max="18" width="28.25" style="6" customWidth="1"/>
-    <col min="19" max="19" width="11.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.75" style="6" customWidth="1"/>
     <col min="20" max="20" width="11.25" style="17" customWidth="1"/>
     <col min="21" max="16384" width="9" style="6"/>
   </cols>
@@ -1766,7 +2171,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K2" s="27"/>
       <c r="L2" s="3" t="s">
@@ -1794,7 +2199,7 @@
         <v>15</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>16</v>
@@ -1804,33 +2209,33 @@
       <c r="A3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="L3" s="28" t="s">
         <v>19</v>
@@ -1839,7 +2244,7 @@
         <v>20</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>22</v>
@@ -1850,16 +2255,16 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="30"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>102</v>
@@ -1869,7 +2274,7 @@
         <v>25</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="6" t="s">
@@ -1882,21 +2287,21 @@
         <v>108</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="30"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>101</v>
@@ -1906,7 +2311,7 @@
         <v>29</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>31</v>
@@ -1918,19 +2323,19 @@
         <v>108</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="30"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="28"/>
@@ -1938,7 +2343,7 @@
         <v>32</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>34</v>
@@ -1949,14 +2354,14 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="30"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="28"/>
@@ -1964,7 +2369,7 @@
         <v>35</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>37</v>
@@ -1975,14 +2380,14 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="30"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="28"/>
@@ -1990,7 +2395,7 @@
         <v>38</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>40</v>
@@ -2001,14 +2406,14 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="30"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="25"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="28"/>
@@ -2016,7 +2421,7 @@
         <v>41</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>43</v>
@@ -2027,14 +2432,14 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="30"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="28"/>
@@ -2042,7 +2447,7 @@
         <v>44</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>46</v>
@@ -2053,14 +2458,14 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="30"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="28"/>
@@ -2068,7 +2473,7 @@
         <v>47</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>49</v>
@@ -2079,14 +2484,14 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="30"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="28"/>
@@ -2094,7 +2499,7 @@
         <v>50</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>51</v>
@@ -2105,14 +2510,14 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="30"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="28"/>
@@ -2120,7 +2525,7 @@
         <v>24</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>53</v>
@@ -2131,14 +2536,14 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="30"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="28"/>
@@ -2146,7 +2551,7 @@
         <v>54</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="6" t="s">
@@ -2158,14 +2563,14 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="30"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="13" t="s">
@@ -2175,7 +2580,7 @@
         <v>57</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="6" t="s">
@@ -2219,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K18" s="27"/>
       <c r="L18" s="3" t="s">
@@ -2255,30 +2660,30 @@
       <c r="A19" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="26"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>103</v>
@@ -2290,7 +2695,7 @@
         <v>20</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>22</v>
@@ -2301,16 +2706,16 @@
     </row>
     <row r="20" spans="1:21" ht="33">
       <c r="A20" s="30"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>102</v>
@@ -2320,7 +2725,7 @@
         <v>25</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="6" t="s">
@@ -2333,21 +2738,21 @@
         <v>108</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="30"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>101</v>
@@ -2357,7 +2762,7 @@
         <v>29</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>31</v>
@@ -2369,19 +2774,19 @@
         <v>108</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="30"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="28"/>
@@ -2389,7 +2794,7 @@
         <v>32</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>34</v>
@@ -2400,14 +2805,14 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="30"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="25"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="28"/>
@@ -2426,14 +2831,14 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="30"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="25"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="28"/>
@@ -2441,7 +2846,7 @@
         <v>38</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>40</v>
@@ -2452,14 +2857,14 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="30"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="25"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="28"/>
@@ -2467,7 +2872,7 @@
         <v>41</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>43</v>
@@ -2478,14 +2883,14 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="30"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="28"/>
@@ -2504,14 +2909,14 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="30"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="25"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="28"/>
@@ -2519,7 +2924,7 @@
         <v>47</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>49</v>
@@ -2530,14 +2935,14 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="30"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="25"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="28"/>
@@ -2556,14 +2961,14 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="30"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="28"/>
@@ -2571,7 +2976,7 @@
         <v>24</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>53</v>
@@ -2582,14 +2987,14 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="30"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="25"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
       <c r="L30" s="28"/>
@@ -2597,7 +3002,7 @@
         <v>54</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O30" s="10"/>
       <c r="P30" s="6" t="s">
@@ -2609,14 +3014,14 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="30"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="25"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="13" t="s">
@@ -2626,7 +3031,7 @@
         <v>57</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O31" s="10"/>
       <c r="P31" s="6" t="s">
@@ -2670,7 +3075,7 @@
         <v>7</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K34" s="27"/>
       <c r="L34" s="3" t="s">
@@ -2698,40 +3103,40 @@
         <v>15</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="I35" s="26"/>
+      <c r="H35" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35" s="25"/>
       <c r="J35" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>103</v>
@@ -2743,7 +3148,7 @@
         <v>20</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>22</v>
@@ -2753,17 +3158,17 @@
       </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="26"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="25"/>
       <c r="J36" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>102</v>
@@ -2773,7 +3178,7 @@
         <v>25</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O36" s="10"/>
       <c r="P36" s="6" t="s">
@@ -2786,21 +3191,21 @@
         <v>108</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="26"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K37" s="11" t="s">
         <v>101</v>
@@ -2810,7 +3215,7 @@
         <v>29</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>31</v>
@@ -2822,19 +3227,19 @@
         <v>108</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="26"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="25"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="28"/>
@@ -2842,7 +3247,7 @@
         <v>32</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>34</v>
@@ -2852,15 +3257,15 @@
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="26"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="25"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="28"/>
@@ -2878,15 +3283,15 @@
       </c>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="25"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="28"/>
@@ -2894,7 +3299,7 @@
         <v>38</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>40</v>
@@ -2904,15 +3309,15 @@
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="26"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="25"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="28"/>
@@ -2920,7 +3325,7 @@
         <v>41</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P41" s="6" t="s">
         <v>43</v>
@@ -2930,15 +3335,15 @@
       </c>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="26"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="25"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="28"/>
@@ -2946,7 +3351,7 @@
         <v>44</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P42" s="6" t="s">
         <v>46</v>
@@ -2956,15 +3361,15 @@
       </c>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="26"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="25"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="28"/>
@@ -2982,15 +3387,15 @@
       </c>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="26"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="25"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="28"/>
@@ -2998,7 +3403,7 @@
         <v>50</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P44" s="6" t="s">
         <v>51</v>
@@ -3008,15 +3413,15 @@
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="26"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="25"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="28"/>
@@ -3024,7 +3429,7 @@
         <v>24</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P45" s="6" t="s">
         <v>53</v>
@@ -3034,15 +3439,15 @@
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="26"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="25"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="28"/>
@@ -3050,7 +3455,7 @@
         <v>54</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O46" s="10"/>
       <c r="P46" s="6" t="s">
@@ -3061,15 +3466,15 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="66">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="26"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="25"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="13" t="s">
@@ -3079,7 +3484,7 @@
         <v>57</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="O47" s="10"/>
       <c r="P47" s="6" t="s">
@@ -3088,14 +3493,14 @@
       <c r="Q47" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R47" s="18" t="s">
-        <v>145</v>
+      <c r="R47" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="S47" s="17" t="s">
+        <v>262</v>
       </c>
       <c r="T47" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="U47" s="6" t="s">
-        <v>59</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:21" s="1" customFormat="1"/>
@@ -3128,7 +3533,7 @@
         <v>7</v>
       </c>
       <c r="J50" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K50" s="27"/>
       <c r="L50" s="3" t="s">
@@ -3161,33 +3566,33 @@
       </c>
     </row>
     <row r="51" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="I51" s="26"/>
+      <c r="H51" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="I51" s="25"/>
       <c r="J51" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>103</v>
@@ -3199,7 +3604,7 @@
         <v>20</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O51" s="6" t="s">
         <v>21</v>
@@ -3212,17 +3617,17 @@
       </c>
     </row>
     <row r="52" spans="1:21" ht="33">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="26"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="25"/>
       <c r="J52" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>102</v>
@@ -3232,7 +3637,7 @@
         <v>25</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O52" s="10" t="s">
         <v>26</v>
@@ -3247,21 +3652,21 @@
         <v>108</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="26"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="25"/>
       <c r="J53" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K53" s="11" t="s">
         <v>101</v>
@@ -3271,7 +3676,7 @@
         <v>29</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>30</v>
@@ -3286,19 +3691,19 @@
         <v>108</v>
       </c>
       <c r="T53" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="26"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="25"/>
       <c r="J54" s="12"/>
       <c r="K54" s="12"/>
       <c r="L54" s="28"/>
@@ -3306,7 +3711,7 @@
         <v>32</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O54" s="6" t="s">
         <v>33</v>
@@ -3319,15 +3724,15 @@
       </c>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="26"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="25"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="28"/>
@@ -3348,15 +3753,15 @@
       </c>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="26"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="25"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
       <c r="L56" s="28"/>
@@ -3364,7 +3769,7 @@
         <v>38</v>
       </c>
       <c r="N56" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>39</v>
@@ -3377,15 +3782,15 @@
       </c>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="26"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="25"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
       <c r="L57" s="28"/>
@@ -3393,7 +3798,7 @@
         <v>41</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O57" s="6" t="s">
         <v>42</v>
@@ -3406,15 +3811,15 @@
       </c>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="26"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="25"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
       <c r="L58" s="28"/>
@@ -3435,15 +3840,15 @@
       </c>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="26"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="25"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
       <c r="L59" s="28"/>
@@ -3451,7 +3856,7 @@
         <v>47</v>
       </c>
       <c r="N59" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O59" s="6" t="s">
         <v>48</v>
@@ -3464,15 +3869,15 @@
       </c>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="26"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="25"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="28"/>
@@ -3493,15 +3898,15 @@
       </c>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="26"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="25"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="28"/>
@@ -3509,7 +3914,7 @@
         <v>24</v>
       </c>
       <c r="N61" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O61" s="6" t="s">
         <v>52</v>
@@ -3522,15 +3927,15 @@
       </c>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="26"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="25"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" s="28"/>
@@ -3538,7 +3943,7 @@
         <v>54</v>
       </c>
       <c r="N62" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O62" s="10" t="s">
         <v>55</v>
@@ -3551,15 +3956,15 @@
       </c>
     </row>
     <row r="63" spans="1:21" ht="66">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="26"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="25"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="13" t="s">
@@ -3569,7 +3974,7 @@
         <v>57</v>
       </c>
       <c r="N63" s="17" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="O63" s="10" t="s">
         <v>58</v>
@@ -3580,11 +3985,14 @@
       <c r="Q63" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R63" s="18" t="s">
-        <v>131</v>
+      <c r="R63" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="S63" s="17" t="s">
+        <v>263</v>
       </c>
       <c r="T63" s="18" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:21" s="16" customFormat="1"/>
@@ -3617,7 +4025,7 @@
         <v>7</v>
       </c>
       <c r="J66" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K66" s="27"/>
       <c r="L66" s="3" t="s">
@@ -3650,33 +4058,33 @@
       </c>
     </row>
     <row r="67" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="25" t="s">
         <v>17</v>
       </c>
       <c r="E67" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="F67" s="26" t="s">
+      <c r="F67" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G67" s="25" t="s">
+      <c r="G67" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H67" s="25" t="s">
+      <c r="H67" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="I67" s="26"/>
+      <c r="I67" s="25"/>
       <c r="J67" s="7" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>103</v>
@@ -3701,17 +4109,17 @@
       </c>
     </row>
     <row r="68" spans="1:21" ht="33">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="31"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="26"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="25"/>
       <c r="J68" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>102</v>
@@ -3721,7 +4129,7 @@
         <v>25</v>
       </c>
       <c r="N68" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O68" s="10" t="s">
         <v>26</v>
@@ -3736,21 +4144,21 @@
         <v>108</v>
       </c>
       <c r="T68" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
       <c r="E69" s="31"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="26"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="25"/>
       <c r="J69" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K69" s="11" t="s">
         <v>101</v>
@@ -3760,7 +4168,7 @@
         <v>29</v>
       </c>
       <c r="N69" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>30</v>
@@ -3775,24 +4183,24 @@
         <v>108</v>
       </c>
       <c r="T69" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="49.5">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="31"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="26"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="25"/>
       <c r="J70" s="24" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="K70" s="22" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="L70" s="28"/>
       <c r="M70" s="3" t="s">
@@ -3812,20 +4220,20 @@
       </c>
     </row>
     <row r="71" spans="1:21" ht="49.5">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
       <c r="E71" s="31"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="26"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="25"/>
       <c r="J71" s="24" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="L71" s="28"/>
       <c r="M71" s="3" t="s">
@@ -3845,20 +4253,20 @@
       </c>
     </row>
     <row r="72" spans="1:21" ht="49.5">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="31"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="26"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="25"/>
       <c r="J72" s="24" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="L72" s="28"/>
       <c r="M72" s="3" t="s">
@@ -3878,20 +4286,20 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="49.5">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
       <c r="E73" s="31"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="26"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="25"/>
       <c r="J73" s="24" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L73" s="28"/>
       <c r="M73" s="3" t="s">
@@ -3911,20 +4319,20 @@
       </c>
     </row>
     <row r="74" spans="1:21" ht="49.5">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="31"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="26"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="25"/>
       <c r="J74" s="24" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="L74" s="28"/>
       <c r="M74" s="3" t="s">
@@ -3944,20 +4352,20 @@
       </c>
     </row>
     <row r="75" spans="1:21" ht="49.5">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
       <c r="E75" s="31"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="26"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="25"/>
       <c r="J75" s="24" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L75" s="28"/>
       <c r="M75" s="3" t="s">
@@ -3977,20 +4385,20 @@
       </c>
     </row>
     <row r="76" spans="1:21" ht="49.5">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
       <c r="E76" s="31"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="26"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="25"/>
       <c r="J76" s="24" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="L76" s="28"/>
       <c r="M76" s="3" t="s">
@@ -4010,15 +4418,15 @@
       </c>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="31"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="26"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="25"/>
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="28"/>
@@ -4039,15 +4447,15 @@
       </c>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="31"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="26"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="25"/>
       <c r="J78" s="12"/>
       <c r="K78" s="12"/>
       <c r="L78" s="28"/>
@@ -4068,15 +4476,15 @@
       </c>
     </row>
     <row r="79" spans="1:21" ht="66">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
       <c r="E79" s="31"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="26"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="25"/>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
       <c r="L79" s="13" t="s">
@@ -4086,7 +4494,7 @@
         <v>57</v>
       </c>
       <c r="N79" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O79" s="10" t="s">
         <v>58</v>
@@ -4097,11 +4505,14 @@
       <c r="Q79" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R79" s="18" t="s">
-        <v>109</v>
+      <c r="R79" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="S79" s="17" t="s">
+        <v>264</v>
       </c>
       <c r="T79" s="18" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:21" s="1" customFormat="1"/>
@@ -4134,7 +4545,7 @@
         <v>7</v>
       </c>
       <c r="J82" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K82" s="27"/>
       <c r="L82" s="3" t="s">
@@ -4170,30 +4581,30 @@
       <c r="A83" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="26" t="s">
+      <c r="E83" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F83" s="26" t="s">
+      <c r="F83" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G83" s="25" t="s">
+      <c r="G83" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H83" s="25" t="s">
+      <c r="H83" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="I83" s="26"/>
+      <c r="I83" s="25"/>
       <c r="J83" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>103</v>
@@ -4205,7 +4616,7 @@
         <v>20</v>
       </c>
       <c r="N83" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O83" s="6" t="s">
         <v>21</v>
@@ -4219,16 +4630,16 @@
     </row>
     <row r="84" spans="1:21" ht="33">
       <c r="A84" s="30"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="26"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="25"/>
       <c r="J84" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K84" s="8" t="s">
         <v>102</v>
@@ -4238,7 +4649,7 @@
         <v>25</v>
       </c>
       <c r="N84" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O84" s="10" t="s">
         <v>26</v>
@@ -4253,21 +4664,21 @@
         <v>108</v>
       </c>
       <c r="T84" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="30"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="26"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="25"/>
       <c r="J85" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K85" s="11" t="s">
         <v>101</v>
@@ -4277,7 +4688,7 @@
         <v>29</v>
       </c>
       <c r="N85" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O85" s="6" t="s">
         <v>30</v>
@@ -4292,19 +4703,19 @@
         <v>108</v>
       </c>
       <c r="T85" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:21">
       <c r="A86" s="30"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="26"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="25"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="28"/>
@@ -4312,7 +4723,7 @@
         <v>32</v>
       </c>
       <c r="N86" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O86" s="6" t="s">
         <v>33</v>
@@ -4326,14 +4737,14 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="30"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="26"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="25"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
       <c r="L87" s="28"/>
@@ -4355,14 +4766,14 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="30"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="26"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="25"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
       <c r="L88" s="28"/>
@@ -4370,7 +4781,7 @@
         <v>38</v>
       </c>
       <c r="N88" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O88" s="6" t="s">
         <v>39</v>
@@ -4384,14 +4795,14 @@
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="30"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="26"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="25"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
       <c r="L89" s="28"/>
@@ -4399,7 +4810,7 @@
         <v>41</v>
       </c>
       <c r="N89" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O89" s="6" t="s">
         <v>42</v>
@@ -4413,14 +4824,14 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" s="30"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="26"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="25"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
       <c r="L90" s="28"/>
@@ -4442,14 +4853,14 @@
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="30"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="26"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="25"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
       <c r="L91" s="28"/>
@@ -4457,7 +4868,7 @@
         <v>47</v>
       </c>
       <c r="N91" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O91" s="6" t="s">
         <v>48</v>
@@ -4471,14 +4882,14 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="30"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="26"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="25"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
       <c r="L92" s="28"/>
@@ -4500,14 +4911,14 @@
     </row>
     <row r="93" spans="1:21">
       <c r="A93" s="30"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="26"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="25"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
       <c r="L93" s="28"/>
@@ -4515,7 +4926,7 @@
         <v>24</v>
       </c>
       <c r="N93" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O93" s="6" t="s">
         <v>52</v>
@@ -4529,14 +4940,14 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="30"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="26"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="25"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
       <c r="L94" s="28"/>
@@ -4544,7 +4955,7 @@
         <v>54</v>
       </c>
       <c r="N94" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O94" s="10" t="s">
         <v>55</v>
@@ -4558,14 +4969,14 @@
     </row>
     <row r="95" spans="1:21" ht="33">
       <c r="A95" s="30"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="26"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="25"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
       <c r="L95" s="13" t="s">
@@ -4575,7 +4986,7 @@
         <v>57</v>
       </c>
       <c r="N95" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O95" s="10" t="s">
         <v>58</v>
@@ -4634,7 +5045,7 @@
         <v>7</v>
       </c>
       <c r="J98" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K98" s="27"/>
       <c r="L98" s="3" t="s">
@@ -4667,33 +5078,33 @@
       </c>
     </row>
     <row r="99" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B99" s="26" t="s">
+      <c r="B99" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="C99" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="D99" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="26" t="s">
+      <c r="E99" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F99" s="26" t="s">
+      <c r="F99" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="G99" s="25" t="s">
+      <c r="G99" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H99" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="I99" s="26"/>
+      <c r="H99" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I99" s="25"/>
       <c r="J99" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K99" s="8" t="s">
         <v>103</v>
@@ -4705,7 +5116,7 @@
         <v>20</v>
       </c>
       <c r="N99" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O99" s="6" t="s">
         <v>21</v>
@@ -4718,17 +5129,17 @@
       </c>
     </row>
     <row r="100" spans="1:21" ht="33">
-      <c r="A100" s="25"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="26"/>
+      <c r="A100" s="26"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="25"/>
       <c r="J100" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K100" s="8" t="s">
         <v>102</v>
@@ -4738,7 +5149,7 @@
         <v>25</v>
       </c>
       <c r="N100" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O100" s="10" t="s">
         <v>26</v>
@@ -4753,21 +5164,21 @@
         <v>108</v>
       </c>
       <c r="T100" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101" spans="1:21">
-      <c r="A101" s="25"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="25"/>
-      <c r="I101" s="26"/>
+      <c r="A101" s="26"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="25"/>
       <c r="J101" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K101" s="11" t="s">
         <v>101</v>
@@ -4777,7 +5188,7 @@
         <v>29</v>
       </c>
       <c r="N101" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O101" s="6" t="s">
         <v>30</v>
@@ -4792,19 +5203,19 @@
         <v>108</v>
       </c>
       <c r="T101" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102" spans="1:21">
-      <c r="A102" s="25"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="26"/>
+      <c r="A102" s="26"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="25"/>
       <c r="J102" s="12"/>
       <c r="K102" s="12"/>
       <c r="L102" s="28"/>
@@ -4812,7 +5223,7 @@
         <v>32</v>
       </c>
       <c r="N102" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O102" s="6" t="s">
         <v>33</v>
@@ -4825,15 +5236,15 @@
       </c>
     </row>
     <row r="103" spans="1:21">
-      <c r="A103" s="25"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="26"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="25"/>
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
       <c r="L103" s="28"/>
@@ -4854,15 +5265,15 @@
       </c>
     </row>
     <row r="104" spans="1:21">
-      <c r="A104" s="25"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="26"/>
+      <c r="A104" s="26"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="25"/>
       <c r="J104" s="12"/>
       <c r="K104" s="12"/>
       <c r="L104" s="28"/>
@@ -4870,7 +5281,7 @@
         <v>38</v>
       </c>
       <c r="N104" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O104" s="6" t="s">
         <v>39</v>
@@ -4883,15 +5294,15 @@
       </c>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="25"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="26"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="25"/>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
       <c r="L105" s="28"/>
@@ -4899,7 +5310,7 @@
         <v>41</v>
       </c>
       <c r="N105" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O105" s="6" t="s">
         <v>42</v>
@@ -4912,15 +5323,15 @@
       </c>
     </row>
     <row r="106" spans="1:21">
-      <c r="A106" s="25"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
-      <c r="I106" s="26"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="25"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
       <c r="L106" s="28"/>
@@ -4941,15 +5352,15 @@
       </c>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="25"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="25"/>
-      <c r="I107" s="26"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="25"/>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
       <c r="L107" s="28"/>
@@ -4957,7 +5368,7 @@
         <v>47</v>
       </c>
       <c r="N107" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O107" s="6" t="s">
         <v>48</v>
@@ -4970,15 +5381,15 @@
       </c>
     </row>
     <row r="108" spans="1:21">
-      <c r="A108" s="25"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="25"/>
-      <c r="H108" s="25"/>
-      <c r="I108" s="26"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="25"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
       <c r="L108" s="28"/>
@@ -4999,15 +5410,15 @@
       </c>
     </row>
     <row r="109" spans="1:21">
-      <c r="A109" s="25"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
-      <c r="I109" s="26"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="25"/>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
       <c r="L109" s="28"/>
@@ -5015,7 +5426,7 @@
         <v>24</v>
       </c>
       <c r="N109" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O109" s="6" t="s">
         <v>52</v>
@@ -5028,15 +5439,15 @@
       </c>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="25"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25"/>
-      <c r="I110" s="26"/>
+      <c r="A110" s="26"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="25"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
       <c r="L110" s="28"/>
@@ -5044,7 +5455,7 @@
         <v>54</v>
       </c>
       <c r="N110" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O110" s="10" t="s">
         <v>55</v>
@@ -5057,15 +5468,15 @@
       </c>
     </row>
     <row r="111" spans="1:21" ht="66">
-      <c r="A111" s="25"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="25"/>
-      <c r="I111" s="26"/>
+      <c r="A111" s="26"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="25"/>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
       <c r="L111" s="13" t="s">
@@ -5075,7 +5486,7 @@
         <v>57</v>
       </c>
       <c r="N111" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O111" s="10" t="s">
         <v>58</v>
@@ -5086,11 +5497,14 @@
       <c r="Q111" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R111" s="10" t="s">
-        <v>151</v>
+      <c r="R111" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="S111" s="17" t="s">
+        <v>265</v>
       </c>
       <c r="T111" s="18" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -5139,7 +5553,7 @@
         <v>7</v>
       </c>
       <c r="J114" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K114" s="27"/>
       <c r="L114" s="3" t="s">
@@ -5172,33 +5586,33 @@
       </c>
     </row>
     <row r="115" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A115" s="25" t="s">
+      <c r="A115" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B115" s="26" t="s">
+      <c r="B115" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C115" s="26" t="s">
+      <c r="C115" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D115" s="26" t="s">
+      <c r="D115" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E115" s="26" t="s">
+      <c r="E115" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F115" s="26" t="s">
+      <c r="F115" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G115" s="25" t="s">
+      <c r="G115" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H115" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="I115" s="26"/>
+      <c r="H115" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="I115" s="25"/>
       <c r="J115" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K115" s="8" t="s">
         <v>103</v>
@@ -5223,17 +5637,17 @@
       </c>
     </row>
     <row r="116" spans="1:21" ht="33">
-      <c r="A116" s="25"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="26"/>
+      <c r="A116" s="26"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="25"/>
       <c r="J116" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K116" s="8" t="s">
         <v>102</v>
@@ -5258,21 +5672,21 @@
         <v>108</v>
       </c>
       <c r="T116" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:21">
-      <c r="A117" s="25"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="25"/>
-      <c r="I117" s="26"/>
+      <c r="A117" s="26"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="25"/>
       <c r="J117" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K117" s="11" t="s">
         <v>101</v>
@@ -5297,19 +5711,19 @@
         <v>108</v>
       </c>
       <c r="T117" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="1:21">
-      <c r="A118" s="25"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="26"/>
+      <c r="A118" s="26"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="25"/>
       <c r="J118" s="15"/>
       <c r="K118" s="12"/>
       <c r="L118" s="28"/>
@@ -5330,15 +5744,15 @@
       </c>
     </row>
     <row r="119" spans="1:21">
-      <c r="A119" s="25"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="26"/>
-      <c r="E119" s="26"/>
-      <c r="F119" s="26"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="25"/>
-      <c r="I119" s="26"/>
+      <c r="A119" s="26"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="25"/>
       <c r="J119" s="15"/>
       <c r="K119" s="12"/>
       <c r="L119" s="28"/>
@@ -5359,15 +5773,15 @@
       </c>
     </row>
     <row r="120" spans="1:21">
-      <c r="A120" s="25"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="25"/>
-      <c r="H120" s="25"/>
-      <c r="I120" s="26"/>
+      <c r="A120" s="26"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="26"/>
+      <c r="I120" s="25"/>
       <c r="J120" s="15"/>
       <c r="K120" s="12"/>
       <c r="L120" s="28"/>
@@ -5388,15 +5802,15 @@
       </c>
     </row>
     <row r="121" spans="1:21">
-      <c r="A121" s="25"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="26"/>
-      <c r="G121" s="25"/>
-      <c r="H121" s="25"/>
-      <c r="I121" s="26"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="25"/>
       <c r="J121" s="12"/>
       <c r="K121" s="12"/>
       <c r="L121" s="28"/>
@@ -5417,15 +5831,15 @@
       </c>
     </row>
     <row r="122" spans="1:21">
-      <c r="A122" s="25"/>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="25"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="26"/>
+      <c r="A122" s="26"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="26"/>
+      <c r="H122" s="26"/>
+      <c r="I122" s="25"/>
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
       <c r="L122" s="28"/>
@@ -5446,15 +5860,15 @@
       </c>
     </row>
     <row r="123" spans="1:21">
-      <c r="A123" s="25"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="26"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="25"/>
       <c r="J123" s="12"/>
       <c r="K123" s="12"/>
       <c r="L123" s="28"/>
@@ -5475,15 +5889,15 @@
       </c>
     </row>
     <row r="124" spans="1:21">
-      <c r="A124" s="25"/>
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="25"/>
-      <c r="H124" s="25"/>
-      <c r="I124" s="26"/>
+      <c r="A124" s="26"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="26"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="25"/>
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
       <c r="L124" s="28"/>
@@ -5504,15 +5918,15 @@
       </c>
     </row>
     <row r="125" spans="1:21">
-      <c r="A125" s="25"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="26"/>
-      <c r="E125" s="26"/>
-      <c r="F125" s="26"/>
-      <c r="G125" s="25"/>
-      <c r="H125" s="25"/>
-      <c r="I125" s="26"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="25"/>
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
       <c r="L125" s="28"/>
@@ -5533,15 +5947,15 @@
       </c>
     </row>
     <row r="126" spans="1:21">
-      <c r="A126" s="25"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="26"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="26"/>
-      <c r="G126" s="25"/>
-      <c r="H126" s="25"/>
-      <c r="I126" s="26"/>
+      <c r="A126" s="26"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="25"/>
       <c r="J126" s="12"/>
       <c r="K126" s="12"/>
       <c r="L126" s="28"/>
@@ -5561,16 +5975,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="82.5">
-      <c r="A127" s="25"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="26"/>
-      <c r="G127" s="25"/>
-      <c r="H127" s="25"/>
-      <c r="I127" s="26"/>
+    <row r="127" spans="1:21" ht="66">
+      <c r="A127" s="26"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="25"/>
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
       <c r="L127" s="13" t="s">
@@ -5580,7 +5994,7 @@
         <v>57</v>
       </c>
       <c r="N127" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O127" s="10" t="s">
         <v>58</v>
@@ -5591,11 +6005,14 @@
       <c r="Q127" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R127" s="18" t="s">
-        <v>113</v>
+      <c r="R127" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="S127" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="T127" s="18" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -5644,7 +6061,7 @@
         <v>7</v>
       </c>
       <c r="J130" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K130" s="27"/>
       <c r="L130" s="3" t="s">
@@ -5677,33 +6094,33 @@
       </c>
     </row>
     <row r="131" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A131" s="25" t="s">
+      <c r="A131" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B131" s="26" t="s">
+      <c r="B131" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="C131" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D131" s="26" t="s">
+      <c r="D131" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E131" s="26" t="s">
+      <c r="E131" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F131" s="26" t="s">
+      <c r="F131" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G131" s="25" t="s">
+      <c r="G131" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H131" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="I131" s="26"/>
+      <c r="H131" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="I131" s="25"/>
       <c r="J131" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K131" s="8" t="s">
         <v>103</v>
@@ -5715,7 +6132,7 @@
         <v>20</v>
       </c>
       <c r="N131" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O131" s="6" t="s">
         <v>21</v>
@@ -5728,17 +6145,17 @@
       </c>
     </row>
     <row r="132" spans="1:21" ht="33">
-      <c r="A132" s="25"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="25"/>
-      <c r="H132" s="25"/>
-      <c r="I132" s="26"/>
+      <c r="A132" s="26"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="25"/>
       <c r="J132" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K132" s="8" t="s">
         <v>102</v>
@@ -5748,7 +6165,7 @@
         <v>25</v>
       </c>
       <c r="N132" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O132" s="10" t="s">
         <v>26</v>
@@ -5763,21 +6180,21 @@
         <v>108</v>
       </c>
       <c r="T132" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:21">
-      <c r="A133" s="25"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="25"/>
-      <c r="H133" s="25"/>
-      <c r="I133" s="26"/>
+      <c r="A133" s="26"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="26"/>
+      <c r="I133" s="25"/>
       <c r="J133" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K133" s="11" t="s">
         <v>101</v>
@@ -5787,7 +6204,7 @@
         <v>29</v>
       </c>
       <c r="N133" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O133" s="6" t="s">
         <v>30</v>
@@ -5802,31 +6219,31 @@
         <v>108</v>
       </c>
       <c r="T133" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="49.5">
-      <c r="A134" s="25"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="25"/>
-      <c r="H134" s="25"/>
-      <c r="I134" s="26"/>
+      <c r="A134" s="26"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="25"/>
       <c r="J134" s="24" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="K134" s="22" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="L134" s="28"/>
       <c r="M134" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N134" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O134" s="6" t="s">
         <v>33</v>
@@ -5839,20 +6256,20 @@
       </c>
     </row>
     <row r="135" spans="1:21" ht="49.5">
-      <c r="A135" s="25"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="25"/>
-      <c r="H135" s="25"/>
-      <c r="I135" s="26"/>
+      <c r="A135" s="26"/>
+      <c r="B135" s="25"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="26"/>
+      <c r="H135" s="26"/>
+      <c r="I135" s="25"/>
       <c r="J135" s="24" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="K135" s="22" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="L135" s="28"/>
       <c r="M135" s="3" t="s">
@@ -5872,15 +6289,15 @@
       </c>
     </row>
     <row r="136" spans="1:21">
-      <c r="A136" s="25"/>
-      <c r="B136" s="26"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="26"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="25"/>
-      <c r="H136" s="25"/>
-      <c r="I136" s="26"/>
+      <c r="A136" s="26"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="26"/>
+      <c r="H136" s="26"/>
+      <c r="I136" s="25"/>
       <c r="J136" s="24"/>
       <c r="K136" s="22"/>
       <c r="L136" s="28"/>
@@ -5888,7 +6305,7 @@
         <v>38</v>
       </c>
       <c r="N136" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O136" s="6" t="s">
         <v>39</v>
@@ -5901,15 +6318,15 @@
       </c>
     </row>
     <row r="137" spans="1:21">
-      <c r="A137" s="25"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="25"/>
-      <c r="H137" s="25"/>
-      <c r="I137" s="26"/>
+      <c r="A137" s="26"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="26"/>
+      <c r="I137" s="25"/>
       <c r="J137" s="12"/>
       <c r="K137" s="12"/>
       <c r="L137" s="28"/>
@@ -5917,7 +6334,7 @@
         <v>41</v>
       </c>
       <c r="N137" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O137" s="6" t="s">
         <v>42</v>
@@ -5930,15 +6347,15 @@
       </c>
     </row>
     <row r="138" spans="1:21">
-      <c r="A138" s="25"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="25"/>
-      <c r="H138" s="25"/>
-      <c r="I138" s="26"/>
+      <c r="A138" s="26"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="26"/>
+      <c r="I138" s="25"/>
       <c r="J138" s="12"/>
       <c r="K138" s="12"/>
       <c r="L138" s="28"/>
@@ -5959,15 +6376,15 @@
       </c>
     </row>
     <row r="139" spans="1:21">
-      <c r="A139" s="25"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="26"/>
-      <c r="F139" s="26"/>
-      <c r="G139" s="25"/>
-      <c r="H139" s="25"/>
-      <c r="I139" s="26"/>
+      <c r="A139" s="26"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="26"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="25"/>
       <c r="J139" s="12"/>
       <c r="K139" s="12"/>
       <c r="L139" s="28"/>
@@ -5975,7 +6392,7 @@
         <v>47</v>
       </c>
       <c r="N139" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O139" s="6" t="s">
         <v>48</v>
@@ -5988,15 +6405,15 @@
       </c>
     </row>
     <row r="140" spans="1:21">
-      <c r="A140" s="25"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="25"/>
-      <c r="H140" s="25"/>
-      <c r="I140" s="26"/>
+      <c r="A140" s="26"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="25"/>
       <c r="J140" s="12"/>
       <c r="K140" s="12"/>
       <c r="L140" s="28"/>
@@ -6017,15 +6434,15 @@
       </c>
     </row>
     <row r="141" spans="1:21">
-      <c r="A141" s="25"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="25"/>
-      <c r="H141" s="25"/>
-      <c r="I141" s="26"/>
+      <c r="A141" s="26"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="25"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="26"/>
+      <c r="I141" s="25"/>
       <c r="J141" s="12"/>
       <c r="K141" s="12"/>
       <c r="L141" s="28"/>
@@ -6033,7 +6450,7 @@
         <v>24</v>
       </c>
       <c r="N141" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O141" s="6" t="s">
         <v>52</v>
@@ -6046,15 +6463,15 @@
       </c>
     </row>
     <row r="142" spans="1:21">
-      <c r="A142" s="25"/>
-      <c r="B142" s="26"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="25"/>
-      <c r="H142" s="25"/>
-      <c r="I142" s="26"/>
+      <c r="A142" s="26"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="25"/>
+      <c r="G142" s="26"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="25"/>
       <c r="J142" s="12"/>
       <c r="K142" s="12"/>
       <c r="L142" s="28"/>
@@ -6062,7 +6479,7 @@
         <v>54</v>
       </c>
       <c r="N142" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O142" s="10" t="s">
         <v>55</v>
@@ -6074,16 +6491,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="82.5">
-      <c r="A143" s="25"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="26"/>
-      <c r="E143" s="26"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="25"/>
-      <c r="H143" s="25"/>
-      <c r="I143" s="26"/>
+    <row r="143" spans="1:21" ht="66">
+      <c r="A143" s="26"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="25"/>
       <c r="J143" s="12"/>
       <c r="K143" s="12"/>
       <c r="L143" s="13" t="s">
@@ -6093,7 +6510,7 @@
         <v>57</v>
       </c>
       <c r="N143" s="17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O143" s="10" t="s">
         <v>58</v>
@@ -6104,11 +6521,14 @@
       <c r="Q143" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R143" s="10" t="s">
-        <v>153</v>
+      <c r="R143" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="S143" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="T143" s="18" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -6142,7 +6562,7 @@
         <v>3</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>91</v>
@@ -6157,7 +6577,7 @@
         <v>7</v>
       </c>
       <c r="J146" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K146" s="27"/>
       <c r="L146" s="3" t="s">
@@ -6190,33 +6610,33 @@
       </c>
     </row>
     <row r="147" spans="1:22" ht="16.5" customHeight="1">
-      <c r="A147" s="25" t="s">
+      <c r="A147" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B147" s="26" t="s">
+      <c r="B147" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C147" s="26" t="s">
+      <c r="C147" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D147" s="26" t="s">
+      <c r="D147" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E147" s="26" t="s">
+      <c r="E147" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F147" s="26" t="s">
+      <c r="F147" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G147" s="25" t="s">
+      <c r="G147" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H147" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="I147" s="26"/>
+      <c r="H147" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="I147" s="25"/>
       <c r="J147" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K147" s="8" t="s">
         <v>104</v>
@@ -6228,7 +6648,7 @@
         <v>20</v>
       </c>
       <c r="N147" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O147" s="6" t="s">
         <v>21</v>
@@ -6241,17 +6661,17 @@
       </c>
     </row>
     <row r="148" spans="1:22" ht="33">
-      <c r="A148" s="25"/>
-      <c r="B148" s="26"/>
-      <c r="C148" s="26"/>
-      <c r="D148" s="26"/>
-      <c r="E148" s="26"/>
-      <c r="F148" s="26"/>
-      <c r="G148" s="25"/>
-      <c r="H148" s="25"/>
-      <c r="I148" s="26"/>
+      <c r="A148" s="26"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="25"/>
+      <c r="G148" s="26"/>
+      <c r="H148" s="26"/>
+      <c r="I148" s="25"/>
       <c r="J148" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K148" s="8" t="s">
         <v>102</v>
@@ -6261,7 +6681,7 @@
         <v>25</v>
       </c>
       <c r="N148" s="17" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O148" s="10" t="s">
         <v>26</v>
@@ -6276,21 +6696,21 @@
         <v>108</v>
       </c>
       <c r="T148" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="149" spans="1:22">
-      <c r="A149" s="25"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="26"/>
-      <c r="E149" s="26"/>
-      <c r="F149" s="26"/>
-      <c r="G149" s="25"/>
-      <c r="H149" s="25"/>
-      <c r="I149" s="26"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="25"/>
       <c r="J149" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K149" s="11" t="s">
         <v>101</v>
@@ -6300,7 +6720,7 @@
         <v>29</v>
       </c>
       <c r="N149" s="17" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="O149" s="6" t="s">
         <v>30</v>
@@ -6315,31 +6735,31 @@
         <v>108</v>
       </c>
       <c r="T149" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="150" spans="1:22" ht="49.5">
-      <c r="A150" s="25"/>
-      <c r="B150" s="26"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="26"/>
-      <c r="G150" s="25"/>
-      <c r="H150" s="25"/>
-      <c r="I150" s="26"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="26"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="25"/>
       <c r="J150" s="24" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="K150" s="22" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="L150" s="28"/>
       <c r="M150" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N150" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O150" s="6" t="s">
         <v>33</v>
@@ -6352,20 +6772,20 @@
       </c>
     </row>
     <row r="151" spans="1:22" ht="66">
-      <c r="A151" s="25"/>
-      <c r="B151" s="26"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
-      <c r="F151" s="26"/>
-      <c r="G151" s="25"/>
-      <c r="H151" s="25"/>
-      <c r="I151" s="26"/>
+      <c r="A151" s="26"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="25"/>
       <c r="J151" s="24" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="K151" s="22" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="L151" s="28"/>
       <c r="M151" s="3" t="s">
@@ -6385,27 +6805,27 @@
       </c>
     </row>
     <row r="152" spans="1:22" ht="49.5">
-      <c r="A152" s="25"/>
-      <c r="B152" s="26"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="26"/>
-      <c r="E152" s="26"/>
-      <c r="F152" s="26"/>
-      <c r="G152" s="25"/>
-      <c r="H152" s="25"/>
-      <c r="I152" s="26"/>
+      <c r="A152" s="26"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
+      <c r="F152" s="25"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="25"/>
       <c r="J152" s="24" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="K152" s="22" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="L152" s="28"/>
       <c r="M152" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N152" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O152" s="6" t="s">
         <v>39</v>
@@ -6418,15 +6838,15 @@
       </c>
     </row>
     <row r="153" spans="1:22">
-      <c r="A153" s="25"/>
-      <c r="B153" s="26"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="26"/>
-      <c r="E153" s="26"/>
-      <c r="F153" s="26"/>
-      <c r="G153" s="25"/>
-      <c r="H153" s="25"/>
-      <c r="I153" s="26"/>
+      <c r="A153" s="26"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="25"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="25"/>
       <c r="J153" s="12"/>
       <c r="K153" s="12"/>
       <c r="L153" s="28"/>
@@ -6434,7 +6854,7 @@
         <v>41</v>
       </c>
       <c r="N153" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O153" s="6" t="s">
         <v>42</v>
@@ -6447,15 +6867,15 @@
       </c>
     </row>
     <row r="154" spans="1:22">
-      <c r="A154" s="25"/>
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="26"/>
-      <c r="E154" s="26"/>
-      <c r="F154" s="26"/>
-      <c r="G154" s="25"/>
-      <c r="H154" s="25"/>
-      <c r="I154" s="26"/>
+      <c r="A154" s="26"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="25"/>
+      <c r="G154" s="26"/>
+      <c r="H154" s="26"/>
+      <c r="I154" s="25"/>
       <c r="J154" s="12"/>
       <c r="K154" s="12"/>
       <c r="L154" s="28"/>
@@ -6476,15 +6896,15 @@
       </c>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="25"/>
-      <c r="B155" s="26"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
-      <c r="F155" s="26"/>
-      <c r="G155" s="25"/>
-      <c r="H155" s="25"/>
-      <c r="I155" s="26"/>
+      <c r="A155" s="26"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="25"/>
       <c r="J155" s="12"/>
       <c r="K155" s="12"/>
       <c r="L155" s="28"/>
@@ -6492,7 +6912,7 @@
         <v>47</v>
       </c>
       <c r="N155" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O155" s="6" t="s">
         <v>48</v>
@@ -6505,15 +6925,15 @@
       </c>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="25"/>
-      <c r="B156" s="26"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="26"/>
-      <c r="E156" s="26"/>
-      <c r="F156" s="26"/>
-      <c r="G156" s="25"/>
-      <c r="H156" s="25"/>
-      <c r="I156" s="26"/>
+      <c r="A156" s="26"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="26"/>
+      <c r="H156" s="26"/>
+      <c r="I156" s="25"/>
       <c r="J156" s="12"/>
       <c r="K156" s="12"/>
       <c r="L156" s="28"/>
@@ -6534,15 +6954,15 @@
       </c>
     </row>
     <row r="157" spans="1:22">
-      <c r="A157" s="25"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="26"/>
-      <c r="G157" s="25"/>
-      <c r="H157" s="25"/>
-      <c r="I157" s="26"/>
+      <c r="A157" s="26"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="25"/>
       <c r="J157" s="12"/>
       <c r="K157" s="12"/>
       <c r="L157" s="28"/>
@@ -6550,7 +6970,7 @@
         <v>24</v>
       </c>
       <c r="N157" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O157" s="6" t="s">
         <v>52</v>
@@ -6563,15 +6983,15 @@
       </c>
     </row>
     <row r="158" spans="1:22">
-      <c r="A158" s="25"/>
-      <c r="B158" s="26"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="26"/>
-      <c r="G158" s="25"/>
-      <c r="H158" s="25"/>
-      <c r="I158" s="26"/>
+      <c r="A158" s="26"/>
+      <c r="B158" s="25"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="26"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="25"/>
       <c r="J158" s="12"/>
       <c r="K158" s="12"/>
       <c r="L158" s="28"/>
@@ -6579,7 +6999,7 @@
         <v>54</v>
       </c>
       <c r="N158" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O158" s="10" t="s">
         <v>55</v>
@@ -6591,16 +7011,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="1:22" ht="82.5">
-      <c r="A159" s="25"/>
-      <c r="B159" s="26"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="26"/>
-      <c r="E159" s="26"/>
-      <c r="F159" s="26"/>
-      <c r="G159" s="25"/>
-      <c r="H159" s="25"/>
-      <c r="I159" s="26"/>
+    <row r="159" spans="1:22" ht="66">
+      <c r="A159" s="26"/>
+      <c r="B159" s="25"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="25"/>
+      <c r="F159" s="25"/>
+      <c r="G159" s="26"/>
+      <c r="H159" s="26"/>
+      <c r="I159" s="25"/>
       <c r="J159" s="12"/>
       <c r="K159" s="12"/>
       <c r="L159" s="13" t="s">
@@ -6610,7 +7030,7 @@
         <v>57</v>
       </c>
       <c r="N159" s="17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O159" s="10" t="s">
         <v>58</v>
@@ -6621,11 +7041,14 @@
       <c r="Q159" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R159" s="10" t="s">
-        <v>157</v>
+      <c r="R159" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="S159" s="17" t="s">
+        <v>268</v>
       </c>
       <c r="T159" s="18" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="160" spans="1:22">
@@ -6681,7 +7104,7 @@
         <v>7</v>
       </c>
       <c r="J161" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K161" s="27"/>
       <c r="L161" s="3" t="s">
@@ -6715,33 +7138,33 @@
       <c r="V161" s="17"/>
     </row>
     <row r="162" spans="1:22">
-      <c r="A162" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B162" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C162" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D162" s="26" t="s">
+      <c r="A162" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B162" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C162" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D162" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E162" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F162" s="26" t="s">
+      <c r="E162" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F162" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G162" s="25" t="s">
+      <c r="G162" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H162" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="I162" s="26"/>
+      <c r="H162" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="I162" s="25"/>
       <c r="J162" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K162" s="8" t="s">
         <v>103</v>
@@ -6753,7 +7176,7 @@
         <v>20</v>
       </c>
       <c r="N162" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O162" s="17" t="s">
         <v>21</v>
@@ -6767,17 +7190,17 @@
       <c r="R162" s="17"/>
     </row>
     <row r="163" spans="1:22" ht="33">
-      <c r="A163" s="25"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="26"/>
-      <c r="F163" s="26"/>
-      <c r="G163" s="25"/>
-      <c r="H163" s="26"/>
-      <c r="I163" s="26"/>
+      <c r="A163" s="26"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="25"/>
+      <c r="E163" s="25"/>
+      <c r="F163" s="25"/>
+      <c r="G163" s="26"/>
+      <c r="H163" s="25"/>
+      <c r="I163" s="25"/>
       <c r="J163" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K163" s="8" t="s">
         <v>102</v>
@@ -6787,7 +7210,7 @@
         <v>25</v>
       </c>
       <c r="N163" s="17" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="O163" s="18" t="s">
         <v>26</v>
@@ -6802,21 +7225,21 @@
         <v>108</v>
       </c>
       <c r="T163" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="164" spans="1:22">
-      <c r="A164" s="25"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="26"/>
-      <c r="E164" s="26"/>
-      <c r="F164" s="26"/>
-      <c r="G164" s="25"/>
-      <c r="H164" s="26"/>
-      <c r="I164" s="26"/>
+      <c r="A164" s="26"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="25"/>
+      <c r="E164" s="25"/>
+      <c r="F164" s="25"/>
+      <c r="G164" s="26"/>
+      <c r="H164" s="25"/>
+      <c r="I164" s="25"/>
       <c r="J164" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K164" s="11" t="s">
         <v>101</v>
@@ -6826,7 +7249,7 @@
         <v>29</v>
       </c>
       <c r="N164" s="17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="O164" s="17" t="s">
         <v>30</v>
@@ -6841,26 +7264,26 @@
         <v>108</v>
       </c>
       <c r="T164" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="165" spans="1:22">
-      <c r="A165" s="25"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26"/>
-      <c r="F165" s="26"/>
-      <c r="G165" s="25"/>
-      <c r="H165" s="26"/>
-      <c r="I165" s="26"/>
+      <c r="A165" s="26"/>
+      <c r="B165" s="25"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="25"/>
+      <c r="E165" s="25"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="26"/>
+      <c r="H165" s="25"/>
+      <c r="I165" s="25"/>
       <c r="K165" s="20"/>
       <c r="L165" s="28"/>
       <c r="M165" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N165" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O165" s="17" t="s">
         <v>33</v>
@@ -6874,15 +7297,15 @@
       <c r="R165" s="17"/>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="25"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="26"/>
-      <c r="E166" s="26"/>
-      <c r="F166" s="26"/>
-      <c r="G166" s="25"/>
-      <c r="H166" s="26"/>
-      <c r="I166" s="26"/>
+      <c r="A166" s="26"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="25"/>
+      <c r="F166" s="25"/>
+      <c r="G166" s="26"/>
+      <c r="H166" s="25"/>
+      <c r="I166" s="25"/>
       <c r="K166" s="20"/>
       <c r="L166" s="28"/>
       <c r="M166" s="3" t="s">
@@ -6903,22 +7326,22 @@
       <c r="R166" s="17"/>
     </row>
     <row r="167" spans="1:22">
-      <c r="A167" s="25"/>
-      <c r="B167" s="26"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="26"/>
-      <c r="F167" s="26"/>
-      <c r="G167" s="25"/>
-      <c r="H167" s="26"/>
-      <c r="I167" s="26"/>
+      <c r="A167" s="26"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="25"/>
+      <c r="F167" s="25"/>
+      <c r="G167" s="26"/>
+      <c r="H167" s="25"/>
+      <c r="I167" s="25"/>
       <c r="K167" s="20"/>
       <c r="L167" s="28"/>
       <c r="M167" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N167" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O167" s="17" t="s">
         <v>39</v>
@@ -6932,22 +7355,22 @@
       <c r="R167" s="17"/>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="25"/>
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="26"/>
-      <c r="F168" s="26"/>
-      <c r="G168" s="25"/>
-      <c r="H168" s="26"/>
-      <c r="I168" s="26"/>
+      <c r="A168" s="26"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="25"/>
+      <c r="F168" s="25"/>
+      <c r="G168" s="26"/>
+      <c r="H168" s="25"/>
+      <c r="I168" s="25"/>
       <c r="K168" s="20"/>
       <c r="L168" s="28"/>
       <c r="M168" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N168" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O168" s="17" t="s">
         <v>42</v>
@@ -6961,15 +7384,15 @@
       <c r="R168" s="17"/>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="25"/>
-      <c r="B169" s="26"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="26"/>
-      <c r="E169" s="26"/>
-      <c r="F169" s="26"/>
-      <c r="G169" s="25"/>
-      <c r="H169" s="26"/>
-      <c r="I169" s="26"/>
+      <c r="A169" s="26"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="25"/>
+      <c r="E169" s="25"/>
+      <c r="F169" s="25"/>
+      <c r="G169" s="26"/>
+      <c r="H169" s="25"/>
+      <c r="I169" s="25"/>
       <c r="K169" s="20"/>
       <c r="L169" s="28"/>
       <c r="M169" s="3" t="s">
@@ -6990,22 +7413,22 @@
       <c r="R169" s="17"/>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="25"/>
-      <c r="B170" s="26"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
-      <c r="F170" s="26"/>
-      <c r="G170" s="25"/>
-      <c r="H170" s="26"/>
-      <c r="I170" s="26"/>
+      <c r="A170" s="26"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="25"/>
+      <c r="E170" s="25"/>
+      <c r="F170" s="25"/>
+      <c r="G170" s="26"/>
+      <c r="H170" s="25"/>
+      <c r="I170" s="25"/>
       <c r="K170" s="20"/>
       <c r="L170" s="28"/>
       <c r="M170" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N170" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O170" s="17" t="s">
         <v>48</v>
@@ -7019,15 +7442,15 @@
       <c r="R170" s="17"/>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="25"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
-      <c r="F171" s="26"/>
-      <c r="G171" s="25"/>
-      <c r="H171" s="26"/>
-      <c r="I171" s="26"/>
+      <c r="A171" s="26"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="25"/>
+      <c r="E171" s="25"/>
+      <c r="F171" s="25"/>
+      <c r="G171" s="26"/>
+      <c r="H171" s="25"/>
+      <c r="I171" s="25"/>
       <c r="K171" s="20"/>
       <c r="L171" s="28"/>
       <c r="M171" s="3" t="s">
@@ -7048,22 +7471,22 @@
       <c r="R171" s="17"/>
     </row>
     <row r="172" spans="1:22">
-      <c r="A172" s="25"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26"/>
-      <c r="F172" s="26"/>
-      <c r="G172" s="25"/>
-      <c r="H172" s="26"/>
-      <c r="I172" s="26"/>
+      <c r="A172" s="26"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="25"/>
+      <c r="F172" s="25"/>
+      <c r="G172" s="26"/>
+      <c r="H172" s="25"/>
+      <c r="I172" s="25"/>
       <c r="K172" s="20"/>
       <c r="L172" s="28"/>
       <c r="M172" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N172" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O172" s="17" t="s">
         <v>52</v>
@@ -7077,22 +7500,22 @@
       <c r="R172" s="17"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="25"/>
-      <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="26"/>
-      <c r="F173" s="26"/>
-      <c r="G173" s="25"/>
-      <c r="H173" s="26"/>
-      <c r="I173" s="26"/>
+      <c r="A173" s="26"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="25"/>
+      <c r="E173" s="25"/>
+      <c r="F173" s="25"/>
+      <c r="G173" s="26"/>
+      <c r="H173" s="25"/>
+      <c r="I173" s="25"/>
       <c r="K173" s="20"/>
       <c r="L173" s="28"/>
       <c r="M173" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N173" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O173" s="18" t="s">
         <v>55</v>
@@ -7106,15 +7529,15 @@
       <c r="R173" s="17"/>
     </row>
     <row r="174" spans="1:22" ht="66">
-      <c r="A174" s="25"/>
-      <c r="B174" s="26"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="26"/>
-      <c r="E174" s="26"/>
-      <c r="F174" s="26"/>
-      <c r="G174" s="25"/>
-      <c r="H174" s="26"/>
-      <c r="I174" s="26"/>
+      <c r="A174" s="26"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="25"/>
+      <c r="E174" s="25"/>
+      <c r="F174" s="25"/>
+      <c r="G174" s="26"/>
+      <c r="H174" s="25"/>
+      <c r="I174" s="25"/>
       <c r="K174" s="20"/>
       <c r="L174" s="19" t="s">
         <v>57</v>
@@ -7123,7 +7546,7 @@
         <v>57</v>
       </c>
       <c r="N174" s="18" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="O174" s="18" t="s">
         <v>58</v>
@@ -7134,11 +7557,14 @@
       <c r="Q174" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R174" s="18" t="s">
-        <v>171</v>
+      <c r="R174" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="S174" s="17" t="s">
+        <v>269</v>
       </c>
       <c r="T174" s="18" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="175" spans="1:22" s="17" customFormat="1">
@@ -7194,7 +7620,7 @@
         <v>7</v>
       </c>
       <c r="J176" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K176" s="27"/>
       <c r="L176" s="3" t="s">
@@ -7227,33 +7653,33 @@
       </c>
     </row>
     <row r="177" spans="1:22" s="17" customFormat="1">
-      <c r="A177" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="B177" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C177" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D177" s="26" t="s">
+      <c r="A177" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B177" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C177" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D177" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E177" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F177" s="26" t="s">
+      <c r="E177" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F177" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G177" s="25" t="s">
+      <c r="G177" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H177" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="I177" s="26"/>
+      <c r="H177" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="I177" s="25"/>
       <c r="J177" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K177" s="8" t="s">
         <v>103</v>
@@ -7265,7 +7691,7 @@
         <v>20</v>
       </c>
       <c r="N177" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O177" s="17" t="s">
         <v>21</v>
@@ -7278,17 +7704,17 @@
       </c>
     </row>
     <row r="178" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A178" s="25"/>
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
-      <c r="F178" s="26"/>
-      <c r="G178" s="25"/>
-      <c r="H178" s="26"/>
-      <c r="I178" s="26"/>
+      <c r="A178" s="26"/>
+      <c r="B178" s="25"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="25"/>
+      <c r="E178" s="25"/>
+      <c r="F178" s="25"/>
+      <c r="G178" s="26"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="25"/>
       <c r="J178" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K178" s="8" t="s">
         <v>102</v>
@@ -7298,7 +7724,7 @@
         <v>25</v>
       </c>
       <c r="N178" s="17" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="O178" s="18" t="s">
         <v>26</v>
@@ -7313,21 +7739,21 @@
         <v>108</v>
       </c>
       <c r="T178" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="179" spans="1:22" s="17" customFormat="1">
-      <c r="A179" s="25"/>
-      <c r="B179" s="26"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
-      <c r="F179" s="26"/>
-      <c r="G179" s="25"/>
-      <c r="H179" s="26"/>
-      <c r="I179" s="26"/>
+      <c r="A179" s="26"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="25"/>
+      <c r="E179" s="25"/>
+      <c r="F179" s="25"/>
+      <c r="G179" s="26"/>
+      <c r="H179" s="25"/>
+      <c r="I179" s="25"/>
       <c r="J179" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K179" s="11" t="s">
         <v>101</v>
@@ -7337,7 +7763,7 @@
         <v>29</v>
       </c>
       <c r="N179" s="17" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O179" s="17" t="s">
         <v>30</v>
@@ -7352,26 +7778,26 @@
         <v>108</v>
       </c>
       <c r="T179" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="180" spans="1:22" s="17" customFormat="1">
-      <c r="A180" s="25"/>
-      <c r="B180" s="26"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26"/>
-      <c r="F180" s="26"/>
-      <c r="G180" s="25"/>
-      <c r="H180" s="26"/>
-      <c r="I180" s="26"/>
+      <c r="A180" s="26"/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="25"/>
+      <c r="E180" s="25"/>
+      <c r="F180" s="25"/>
+      <c r="G180" s="26"/>
+      <c r="H180" s="25"/>
+      <c r="I180" s="25"/>
       <c r="K180" s="20"/>
       <c r="L180" s="28"/>
       <c r="M180" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N180" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O180" s="17" t="s">
         <v>33</v>
@@ -7384,15 +7810,15 @@
       </c>
     </row>
     <row r="181" spans="1:22" s="17" customFormat="1">
-      <c r="A181" s="25"/>
-      <c r="B181" s="26"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="26"/>
-      <c r="E181" s="26"/>
-      <c r="F181" s="26"/>
-      <c r="G181" s="25"/>
-      <c r="H181" s="26"/>
-      <c r="I181" s="26"/>
+      <c r="A181" s="26"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="25"/>
+      <c r="E181" s="25"/>
+      <c r="F181" s="25"/>
+      <c r="G181" s="26"/>
+      <c r="H181" s="25"/>
+      <c r="I181" s="25"/>
       <c r="K181" s="20"/>
       <c r="L181" s="28"/>
       <c r="M181" s="3" t="s">
@@ -7412,22 +7838,22 @@
       </c>
     </row>
     <row r="182" spans="1:22" s="17" customFormat="1">
-      <c r="A182" s="25"/>
-      <c r="B182" s="26"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="26"/>
-      <c r="E182" s="26"/>
-      <c r="F182" s="26"/>
-      <c r="G182" s="25"/>
-      <c r="H182" s="26"/>
-      <c r="I182" s="26"/>
+      <c r="A182" s="26"/>
+      <c r="B182" s="25"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="25"/>
+      <c r="E182" s="25"/>
+      <c r="F182" s="25"/>
+      <c r="G182" s="26"/>
+      <c r="H182" s="25"/>
+      <c r="I182" s="25"/>
       <c r="K182" s="20"/>
       <c r="L182" s="28"/>
       <c r="M182" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N182" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O182" s="17" t="s">
         <v>39</v>
@@ -7440,22 +7866,22 @@
       </c>
     </row>
     <row r="183" spans="1:22" s="17" customFormat="1">
-      <c r="A183" s="25"/>
-      <c r="B183" s="26"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="26"/>
-      <c r="F183" s="26"/>
-      <c r="G183" s="25"/>
-      <c r="H183" s="26"/>
-      <c r="I183" s="26"/>
+      <c r="A183" s="26"/>
+      <c r="B183" s="25"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="25"/>
+      <c r="E183" s="25"/>
+      <c r="F183" s="25"/>
+      <c r="G183" s="26"/>
+      <c r="H183" s="25"/>
+      <c r="I183" s="25"/>
       <c r="K183" s="20"/>
       <c r="L183" s="28"/>
       <c r="M183" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N183" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O183" s="17" t="s">
         <v>42</v>
@@ -7468,15 +7894,15 @@
       </c>
     </row>
     <row r="184" spans="1:22" s="17" customFormat="1">
-      <c r="A184" s="25"/>
-      <c r="B184" s="26"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="26"/>
-      <c r="E184" s="26"/>
-      <c r="F184" s="26"/>
-      <c r="G184" s="25"/>
-      <c r="H184" s="26"/>
-      <c r="I184" s="26"/>
+      <c r="A184" s="26"/>
+      <c r="B184" s="25"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="25"/>
+      <c r="E184" s="25"/>
+      <c r="F184" s="25"/>
+      <c r="G184" s="26"/>
+      <c r="H184" s="25"/>
+      <c r="I184" s="25"/>
       <c r="K184" s="20"/>
       <c r="L184" s="28"/>
       <c r="M184" s="3" t="s">
@@ -7496,22 +7922,22 @@
       </c>
     </row>
     <row r="185" spans="1:22" s="17" customFormat="1">
-      <c r="A185" s="25"/>
-      <c r="B185" s="26"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="26"/>
-      <c r="E185" s="26"/>
-      <c r="F185" s="26"/>
-      <c r="G185" s="25"/>
-      <c r="H185" s="26"/>
-      <c r="I185" s="26"/>
+      <c r="A185" s="26"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="25"/>
+      <c r="E185" s="25"/>
+      <c r="F185" s="25"/>
+      <c r="G185" s="26"/>
+      <c r="H185" s="25"/>
+      <c r="I185" s="25"/>
       <c r="K185" s="20"/>
       <c r="L185" s="28"/>
       <c r="M185" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N185" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O185" s="17" t="s">
         <v>48</v>
@@ -7524,15 +7950,15 @@
       </c>
     </row>
     <row r="186" spans="1:22" s="17" customFormat="1">
-      <c r="A186" s="25"/>
-      <c r="B186" s="26"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
-      <c r="F186" s="26"/>
-      <c r="G186" s="25"/>
-      <c r="H186" s="26"/>
-      <c r="I186" s="26"/>
+      <c r="A186" s="26"/>
+      <c r="B186" s="25"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="25"/>
+      <c r="E186" s="25"/>
+      <c r="F186" s="25"/>
+      <c r="G186" s="26"/>
+      <c r="H186" s="25"/>
+      <c r="I186" s="25"/>
       <c r="K186" s="20"/>
       <c r="L186" s="28"/>
       <c r="M186" s="3" t="s">
@@ -7552,22 +7978,22 @@
       </c>
     </row>
     <row r="187" spans="1:22" s="17" customFormat="1">
-      <c r="A187" s="25"/>
-      <c r="B187" s="26"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="26"/>
-      <c r="E187" s="26"/>
-      <c r="F187" s="26"/>
-      <c r="G187" s="25"/>
-      <c r="H187" s="26"/>
-      <c r="I187" s="26"/>
+      <c r="A187" s="26"/>
+      <c r="B187" s="25"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="25"/>
+      <c r="E187" s="25"/>
+      <c r="F187" s="25"/>
+      <c r="G187" s="26"/>
+      <c r="H187" s="25"/>
+      <c r="I187" s="25"/>
       <c r="K187" s="20"/>
       <c r="L187" s="28"/>
       <c r="M187" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N187" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O187" s="17" t="s">
         <v>52</v>
@@ -7580,22 +8006,22 @@
       </c>
     </row>
     <row r="188" spans="1:22" s="17" customFormat="1">
-      <c r="A188" s="25"/>
-      <c r="B188" s="26"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="26"/>
-      <c r="E188" s="26"/>
-      <c r="F188" s="26"/>
-      <c r="G188" s="25"/>
-      <c r="H188" s="26"/>
-      <c r="I188" s="26"/>
+      <c r="A188" s="26"/>
+      <c r="B188" s="25"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="25"/>
+      <c r="E188" s="25"/>
+      <c r="F188" s="25"/>
+      <c r="G188" s="26"/>
+      <c r="H188" s="25"/>
+      <c r="I188" s="25"/>
       <c r="K188" s="20"/>
       <c r="L188" s="28"/>
       <c r="M188" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N188" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O188" s="18" t="s">
         <v>55</v>
@@ -7608,15 +8034,15 @@
       </c>
     </row>
     <row r="189" spans="1:22" s="17" customFormat="1" ht="66">
-      <c r="A189" s="25"/>
-      <c r="B189" s="26"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="26"/>
-      <c r="E189" s="26"/>
-      <c r="F189" s="26"/>
-      <c r="G189" s="25"/>
-      <c r="H189" s="26"/>
-      <c r="I189" s="26"/>
+      <c r="A189" s="26"/>
+      <c r="B189" s="25"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="25"/>
+      <c r="E189" s="25"/>
+      <c r="F189" s="25"/>
+      <c r="G189" s="26"/>
+      <c r="H189" s="25"/>
+      <c r="I189" s="25"/>
       <c r="K189" s="20"/>
       <c r="L189" s="19" t="s">
         <v>57</v>
@@ -7625,7 +8051,7 @@
         <v>57</v>
       </c>
       <c r="N189" s="17" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O189" s="18" t="s">
         <v>58</v>
@@ -7636,11 +8062,14 @@
       <c r="Q189" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R189" s="18" t="s">
-        <v>177</v>
+      <c r="R189" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="S189" s="17" t="s">
+        <v>262</v>
       </c>
       <c r="T189" s="18" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="190" spans="1:22" s="17" customFormat="1">
@@ -7696,7 +8125,7 @@
         <v>7</v>
       </c>
       <c r="J191" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K191" s="27"/>
       <c r="L191" s="3" t="s">
@@ -7729,33 +8158,33 @@
       </c>
     </row>
     <row r="192" spans="1:22" s="17" customFormat="1">
-      <c r="A192" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="B192" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C192" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="D192" s="26" t="s">
+      <c r="A192" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B192" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C192" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D192" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E192" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F192" s="26" t="s">
+      <c r="E192" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F192" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G192" s="25" t="s">
+      <c r="G192" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H192" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="I192" s="26"/>
+      <c r="H192" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="I192" s="25"/>
       <c r="J192" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K192" s="8" t="s">
         <v>103</v>
@@ -7767,7 +8196,7 @@
         <v>20</v>
       </c>
       <c r="N192" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O192" s="17" t="s">
         <v>21</v>
@@ -7780,17 +8209,17 @@
       </c>
     </row>
     <row r="193" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A193" s="25"/>
-      <c r="B193" s="26"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26"/>
-      <c r="F193" s="26"/>
-      <c r="G193" s="25"/>
-      <c r="H193" s="26"/>
-      <c r="I193" s="26"/>
+      <c r="A193" s="26"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="25"/>
+      <c r="E193" s="25"/>
+      <c r="F193" s="25"/>
+      <c r="G193" s="26"/>
+      <c r="H193" s="25"/>
+      <c r="I193" s="25"/>
       <c r="J193" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K193" s="8" t="s">
         <v>102</v>
@@ -7800,7 +8229,7 @@
         <v>25</v>
       </c>
       <c r="N193" s="17" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="O193" s="18" t="s">
         <v>26</v>
@@ -7815,21 +8244,21 @@
         <v>108</v>
       </c>
       <c r="T193" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="194" spans="1:22" s="17" customFormat="1">
-      <c r="A194" s="25"/>
-      <c r="B194" s="26"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
-      <c r="F194" s="26"/>
-      <c r="G194" s="25"/>
-      <c r="H194" s="26"/>
-      <c r="I194" s="26"/>
+      <c r="A194" s="26"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="25"/>
+      <c r="E194" s="25"/>
+      <c r="F194" s="25"/>
+      <c r="G194" s="26"/>
+      <c r="H194" s="25"/>
+      <c r="I194" s="25"/>
       <c r="J194" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K194" s="11" t="s">
         <v>101</v>
@@ -7839,7 +8268,7 @@
         <v>29</v>
       </c>
       <c r="N194" s="17" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="O194" s="17" t="s">
         <v>30</v>
@@ -7854,31 +8283,31 @@
         <v>108</v>
       </c>
       <c r="T194" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="195" spans="1:22" s="17" customFormat="1" ht="49.5">
-      <c r="A195" s="25"/>
-      <c r="B195" s="26"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
-      <c r="F195" s="26"/>
-      <c r="G195" s="25"/>
-      <c r="H195" s="26"/>
-      <c r="I195" s="26"/>
+      <c r="A195" s="26"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="25"/>
+      <c r="E195" s="25"/>
+      <c r="F195" s="25"/>
+      <c r="G195" s="26"/>
+      <c r="H195" s="25"/>
+      <c r="I195" s="25"/>
       <c r="J195" s="24" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="K195" s="22" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="L195" s="28"/>
       <c r="M195" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N195" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O195" s="17" t="s">
         <v>33</v>
@@ -7891,20 +8320,20 @@
       </c>
     </row>
     <row r="196" spans="1:22" s="17" customFormat="1" ht="49.5">
-      <c r="A196" s="25"/>
-      <c r="B196" s="26"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="26"/>
-      <c r="E196" s="26"/>
-      <c r="F196" s="26"/>
-      <c r="G196" s="25"/>
-      <c r="H196" s="26"/>
-      <c r="I196" s="26"/>
+      <c r="A196" s="26"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="25"/>
+      <c r="E196" s="25"/>
+      <c r="F196" s="25"/>
+      <c r="G196" s="26"/>
+      <c r="H196" s="25"/>
+      <c r="I196" s="25"/>
       <c r="J196" s="24" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="K196" s="22" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="L196" s="28"/>
       <c r="M196" s="3" t="s">
@@ -7924,22 +8353,22 @@
       </c>
     </row>
     <row r="197" spans="1:22" s="17" customFormat="1">
-      <c r="A197" s="25"/>
-      <c r="B197" s="26"/>
-      <c r="C197" s="26"/>
-      <c r="D197" s="26"/>
-      <c r="E197" s="26"/>
-      <c r="F197" s="26"/>
-      <c r="G197" s="25"/>
-      <c r="H197" s="26"/>
-      <c r="I197" s="26"/>
+      <c r="A197" s="26"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="25"/>
+      <c r="D197" s="25"/>
+      <c r="E197" s="25"/>
+      <c r="F197" s="25"/>
+      <c r="G197" s="26"/>
+      <c r="H197" s="25"/>
+      <c r="I197" s="25"/>
       <c r="K197" s="20"/>
       <c r="L197" s="28"/>
       <c r="M197" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N197" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O197" s="17" t="s">
         <v>39</v>
@@ -7952,22 +8381,22 @@
       </c>
     </row>
     <row r="198" spans="1:22" s="17" customFormat="1">
-      <c r="A198" s="25"/>
-      <c r="B198" s="26"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="26"/>
-      <c r="E198" s="26"/>
-      <c r="F198" s="26"/>
-      <c r="G198" s="25"/>
-      <c r="H198" s="26"/>
-      <c r="I198" s="26"/>
+      <c r="A198" s="26"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="25"/>
+      <c r="D198" s="25"/>
+      <c r="E198" s="25"/>
+      <c r="F198" s="25"/>
+      <c r="G198" s="26"/>
+      <c r="H198" s="25"/>
+      <c r="I198" s="25"/>
       <c r="K198" s="20"/>
       <c r="L198" s="28"/>
       <c r="M198" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N198" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O198" s="17" t="s">
         <v>42</v>
@@ -7980,15 +8409,15 @@
       </c>
     </row>
     <row r="199" spans="1:22" s="17" customFormat="1">
-      <c r="A199" s="25"/>
-      <c r="B199" s="26"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="26"/>
-      <c r="E199" s="26"/>
-      <c r="F199" s="26"/>
-      <c r="G199" s="25"/>
-      <c r="H199" s="26"/>
-      <c r="I199" s="26"/>
+      <c r="A199" s="26"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="25"/>
+      <c r="D199" s="25"/>
+      <c r="E199" s="25"/>
+      <c r="F199" s="25"/>
+      <c r="G199" s="26"/>
+      <c r="H199" s="25"/>
+      <c r="I199" s="25"/>
       <c r="K199" s="20"/>
       <c r="L199" s="28"/>
       <c r="M199" s="3" t="s">
@@ -8008,22 +8437,22 @@
       </c>
     </row>
     <row r="200" spans="1:22" s="17" customFormat="1">
-      <c r="A200" s="25"/>
-      <c r="B200" s="26"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26"/>
-      <c r="F200" s="26"/>
-      <c r="G200" s="25"/>
-      <c r="H200" s="26"/>
-      <c r="I200" s="26"/>
+      <c r="A200" s="26"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="25"/>
+      <c r="E200" s="25"/>
+      <c r="F200" s="25"/>
+      <c r="G200" s="26"/>
+      <c r="H200" s="25"/>
+      <c r="I200" s="25"/>
       <c r="K200" s="20"/>
       <c r="L200" s="28"/>
       <c r="M200" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N200" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O200" s="17" t="s">
         <v>48</v>
@@ -8036,15 +8465,15 @@
       </c>
     </row>
     <row r="201" spans="1:22" s="17" customFormat="1">
-      <c r="A201" s="25"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
-      <c r="F201" s="26"/>
-      <c r="G201" s="25"/>
-      <c r="H201" s="26"/>
-      <c r="I201" s="26"/>
+      <c r="A201" s="26"/>
+      <c r="B201" s="25"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="25"/>
+      <c r="E201" s="25"/>
+      <c r="F201" s="25"/>
+      <c r="G201" s="26"/>
+      <c r="H201" s="25"/>
+      <c r="I201" s="25"/>
       <c r="K201" s="20"/>
       <c r="L201" s="28"/>
       <c r="M201" s="3" t="s">
@@ -8064,22 +8493,22 @@
       </c>
     </row>
     <row r="202" spans="1:22" s="17" customFormat="1">
-      <c r="A202" s="25"/>
-      <c r="B202" s="26"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="26"/>
-      <c r="E202" s="26"/>
-      <c r="F202" s="26"/>
-      <c r="G202" s="25"/>
-      <c r="H202" s="26"/>
-      <c r="I202" s="26"/>
+      <c r="A202" s="26"/>
+      <c r="B202" s="25"/>
+      <c r="C202" s="25"/>
+      <c r="D202" s="25"/>
+      <c r="E202" s="25"/>
+      <c r="F202" s="25"/>
+      <c r="G202" s="26"/>
+      <c r="H202" s="25"/>
+      <c r="I202" s="25"/>
       <c r="K202" s="20"/>
       <c r="L202" s="28"/>
       <c r="M202" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N202" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O202" s="17" t="s">
         <v>52</v>
@@ -8092,22 +8521,22 @@
       </c>
     </row>
     <row r="203" spans="1:22" s="17" customFormat="1">
-      <c r="A203" s="25"/>
-      <c r="B203" s="26"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="26"/>
-      <c r="E203" s="26"/>
-      <c r="F203" s="26"/>
-      <c r="G203" s="25"/>
-      <c r="H203" s="26"/>
-      <c r="I203" s="26"/>
+      <c r="A203" s="26"/>
+      <c r="B203" s="25"/>
+      <c r="C203" s="25"/>
+      <c r="D203" s="25"/>
+      <c r="E203" s="25"/>
+      <c r="F203" s="25"/>
+      <c r="G203" s="26"/>
+      <c r="H203" s="25"/>
+      <c r="I203" s="25"/>
       <c r="K203" s="20"/>
       <c r="L203" s="28"/>
       <c r="M203" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N203" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O203" s="18" t="s">
         <v>55</v>
@@ -8120,15 +8549,15 @@
       </c>
     </row>
     <row r="204" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A204" s="25"/>
-      <c r="B204" s="26"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="26"/>
-      <c r="E204" s="26"/>
-      <c r="F204" s="26"/>
-      <c r="G204" s="25"/>
-      <c r="H204" s="26"/>
-      <c r="I204" s="26"/>
+      <c r="A204" s="26"/>
+      <c r="B204" s="25"/>
+      <c r="C204" s="25"/>
+      <c r="D204" s="25"/>
+      <c r="E204" s="25"/>
+      <c r="F204" s="25"/>
+      <c r="G204" s="26"/>
+      <c r="H204" s="25"/>
+      <c r="I204" s="25"/>
       <c r="K204" s="20"/>
       <c r="L204" s="19" t="s">
         <v>57</v>
@@ -8137,7 +8566,7 @@
         <v>57</v>
       </c>
       <c r="N204" s="17" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="O204" s="18" t="s">
         <v>58</v>
@@ -8148,11 +8577,14 @@
       <c r="Q204" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R204" s="18" t="s">
-        <v>181</v>
+      <c r="R204" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="S204" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="T204" s="18" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="205" spans="1:22" s="17" customFormat="1">
@@ -8208,7 +8640,7 @@
         <v>7</v>
       </c>
       <c r="J206" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K206" s="27"/>
       <c r="L206" s="3" t="s">
@@ -8241,33 +8673,33 @@
       </c>
     </row>
     <row r="207" spans="1:22" s="17" customFormat="1">
-      <c r="A207" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="B207" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C207" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D207" s="26" t="s">
+      <c r="A207" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B207" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C207" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D207" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E207" s="26" t="s">
+      <c r="E207" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F207" s="26" t="s">
+      <c r="F207" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G207" s="25" t="s">
+      <c r="G207" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H207" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="I207" s="26"/>
+      <c r="H207" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="I207" s="25"/>
       <c r="J207" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K207" s="8" t="s">
         <v>103</v>
@@ -8279,7 +8711,7 @@
         <v>20</v>
       </c>
       <c r="N207" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O207" s="17" t="s">
         <v>21</v>
@@ -8292,17 +8724,17 @@
       </c>
     </row>
     <row r="208" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A208" s="25"/>
-      <c r="B208" s="26"/>
-      <c r="C208" s="26"/>
-      <c r="D208" s="26"/>
-      <c r="E208" s="26"/>
-      <c r="F208" s="26"/>
-      <c r="G208" s="25"/>
-      <c r="H208" s="26"/>
-      <c r="I208" s="26"/>
+      <c r="A208" s="26"/>
+      <c r="B208" s="25"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="25"/>
+      <c r="E208" s="25"/>
+      <c r="F208" s="25"/>
+      <c r="G208" s="26"/>
+      <c r="H208" s="25"/>
+      <c r="I208" s="25"/>
       <c r="J208" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K208" s="8" t="s">
         <v>102</v>
@@ -8312,7 +8744,7 @@
         <v>25</v>
       </c>
       <c r="N208" s="17" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="O208" s="18" t="s">
         <v>26</v>
@@ -8327,21 +8759,21 @@
         <v>108</v>
       </c>
       <c r="T208" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="209" spans="1:22" s="17" customFormat="1">
-      <c r="A209" s="25"/>
-      <c r="B209" s="26"/>
-      <c r="C209" s="26"/>
-      <c r="D209" s="26"/>
-      <c r="E209" s="26"/>
-      <c r="F209" s="26"/>
-      <c r="G209" s="25"/>
-      <c r="H209" s="26"/>
-      <c r="I209" s="26"/>
+      <c r="A209" s="26"/>
+      <c r="B209" s="25"/>
+      <c r="C209" s="25"/>
+      <c r="D209" s="25"/>
+      <c r="E209" s="25"/>
+      <c r="F209" s="25"/>
+      <c r="G209" s="26"/>
+      <c r="H209" s="25"/>
+      <c r="I209" s="25"/>
       <c r="J209" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K209" s="11" t="s">
         <v>101</v>
@@ -8351,7 +8783,7 @@
         <v>29</v>
       </c>
       <c r="N209" s="17" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="O209" s="17" t="s">
         <v>30</v>
@@ -8366,26 +8798,26 @@
         <v>108</v>
       </c>
       <c r="T209" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="210" spans="1:22" s="17" customFormat="1">
-      <c r="A210" s="25"/>
-      <c r="B210" s="26"/>
-      <c r="C210" s="26"/>
-      <c r="D210" s="26"/>
-      <c r="E210" s="26"/>
-      <c r="F210" s="26"/>
-      <c r="G210" s="25"/>
-      <c r="H210" s="26"/>
-      <c r="I210" s="26"/>
+      <c r="A210" s="26"/>
+      <c r="B210" s="25"/>
+      <c r="C210" s="25"/>
+      <c r="D210" s="25"/>
+      <c r="E210" s="25"/>
+      <c r="F210" s="25"/>
+      <c r="G210" s="26"/>
+      <c r="H210" s="25"/>
+      <c r="I210" s="25"/>
       <c r="K210" s="20"/>
       <c r="L210" s="28"/>
       <c r="M210" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N210" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O210" s="17" t="s">
         <v>33</v>
@@ -8398,15 +8830,15 @@
       </c>
     </row>
     <row r="211" spans="1:22" s="17" customFormat="1">
-      <c r="A211" s="25"/>
-      <c r="B211" s="26"/>
-      <c r="C211" s="26"/>
-      <c r="D211" s="26"/>
-      <c r="E211" s="26"/>
-      <c r="F211" s="26"/>
-      <c r="G211" s="25"/>
-      <c r="H211" s="26"/>
-      <c r="I211" s="26"/>
+      <c r="A211" s="26"/>
+      <c r="B211" s="25"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="25"/>
+      <c r="E211" s="25"/>
+      <c r="F211" s="25"/>
+      <c r="G211" s="26"/>
+      <c r="H211" s="25"/>
+      <c r="I211" s="25"/>
       <c r="K211" s="20"/>
       <c r="L211" s="28"/>
       <c r="M211" s="3" t="s">
@@ -8426,22 +8858,22 @@
       </c>
     </row>
     <row r="212" spans="1:22" s="17" customFormat="1">
-      <c r="A212" s="25"/>
-      <c r="B212" s="26"/>
-      <c r="C212" s="26"/>
-      <c r="D212" s="26"/>
-      <c r="E212" s="26"/>
-      <c r="F212" s="26"/>
-      <c r="G212" s="25"/>
-      <c r="H212" s="26"/>
-      <c r="I212" s="26"/>
+      <c r="A212" s="26"/>
+      <c r="B212" s="25"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="25"/>
+      <c r="E212" s="25"/>
+      <c r="F212" s="25"/>
+      <c r="G212" s="26"/>
+      <c r="H212" s="25"/>
+      <c r="I212" s="25"/>
       <c r="K212" s="20"/>
       <c r="L212" s="28"/>
       <c r="M212" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N212" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O212" s="17" t="s">
         <v>39</v>
@@ -8454,22 +8886,22 @@
       </c>
     </row>
     <row r="213" spans="1:22" s="17" customFormat="1">
-      <c r="A213" s="25"/>
-      <c r="B213" s="26"/>
-      <c r="C213" s="26"/>
-      <c r="D213" s="26"/>
-      <c r="E213" s="26"/>
-      <c r="F213" s="26"/>
-      <c r="G213" s="25"/>
-      <c r="H213" s="26"/>
-      <c r="I213" s="26"/>
+      <c r="A213" s="26"/>
+      <c r="B213" s="25"/>
+      <c r="C213" s="25"/>
+      <c r="D213" s="25"/>
+      <c r="E213" s="25"/>
+      <c r="F213" s="25"/>
+      <c r="G213" s="26"/>
+      <c r="H213" s="25"/>
+      <c r="I213" s="25"/>
       <c r="K213" s="20"/>
       <c r="L213" s="28"/>
       <c r="M213" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N213" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O213" s="17" t="s">
         <v>42</v>
@@ -8482,15 +8914,15 @@
       </c>
     </row>
     <row r="214" spans="1:22" s="17" customFormat="1">
-      <c r="A214" s="25"/>
-      <c r="B214" s="26"/>
-      <c r="C214" s="26"/>
-      <c r="D214" s="26"/>
-      <c r="E214" s="26"/>
-      <c r="F214" s="26"/>
-      <c r="G214" s="25"/>
-      <c r="H214" s="26"/>
-      <c r="I214" s="26"/>
+      <c r="A214" s="26"/>
+      <c r="B214" s="25"/>
+      <c r="C214" s="25"/>
+      <c r="D214" s="25"/>
+      <c r="E214" s="25"/>
+      <c r="F214" s="25"/>
+      <c r="G214" s="26"/>
+      <c r="H214" s="25"/>
+      <c r="I214" s="25"/>
       <c r="K214" s="20"/>
       <c r="L214" s="28"/>
       <c r="M214" s="3" t="s">
@@ -8510,22 +8942,22 @@
       </c>
     </row>
     <row r="215" spans="1:22" s="17" customFormat="1">
-      <c r="A215" s="25"/>
-      <c r="B215" s="26"/>
-      <c r="C215" s="26"/>
-      <c r="D215" s="26"/>
-      <c r="E215" s="26"/>
-      <c r="F215" s="26"/>
-      <c r="G215" s="25"/>
-      <c r="H215" s="26"/>
-      <c r="I215" s="26"/>
+      <c r="A215" s="26"/>
+      <c r="B215" s="25"/>
+      <c r="C215" s="25"/>
+      <c r="D215" s="25"/>
+      <c r="E215" s="25"/>
+      <c r="F215" s="25"/>
+      <c r="G215" s="26"/>
+      <c r="H215" s="25"/>
+      <c r="I215" s="25"/>
       <c r="K215" s="20"/>
       <c r="L215" s="28"/>
       <c r="M215" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N215" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O215" s="17" t="s">
         <v>48</v>
@@ -8538,15 +8970,15 @@
       </c>
     </row>
     <row r="216" spans="1:22" s="17" customFormat="1">
-      <c r="A216" s="25"/>
-      <c r="B216" s="26"/>
-      <c r="C216" s="26"/>
-      <c r="D216" s="26"/>
-      <c r="E216" s="26"/>
-      <c r="F216" s="26"/>
-      <c r="G216" s="25"/>
-      <c r="H216" s="26"/>
-      <c r="I216" s="26"/>
+      <c r="A216" s="26"/>
+      <c r="B216" s="25"/>
+      <c r="C216" s="25"/>
+      <c r="D216" s="25"/>
+      <c r="E216" s="25"/>
+      <c r="F216" s="25"/>
+      <c r="G216" s="26"/>
+      <c r="H216" s="25"/>
+      <c r="I216" s="25"/>
       <c r="K216" s="20"/>
       <c r="L216" s="28"/>
       <c r="M216" s="3" t="s">
@@ -8566,22 +8998,22 @@
       </c>
     </row>
     <row r="217" spans="1:22" s="17" customFormat="1">
-      <c r="A217" s="25"/>
-      <c r="B217" s="26"/>
-      <c r="C217" s="26"/>
-      <c r="D217" s="26"/>
-      <c r="E217" s="26"/>
-      <c r="F217" s="26"/>
-      <c r="G217" s="25"/>
-      <c r="H217" s="26"/>
-      <c r="I217" s="26"/>
+      <c r="A217" s="26"/>
+      <c r="B217" s="25"/>
+      <c r="C217" s="25"/>
+      <c r="D217" s="25"/>
+      <c r="E217" s="25"/>
+      <c r="F217" s="25"/>
+      <c r="G217" s="26"/>
+      <c r="H217" s="25"/>
+      <c r="I217" s="25"/>
       <c r="K217" s="20"/>
       <c r="L217" s="28"/>
       <c r="M217" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N217" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O217" s="17" t="s">
         <v>52</v>
@@ -8594,22 +9026,22 @@
       </c>
     </row>
     <row r="218" spans="1:22" s="17" customFormat="1">
-      <c r="A218" s="25"/>
-      <c r="B218" s="26"/>
-      <c r="C218" s="26"/>
-      <c r="D218" s="26"/>
-      <c r="E218" s="26"/>
-      <c r="F218" s="26"/>
-      <c r="G218" s="25"/>
-      <c r="H218" s="26"/>
-      <c r="I218" s="26"/>
+      <c r="A218" s="26"/>
+      <c r="B218" s="25"/>
+      <c r="C218" s="25"/>
+      <c r="D218" s="25"/>
+      <c r="E218" s="25"/>
+      <c r="F218" s="25"/>
+      <c r="G218" s="26"/>
+      <c r="H218" s="25"/>
+      <c r="I218" s="25"/>
       <c r="K218" s="20"/>
       <c r="L218" s="28"/>
       <c r="M218" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N218" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O218" s="18" t="s">
         <v>55</v>
@@ -8622,15 +9054,15 @@
       </c>
     </row>
     <row r="219" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A219" s="25"/>
-      <c r="B219" s="26"/>
-      <c r="C219" s="26"/>
-      <c r="D219" s="26"/>
-      <c r="E219" s="26"/>
-      <c r="F219" s="26"/>
-      <c r="G219" s="25"/>
-      <c r="H219" s="26"/>
-      <c r="I219" s="26"/>
+      <c r="A219" s="26"/>
+      <c r="B219" s="25"/>
+      <c r="C219" s="25"/>
+      <c r="D219" s="25"/>
+      <c r="E219" s="25"/>
+      <c r="F219" s="25"/>
+      <c r="G219" s="26"/>
+      <c r="H219" s="25"/>
+      <c r="I219" s="25"/>
       <c r="K219" s="20"/>
       <c r="L219" s="19" t="s">
         <v>57</v>
@@ -8639,7 +9071,7 @@
         <v>57</v>
       </c>
       <c r="N219" s="17" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="O219" s="18" t="s">
         <v>58</v>
@@ -8650,11 +9082,14 @@
       <c r="Q219" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R219" s="18" t="s">
-        <v>253</v>
+      <c r="R219" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="S219" s="17" t="s">
+        <v>271</v>
       </c>
       <c r="T219" s="18" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="220" spans="1:22" s="17" customFormat="1">
@@ -8710,7 +9145,7 @@
         <v>7</v>
       </c>
       <c r="J221" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K221" s="27"/>
       <c r="L221" s="3" t="s">
@@ -8743,33 +9178,33 @@
       </c>
     </row>
     <row r="222" spans="1:22" s="17" customFormat="1">
-      <c r="A222" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="B222" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C222" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D222" s="26" t="s">
+      <c r="A222" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B222" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C222" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D222" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E222" s="26" t="s">
+      <c r="E222" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F222" s="26" t="s">
+      <c r="F222" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G222" s="25" t="s">
+      <c r="G222" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H222" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="I222" s="26"/>
+      <c r="H222" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="I222" s="25"/>
       <c r="J222" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K222" s="8" t="s">
         <v>103</v>
@@ -8781,7 +9216,7 @@
         <v>20</v>
       </c>
       <c r="N222" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O222" s="17" t="s">
         <v>21</v>
@@ -8794,17 +9229,17 @@
       </c>
     </row>
     <row r="223" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A223" s="25"/>
-      <c r="B223" s="26"/>
-      <c r="C223" s="26"/>
-      <c r="D223" s="26"/>
-      <c r="E223" s="26"/>
-      <c r="F223" s="26"/>
-      <c r="G223" s="25"/>
-      <c r="H223" s="26"/>
-      <c r="I223" s="26"/>
+      <c r="A223" s="26"/>
+      <c r="B223" s="25"/>
+      <c r="C223" s="25"/>
+      <c r="D223" s="25"/>
+      <c r="E223" s="25"/>
+      <c r="F223" s="25"/>
+      <c r="G223" s="26"/>
+      <c r="H223" s="25"/>
+      <c r="I223" s="25"/>
       <c r="J223" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K223" s="8" t="s">
         <v>102</v>
@@ -8814,7 +9249,7 @@
         <v>25</v>
       </c>
       <c r="N223" s="17" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="O223" s="18" t="s">
         <v>26</v>
@@ -8829,21 +9264,21 @@
         <v>108</v>
       </c>
       <c r="T223" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="224" spans="1:22" s="17" customFormat="1">
-      <c r="A224" s="25"/>
-      <c r="B224" s="26"/>
-      <c r="C224" s="26"/>
-      <c r="D224" s="26"/>
-      <c r="E224" s="26"/>
-      <c r="F224" s="26"/>
-      <c r="G224" s="25"/>
-      <c r="H224" s="26"/>
-      <c r="I224" s="26"/>
+      <c r="A224" s="26"/>
+      <c r="B224" s="25"/>
+      <c r="C224" s="25"/>
+      <c r="D224" s="25"/>
+      <c r="E224" s="25"/>
+      <c r="F224" s="25"/>
+      <c r="G224" s="26"/>
+      <c r="H224" s="25"/>
+      <c r="I224" s="25"/>
       <c r="J224" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K224" s="11" t="s">
         <v>101</v>
@@ -8853,7 +9288,7 @@
         <v>29</v>
       </c>
       <c r="N224" s="17" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="O224" s="17" t="s">
         <v>30</v>
@@ -8868,26 +9303,26 @@
         <v>108</v>
       </c>
       <c r="T224" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="225" spans="1:22" s="17" customFormat="1">
-      <c r="A225" s="25"/>
-      <c r="B225" s="26"/>
-      <c r="C225" s="26"/>
-      <c r="D225" s="26"/>
-      <c r="E225" s="26"/>
-      <c r="F225" s="26"/>
-      <c r="G225" s="25"/>
-      <c r="H225" s="26"/>
-      <c r="I225" s="26"/>
+      <c r="A225" s="26"/>
+      <c r="B225" s="25"/>
+      <c r="C225" s="25"/>
+      <c r="D225" s="25"/>
+      <c r="E225" s="25"/>
+      <c r="F225" s="25"/>
+      <c r="G225" s="26"/>
+      <c r="H225" s="25"/>
+      <c r="I225" s="25"/>
       <c r="K225" s="20"/>
       <c r="L225" s="28"/>
       <c r="M225" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N225" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O225" s="17" t="s">
         <v>33</v>
@@ -8900,15 +9335,15 @@
       </c>
     </row>
     <row r="226" spans="1:22" s="17" customFormat="1">
-      <c r="A226" s="25"/>
-      <c r="B226" s="26"/>
-      <c r="C226" s="26"/>
-      <c r="D226" s="26"/>
-      <c r="E226" s="26"/>
-      <c r="F226" s="26"/>
-      <c r="G226" s="25"/>
-      <c r="H226" s="26"/>
-      <c r="I226" s="26"/>
+      <c r="A226" s="26"/>
+      <c r="B226" s="25"/>
+      <c r="C226" s="25"/>
+      <c r="D226" s="25"/>
+      <c r="E226" s="25"/>
+      <c r="F226" s="25"/>
+      <c r="G226" s="26"/>
+      <c r="H226" s="25"/>
+      <c r="I226" s="25"/>
       <c r="K226" s="20"/>
       <c r="L226" s="28"/>
       <c r="M226" s="3" t="s">
@@ -8928,22 +9363,22 @@
       </c>
     </row>
     <row r="227" spans="1:22" s="17" customFormat="1">
-      <c r="A227" s="25"/>
-      <c r="B227" s="26"/>
-      <c r="C227" s="26"/>
-      <c r="D227" s="26"/>
-      <c r="E227" s="26"/>
-      <c r="F227" s="26"/>
-      <c r="G227" s="25"/>
-      <c r="H227" s="26"/>
-      <c r="I227" s="26"/>
+      <c r="A227" s="26"/>
+      <c r="B227" s="25"/>
+      <c r="C227" s="25"/>
+      <c r="D227" s="25"/>
+      <c r="E227" s="25"/>
+      <c r="F227" s="25"/>
+      <c r="G227" s="26"/>
+      <c r="H227" s="25"/>
+      <c r="I227" s="25"/>
       <c r="K227" s="20"/>
       <c r="L227" s="28"/>
       <c r="M227" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N227" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O227" s="17" t="s">
         <v>39</v>
@@ -8956,22 +9391,22 @@
       </c>
     </row>
     <row r="228" spans="1:22" s="17" customFormat="1">
-      <c r="A228" s="25"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="26"/>
-      <c r="D228" s="26"/>
-      <c r="E228" s="26"/>
-      <c r="F228" s="26"/>
-      <c r="G228" s="25"/>
-      <c r="H228" s="26"/>
-      <c r="I228" s="26"/>
+      <c r="A228" s="26"/>
+      <c r="B228" s="25"/>
+      <c r="C228" s="25"/>
+      <c r="D228" s="25"/>
+      <c r="E228" s="25"/>
+      <c r="F228" s="25"/>
+      <c r="G228" s="26"/>
+      <c r="H228" s="25"/>
+      <c r="I228" s="25"/>
       <c r="K228" s="20"/>
       <c r="L228" s="28"/>
       <c r="M228" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N228" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O228" s="17" t="s">
         <v>42</v>
@@ -8984,15 +9419,15 @@
       </c>
     </row>
     <row r="229" spans="1:22" s="17" customFormat="1">
-      <c r="A229" s="25"/>
-      <c r="B229" s="26"/>
-      <c r="C229" s="26"/>
-      <c r="D229" s="26"/>
-      <c r="E229" s="26"/>
-      <c r="F229" s="26"/>
-      <c r="G229" s="25"/>
-      <c r="H229" s="26"/>
-      <c r="I229" s="26"/>
+      <c r="A229" s="26"/>
+      <c r="B229" s="25"/>
+      <c r="C229" s="25"/>
+      <c r="D229" s="25"/>
+      <c r="E229" s="25"/>
+      <c r="F229" s="25"/>
+      <c r="G229" s="26"/>
+      <c r="H229" s="25"/>
+      <c r="I229" s="25"/>
       <c r="K229" s="20"/>
       <c r="L229" s="28"/>
       <c r="M229" s="3" t="s">
@@ -9012,22 +9447,22 @@
       </c>
     </row>
     <row r="230" spans="1:22" s="17" customFormat="1">
-      <c r="A230" s="25"/>
-      <c r="B230" s="26"/>
-      <c r="C230" s="26"/>
-      <c r="D230" s="26"/>
-      <c r="E230" s="26"/>
-      <c r="F230" s="26"/>
-      <c r="G230" s="25"/>
-      <c r="H230" s="26"/>
-      <c r="I230" s="26"/>
+      <c r="A230" s="26"/>
+      <c r="B230" s="25"/>
+      <c r="C230" s="25"/>
+      <c r="D230" s="25"/>
+      <c r="E230" s="25"/>
+      <c r="F230" s="25"/>
+      <c r="G230" s="26"/>
+      <c r="H230" s="25"/>
+      <c r="I230" s="25"/>
       <c r="K230" s="20"/>
       <c r="L230" s="28"/>
       <c r="M230" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N230" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O230" s="17" t="s">
         <v>48</v>
@@ -9040,15 +9475,15 @@
       </c>
     </row>
     <row r="231" spans="1:22" s="17" customFormat="1">
-      <c r="A231" s="25"/>
-      <c r="B231" s="26"/>
-      <c r="C231" s="26"/>
-      <c r="D231" s="26"/>
-      <c r="E231" s="26"/>
-      <c r="F231" s="26"/>
-      <c r="G231" s="25"/>
-      <c r="H231" s="26"/>
-      <c r="I231" s="26"/>
+      <c r="A231" s="26"/>
+      <c r="B231" s="25"/>
+      <c r="C231" s="25"/>
+      <c r="D231" s="25"/>
+      <c r="E231" s="25"/>
+      <c r="F231" s="25"/>
+      <c r="G231" s="26"/>
+      <c r="H231" s="25"/>
+      <c r="I231" s="25"/>
       <c r="K231" s="20"/>
       <c r="L231" s="28"/>
       <c r="M231" s="3" t="s">
@@ -9068,22 +9503,22 @@
       </c>
     </row>
     <row r="232" spans="1:22" s="17" customFormat="1">
-      <c r="A232" s="25"/>
-      <c r="B232" s="26"/>
-      <c r="C232" s="26"/>
-      <c r="D232" s="26"/>
-      <c r="E232" s="26"/>
-      <c r="F232" s="26"/>
-      <c r="G232" s="25"/>
-      <c r="H232" s="26"/>
-      <c r="I232" s="26"/>
+      <c r="A232" s="26"/>
+      <c r="B232" s="25"/>
+      <c r="C232" s="25"/>
+      <c r="D232" s="25"/>
+      <c r="E232" s="25"/>
+      <c r="F232" s="25"/>
+      <c r="G232" s="26"/>
+      <c r="H232" s="25"/>
+      <c r="I232" s="25"/>
       <c r="K232" s="20"/>
       <c r="L232" s="28"/>
       <c r="M232" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N232" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O232" s="17" t="s">
         <v>52</v>
@@ -9096,22 +9531,22 @@
       </c>
     </row>
     <row r="233" spans="1:22" s="17" customFormat="1">
-      <c r="A233" s="25"/>
-      <c r="B233" s="26"/>
-      <c r="C233" s="26"/>
-      <c r="D233" s="26"/>
-      <c r="E233" s="26"/>
-      <c r="F233" s="26"/>
-      <c r="G233" s="25"/>
-      <c r="H233" s="26"/>
-      <c r="I233" s="26"/>
+      <c r="A233" s="26"/>
+      <c r="B233" s="25"/>
+      <c r="C233" s="25"/>
+      <c r="D233" s="25"/>
+      <c r="E233" s="25"/>
+      <c r="F233" s="25"/>
+      <c r="G233" s="26"/>
+      <c r="H233" s="25"/>
+      <c r="I233" s="25"/>
       <c r="K233" s="20"/>
       <c r="L233" s="28"/>
       <c r="M233" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N233" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O233" s="18" t="s">
         <v>55</v>
@@ -9124,15 +9559,15 @@
       </c>
     </row>
     <row r="234" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A234" s="25"/>
-      <c r="B234" s="26"/>
-      <c r="C234" s="26"/>
-      <c r="D234" s="26"/>
-      <c r="E234" s="26"/>
-      <c r="F234" s="26"/>
-      <c r="G234" s="25"/>
-      <c r="H234" s="26"/>
-      <c r="I234" s="26"/>
+      <c r="A234" s="26"/>
+      <c r="B234" s="25"/>
+      <c r="C234" s="25"/>
+      <c r="D234" s="25"/>
+      <c r="E234" s="25"/>
+      <c r="F234" s="25"/>
+      <c r="G234" s="26"/>
+      <c r="H234" s="25"/>
+      <c r="I234" s="25"/>
       <c r="K234" s="20"/>
       <c r="L234" s="19" t="s">
         <v>57</v>
@@ -9141,7 +9576,7 @@
         <v>57</v>
       </c>
       <c r="N234" s="17" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="O234" s="18" t="s">
         <v>58</v>
@@ -9152,11 +9587,14 @@
       <c r="Q234" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R234" s="18" t="s">
-        <v>188</v>
+      <c r="R234" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="S234" s="17" t="s">
+        <v>272</v>
       </c>
       <c r="T234" s="18" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="235" spans="1:22" s="17" customFormat="1">
@@ -9212,7 +9650,7 @@
         <v>7</v>
       </c>
       <c r="J236" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K236" s="27"/>
       <c r="L236" s="3" t="s">
@@ -9245,33 +9683,33 @@
       </c>
     </row>
     <row r="237" spans="1:22" s="17" customFormat="1">
-      <c r="A237" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="B237" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="C237" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D237" s="26" t="s">
+      <c r="A237" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B237" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C237" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D237" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E237" s="26" t="s">
+      <c r="E237" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F237" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="G237" s="25" t="s">
+      <c r="F237" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G237" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H237" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="I237" s="26"/>
+      <c r="H237" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="I237" s="25"/>
       <c r="J237" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K237" s="8" t="s">
         <v>103</v>
@@ -9283,7 +9721,7 @@
         <v>20</v>
       </c>
       <c r="N237" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O237" s="17" t="s">
         <v>21</v>
@@ -9296,17 +9734,17 @@
       </c>
     </row>
     <row r="238" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A238" s="25"/>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
-      <c r="D238" s="26"/>
-      <c r="E238" s="26"/>
-      <c r="F238" s="26"/>
-      <c r="G238" s="25"/>
-      <c r="H238" s="26"/>
-      <c r="I238" s="26"/>
+      <c r="A238" s="26"/>
+      <c r="B238" s="25"/>
+      <c r="C238" s="25"/>
+      <c r="D238" s="25"/>
+      <c r="E238" s="25"/>
+      <c r="F238" s="25"/>
+      <c r="G238" s="26"/>
+      <c r="H238" s="25"/>
+      <c r="I238" s="25"/>
       <c r="J238" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K238" s="8" t="s">
         <v>102</v>
@@ -9316,7 +9754,7 @@
         <v>25</v>
       </c>
       <c r="N238" s="17" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="O238" s="18" t="s">
         <v>26</v>
@@ -9331,21 +9769,21 @@
         <v>108</v>
       </c>
       <c r="T238" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="239" spans="1:22" s="17" customFormat="1">
-      <c r="A239" s="25"/>
-      <c r="B239" s="26"/>
-      <c r="C239" s="26"/>
-      <c r="D239" s="26"/>
-      <c r="E239" s="26"/>
-      <c r="F239" s="26"/>
-      <c r="G239" s="25"/>
-      <c r="H239" s="26"/>
-      <c r="I239" s="26"/>
+      <c r="A239" s="26"/>
+      <c r="B239" s="25"/>
+      <c r="C239" s="25"/>
+      <c r="D239" s="25"/>
+      <c r="E239" s="25"/>
+      <c r="F239" s="25"/>
+      <c r="G239" s="26"/>
+      <c r="H239" s="25"/>
+      <c r="I239" s="25"/>
       <c r="J239" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K239" s="11" t="s">
         <v>101</v>
@@ -9355,7 +9793,7 @@
         <v>29</v>
       </c>
       <c r="N239" s="17" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="O239" s="17" t="s">
         <v>30</v>
@@ -9370,31 +9808,31 @@
         <v>108</v>
       </c>
       <c r="T239" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="240" spans="1:22" s="17" customFormat="1" ht="49.5">
-      <c r="A240" s="25"/>
-      <c r="B240" s="26"/>
-      <c r="C240" s="26"/>
-      <c r="D240" s="26"/>
-      <c r="E240" s="26"/>
-      <c r="F240" s="26"/>
-      <c r="G240" s="25"/>
-      <c r="H240" s="26"/>
-      <c r="I240" s="26"/>
+      <c r="A240" s="26"/>
+      <c r="B240" s="25"/>
+      <c r="C240" s="25"/>
+      <c r="D240" s="25"/>
+      <c r="E240" s="25"/>
+      <c r="F240" s="25"/>
+      <c r="G240" s="26"/>
+      <c r="H240" s="25"/>
+      <c r="I240" s="25"/>
       <c r="J240" s="24" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="K240" s="22" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="L240" s="28"/>
       <c r="M240" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N240" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O240" s="17" t="s">
         <v>33</v>
@@ -9407,20 +9845,20 @@
       </c>
     </row>
     <row r="241" spans="1:22" s="17" customFormat="1" ht="49.5">
-      <c r="A241" s="25"/>
-      <c r="B241" s="26"/>
-      <c r="C241" s="26"/>
-      <c r="D241" s="26"/>
-      <c r="E241" s="26"/>
-      <c r="F241" s="26"/>
-      <c r="G241" s="25"/>
-      <c r="H241" s="26"/>
-      <c r="I241" s="26"/>
+      <c r="A241" s="26"/>
+      <c r="B241" s="25"/>
+      <c r="C241" s="25"/>
+      <c r="D241" s="25"/>
+      <c r="E241" s="25"/>
+      <c r="F241" s="25"/>
+      <c r="G241" s="26"/>
+      <c r="H241" s="25"/>
+      <c r="I241" s="25"/>
       <c r="J241" s="24" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="K241" s="22" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="L241" s="28"/>
       <c r="M241" s="3" t="s">
@@ -9440,22 +9878,22 @@
       </c>
     </row>
     <row r="242" spans="1:22" s="17" customFormat="1">
-      <c r="A242" s="25"/>
-      <c r="B242" s="26"/>
-      <c r="C242" s="26"/>
-      <c r="D242" s="26"/>
-      <c r="E242" s="26"/>
-      <c r="F242" s="26"/>
-      <c r="G242" s="25"/>
-      <c r="H242" s="26"/>
-      <c r="I242" s="26"/>
+      <c r="A242" s="26"/>
+      <c r="B242" s="25"/>
+      <c r="C242" s="25"/>
+      <c r="D242" s="25"/>
+      <c r="E242" s="25"/>
+      <c r="F242" s="25"/>
+      <c r="G242" s="26"/>
+      <c r="H242" s="25"/>
+      <c r="I242" s="25"/>
       <c r="K242" s="20"/>
       <c r="L242" s="28"/>
       <c r="M242" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N242" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O242" s="17" t="s">
         <v>39</v>
@@ -9468,22 +9906,22 @@
       </c>
     </row>
     <row r="243" spans="1:22" s="17" customFormat="1">
-      <c r="A243" s="25"/>
-      <c r="B243" s="26"/>
-      <c r="C243" s="26"/>
-      <c r="D243" s="26"/>
-      <c r="E243" s="26"/>
-      <c r="F243" s="26"/>
-      <c r="G243" s="25"/>
-      <c r="H243" s="26"/>
-      <c r="I243" s="26"/>
+      <c r="A243" s="26"/>
+      <c r="B243" s="25"/>
+      <c r="C243" s="25"/>
+      <c r="D243" s="25"/>
+      <c r="E243" s="25"/>
+      <c r="F243" s="25"/>
+      <c r="G243" s="26"/>
+      <c r="H243" s="25"/>
+      <c r="I243" s="25"/>
       <c r="K243" s="20"/>
       <c r="L243" s="28"/>
       <c r="M243" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N243" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O243" s="17" t="s">
         <v>42</v>
@@ -9496,15 +9934,15 @@
       </c>
     </row>
     <row r="244" spans="1:22" s="17" customFormat="1">
-      <c r="A244" s="25"/>
-      <c r="B244" s="26"/>
-      <c r="C244" s="26"/>
-      <c r="D244" s="26"/>
-      <c r="E244" s="26"/>
-      <c r="F244" s="26"/>
-      <c r="G244" s="25"/>
-      <c r="H244" s="26"/>
-      <c r="I244" s="26"/>
+      <c r="A244" s="26"/>
+      <c r="B244" s="25"/>
+      <c r="C244" s="25"/>
+      <c r="D244" s="25"/>
+      <c r="E244" s="25"/>
+      <c r="F244" s="25"/>
+      <c r="G244" s="26"/>
+      <c r="H244" s="25"/>
+      <c r="I244" s="25"/>
       <c r="K244" s="20"/>
       <c r="L244" s="28"/>
       <c r="M244" s="3" t="s">
@@ -9524,22 +9962,22 @@
       </c>
     </row>
     <row r="245" spans="1:22" s="17" customFormat="1">
-      <c r="A245" s="25"/>
-      <c r="B245" s="26"/>
-      <c r="C245" s="26"/>
-      <c r="D245" s="26"/>
-      <c r="E245" s="26"/>
-      <c r="F245" s="26"/>
-      <c r="G245" s="25"/>
-      <c r="H245" s="26"/>
-      <c r="I245" s="26"/>
+      <c r="A245" s="26"/>
+      <c r="B245" s="25"/>
+      <c r="C245" s="25"/>
+      <c r="D245" s="25"/>
+      <c r="E245" s="25"/>
+      <c r="F245" s="25"/>
+      <c r="G245" s="26"/>
+      <c r="H245" s="25"/>
+      <c r="I245" s="25"/>
       <c r="K245" s="20"/>
       <c r="L245" s="28"/>
       <c r="M245" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N245" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O245" s="17" t="s">
         <v>48</v>
@@ -9552,15 +9990,15 @@
       </c>
     </row>
     <row r="246" spans="1:22" s="17" customFormat="1">
-      <c r="A246" s="25"/>
-      <c r="B246" s="26"/>
-      <c r="C246" s="26"/>
-      <c r="D246" s="26"/>
-      <c r="E246" s="26"/>
-      <c r="F246" s="26"/>
-      <c r="G246" s="25"/>
-      <c r="H246" s="26"/>
-      <c r="I246" s="26"/>
+      <c r="A246" s="26"/>
+      <c r="B246" s="25"/>
+      <c r="C246" s="25"/>
+      <c r="D246" s="25"/>
+      <c r="E246" s="25"/>
+      <c r="F246" s="25"/>
+      <c r="G246" s="26"/>
+      <c r="H246" s="25"/>
+      <c r="I246" s="25"/>
       <c r="K246" s="20"/>
       <c r="L246" s="28"/>
       <c r="M246" s="3" t="s">
@@ -9580,22 +10018,22 @@
       </c>
     </row>
     <row r="247" spans="1:22" s="17" customFormat="1">
-      <c r="A247" s="25"/>
-      <c r="B247" s="26"/>
-      <c r="C247" s="26"/>
-      <c r="D247" s="26"/>
-      <c r="E247" s="26"/>
-      <c r="F247" s="26"/>
-      <c r="G247" s="25"/>
-      <c r="H247" s="26"/>
-      <c r="I247" s="26"/>
+      <c r="A247" s="26"/>
+      <c r="B247" s="25"/>
+      <c r="C247" s="25"/>
+      <c r="D247" s="25"/>
+      <c r="E247" s="25"/>
+      <c r="F247" s="25"/>
+      <c r="G247" s="26"/>
+      <c r="H247" s="25"/>
+      <c r="I247" s="25"/>
       <c r="K247" s="20"/>
       <c r="L247" s="28"/>
       <c r="M247" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N247" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O247" s="17" t="s">
         <v>52</v>
@@ -9608,22 +10046,22 @@
       </c>
     </row>
     <row r="248" spans="1:22" s="17" customFormat="1">
-      <c r="A248" s="25"/>
-      <c r="B248" s="26"/>
-      <c r="C248" s="26"/>
-      <c r="D248" s="26"/>
-      <c r="E248" s="26"/>
-      <c r="F248" s="26"/>
-      <c r="G248" s="25"/>
-      <c r="H248" s="26"/>
-      <c r="I248" s="26"/>
+      <c r="A248" s="26"/>
+      <c r="B248" s="25"/>
+      <c r="C248" s="25"/>
+      <c r="D248" s="25"/>
+      <c r="E248" s="25"/>
+      <c r="F248" s="25"/>
+      <c r="G248" s="26"/>
+      <c r="H248" s="25"/>
+      <c r="I248" s="25"/>
       <c r="K248" s="20"/>
       <c r="L248" s="28"/>
       <c r="M248" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N248" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O248" s="18" t="s">
         <v>55</v>
@@ -9636,15 +10074,15 @@
       </c>
     </row>
     <row r="249" spans="1:22" s="17" customFormat="1" ht="115.5">
-      <c r="A249" s="25"/>
-      <c r="B249" s="26"/>
-      <c r="C249" s="26"/>
-      <c r="D249" s="26"/>
-      <c r="E249" s="26"/>
-      <c r="F249" s="26"/>
-      <c r="G249" s="25"/>
-      <c r="H249" s="26"/>
-      <c r="I249" s="26"/>
+      <c r="A249" s="26"/>
+      <c r="B249" s="25"/>
+      <c r="C249" s="25"/>
+      <c r="D249" s="25"/>
+      <c r="E249" s="25"/>
+      <c r="F249" s="25"/>
+      <c r="G249" s="26"/>
+      <c r="H249" s="25"/>
+      <c r="I249" s="25"/>
       <c r="K249" s="20"/>
       <c r="L249" s="19" t="s">
         <v>57</v>
@@ -9653,7 +10091,7 @@
         <v>57</v>
       </c>
       <c r="N249" s="17" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="O249" s="18" t="s">
         <v>58</v>
@@ -9664,11 +10102,14 @@
       <c r="Q249" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R249" s="18" t="s">
-        <v>192</v>
+      <c r="R249" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="S249" s="18" t="s">
+        <v>273</v>
       </c>
       <c r="T249" s="18" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="250" spans="1:22" s="17" customFormat="1">
@@ -9724,7 +10165,7 @@
         <v>7</v>
       </c>
       <c r="J251" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K251" s="27"/>
       <c r="L251" s="3" t="s">
@@ -9757,33 +10198,33 @@
       </c>
     </row>
     <row r="252" spans="1:22" s="17" customFormat="1">
-      <c r="A252" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="B252" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C252" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D252" s="26" t="s">
+      <c r="A252" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B252" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C252" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D252" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E252" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="F252" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="G252" s="25" t="s">
+      <c r="E252" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F252" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G252" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H252" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="I252" s="26"/>
+      <c r="H252" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="I252" s="25"/>
       <c r="J252" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K252" s="8" t="s">
         <v>103</v>
@@ -9795,7 +10236,7 @@
         <v>20</v>
       </c>
       <c r="N252" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O252" s="17" t="s">
         <v>21</v>
@@ -9808,17 +10249,17 @@
       </c>
     </row>
     <row r="253" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A253" s="25"/>
-      <c r="B253" s="26"/>
-      <c r="C253" s="26"/>
-      <c r="D253" s="26"/>
-      <c r="E253" s="26"/>
-      <c r="F253" s="26"/>
-      <c r="G253" s="25"/>
-      <c r="H253" s="26"/>
-      <c r="I253" s="26"/>
+      <c r="A253" s="26"/>
+      <c r="B253" s="25"/>
+      <c r="C253" s="25"/>
+      <c r="D253" s="25"/>
+      <c r="E253" s="25"/>
+      <c r="F253" s="25"/>
+      <c r="G253" s="26"/>
+      <c r="H253" s="25"/>
+      <c r="I253" s="25"/>
       <c r="J253" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K253" s="8" t="s">
         <v>102</v>
@@ -9828,7 +10269,7 @@
         <v>25</v>
       </c>
       <c r="N253" s="17" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="O253" s="18" t="s">
         <v>26</v>
@@ -9843,21 +10284,21 @@
         <v>108</v>
       </c>
       <c r="T253" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="254" spans="1:22" s="17" customFormat="1">
-      <c r="A254" s="25"/>
-      <c r="B254" s="26"/>
-      <c r="C254" s="26"/>
-      <c r="D254" s="26"/>
-      <c r="E254" s="26"/>
-      <c r="F254" s="26"/>
-      <c r="G254" s="25"/>
-      <c r="H254" s="26"/>
-      <c r="I254" s="26"/>
+      <c r="A254" s="26"/>
+      <c r="B254" s="25"/>
+      <c r="C254" s="25"/>
+      <c r="D254" s="25"/>
+      <c r="E254" s="25"/>
+      <c r="F254" s="25"/>
+      <c r="G254" s="26"/>
+      <c r="H254" s="25"/>
+      <c r="I254" s="25"/>
       <c r="J254" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K254" s="11" t="s">
         <v>101</v>
@@ -9867,7 +10308,7 @@
         <v>29</v>
       </c>
       <c r="N254" s="17" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="O254" s="17" t="s">
         <v>30</v>
@@ -9882,26 +10323,26 @@
         <v>108</v>
       </c>
       <c r="T254" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="255" spans="1:22" s="17" customFormat="1">
-      <c r="A255" s="25"/>
-      <c r="B255" s="26"/>
-      <c r="C255" s="26"/>
-      <c r="D255" s="26"/>
-      <c r="E255" s="26"/>
-      <c r="F255" s="26"/>
-      <c r="G255" s="25"/>
-      <c r="H255" s="26"/>
-      <c r="I255" s="26"/>
+      <c r="A255" s="26"/>
+      <c r="B255" s="25"/>
+      <c r="C255" s="25"/>
+      <c r="D255" s="25"/>
+      <c r="E255" s="25"/>
+      <c r="F255" s="25"/>
+      <c r="G255" s="26"/>
+      <c r="H255" s="25"/>
+      <c r="I255" s="25"/>
       <c r="K255" s="20"/>
       <c r="L255" s="28"/>
       <c r="M255" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N255" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O255" s="17" t="s">
         <v>33</v>
@@ -9914,15 +10355,15 @@
       </c>
     </row>
     <row r="256" spans="1:22" s="17" customFormat="1">
-      <c r="A256" s="25"/>
-      <c r="B256" s="26"/>
-      <c r="C256" s="26"/>
-      <c r="D256" s="26"/>
-      <c r="E256" s="26"/>
-      <c r="F256" s="26"/>
-      <c r="G256" s="25"/>
-      <c r="H256" s="26"/>
-      <c r="I256" s="26"/>
+      <c r="A256" s="26"/>
+      <c r="B256" s="25"/>
+      <c r="C256" s="25"/>
+      <c r="D256" s="25"/>
+      <c r="E256" s="25"/>
+      <c r="F256" s="25"/>
+      <c r="G256" s="26"/>
+      <c r="H256" s="25"/>
+      <c r="I256" s="25"/>
       <c r="K256" s="20"/>
       <c r="L256" s="28"/>
       <c r="M256" s="3" t="s">
@@ -9942,22 +10383,22 @@
       </c>
     </row>
     <row r="257" spans="1:22" s="17" customFormat="1">
-      <c r="A257" s="25"/>
-      <c r="B257" s="26"/>
-      <c r="C257" s="26"/>
-      <c r="D257" s="26"/>
-      <c r="E257" s="26"/>
-      <c r="F257" s="26"/>
-      <c r="G257" s="25"/>
-      <c r="H257" s="26"/>
-      <c r="I257" s="26"/>
+      <c r="A257" s="26"/>
+      <c r="B257" s="25"/>
+      <c r="C257" s="25"/>
+      <c r="D257" s="25"/>
+      <c r="E257" s="25"/>
+      <c r="F257" s="25"/>
+      <c r="G257" s="26"/>
+      <c r="H257" s="25"/>
+      <c r="I257" s="25"/>
       <c r="K257" s="20"/>
       <c r="L257" s="28"/>
       <c r="M257" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N257" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O257" s="17" t="s">
         <v>39</v>
@@ -9970,22 +10411,22 @@
       </c>
     </row>
     <row r="258" spans="1:22" s="17" customFormat="1">
-      <c r="A258" s="25"/>
-      <c r="B258" s="26"/>
-      <c r="C258" s="26"/>
-      <c r="D258" s="26"/>
-      <c r="E258" s="26"/>
-      <c r="F258" s="26"/>
-      <c r="G258" s="25"/>
-      <c r="H258" s="26"/>
-      <c r="I258" s="26"/>
+      <c r="A258" s="26"/>
+      <c r="B258" s="25"/>
+      <c r="C258" s="25"/>
+      <c r="D258" s="25"/>
+      <c r="E258" s="25"/>
+      <c r="F258" s="25"/>
+      <c r="G258" s="26"/>
+      <c r="H258" s="25"/>
+      <c r="I258" s="25"/>
       <c r="K258" s="20"/>
       <c r="L258" s="28"/>
       <c r="M258" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N258" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O258" s="17" t="s">
         <v>42</v>
@@ -9998,15 +10439,15 @@
       </c>
     </row>
     <row r="259" spans="1:22" s="17" customFormat="1">
-      <c r="A259" s="25"/>
-      <c r="B259" s="26"/>
-      <c r="C259" s="26"/>
-      <c r="D259" s="26"/>
-      <c r="E259" s="26"/>
-      <c r="F259" s="26"/>
-      <c r="G259" s="25"/>
-      <c r="H259" s="26"/>
-      <c r="I259" s="26"/>
+      <c r="A259" s="26"/>
+      <c r="B259" s="25"/>
+      <c r="C259" s="25"/>
+      <c r="D259" s="25"/>
+      <c r="E259" s="25"/>
+      <c r="F259" s="25"/>
+      <c r="G259" s="26"/>
+      <c r="H259" s="25"/>
+      <c r="I259" s="25"/>
       <c r="K259" s="20"/>
       <c r="L259" s="28"/>
       <c r="M259" s="3" t="s">
@@ -10026,22 +10467,22 @@
       </c>
     </row>
     <row r="260" spans="1:22" s="17" customFormat="1">
-      <c r="A260" s="25"/>
-      <c r="B260" s="26"/>
-      <c r="C260" s="26"/>
-      <c r="D260" s="26"/>
-      <c r="E260" s="26"/>
-      <c r="F260" s="26"/>
-      <c r="G260" s="25"/>
-      <c r="H260" s="26"/>
-      <c r="I260" s="26"/>
+      <c r="A260" s="26"/>
+      <c r="B260" s="25"/>
+      <c r="C260" s="25"/>
+      <c r="D260" s="25"/>
+      <c r="E260" s="25"/>
+      <c r="F260" s="25"/>
+      <c r="G260" s="26"/>
+      <c r="H260" s="25"/>
+      <c r="I260" s="25"/>
       <c r="K260" s="20"/>
       <c r="L260" s="28"/>
       <c r="M260" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N260" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O260" s="17" t="s">
         <v>48</v>
@@ -10054,15 +10495,15 @@
       </c>
     </row>
     <row r="261" spans="1:22" s="17" customFormat="1">
-      <c r="A261" s="25"/>
-      <c r="B261" s="26"/>
-      <c r="C261" s="26"/>
-      <c r="D261" s="26"/>
-      <c r="E261" s="26"/>
-      <c r="F261" s="26"/>
-      <c r="G261" s="25"/>
-      <c r="H261" s="26"/>
-      <c r="I261" s="26"/>
+      <c r="A261" s="26"/>
+      <c r="B261" s="25"/>
+      <c r="C261" s="25"/>
+      <c r="D261" s="25"/>
+      <c r="E261" s="25"/>
+      <c r="F261" s="25"/>
+      <c r="G261" s="26"/>
+      <c r="H261" s="25"/>
+      <c r="I261" s="25"/>
       <c r="K261" s="20"/>
       <c r="L261" s="28"/>
       <c r="M261" s="3" t="s">
@@ -10082,22 +10523,22 @@
       </c>
     </row>
     <row r="262" spans="1:22" s="17" customFormat="1">
-      <c r="A262" s="25"/>
-      <c r="B262" s="26"/>
-      <c r="C262" s="26"/>
-      <c r="D262" s="26"/>
-      <c r="E262" s="26"/>
-      <c r="F262" s="26"/>
-      <c r="G262" s="25"/>
-      <c r="H262" s="26"/>
-      <c r="I262" s="26"/>
+      <c r="A262" s="26"/>
+      <c r="B262" s="25"/>
+      <c r="C262" s="25"/>
+      <c r="D262" s="25"/>
+      <c r="E262" s="25"/>
+      <c r="F262" s="25"/>
+      <c r="G262" s="26"/>
+      <c r="H262" s="25"/>
+      <c r="I262" s="25"/>
       <c r="K262" s="20"/>
       <c r="L262" s="28"/>
       <c r="M262" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N262" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O262" s="17" t="s">
         <v>52</v>
@@ -10110,22 +10551,22 @@
       </c>
     </row>
     <row r="263" spans="1:22" s="17" customFormat="1">
-      <c r="A263" s="25"/>
-      <c r="B263" s="26"/>
-      <c r="C263" s="26"/>
-      <c r="D263" s="26"/>
-      <c r="E263" s="26"/>
-      <c r="F263" s="26"/>
-      <c r="G263" s="25"/>
-      <c r="H263" s="26"/>
-      <c r="I263" s="26"/>
+      <c r="A263" s="26"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="25"/>
+      <c r="D263" s="25"/>
+      <c r="E263" s="25"/>
+      <c r="F263" s="25"/>
+      <c r="G263" s="26"/>
+      <c r="H263" s="25"/>
+      <c r="I263" s="25"/>
       <c r="K263" s="20"/>
       <c r="L263" s="28"/>
       <c r="M263" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N263" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O263" s="18" t="s">
         <v>55</v>
@@ -10138,15 +10579,15 @@
       </c>
     </row>
     <row r="264" spans="1:22" s="17" customFormat="1" ht="115.5">
-      <c r="A264" s="25"/>
-      <c r="B264" s="26"/>
-      <c r="C264" s="26"/>
-      <c r="D264" s="26"/>
-      <c r="E264" s="26"/>
-      <c r="F264" s="26"/>
-      <c r="G264" s="25"/>
-      <c r="H264" s="26"/>
-      <c r="I264" s="26"/>
+      <c r="A264" s="26"/>
+      <c r="B264" s="25"/>
+      <c r="C264" s="25"/>
+      <c r="D264" s="25"/>
+      <c r="E264" s="25"/>
+      <c r="F264" s="25"/>
+      <c r="G264" s="26"/>
+      <c r="H264" s="25"/>
+      <c r="I264" s="25"/>
       <c r="K264" s="20"/>
       <c r="L264" s="19" t="s">
         <v>57</v>
@@ -10155,7 +10596,7 @@
         <v>57</v>
       </c>
       <c r="N264" s="17" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="O264" s="18" t="s">
         <v>58</v>
@@ -10166,11 +10607,14 @@
       <c r="Q264" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R264" s="18" t="s">
-        <v>196</v>
+      <c r="R264" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="S264" s="17" t="s">
+        <v>274</v>
       </c>
       <c r="T264" s="18" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="265" spans="1:22" s="17" customFormat="1">
@@ -10226,7 +10670,7 @@
         <v>7</v>
       </c>
       <c r="J266" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K266" s="27"/>
       <c r="L266" s="3" t="s">
@@ -10259,33 +10703,33 @@
       </c>
     </row>
     <row r="267" spans="1:22" s="17" customFormat="1">
-      <c r="A267" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="B267" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C267" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="D267" s="26" t="s">
+      <c r="A267" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B267" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C267" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D267" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E267" s="26" t="s">
+      <c r="E267" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F267" s="26" t="s">
+      <c r="F267" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G267" s="25" t="s">
+      <c r="G267" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H267" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="I267" s="26"/>
+      <c r="H267" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="I267" s="25"/>
       <c r="J267" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="K267" s="8" t="s">
         <v>103</v>
@@ -10297,7 +10741,7 @@
         <v>20</v>
       </c>
       <c r="N267" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O267" s="17" t="s">
         <v>21</v>
@@ -10310,17 +10754,17 @@
       </c>
     </row>
     <row r="268" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A268" s="25"/>
-      <c r="B268" s="26"/>
-      <c r="C268" s="26"/>
-      <c r="D268" s="26"/>
-      <c r="E268" s="26"/>
-      <c r="F268" s="26"/>
-      <c r="G268" s="25"/>
-      <c r="H268" s="26"/>
-      <c r="I268" s="26"/>
+      <c r="A268" s="26"/>
+      <c r="B268" s="25"/>
+      <c r="C268" s="25"/>
+      <c r="D268" s="25"/>
+      <c r="E268" s="25"/>
+      <c r="F268" s="25"/>
+      <c r="G268" s="26"/>
+      <c r="H268" s="25"/>
+      <c r="I268" s="25"/>
       <c r="J268" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="K268" s="8" t="s">
         <v>102</v>
@@ -10330,7 +10774,7 @@
         <v>25</v>
       </c>
       <c r="N268" s="17" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="O268" s="18" t="s">
         <v>26</v>
@@ -10345,21 +10789,21 @@
         <v>108</v>
       </c>
       <c r="T268" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="269" spans="1:22" s="17" customFormat="1">
-      <c r="A269" s="25"/>
-      <c r="B269" s="26"/>
-      <c r="C269" s="26"/>
-      <c r="D269" s="26"/>
-      <c r="E269" s="26"/>
-      <c r="F269" s="26"/>
-      <c r="G269" s="25"/>
-      <c r="H269" s="26"/>
-      <c r="I269" s="26"/>
+      <c r="A269" s="26"/>
+      <c r="B269" s="25"/>
+      <c r="C269" s="25"/>
+      <c r="D269" s="25"/>
+      <c r="E269" s="25"/>
+      <c r="F269" s="25"/>
+      <c r="G269" s="26"/>
+      <c r="H269" s="25"/>
+      <c r="I269" s="25"/>
       <c r="J269" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K269" s="11" t="s">
         <v>101</v>
@@ -10369,7 +10813,7 @@
         <v>29</v>
       </c>
       <c r="N269" s="17" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="O269" s="17" t="s">
         <v>30</v>
@@ -10384,31 +10828,31 @@
         <v>108</v>
       </c>
       <c r="T269" s="17" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="270" spans="1:22" s="17" customFormat="1" ht="49.5">
-      <c r="A270" s="25"/>
-      <c r="B270" s="26"/>
-      <c r="C270" s="26"/>
-      <c r="D270" s="26"/>
-      <c r="E270" s="26"/>
-      <c r="F270" s="26"/>
-      <c r="G270" s="25"/>
-      <c r="H270" s="26"/>
-      <c r="I270" s="26"/>
+      <c r="A270" s="26"/>
+      <c r="B270" s="25"/>
+      <c r="C270" s="25"/>
+      <c r="D270" s="25"/>
+      <c r="E270" s="25"/>
+      <c r="F270" s="25"/>
+      <c r="G270" s="26"/>
+      <c r="H270" s="25"/>
+      <c r="I270" s="25"/>
       <c r="J270" s="24" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="K270" s="22" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="L270" s="28"/>
       <c r="M270" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N270" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O270" s="17" t="s">
         <v>33</v>
@@ -10421,20 +10865,20 @@
       </c>
     </row>
     <row r="271" spans="1:22" s="17" customFormat="1" ht="49.5">
-      <c r="A271" s="25"/>
-      <c r="B271" s="26"/>
-      <c r="C271" s="26"/>
-      <c r="D271" s="26"/>
-      <c r="E271" s="26"/>
-      <c r="F271" s="26"/>
-      <c r="G271" s="25"/>
-      <c r="H271" s="26"/>
-      <c r="I271" s="26"/>
+      <c r="A271" s="26"/>
+      <c r="B271" s="25"/>
+      <c r="C271" s="25"/>
+      <c r="D271" s="25"/>
+      <c r="E271" s="25"/>
+      <c r="F271" s="25"/>
+      <c r="G271" s="26"/>
+      <c r="H271" s="25"/>
+      <c r="I271" s="25"/>
       <c r="J271" s="24" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="K271" s="22" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="L271" s="28"/>
       <c r="M271" s="3" t="s">
@@ -10454,22 +10898,22 @@
       </c>
     </row>
     <row r="272" spans="1:22" s="17" customFormat="1">
-      <c r="A272" s="25"/>
-      <c r="B272" s="26"/>
-      <c r="C272" s="26"/>
-      <c r="D272" s="26"/>
-      <c r="E272" s="26"/>
-      <c r="F272" s="26"/>
-      <c r="G272" s="25"/>
-      <c r="H272" s="26"/>
-      <c r="I272" s="26"/>
+      <c r="A272" s="26"/>
+      <c r="B272" s="25"/>
+      <c r="C272" s="25"/>
+      <c r="D272" s="25"/>
+      <c r="E272" s="25"/>
+      <c r="F272" s="25"/>
+      <c r="G272" s="26"/>
+      <c r="H272" s="25"/>
+      <c r="I272" s="25"/>
       <c r="K272" s="23"/>
       <c r="L272" s="28"/>
       <c r="M272" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N272" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O272" s="17" t="s">
         <v>39</v>
@@ -10482,22 +10926,22 @@
       </c>
     </row>
     <row r="273" spans="1:20" s="17" customFormat="1">
-      <c r="A273" s="25"/>
-      <c r="B273" s="26"/>
-      <c r="C273" s="26"/>
-      <c r="D273" s="26"/>
-      <c r="E273" s="26"/>
-      <c r="F273" s="26"/>
-      <c r="G273" s="25"/>
-      <c r="H273" s="26"/>
-      <c r="I273" s="26"/>
+      <c r="A273" s="26"/>
+      <c r="B273" s="25"/>
+      <c r="C273" s="25"/>
+      <c r="D273" s="25"/>
+      <c r="E273" s="25"/>
+      <c r="F273" s="25"/>
+      <c r="G273" s="26"/>
+      <c r="H273" s="25"/>
+      <c r="I273" s="25"/>
       <c r="K273" s="23"/>
       <c r="L273" s="28"/>
       <c r="M273" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N273" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O273" s="17" t="s">
         <v>42</v>
@@ -10510,15 +10954,15 @@
       </c>
     </row>
     <row r="274" spans="1:20" s="17" customFormat="1">
-      <c r="A274" s="25"/>
-      <c r="B274" s="26"/>
-      <c r="C274" s="26"/>
-      <c r="D274" s="26"/>
-      <c r="E274" s="26"/>
-      <c r="F274" s="26"/>
-      <c r="G274" s="25"/>
-      <c r="H274" s="26"/>
-      <c r="I274" s="26"/>
+      <c r="A274" s="26"/>
+      <c r="B274" s="25"/>
+      <c r="C274" s="25"/>
+      <c r="D274" s="25"/>
+      <c r="E274" s="25"/>
+      <c r="F274" s="25"/>
+      <c r="G274" s="26"/>
+      <c r="H274" s="25"/>
+      <c r="I274" s="25"/>
       <c r="K274" s="23"/>
       <c r="L274" s="28"/>
       <c r="M274" s="3" t="s">
@@ -10538,22 +10982,22 @@
       </c>
     </row>
     <row r="275" spans="1:20" s="17" customFormat="1">
-      <c r="A275" s="25"/>
-      <c r="B275" s="26"/>
-      <c r="C275" s="26"/>
-      <c r="D275" s="26"/>
-      <c r="E275" s="26"/>
-      <c r="F275" s="26"/>
-      <c r="G275" s="25"/>
-      <c r="H275" s="26"/>
-      <c r="I275" s="26"/>
+      <c r="A275" s="26"/>
+      <c r="B275" s="25"/>
+      <c r="C275" s="25"/>
+      <c r="D275" s="25"/>
+      <c r="E275" s="25"/>
+      <c r="F275" s="25"/>
+      <c r="G275" s="26"/>
+      <c r="H275" s="25"/>
+      <c r="I275" s="25"/>
       <c r="K275" s="23"/>
       <c r="L275" s="28"/>
       <c r="M275" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N275" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O275" s="17" t="s">
         <v>48</v>
@@ -10566,15 +11010,15 @@
       </c>
     </row>
     <row r="276" spans="1:20" s="17" customFormat="1">
-      <c r="A276" s="25"/>
-      <c r="B276" s="26"/>
-      <c r="C276" s="26"/>
-      <c r="D276" s="26"/>
-      <c r="E276" s="26"/>
-      <c r="F276" s="26"/>
-      <c r="G276" s="25"/>
-      <c r="H276" s="26"/>
-      <c r="I276" s="26"/>
+      <c r="A276" s="26"/>
+      <c r="B276" s="25"/>
+      <c r="C276" s="25"/>
+      <c r="D276" s="25"/>
+      <c r="E276" s="25"/>
+      <c r="F276" s="25"/>
+      <c r="G276" s="26"/>
+      <c r="H276" s="25"/>
+      <c r="I276" s="25"/>
       <c r="K276" s="23"/>
       <c r="L276" s="28"/>
       <c r="M276" s="3" t="s">
@@ -10594,22 +11038,22 @@
       </c>
     </row>
     <row r="277" spans="1:20" s="17" customFormat="1">
-      <c r="A277" s="25"/>
-      <c r="B277" s="26"/>
-      <c r="C277" s="26"/>
-      <c r="D277" s="26"/>
-      <c r="E277" s="26"/>
-      <c r="F277" s="26"/>
-      <c r="G277" s="25"/>
-      <c r="H277" s="26"/>
-      <c r="I277" s="26"/>
+      <c r="A277" s="26"/>
+      <c r="B277" s="25"/>
+      <c r="C277" s="25"/>
+      <c r="D277" s="25"/>
+      <c r="E277" s="25"/>
+      <c r="F277" s="25"/>
+      <c r="G277" s="26"/>
+      <c r="H277" s="25"/>
+      <c r="I277" s="25"/>
       <c r="K277" s="23"/>
       <c r="L277" s="28"/>
       <c r="M277" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N277" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O277" s="17" t="s">
         <v>52</v>
@@ -10622,22 +11066,22 @@
       </c>
     </row>
     <row r="278" spans="1:20" s="17" customFormat="1">
-      <c r="A278" s="25"/>
-      <c r="B278" s="26"/>
-      <c r="C278" s="26"/>
-      <c r="D278" s="26"/>
-      <c r="E278" s="26"/>
-      <c r="F278" s="26"/>
-      <c r="G278" s="25"/>
-      <c r="H278" s="26"/>
-      <c r="I278" s="26"/>
+      <c r="A278" s="26"/>
+      <c r="B278" s="25"/>
+      <c r="C278" s="25"/>
+      <c r="D278" s="25"/>
+      <c r="E278" s="25"/>
+      <c r="F278" s="25"/>
+      <c r="G278" s="26"/>
+      <c r="H278" s="25"/>
+      <c r="I278" s="25"/>
       <c r="K278" s="23"/>
       <c r="L278" s="28"/>
       <c r="M278" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N278" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O278" s="18" t="s">
         <v>55</v>
@@ -10650,15 +11094,15 @@
       </c>
     </row>
     <row r="279" spans="1:20" s="17" customFormat="1" ht="66">
-      <c r="A279" s="25"/>
-      <c r="B279" s="26"/>
-      <c r="C279" s="26"/>
-      <c r="D279" s="26"/>
-      <c r="E279" s="26"/>
-      <c r="F279" s="26"/>
-      <c r="G279" s="25"/>
-      <c r="H279" s="26"/>
-      <c r="I279" s="26"/>
+      <c r="A279" s="26"/>
+      <c r="B279" s="25"/>
+      <c r="C279" s="25"/>
+      <c r="D279" s="25"/>
+      <c r="E279" s="25"/>
+      <c r="F279" s="25"/>
+      <c r="G279" s="26"/>
+      <c r="H279" s="25"/>
+      <c r="I279" s="25"/>
       <c r="K279" s="23"/>
       <c r="L279" s="21" t="s">
         <v>57</v>
@@ -10667,7 +11111,7 @@
         <v>57</v>
       </c>
       <c r="N279" s="17" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="O279" s="18" t="s">
         <v>58</v>
@@ -10680,7 +11124,7 @@
       </c>
       <c r="R279" s="18"/>
       <c r="T279" s="18" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -10703,6 +11147,7 @@
     <mergeCell ref="F222:F234"/>
     <mergeCell ref="F237:F249"/>
     <mergeCell ref="F252:F264"/>
+    <mergeCell ref="G252:G264"/>
     <mergeCell ref="J191:K191"/>
     <mergeCell ref="A177:A189"/>
     <mergeCell ref="B192:B204"/>
@@ -10724,6 +11169,7 @@
     <mergeCell ref="B177:B189"/>
     <mergeCell ref="C177:C189"/>
     <mergeCell ref="L177:L188"/>
+    <mergeCell ref="F177:F189"/>
     <mergeCell ref="L19:L30"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="A19:A31"/>
@@ -10751,7 +11197,6 @@
     <mergeCell ref="G99:G111"/>
     <mergeCell ref="H99:H111"/>
     <mergeCell ref="I99:I111"/>
-    <mergeCell ref="A147:A159"/>
     <mergeCell ref="B147:B159"/>
     <mergeCell ref="C147:C159"/>
     <mergeCell ref="D147:D159"/>
@@ -10800,18 +11245,6 @@
     <mergeCell ref="G51:G63"/>
     <mergeCell ref="F35:F47"/>
     <mergeCell ref="H51:H63"/>
-    <mergeCell ref="I83:I95"/>
-    <mergeCell ref="L83:L94"/>
-    <mergeCell ref="G83:G95"/>
-    <mergeCell ref="H83:H95"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L99:L110"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="I131:I143"/>
-    <mergeCell ref="G115:G127"/>
-    <mergeCell ref="F177:F189"/>
     <mergeCell ref="L3:L14"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A3:A15"/>
@@ -10835,7 +11268,18 @@
     <mergeCell ref="L131:L142"/>
     <mergeCell ref="L115:L126"/>
     <mergeCell ref="F83:F95"/>
-    <mergeCell ref="G252:G264"/>
+    <mergeCell ref="I83:I95"/>
+    <mergeCell ref="L83:L94"/>
+    <mergeCell ref="G83:G95"/>
+    <mergeCell ref="H83:H95"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L99:L110"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="I131:I143"/>
+    <mergeCell ref="G115:G127"/>
+    <mergeCell ref="A147:A159"/>
     <mergeCell ref="J266:K266"/>
     <mergeCell ref="A267:A279"/>
     <mergeCell ref="B267:B279"/>

--- a/gd/美术需求文档/怪物需求/Ver0.3怪物需求.xlsx
+++ b/gd/美术需求文档/怪物需求/Ver0.3怪物需求.xlsx
@@ -10,12 +10,12 @@
     <sheet name="小怪" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="283">
   <si>
     <t>id</t>
   </si>
@@ -206,10 +206,6 @@
   </si>
   <si>
     <t>物攻，特写亮相（预备攻击）3秒，攻击0.5秒只用做1次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3fat</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -837,10 +833,6 @@
     <t>弱点3（挂接点+mesh</t>
   </si>
   <si>
-    <t>身体（其余部分都算身体），一个状态：mesh名：mesh_body，挂接点在从胸口处，挂接点名：wp_leg2;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>头，一个状态：mesh名：mesh_head，挂接点在两眼中间模型外一点点位置，挂接点名：wp_head;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1100,6 +1092,10 @@
   </si>
   <si>
     <t>蹦跶时跟随动作发出光环随即消散，鼓掌放出法术时所有被加血对象身上复用直加血-强的加血特效。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultPanshenPre</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1145,7 +1141,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1170,18 +1166,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1197,7 +1181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1265,9 +1249,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1277,10 +1258,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1288,6 +1272,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1298,29 +1288,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1842,13 +1817,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V284"/>
+  <dimension ref="A1:V287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="J33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L47" sqref="L47:P48"/>
+      <selection pane="bottomRight" activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1871,12 +1846,7 @@
     <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1">
-      <c r="D1" s="1">
-        <f ca="1">D1:U2</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="1" spans="1:21" s="1" customFormat="1"/>
     <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>0</v>
@@ -1894,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>5</v>
@@ -1905,10 +1875,10 @@
       <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K2" s="27"/>
+      <c r="J2" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="31"/>
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1934,52 +1904,52 @@
         <v>15</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A3" s="31" t="s">
-        <v>81</v>
+      <c r="A3" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="L3" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>22</v>
@@ -1989,7 +1959,7 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -1999,17 +1969,17 @@
       <c r="H4" s="30"/>
       <c r="I4" s="29"/>
       <c r="J4" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L4" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L4" s="32"/>
       <c r="M4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="6" t="s">
@@ -2019,14 +1989,14 @@
         <v>28</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -2036,17 +2006,17 @@
       <c r="H5" s="30"/>
       <c r="I5" s="29"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L5" s="32"/>
       <c r="M5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>31</v>
@@ -2055,14 +2025,14 @@
         <v>28</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -2073,12 +2043,12 @@
       <c r="I6" s="29"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="28"/>
+      <c r="L6" s="32"/>
       <c r="M6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P6" s="6" t="s">
         <v>34</v>
@@ -2088,7 +2058,7 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -2099,12 +2069,12 @@
       <c r="I7" s="29"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="28"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>37</v>
@@ -2114,7 +2084,7 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -2125,12 +2095,12 @@
       <c r="I8" s="29"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="28"/>
+      <c r="L8" s="32"/>
       <c r="M8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>40</v>
@@ -2140,7 +2110,7 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -2151,12 +2121,12 @@
       <c r="I9" s="29"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="28"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>43</v>
@@ -2166,7 +2136,7 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -2177,12 +2147,12 @@
       <c r="I10" s="29"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="28"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>46</v>
@@ -2192,7 +2162,7 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="32"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -2203,12 +2173,12 @@
       <c r="I11" s="29"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="28"/>
+      <c r="L11" s="32"/>
       <c r="M11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>49</v>
@@ -2218,7 +2188,7 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="32"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -2229,12 +2199,12 @@
       <c r="I12" s="29"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="28"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>51</v>
@@ -2244,7 +2214,7 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -2255,12 +2225,12 @@
       <c r="I13" s="29"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="28"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>53</v>
@@ -2270,7 +2240,7 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
@@ -2281,12 +2251,12 @@
       <c r="I14" s="29"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="28"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="6" t="s">
@@ -2297,7 +2267,7 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="32"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -2315,19 +2285,16 @@
         <v>57</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R15" s="10"/>
-      <c r="U15" s="6" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1"/>
     <row r="18" spans="1:21">
@@ -2347,7 +2314,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>5</v>
@@ -2358,10 +2325,10 @@
       <c r="I18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K18" s="27"/>
+      <c r="J18" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" s="31"/>
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2392,45 +2359,45 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A19" s="31" t="s">
-        <v>82</v>
+      <c r="A19" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="30" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>97</v>
       </c>
       <c r="I19" s="29"/>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P19" s="6" t="s">
         <v>22</v>
@@ -2440,7 +2407,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="33">
-      <c r="A20" s="32"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
@@ -2450,17 +2417,17 @@
       <c r="H20" s="30"/>
       <c r="I20" s="29"/>
       <c r="J20" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L20" s="32"/>
       <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="6" t="s">
@@ -2470,14 +2437,14 @@
         <v>28</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="32"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2487,17 +2454,17 @@
       <c r="H21" s="30"/>
       <c r="I21" s="29"/>
       <c r="J21" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L21" s="32"/>
       <c r="M21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>31</v>
@@ -2506,14 +2473,14 @@
         <v>28</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="32"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -2524,12 +2491,12 @@
       <c r="I22" s="29"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="28"/>
+      <c r="L22" s="32"/>
       <c r="M22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>34</v>
@@ -2539,7 +2506,7 @@
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="32"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -2550,7 +2517,7 @@
       <c r="I23" s="29"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="28"/>
+      <c r="L23" s="32"/>
       <c r="M23" s="3" t="s">
         <v>35</v>
       </c>
@@ -2565,7 +2532,7 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="32"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
@@ -2576,12 +2543,12 @@
       <c r="I24" s="29"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="28"/>
+      <c r="L24" s="32"/>
       <c r="M24" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>40</v>
@@ -2591,7 +2558,7 @@
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="32"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
@@ -2602,12 +2569,12 @@
       <c r="I25" s="29"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="28"/>
+      <c r="L25" s="32"/>
       <c r="M25" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>43</v>
@@ -2617,7 +2584,7 @@
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="32"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
@@ -2628,7 +2595,7 @@
       <c r="I26" s="29"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="28"/>
+      <c r="L26" s="32"/>
       <c r="M26" s="3" t="s">
         <v>44</v>
       </c>
@@ -2643,7 +2610,7 @@
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="32"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -2654,12 +2621,12 @@
       <c r="I27" s="29"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="28"/>
+      <c r="L27" s="32"/>
       <c r="M27" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>49</v>
@@ -2669,7 +2636,7 @@
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="32"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
@@ -2680,7 +2647,7 @@
       <c r="I28" s="29"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="28"/>
+      <c r="L28" s="32"/>
       <c r="M28" s="3" t="s">
         <v>50</v>
       </c>
@@ -2695,7 +2662,7 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="32"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
@@ -2706,12 +2673,12 @@
       <c r="I29" s="29"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="28"/>
+      <c r="L29" s="32"/>
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>53</v>
@@ -2721,7 +2688,7 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="32"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
@@ -2732,12 +2699,12 @@
       <c r="I30" s="29"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="28"/>
+      <c r="L30" s="32"/>
       <c r="M30" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O30" s="10"/>
       <c r="P30" s="6" t="s">
@@ -2748,7 +2715,7 @@
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="32"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
@@ -2766,19 +2733,16 @@
         <v>57</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O31" s="10"/>
       <c r="P31" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R31" s="10"/>
-      <c r="U31" s="6" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1"/>
     <row r="34" spans="1:21">
@@ -2798,7 +2762,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>5</v>
@@ -2809,10 +2773,10 @@
       <c r="I34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K34" s="27"/>
+      <c r="J34" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K34" s="31"/>
       <c r="L34" s="3" t="s">
         <v>8</v>
       </c>
@@ -2838,7 +2802,7 @@
         <v>15</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>16</v>
@@ -2846,44 +2810,44 @@
     </row>
     <row r="35" spans="1:21" ht="16.5" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>63</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>64</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I35" s="29"/>
       <c r="J35" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L35" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N35" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>22</v>
@@ -2903,17 +2867,17 @@
       <c r="H36" s="30"/>
       <c r="I36" s="29"/>
       <c r="J36" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L36" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L36" s="32"/>
       <c r="M36" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N36" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O36" s="10"/>
       <c r="P36" s="6" t="s">
@@ -2923,10 +2887,10 @@
         <v>28</v>
       </c>
       <c r="R36" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2940,17 +2904,17 @@
       <c r="H37" s="30"/>
       <c r="I37" s="29"/>
       <c r="J37" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L37" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L37" s="32"/>
       <c r="M37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N37" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>31</v>
@@ -2959,10 +2923,10 @@
         <v>28</v>
       </c>
       <c r="R37" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2977,12 +2941,12 @@
       <c r="I38" s="29"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
-      <c r="L38" s="28"/>
+      <c r="L38" s="32"/>
       <c r="M38" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N38" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>34</v>
@@ -3003,7 +2967,7 @@
       <c r="I39" s="29"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="28"/>
+      <c r="L39" s="32"/>
       <c r="M39" s="3" t="s">
         <v>35</v>
       </c>
@@ -3029,12 +2993,12 @@
       <c r="I40" s="29"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="28"/>
+      <c r="L40" s="32"/>
       <c r="M40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N40" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>40</v>
@@ -3055,12 +3019,12 @@
       <c r="I41" s="29"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
-      <c r="L41" s="28"/>
+      <c r="L41" s="32"/>
       <c r="M41" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N41" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P41" s="6" t="s">
         <v>43</v>
@@ -3081,12 +3045,12 @@
       <c r="I42" s="29"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
-      <c r="L42" s="28"/>
+      <c r="L42" s="32"/>
       <c r="M42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N42" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P42" s="6" t="s">
         <v>46</v>
@@ -3107,7 +3071,7 @@
       <c r="I43" s="29"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
-      <c r="L43" s="28"/>
+      <c r="L43" s="32"/>
       <c r="M43" s="3" t="s">
         <v>47</v>
       </c>
@@ -3133,12 +3097,12 @@
       <c r="I44" s="29"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
-      <c r="L44" s="28"/>
+      <c r="L44" s="32"/>
       <c r="M44" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N44" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P44" s="6" t="s">
         <v>51</v>
@@ -3159,12 +3123,12 @@
       <c r="I45" s="29"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
-      <c r="L45" s="28"/>
+      <c r="L45" s="32"/>
       <c r="M45" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N45" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P45" s="6" t="s">
         <v>53</v>
@@ -3185,12 +3149,12 @@
       <c r="I46" s="29"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
-      <c r="L46" s="28"/>
+      <c r="L46" s="32"/>
       <c r="M46" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N46" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O46" s="10"/>
       <c r="P46" s="6" t="s">
@@ -3212,56 +3176,57 @@
       <c r="I47" s="29"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
-      <c r="L47" s="35" t="s">
+      <c r="L47" s="31" t="s">
         <v>57</v>
       </c>
       <c r="M47" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="N47" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="O47" s="38"/>
+      <c r="P47" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R47" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="S47" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="T47" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="U47" s="17"/>
+    </row>
+    <row r="48" spans="1:21" s="17" customFormat="1">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="N48" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="N47" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="O47" s="10"/>
-      <c r="P47" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R47" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="S47" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="T47" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" s="17" customFormat="1">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="N48" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="O48" s="18"/>
+      <c r="O48" s="38"/>
       <c r="P48" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="R48" s="34"/>
+        <v>266</v>
+      </c>
+      <c r="R48" s="26"/>
       <c r="T48" s="18"/>
     </row>
     <row r="50" spans="1:21" s="1" customFormat="1"/>
@@ -3282,7 +3247,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>5</v>
@@ -3293,10 +3258,10 @@
       <c r="I51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J51" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K51" s="27"/>
+      <c r="J51" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K51" s="31"/>
       <c r="L51" s="3" t="s">
         <v>8</v>
       </c>
@@ -3328,44 +3293,44 @@
     </row>
     <row r="52" spans="1:21" ht="16.5" customHeight="1">
       <c r="A52" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G52" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I52" s="29"/>
       <c r="J52" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L52" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L52" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N52" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>21</v>
@@ -3388,17 +3353,17 @@
       <c r="H53" s="30"/>
       <c r="I53" s="29"/>
       <c r="J53" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L53" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L53" s="32"/>
       <c r="M53" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N53" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O53" s="10" t="s">
         <v>26</v>
@@ -3410,10 +3375,10 @@
         <v>28</v>
       </c>
       <c r="R53" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T53" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3427,17 +3392,17 @@
       <c r="H54" s="30"/>
       <c r="I54" s="29"/>
       <c r="J54" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L54" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L54" s="32"/>
       <c r="M54" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N54" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O54" s="6" t="s">
         <v>30</v>
@@ -3449,10 +3414,10 @@
         <v>28</v>
       </c>
       <c r="R54" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T54" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3467,12 +3432,12 @@
       <c r="I55" s="29"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
-      <c r="L55" s="28"/>
+      <c r="L55" s="32"/>
       <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>33</v>
@@ -3496,7 +3461,7 @@
       <c r="I56" s="29"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
-      <c r="L56" s="28"/>
+      <c r="L56" s="32"/>
       <c r="M56" s="3" t="s">
         <v>35</v>
       </c>
@@ -3525,12 +3490,12 @@
       <c r="I57" s="29"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
-      <c r="L57" s="28"/>
+      <c r="L57" s="32"/>
       <c r="M57" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N57" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O57" s="6" t="s">
         <v>39</v>
@@ -3554,12 +3519,12 @@
       <c r="I58" s="29"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
-      <c r="L58" s="28"/>
+      <c r="L58" s="32"/>
       <c r="M58" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N58" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O58" s="6" t="s">
         <v>42</v>
@@ -3583,7 +3548,7 @@
       <c r="I59" s="29"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
-      <c r="L59" s="28"/>
+      <c r="L59" s="32"/>
       <c r="M59" s="3" t="s">
         <v>44</v>
       </c>
@@ -3612,12 +3577,12 @@
       <c r="I60" s="29"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
-      <c r="L60" s="28"/>
+      <c r="L60" s="32"/>
       <c r="M60" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N60" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O60" s="6" t="s">
         <v>48</v>
@@ -3641,7 +3606,7 @@
       <c r="I61" s="29"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
-      <c r="L61" s="28"/>
+      <c r="L61" s="32"/>
       <c r="M61" s="3" t="s">
         <v>50</v>
       </c>
@@ -3670,12 +3635,12 @@
       <c r="I62" s="29"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
-      <c r="L62" s="28"/>
+      <c r="L62" s="32"/>
       <c r="M62" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N62" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O62" s="6" t="s">
         <v>52</v>
@@ -3699,12 +3664,12 @@
       <c r="I63" s="29"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
-      <c r="L63" s="28"/>
+      <c r="L63" s="32"/>
       <c r="M63" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N63" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O63" s="10" t="s">
         <v>55</v>
@@ -3728,58 +3693,59 @@
       <c r="I64" s="29"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
-      <c r="L64" s="35" t="s">
+      <c r="L64" s="31" t="s">
         <v>57</v>
       </c>
       <c r="M64" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="N64" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="O64" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="P64" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q64" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R64" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="S64" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="T64" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="U64" s="17"/>
+    </row>
+    <row r="65" spans="1:21" s="17" customFormat="1">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="N65" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="N64" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="O64" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="P64" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q64" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R64" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="S64" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="T64" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" s="17" customFormat="1">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="N65" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="O65" s="18"/>
+      <c r="O65" s="38"/>
       <c r="P65" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="R65" s="34"/>
+        <v>266</v>
+      </c>
+      <c r="R65" s="26"/>
       <c r="T65" s="18"/>
     </row>
     <row r="67" spans="1:21" s="16" customFormat="1"/>
@@ -3800,7 +3766,7 @@
         <v>4</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>5</v>
@@ -3811,10 +3777,10 @@
       <c r="I68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J68" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K68" s="27"/>
+      <c r="J68" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K68" s="31"/>
       <c r="L68" s="3" t="s">
         <v>8</v>
       </c>
@@ -3846,37 +3812,37 @@
     </row>
     <row r="69" spans="1:21" ht="16.5" customHeight="1">
       <c r="A69" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D69" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="33" t="s">
-        <v>105</v>
+      <c r="E69" s="35" t="s">
+        <v>104</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G69" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I69" s="29"/>
       <c r="J69" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L69" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L69" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M69" s="3" t="s">
@@ -3900,23 +3866,23 @@
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
-      <c r="E70" s="33"/>
+      <c r="E70" s="35"/>
       <c r="F70" s="29"/>
       <c r="G70" s="29"/>
       <c r="H70" s="30"/>
       <c r="I70" s="29"/>
       <c r="J70" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L70" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L70" s="32"/>
       <c r="M70" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N70" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O70" s="10" t="s">
         <v>26</v>
@@ -3928,10 +3894,10 @@
         <v>28</v>
       </c>
       <c r="R70" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T70" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -3939,23 +3905,23 @@
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
-      <c r="E71" s="33"/>
+      <c r="E71" s="35"/>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
       <c r="H71" s="30"/>
       <c r="I71" s="29"/>
       <c r="J71" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L71" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L71" s="32"/>
       <c r="M71" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N71" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O71" s="6" t="s">
         <v>30</v>
@@ -3967,10 +3933,10 @@
         <v>28</v>
       </c>
       <c r="R71" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T71" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="49.5">
@@ -3978,18 +3944,18 @@
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
-      <c r="E72" s="33"/>
+      <c r="E72" s="35"/>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
       <c r="H72" s="30"/>
       <c r="I72" s="29"/>
       <c r="J72" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="L72" s="28"/>
+        <v>182</v>
+      </c>
+      <c r="L72" s="32"/>
       <c r="M72" s="3" t="s">
         <v>32</v>
       </c>
@@ -4011,18 +3977,18 @@
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
       <c r="D73" s="29"/>
-      <c r="E73" s="33"/>
+      <c r="E73" s="35"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
       <c r="H73" s="30"/>
       <c r="I73" s="29"/>
       <c r="J73" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="L73" s="28"/>
+        <v>184</v>
+      </c>
+      <c r="L73" s="32"/>
       <c r="M73" s="3" t="s">
         <v>35</v>
       </c>
@@ -4044,18 +4010,18 @@
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
-      <c r="E74" s="33"/>
+      <c r="E74" s="35"/>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
       <c r="H74" s="30"/>
       <c r="I74" s="29"/>
       <c r="J74" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="L74" s="28"/>
+        <v>183</v>
+      </c>
+      <c r="L74" s="32"/>
       <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
@@ -4077,18 +4043,18 @@
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
       <c r="D75" s="29"/>
-      <c r="E75" s="33"/>
+      <c r="E75" s="35"/>
       <c r="F75" s="29"/>
       <c r="G75" s="29"/>
       <c r="H75" s="30"/>
       <c r="I75" s="29"/>
       <c r="J75" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="L75" s="28"/>
+        <v>185</v>
+      </c>
+      <c r="L75" s="32"/>
       <c r="M75" s="3" t="s">
         <v>41</v>
       </c>
@@ -4110,18 +4076,18 @@
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
       <c r="D76" s="29"/>
-      <c r="E76" s="33"/>
+      <c r="E76" s="35"/>
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
       <c r="H76" s="30"/>
       <c r="I76" s="29"/>
       <c r="J76" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="L76" s="28"/>
+        <v>186</v>
+      </c>
+      <c r="L76" s="32"/>
       <c r="M76" s="3" t="s">
         <v>44</v>
       </c>
@@ -4143,18 +4109,18 @@
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
       <c r="D77" s="29"/>
-      <c r="E77" s="33"/>
+      <c r="E77" s="35"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
       <c r="H77" s="30"/>
       <c r="I77" s="29"/>
       <c r="J77" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="L77" s="28"/>
+        <v>187</v>
+      </c>
+      <c r="L77" s="32"/>
       <c r="M77" s="3" t="s">
         <v>47</v>
       </c>
@@ -4176,18 +4142,18 @@
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
       <c r="D78" s="29"/>
-      <c r="E78" s="33"/>
+      <c r="E78" s="35"/>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
       <c r="H78" s="30"/>
       <c r="I78" s="29"/>
       <c r="J78" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="L78" s="28"/>
+        <v>188</v>
+      </c>
+      <c r="L78" s="32"/>
       <c r="M78" s="3" t="s">
         <v>50</v>
       </c>
@@ -4209,14 +4175,14 @@
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
       <c r="D79" s="29"/>
-      <c r="E79" s="33"/>
+      <c r="E79" s="35"/>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
       <c r="H79" s="30"/>
       <c r="I79" s="29"/>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
-      <c r="L79" s="28"/>
+      <c r="L79" s="32"/>
       <c r="M79" s="3" t="s">
         <v>24</v>
       </c>
@@ -4238,14 +4204,14 @@
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
-      <c r="E80" s="33"/>
+      <c r="E80" s="35"/>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
       <c r="H80" s="30"/>
       <c r="I80" s="29"/>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
-      <c r="L80" s="28"/>
+      <c r="L80" s="32"/>
       <c r="M80" s="3" t="s">
         <v>54</v>
       </c>
@@ -4267,65 +4233,66 @@
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
-      <c r="E81" s="33"/>
+      <c r="E81" s="35"/>
       <c r="F81" s="29"/>
       <c r="G81" s="29"/>
       <c r="H81" s="30"/>
       <c r="I81" s="29"/>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
-      <c r="L81" s="35" t="s">
+      <c r="L81" s="31" t="s">
         <v>57</v>
       </c>
       <c r="M81" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="N81" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="O81" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="N81" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="O81" s="38" t="s">
         <v>58</v>
       </c>
       <c r="P81" s="37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q81" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R81" s="34" t="s">
-        <v>277</v>
+      <c r="R81" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="S81" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T81" s="18" t="s">
-        <v>229</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="U81" s="17"/>
     </row>
     <row r="82" spans="1:21" s="17" customFormat="1">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="35"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="31"/>
       <c r="M82" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="N82" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="O82" s="18"/>
+        <v>256</v>
+      </c>
+      <c r="N82" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="O82" s="38"/>
       <c r="P82" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="R82" s="34"/>
+        <v>266</v>
+      </c>
+      <c r="R82" s="26"/>
       <c r="T82" s="18"/>
     </row>
     <row r="84" spans="1:21" s="1" customFormat="1"/>
@@ -4346,7 +4313,7 @@
         <v>4</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>5</v>
@@ -4357,10 +4324,10 @@
       <c r="I85" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J85" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K85" s="27"/>
+      <c r="J85" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K85" s="31"/>
       <c r="L85" s="3" t="s">
         <v>8</v>
       </c>
@@ -4391,45 +4358,45 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="29" t="s">
-        <v>87</v>
-      </c>
       <c r="C86" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D86" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G86" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I86" s="29"/>
       <c r="J86" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L86" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L86" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N86" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O86" s="6" t="s">
         <v>21</v>
@@ -4442,7 +4409,7 @@
       </c>
     </row>
     <row r="87" spans="1:21" ht="33">
-      <c r="A87" s="32"/>
+      <c r="A87" s="34"/>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
       <c r="D87" s="29"/>
@@ -4452,17 +4419,17 @@
       <c r="H87" s="30"/>
       <c r="I87" s="29"/>
       <c r="J87" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L87" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L87" s="32"/>
       <c r="M87" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N87" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O87" s="10" t="s">
         <v>26</v>
@@ -4474,14 +4441,14 @@
         <v>28</v>
       </c>
       <c r="R87" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T87" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="32"/>
+      <c r="A88" s="34"/>
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
       <c r="D88" s="29"/>
@@ -4491,17 +4458,17 @@
       <c r="H88" s="30"/>
       <c r="I88" s="29"/>
       <c r="J88" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K88" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L88" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L88" s="32"/>
       <c r="M88" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N88" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O88" s="6" t="s">
         <v>30</v>
@@ -4513,14 +4480,14 @@
         <v>28</v>
       </c>
       <c r="R88" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T88" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:21">
-      <c r="A89" s="32"/>
+      <c r="A89" s="34"/>
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
       <c r="D89" s="29"/>
@@ -4531,12 +4498,12 @@
       <c r="I89" s="29"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
-      <c r="L89" s="28"/>
+      <c r="L89" s="32"/>
       <c r="M89" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N89" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O89" s="6" t="s">
         <v>33</v>
@@ -4549,7 +4516,7 @@
       </c>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="32"/>
+      <c r="A90" s="34"/>
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
       <c r="D90" s="29"/>
@@ -4560,7 +4527,7 @@
       <c r="I90" s="29"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
-      <c r="L90" s="28"/>
+      <c r="L90" s="32"/>
       <c r="M90" s="3" t="s">
         <v>35</v>
       </c>
@@ -4578,7 +4545,7 @@
       </c>
     </row>
     <row r="91" spans="1:21">
-      <c r="A91" s="32"/>
+      <c r="A91" s="34"/>
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
       <c r="D91" s="29"/>
@@ -4589,12 +4556,12 @@
       <c r="I91" s="29"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
-      <c r="L91" s="28"/>
+      <c r="L91" s="32"/>
       <c r="M91" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N91" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O91" s="6" t="s">
         <v>39</v>
@@ -4607,7 +4574,7 @@
       </c>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="32"/>
+      <c r="A92" s="34"/>
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
       <c r="D92" s="29"/>
@@ -4618,12 +4585,12 @@
       <c r="I92" s="29"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
-      <c r="L92" s="28"/>
+      <c r="L92" s="32"/>
       <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N92" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O92" s="6" t="s">
         <v>42</v>
@@ -4636,7 +4603,7 @@
       </c>
     </row>
     <row r="93" spans="1:21">
-      <c r="A93" s="32"/>
+      <c r="A93" s="34"/>
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
       <c r="D93" s="29"/>
@@ -4647,7 +4614,7 @@
       <c r="I93" s="29"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
-      <c r="L93" s="28"/>
+      <c r="L93" s="32"/>
       <c r="M93" s="3" t="s">
         <v>44</v>
       </c>
@@ -4665,7 +4632,7 @@
       </c>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="32"/>
+      <c r="A94" s="34"/>
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
       <c r="D94" s="29"/>
@@ -4676,12 +4643,12 @@
       <c r="I94" s="29"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
-      <c r="L94" s="28"/>
+      <c r="L94" s="32"/>
       <c r="M94" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N94" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O94" s="6" t="s">
         <v>48</v>
@@ -4694,7 +4661,7 @@
       </c>
     </row>
     <row r="95" spans="1:21">
-      <c r="A95" s="32"/>
+      <c r="A95" s="34"/>
       <c r="B95" s="29"/>
       <c r="C95" s="29"/>
       <c r="D95" s="29"/>
@@ -4705,7 +4672,7 @@
       <c r="I95" s="29"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
-      <c r="L95" s="28"/>
+      <c r="L95" s="32"/>
       <c r="M95" s="3" t="s">
         <v>50</v>
       </c>
@@ -4723,7 +4690,7 @@
       </c>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="32"/>
+      <c r="A96" s="34"/>
       <c r="B96" s="29"/>
       <c r="C96" s="29"/>
       <c r="D96" s="29"/>
@@ -4734,12 +4701,12 @@
       <c r="I96" s="29"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
-      <c r="L96" s="28"/>
+      <c r="L96" s="32"/>
       <c r="M96" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N96" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O96" s="6" t="s">
         <v>52</v>
@@ -4752,7 +4719,7 @@
       </c>
     </row>
     <row r="97" spans="1:21">
-      <c r="A97" s="32"/>
+      <c r="A97" s="34"/>
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
       <c r="D97" s="29"/>
@@ -4763,12 +4730,12 @@
       <c r="I97" s="29"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
-      <c r="L97" s="28"/>
+      <c r="L97" s="32"/>
       <c r="M97" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N97" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O97" s="10" t="s">
         <v>55</v>
@@ -4781,7 +4748,7 @@
       </c>
     </row>
     <row r="98" spans="1:21" ht="33">
-      <c r="A98" s="32"/>
+      <c r="A98" s="34"/>
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
       <c r="D98" s="29"/>
@@ -4799,13 +4766,13 @@
         <v>57</v>
       </c>
       <c r="N98" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O98" s="10" t="s">
         <v>58</v>
       </c>
       <c r="P98" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q98" s="6" t="s">
         <v>28</v>
@@ -4846,7 +4813,7 @@
         <v>4</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>5</v>
@@ -4857,10 +4824,10 @@
       <c r="I101" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J101" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K101" s="27"/>
+      <c r="J101" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K101" s="31"/>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
@@ -4892,44 +4859,44 @@
     </row>
     <row r="102" spans="1:21" ht="16.5" customHeight="1">
       <c r="A102" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D102" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F102" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H102" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I102" s="29"/>
       <c r="J102" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L102" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L102" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N102" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O102" s="6" t="s">
         <v>21</v>
@@ -4952,17 +4919,17 @@
       <c r="H103" s="30"/>
       <c r="I103" s="29"/>
       <c r="J103" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L103" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L103" s="32"/>
       <c r="M103" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N103" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O103" s="10" t="s">
         <v>26</v>
@@ -4974,10 +4941,10 @@
         <v>28</v>
       </c>
       <c r="R103" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T103" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -4991,17 +4958,17 @@
       <c r="H104" s="30"/>
       <c r="I104" s="29"/>
       <c r="J104" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L104" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L104" s="32"/>
       <c r="M104" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N104" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O104" s="6" t="s">
         <v>30</v>
@@ -5013,10 +4980,10 @@
         <v>28</v>
       </c>
       <c r="R104" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T104" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -5031,12 +4998,12 @@
       <c r="I105" s="29"/>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
-      <c r="L105" s="28"/>
+      <c r="L105" s="32"/>
       <c r="M105" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N105" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O105" s="6" t="s">
         <v>33</v>
@@ -5060,7 +5027,7 @@
       <c r="I106" s="29"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
-      <c r="L106" s="28"/>
+      <c r="L106" s="32"/>
       <c r="M106" s="3" t="s">
         <v>35</v>
       </c>
@@ -5089,12 +5056,12 @@
       <c r="I107" s="29"/>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
-      <c r="L107" s="28"/>
+      <c r="L107" s="32"/>
       <c r="M107" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N107" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O107" s="6" t="s">
         <v>39</v>
@@ -5118,12 +5085,12 @@
       <c r="I108" s="29"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
-      <c r="L108" s="28"/>
+      <c r="L108" s="32"/>
       <c r="M108" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N108" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O108" s="6" t="s">
         <v>42</v>
@@ -5147,7 +5114,7 @@
       <c r="I109" s="29"/>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
-      <c r="L109" s="28"/>
+      <c r="L109" s="32"/>
       <c r="M109" s="3" t="s">
         <v>44</v>
       </c>
@@ -5176,12 +5143,12 @@
       <c r="I110" s="29"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
-      <c r="L110" s="28"/>
+      <c r="L110" s="32"/>
       <c r="M110" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N110" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O110" s="6" t="s">
         <v>48</v>
@@ -5205,7 +5172,7 @@
       <c r="I111" s="29"/>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
-      <c r="L111" s="28"/>
+      <c r="L111" s="32"/>
       <c r="M111" s="3" t="s">
         <v>50</v>
       </c>
@@ -5234,12 +5201,12 @@
       <c r="I112" s="29"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
-      <c r="L112" s="28"/>
+      <c r="L112" s="32"/>
       <c r="M112" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N112" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O112" s="6" t="s">
         <v>52</v>
@@ -5263,12 +5230,12 @@
       <c r="I113" s="29"/>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
-      <c r="L113" s="28"/>
+      <c r="L113" s="32"/>
       <c r="M113" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N113" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O113" s="10" t="s">
         <v>55</v>
@@ -5292,32 +5259,32 @@
       <c r="I114" s="29"/>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
-      <c r="L114" s="38" t="s">
+      <c r="L114" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M114" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="N114" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="O114" s="40" t="s">
+      <c r="M114" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="N114" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="O114" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="P114" s="41" t="s">
-        <v>269</v>
+      <c r="P114" s="37" t="s">
+        <v>267</v>
       </c>
       <c r="Q114" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R114" s="34" t="s">
-        <v>276</v>
+      <c r="R114" s="26" t="s">
+        <v>274</v>
       </c>
       <c r="S114" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T114" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -5354,7 +5321,7 @@
         <v>4</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>5</v>
@@ -5365,10 +5332,10 @@
       <c r="I117" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J117" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K117" s="27"/>
+      <c r="J117" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K117" s="31"/>
       <c r="L117" s="3" t="s">
         <v>8</v>
       </c>
@@ -5400,37 +5367,37 @@
     </row>
     <row r="118" spans="1:21" ht="16.5" customHeight="1">
       <c r="A118" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D118" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F118" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G118" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H118" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I118" s="29"/>
       <c r="J118" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L118" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L118" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M118" s="3" t="s">
@@ -5460,17 +5427,17 @@
       <c r="H119" s="30"/>
       <c r="I119" s="29"/>
       <c r="J119" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L119" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L119" s="32"/>
       <c r="M119" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N119" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O119" s="10" t="s">
         <v>26</v>
@@ -5482,10 +5449,10 @@
         <v>28</v>
       </c>
       <c r="R119" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T119" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -5499,17 +5466,17 @@
       <c r="H120" s="30"/>
       <c r="I120" s="29"/>
       <c r="J120" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K120" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L120" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L120" s="32"/>
       <c r="M120" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N120" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O120" s="6" t="s">
         <v>30</v>
@@ -5521,10 +5488,10 @@
         <v>28</v>
       </c>
       <c r="R120" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T120" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -5539,7 +5506,7 @@
       <c r="I121" s="29"/>
       <c r="J121" s="15"/>
       <c r="K121" s="12"/>
-      <c r="L121" s="28"/>
+      <c r="L121" s="32"/>
       <c r="M121" s="3" t="s">
         <v>32</v>
       </c>
@@ -5568,7 +5535,7 @@
       <c r="I122" s="29"/>
       <c r="J122" s="15"/>
       <c r="K122" s="12"/>
-      <c r="L122" s="28"/>
+      <c r="L122" s="32"/>
       <c r="M122" s="3" t="s">
         <v>35</v>
       </c>
@@ -5597,7 +5564,7 @@
       <c r="I123" s="29"/>
       <c r="J123" s="15"/>
       <c r="K123" s="12"/>
-      <c r="L123" s="28"/>
+      <c r="L123" s="32"/>
       <c r="M123" s="3" t="s">
         <v>38</v>
       </c>
@@ -5626,7 +5593,7 @@
       <c r="I124" s="29"/>
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
-      <c r="L124" s="28"/>
+      <c r="L124" s="32"/>
       <c r="M124" s="3" t="s">
         <v>41</v>
       </c>
@@ -5655,7 +5622,7 @@
       <c r="I125" s="29"/>
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
-      <c r="L125" s="28"/>
+      <c r="L125" s="32"/>
       <c r="M125" s="3" t="s">
         <v>44</v>
       </c>
@@ -5684,7 +5651,7 @@
       <c r="I126" s="29"/>
       <c r="J126" s="12"/>
       <c r="K126" s="12"/>
-      <c r="L126" s="28"/>
+      <c r="L126" s="32"/>
       <c r="M126" s="3" t="s">
         <v>47</v>
       </c>
@@ -5713,7 +5680,7 @@
       <c r="I127" s="29"/>
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
-      <c r="L127" s="28"/>
+      <c r="L127" s="32"/>
       <c r="M127" s="3" t="s">
         <v>50</v>
       </c>
@@ -5742,7 +5709,7 @@
       <c r="I128" s="29"/>
       <c r="J128" s="12"/>
       <c r="K128" s="12"/>
-      <c r="L128" s="28"/>
+      <c r="L128" s="32"/>
       <c r="M128" s="3" t="s">
         <v>24</v>
       </c>
@@ -5771,7 +5738,7 @@
       <c r="I129" s="29"/>
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
-      <c r="L129" s="28"/>
+      <c r="L129" s="32"/>
       <c r="M129" s="3" t="s">
         <v>54</v>
       </c>
@@ -5800,32 +5767,32 @@
       <c r="I130" s="29"/>
       <c r="J130" s="12"/>
       <c r="K130" s="12"/>
-      <c r="L130" s="38" t="s">
+      <c r="L130" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M130" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="N130" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="O130" s="40" t="s">
+      <c r="M130" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="N130" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="O130" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="P130" s="41" t="s">
-        <v>269</v>
+      <c r="P130" s="37" t="s">
+        <v>267</v>
       </c>
       <c r="Q130" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R130" s="34" t="s">
-        <v>242</v>
+      <c r="R130" s="26" t="s">
+        <v>240</v>
       </c>
       <c r="S130" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="T130" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -5862,7 +5829,7 @@
         <v>4</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>5</v>
@@ -5873,10 +5840,10 @@
       <c r="I133" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J133" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K133" s="27"/>
+      <c r="J133" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K133" s="31"/>
       <c r="L133" s="3" t="s">
         <v>8</v>
       </c>
@@ -5908,44 +5875,44 @@
     </row>
     <row r="134" spans="1:21" ht="16.5" customHeight="1">
       <c r="A134" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B134" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C134" s="29" t="s">
         <v>75</v>
-      </c>
-      <c r="C134" s="29" t="s">
-        <v>76</v>
       </c>
       <c r="D134" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F134" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G134" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H134" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I134" s="29"/>
       <c r="J134" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L134" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L134" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M134" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N134" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O134" s="6" t="s">
         <v>21</v>
@@ -5968,17 +5935,17 @@
       <c r="H135" s="30"/>
       <c r="I135" s="29"/>
       <c r="J135" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L135" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L135" s="32"/>
       <c r="M135" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N135" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O135" s="10" t="s">
         <v>26</v>
@@ -5990,10 +5957,10 @@
         <v>28</v>
       </c>
       <c r="R135" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T135" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -6007,17 +5974,17 @@
       <c r="H136" s="30"/>
       <c r="I136" s="29"/>
       <c r="J136" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K136" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L136" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L136" s="32"/>
       <c r="M136" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N136" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O136" s="6" t="s">
         <v>30</v>
@@ -6029,10 +5996,10 @@
         <v>28</v>
       </c>
       <c r="R136" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T136" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="137" spans="1:21" ht="49.5">
@@ -6046,17 +6013,17 @@
       <c r="H137" s="30"/>
       <c r="I137" s="29"/>
       <c r="J137" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K137" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="L137" s="28"/>
+        <v>217</v>
+      </c>
+      <c r="L137" s="32"/>
       <c r="M137" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N137" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O137" s="6" t="s">
         <v>33</v>
@@ -6079,12 +6046,12 @@
       <c r="H138" s="30"/>
       <c r="I138" s="29"/>
       <c r="J138" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="K138" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="K138" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="L138" s="28"/>
+      <c r="L138" s="32"/>
       <c r="M138" s="3" t="s">
         <v>35</v>
       </c>
@@ -6113,12 +6080,12 @@
       <c r="I139" s="29"/>
       <c r="J139" s="22"/>
       <c r="K139" s="20"/>
-      <c r="L139" s="28"/>
+      <c r="L139" s="32"/>
       <c r="M139" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N139" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O139" s="6" t="s">
         <v>39</v>
@@ -6142,12 +6109,12 @@
       <c r="I140" s="29"/>
       <c r="J140" s="12"/>
       <c r="K140" s="12"/>
-      <c r="L140" s="28"/>
+      <c r="L140" s="32"/>
       <c r="M140" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N140" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O140" s="6" t="s">
         <v>42</v>
@@ -6171,7 +6138,7 @@
       <c r="I141" s="29"/>
       <c r="J141" s="12"/>
       <c r="K141" s="12"/>
-      <c r="L141" s="28"/>
+      <c r="L141" s="32"/>
       <c r="M141" s="3" t="s">
         <v>44</v>
       </c>
@@ -6200,12 +6167,12 @@
       <c r="I142" s="29"/>
       <c r="J142" s="12"/>
       <c r="K142" s="12"/>
-      <c r="L142" s="28"/>
+      <c r="L142" s="32"/>
       <c r="M142" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N142" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O142" s="6" t="s">
         <v>48</v>
@@ -6229,7 +6196,7 @@
       <c r="I143" s="29"/>
       <c r="J143" s="12"/>
       <c r="K143" s="12"/>
-      <c r="L143" s="28"/>
+      <c r="L143" s="32"/>
       <c r="M143" s="3" t="s">
         <v>50</v>
       </c>
@@ -6258,12 +6225,12 @@
       <c r="I144" s="29"/>
       <c r="J144" s="12"/>
       <c r="K144" s="12"/>
-      <c r="L144" s="28"/>
+      <c r="L144" s="32"/>
       <c r="M144" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N144" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O144" s="6" t="s">
         <v>52</v>
@@ -6287,12 +6254,12 @@
       <c r="I145" s="29"/>
       <c r="J145" s="12"/>
       <c r="K145" s="12"/>
-      <c r="L145" s="28"/>
+      <c r="L145" s="32"/>
       <c r="M145" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N145" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O145" s="10" t="s">
         <v>55</v>
@@ -6316,32 +6283,32 @@
       <c r="I146" s="29"/>
       <c r="J146" s="12"/>
       <c r="K146" s="12"/>
-      <c r="L146" s="38" t="s">
+      <c r="L146" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M146" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="N146" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="O146" s="40" t="s">
+      <c r="M146" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="N146" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="O146" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="P146" s="41" t="s">
-        <v>269</v>
+      <c r="P146" s="37" t="s">
+        <v>267</v>
       </c>
       <c r="Q146" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R146" s="34" t="s">
-        <v>275</v>
+      <c r="R146" s="26" t="s">
+        <v>273</v>
       </c>
       <c r="S146" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T146" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -6375,10 +6342,10 @@
         <v>3</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>5</v>
@@ -6389,10 +6356,10 @@
       <c r="I149" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J149" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K149" s="27"/>
+      <c r="J149" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K149" s="31"/>
       <c r="L149" s="3" t="s">
         <v>8</v>
       </c>
@@ -6424,44 +6391,44 @@
     </row>
     <row r="150" spans="1:21" ht="16.5" customHeight="1">
       <c r="A150" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C150" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D150" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F150" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G150" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H150" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I150" s="29"/>
       <c r="J150" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K150" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L150" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="L150" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M150" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N150" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O150" s="6" t="s">
         <v>21</v>
@@ -6484,17 +6451,17 @@
       <c r="H151" s="30"/>
       <c r="I151" s="29"/>
       <c r="J151" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K151" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L151" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L151" s="32"/>
       <c r="M151" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N151" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O151" s="10" t="s">
         <v>26</v>
@@ -6506,10 +6473,10 @@
         <v>28</v>
       </c>
       <c r="R151" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T151" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -6523,17 +6490,17 @@
       <c r="H152" s="30"/>
       <c r="I152" s="29"/>
       <c r="J152" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K152" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L152" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L152" s="32"/>
       <c r="M152" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N152" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O152" s="6" t="s">
         <v>30</v>
@@ -6545,10 +6512,10 @@
         <v>28</v>
       </c>
       <c r="R152" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T152" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="153" spans="1:21" ht="49.5">
@@ -6562,17 +6529,17 @@
       <c r="H153" s="30"/>
       <c r="I153" s="29"/>
       <c r="J153" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K153" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="L153" s="28"/>
+        <v>204</v>
+      </c>
+      <c r="L153" s="32"/>
       <c r="M153" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N153" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O153" s="6" t="s">
         <v>33</v>
@@ -6595,12 +6562,12 @@
       <c r="H154" s="30"/>
       <c r="I154" s="29"/>
       <c r="J154" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K154" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="L154" s="28"/>
+        <v>205</v>
+      </c>
+      <c r="L154" s="32"/>
       <c r="M154" s="3" t="s">
         <v>35</v>
       </c>
@@ -6628,17 +6595,17 @@
       <c r="H155" s="30"/>
       <c r="I155" s="29"/>
       <c r="J155" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="K155" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="K155" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="L155" s="28"/>
+      <c r="L155" s="32"/>
       <c r="M155" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N155" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O155" s="6" t="s">
         <v>39</v>
@@ -6662,12 +6629,12 @@
       <c r="I156" s="29"/>
       <c r="J156" s="12"/>
       <c r="K156" s="12"/>
-      <c r="L156" s="28"/>
+      <c r="L156" s="32"/>
       <c r="M156" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N156" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O156" s="6" t="s">
         <v>42</v>
@@ -6691,7 +6658,7 @@
       <c r="I157" s="29"/>
       <c r="J157" s="12"/>
       <c r="K157" s="12"/>
-      <c r="L157" s="28"/>
+      <c r="L157" s="32"/>
       <c r="M157" s="3" t="s">
         <v>44</v>
       </c>
@@ -6720,12 +6687,12 @@
       <c r="I158" s="29"/>
       <c r="J158" s="12"/>
       <c r="K158" s="12"/>
-      <c r="L158" s="28"/>
+      <c r="L158" s="32"/>
       <c r="M158" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N158" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O158" s="6" t="s">
         <v>48</v>
@@ -6749,7 +6716,7 @@
       <c r="I159" s="29"/>
       <c r="J159" s="12"/>
       <c r="K159" s="12"/>
-      <c r="L159" s="28"/>
+      <c r="L159" s="32"/>
       <c r="M159" s="3" t="s">
         <v>50</v>
       </c>
@@ -6778,12 +6745,12 @@
       <c r="I160" s="29"/>
       <c r="J160" s="12"/>
       <c r="K160" s="12"/>
-      <c r="L160" s="28"/>
+      <c r="L160" s="32"/>
       <c r="M160" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N160" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O160" s="6" t="s">
         <v>52</v>
@@ -6807,12 +6774,12 @@
       <c r="I161" s="29"/>
       <c r="J161" s="12"/>
       <c r="K161" s="12"/>
-      <c r="L161" s="28"/>
+      <c r="L161" s="32"/>
       <c r="M161" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N161" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O161" s="10" t="s">
         <v>55</v>
@@ -6836,32 +6803,32 @@
       <c r="I162" s="29"/>
       <c r="J162" s="12"/>
       <c r="K162" s="12"/>
-      <c r="L162" s="38" t="s">
+      <c r="L162" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M162" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="N162" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="O162" s="40" t="s">
+      <c r="M162" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="N162" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="O162" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="P162" s="41" t="s">
-        <v>269</v>
+      <c r="P162" s="37" t="s">
+        <v>267</v>
       </c>
       <c r="Q162" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R162" s="34" t="s">
-        <v>274</v>
+      <c r="R162" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="S162" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="T162" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -6905,7 +6872,7 @@
         <v>4</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>5</v>
@@ -6916,10 +6883,10 @@
       <c r="I164" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J164" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K164" s="27"/>
+      <c r="J164" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K164" s="31"/>
       <c r="L164" s="3" t="s">
         <v>8</v>
       </c>
@@ -6952,44 +6919,44 @@
     </row>
     <row r="165" spans="1:22">
       <c r="A165" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B165" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B165" s="29" t="s">
+      <c r="C165" s="29" t="s">
         <v>150</v>
-      </c>
-      <c r="C165" s="29" t="s">
-        <v>151</v>
       </c>
       <c r="D165" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E165" s="29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F165" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G165" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H165" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I165" s="29"/>
       <c r="J165" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L165" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L165" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M165" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N165" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O165" s="17" t="s">
         <v>21</v>
@@ -7013,17 +6980,17 @@
       <c r="H166" s="29"/>
       <c r="I166" s="29"/>
       <c r="J166" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K166" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L166" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L166" s="32"/>
       <c r="M166" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N166" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O166" s="18" t="s">
         <v>26</v>
@@ -7035,10 +7002,10 @@
         <v>28</v>
       </c>
       <c r="R166" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T166" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -7052,17 +7019,17 @@
       <c r="H167" s="29"/>
       <c r="I167" s="29"/>
       <c r="J167" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K167" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L167" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L167" s="32"/>
       <c r="M167" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N167" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O167" s="17" t="s">
         <v>30</v>
@@ -7074,10 +7041,10 @@
         <v>28</v>
       </c>
       <c r="R167" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T167" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="168" spans="1:22">
@@ -7091,12 +7058,12 @@
       <c r="H168" s="29"/>
       <c r="I168" s="29"/>
       <c r="K168" s="19"/>
-      <c r="L168" s="28"/>
+      <c r="L168" s="32"/>
       <c r="M168" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N168" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O168" s="17" t="s">
         <v>33</v>
@@ -7120,7 +7087,7 @@
       <c r="H169" s="29"/>
       <c r="I169" s="29"/>
       <c r="K169" s="19"/>
-      <c r="L169" s="28"/>
+      <c r="L169" s="32"/>
       <c r="M169" s="3" t="s">
         <v>35</v>
       </c>
@@ -7149,12 +7116,12 @@
       <c r="H170" s="29"/>
       <c r="I170" s="29"/>
       <c r="K170" s="19"/>
-      <c r="L170" s="28"/>
+      <c r="L170" s="32"/>
       <c r="M170" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N170" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O170" s="17" t="s">
         <v>39</v>
@@ -7178,12 +7145,12 @@
       <c r="H171" s="29"/>
       <c r="I171" s="29"/>
       <c r="K171" s="19"/>
-      <c r="L171" s="28"/>
+      <c r="L171" s="32"/>
       <c r="M171" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N171" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O171" s="17" t="s">
         <v>42</v>
@@ -7207,7 +7174,7 @@
       <c r="H172" s="29"/>
       <c r="I172" s="29"/>
       <c r="K172" s="19"/>
-      <c r="L172" s="28"/>
+      <c r="L172" s="32"/>
       <c r="M172" s="3" t="s">
         <v>44</v>
       </c>
@@ -7236,12 +7203,12 @@
       <c r="H173" s="29"/>
       <c r="I173" s="29"/>
       <c r="K173" s="19"/>
-      <c r="L173" s="28"/>
+      <c r="L173" s="32"/>
       <c r="M173" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N173" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O173" s="17" t="s">
         <v>48</v>
@@ -7265,7 +7232,7 @@
       <c r="H174" s="29"/>
       <c r="I174" s="29"/>
       <c r="K174" s="19"/>
-      <c r="L174" s="28"/>
+      <c r="L174" s="32"/>
       <c r="M174" s="3" t="s">
         <v>50</v>
       </c>
@@ -7294,12 +7261,12 @@
       <c r="H175" s="29"/>
       <c r="I175" s="29"/>
       <c r="K175" s="19"/>
-      <c r="L175" s="28"/>
+      <c r="L175" s="32"/>
       <c r="M175" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N175" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O175" s="17" t="s">
         <v>52</v>
@@ -7323,12 +7290,12 @@
       <c r="H176" s="29"/>
       <c r="I176" s="29"/>
       <c r="K176" s="19"/>
-      <c r="L176" s="28"/>
+      <c r="L176" s="32"/>
       <c r="M176" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N176" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O176" s="18" t="s">
         <v>55</v>
@@ -7352,57 +7319,57 @@
       <c r="H177" s="29"/>
       <c r="I177" s="29"/>
       <c r="K177" s="19"/>
-      <c r="L177" s="35" t="s">
+      <c r="L177" s="31" t="s">
         <v>57</v>
       </c>
       <c r="M177" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="N177" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="O177" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="N177" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="O177" s="38" t="s">
         <v>58</v>
       </c>
       <c r="P177" s="37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q177" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R177" s="34" t="s">
-        <v>273</v>
+      <c r="R177" s="26" t="s">
+        <v>271</v>
       </c>
       <c r="S177" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="T177" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="178" spans="1:22" s="17" customFormat="1">
-      <c r="A178" s="25"/>
-      <c r="B178" s="24"/>
-      <c r="C178" s="24"/>
-      <c r="D178" s="24"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="24"/>
-      <c r="G178" s="25"/>
-      <c r="H178" s="24"/>
-      <c r="I178" s="24"/>
-      <c r="K178" s="24"/>
-      <c r="L178" s="35"/>
+      <c r="A178" s="24"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="23"/>
+      <c r="I178" s="23"/>
+      <c r="K178" s="23"/>
+      <c r="L178" s="31"/>
       <c r="M178" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="N178" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="O178" s="23"/>
+        <v>256</v>
+      </c>
+      <c r="N178" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="O178" s="38"/>
       <c r="P178" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="R178" s="34"/>
+        <v>266</v>
+      </c>
+      <c r="R178" s="26"/>
       <c r="T178" s="18"/>
     </row>
     <row r="179" spans="1:22" s="17" customFormat="1">
@@ -7446,7 +7413,7 @@
         <v>4</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>5</v>
@@ -7457,10 +7424,10 @@
       <c r="I180" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J180" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K180" s="27"/>
+      <c r="J180" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K180" s="31"/>
       <c r="L180" s="3" t="s">
         <v>8</v>
       </c>
@@ -7492,44 +7459,44 @@
     </row>
     <row r="181" spans="1:22" s="17" customFormat="1">
       <c r="A181" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B181" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C181" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D181" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E181" s="29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F181" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G181" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H181" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I181" s="29"/>
       <c r="J181" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K181" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L181" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L181" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M181" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N181" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O181" s="17" t="s">
         <v>21</v>
@@ -7552,17 +7519,17 @@
       <c r="H182" s="29"/>
       <c r="I182" s="29"/>
       <c r="J182" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K182" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L182" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L182" s="32"/>
       <c r="M182" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N182" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O182" s="18" t="s">
         <v>26</v>
@@ -7574,10 +7541,10 @@
         <v>28</v>
       </c>
       <c r="R182" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T182" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="183" spans="1:22" s="17" customFormat="1">
@@ -7591,17 +7558,17 @@
       <c r="H183" s="29"/>
       <c r="I183" s="29"/>
       <c r="J183" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K183" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L183" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L183" s="32"/>
       <c r="M183" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N183" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O183" s="17" t="s">
         <v>30</v>
@@ -7613,10 +7580,10 @@
         <v>28</v>
       </c>
       <c r="R183" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T183" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="184" spans="1:22" s="17" customFormat="1">
@@ -7630,12 +7597,12 @@
       <c r="H184" s="29"/>
       <c r="I184" s="29"/>
       <c r="K184" s="19"/>
-      <c r="L184" s="28"/>
+      <c r="L184" s="32"/>
       <c r="M184" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N184" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O184" s="17" t="s">
         <v>33</v>
@@ -7658,7 +7625,7 @@
       <c r="H185" s="29"/>
       <c r="I185" s="29"/>
       <c r="K185" s="19"/>
-      <c r="L185" s="28"/>
+      <c r="L185" s="32"/>
       <c r="M185" s="3" t="s">
         <v>35</v>
       </c>
@@ -7686,12 +7653,12 @@
       <c r="H186" s="29"/>
       <c r="I186" s="29"/>
       <c r="K186" s="19"/>
-      <c r="L186" s="28"/>
+      <c r="L186" s="32"/>
       <c r="M186" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N186" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O186" s="17" t="s">
         <v>39</v>
@@ -7714,12 +7681,12 @@
       <c r="H187" s="29"/>
       <c r="I187" s="29"/>
       <c r="K187" s="19"/>
-      <c r="L187" s="28"/>
+      <c r="L187" s="32"/>
       <c r="M187" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N187" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O187" s="17" t="s">
         <v>42</v>
@@ -7742,7 +7709,7 @@
       <c r="H188" s="29"/>
       <c r="I188" s="29"/>
       <c r="K188" s="19"/>
-      <c r="L188" s="28"/>
+      <c r="L188" s="32"/>
       <c r="M188" s="3" t="s">
         <v>44</v>
       </c>
@@ -7770,12 +7737,12 @@
       <c r="H189" s="29"/>
       <c r="I189" s="29"/>
       <c r="K189" s="19"/>
-      <c r="L189" s="28"/>
+      <c r="L189" s="32"/>
       <c r="M189" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N189" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O189" s="17" t="s">
         <v>48</v>
@@ -7798,7 +7765,7 @@
       <c r="H190" s="29"/>
       <c r="I190" s="29"/>
       <c r="K190" s="19"/>
-      <c r="L190" s="28"/>
+      <c r="L190" s="32"/>
       <c r="M190" s="3" t="s">
         <v>50</v>
       </c>
@@ -7826,12 +7793,12 @@
       <c r="H191" s="29"/>
       <c r="I191" s="29"/>
       <c r="K191" s="19"/>
-      <c r="L191" s="28"/>
+      <c r="L191" s="32"/>
       <c r="M191" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N191" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O191" s="17" t="s">
         <v>52</v>
@@ -7854,12 +7821,12 @@
       <c r="H192" s="29"/>
       <c r="I192" s="29"/>
       <c r="K192" s="19"/>
-      <c r="L192" s="28"/>
+      <c r="L192" s="32"/>
       <c r="M192" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N192" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O192" s="18" t="s">
         <v>55</v>
@@ -7882,57 +7849,57 @@
       <c r="H193" s="29"/>
       <c r="I193" s="29"/>
       <c r="K193" s="19"/>
-      <c r="L193" s="35" t="s">
+      <c r="L193" s="31" t="s">
         <v>57</v>
       </c>
       <c r="M193" s="36" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N193" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="O193" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="P193" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="O193" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P193" s="37" t="s">
+      <c r="Q193" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R193" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="Q193" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="R193" s="34" t="s">
-        <v>271</v>
-      </c>
       <c r="S193" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T193" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="194" spans="1:22" s="17" customFormat="1">
-      <c r="A194" s="25"/>
-      <c r="B194" s="24"/>
-      <c r="C194" s="24"/>
-      <c r="D194" s="24"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="24"/>
-      <c r="G194" s="25"/>
-      <c r="H194" s="24"/>
-      <c r="I194" s="24"/>
-      <c r="K194" s="24"/>
-      <c r="L194" s="35"/>
+      <c r="A194" s="24"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="23"/>
+      <c r="E194" s="23"/>
+      <c r="F194" s="23"/>
+      <c r="G194" s="24"/>
+      <c r="H194" s="23"/>
+      <c r="I194" s="23"/>
+      <c r="K194" s="23"/>
+      <c r="L194" s="31"/>
       <c r="M194" s="36" t="s">
         <v>57</v>
       </c>
       <c r="N194" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="O194" s="38"/>
+      <c r="P194" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="O194" s="23"/>
-      <c r="P194" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="R194" s="34"/>
+      <c r="R194" s="26"/>
       <c r="T194" s="18"/>
     </row>
     <row r="195" spans="1:22" s="17" customFormat="1">
@@ -7976,7 +7943,7 @@
         <v>4</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>5</v>
@@ -7987,10 +7954,10 @@
       <c r="I196" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J196" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K196" s="27"/>
+      <c r="J196" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K196" s="31"/>
       <c r="L196" s="3" t="s">
         <v>8</v>
       </c>
@@ -8022,44 +7989,44 @@
     </row>
     <row r="197" spans="1:22" s="17" customFormat="1">
       <c r="A197" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C197" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D197" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E197" s="29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F197" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G197" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H197" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I197" s="29"/>
       <c r="J197" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K197" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L197" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L197" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M197" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N197" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O197" s="17" t="s">
         <v>21</v>
@@ -8082,17 +8049,17 @@
       <c r="H198" s="29"/>
       <c r="I198" s="29"/>
       <c r="J198" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K198" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L198" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L198" s="32"/>
       <c r="M198" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N198" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O198" s="18" t="s">
         <v>26</v>
@@ -8104,10 +8071,10 @@
         <v>28</v>
       </c>
       <c r="R198" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T198" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:22" s="17" customFormat="1">
@@ -8121,17 +8088,17 @@
       <c r="H199" s="29"/>
       <c r="I199" s="29"/>
       <c r="J199" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K199" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L199" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L199" s="32"/>
       <c r="M199" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N199" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O199" s="17" t="s">
         <v>30</v>
@@ -8143,10 +8110,10 @@
         <v>28</v>
       </c>
       <c r="R199" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T199" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:22" s="17" customFormat="1" ht="49.5">
@@ -8160,17 +8127,17 @@
       <c r="H200" s="29"/>
       <c r="I200" s="29"/>
       <c r="J200" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K200" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="L200" s="28"/>
+        <v>217</v>
+      </c>
+      <c r="L200" s="32"/>
       <c r="M200" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N200" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O200" s="17" t="s">
         <v>33</v>
@@ -8193,12 +8160,12 @@
       <c r="H201" s="29"/>
       <c r="I201" s="29"/>
       <c r="J201" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K201" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="L201" s="28"/>
+        <v>218</v>
+      </c>
+      <c r="L201" s="32"/>
       <c r="M201" s="3" t="s">
         <v>35</v>
       </c>
@@ -8226,12 +8193,12 @@
       <c r="H202" s="29"/>
       <c r="I202" s="29"/>
       <c r="K202" s="19"/>
-      <c r="L202" s="28"/>
+      <c r="L202" s="32"/>
       <c r="M202" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N202" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O202" s="17" t="s">
         <v>39</v>
@@ -8254,12 +8221,12 @@
       <c r="H203" s="29"/>
       <c r="I203" s="29"/>
       <c r="K203" s="19"/>
-      <c r="L203" s="28"/>
+      <c r="L203" s="32"/>
       <c r="M203" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N203" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O203" s="17" t="s">
         <v>42</v>
@@ -8282,7 +8249,7 @@
       <c r="H204" s="29"/>
       <c r="I204" s="29"/>
       <c r="K204" s="19"/>
-      <c r="L204" s="28"/>
+      <c r="L204" s="32"/>
       <c r="M204" s="3" t="s">
         <v>44</v>
       </c>
@@ -8310,12 +8277,12 @@
       <c r="H205" s="29"/>
       <c r="I205" s="29"/>
       <c r="K205" s="19"/>
-      <c r="L205" s="28"/>
+      <c r="L205" s="32"/>
       <c r="M205" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N205" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O205" s="17" t="s">
         <v>48</v>
@@ -8338,7 +8305,7 @@
       <c r="H206" s="29"/>
       <c r="I206" s="29"/>
       <c r="K206" s="19"/>
-      <c r="L206" s="28"/>
+      <c r="L206" s="32"/>
       <c r="M206" s="3" t="s">
         <v>50</v>
       </c>
@@ -8366,12 +8333,12 @@
       <c r="H207" s="29"/>
       <c r="I207" s="29"/>
       <c r="K207" s="19"/>
-      <c r="L207" s="28"/>
+      <c r="L207" s="32"/>
       <c r="M207" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N207" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O207" s="17" t="s">
         <v>52</v>
@@ -8394,12 +8361,12 @@
       <c r="H208" s="29"/>
       <c r="I208" s="29"/>
       <c r="K208" s="19"/>
-      <c r="L208" s="28"/>
+      <c r="L208" s="32"/>
       <c r="M208" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N208" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O208" s="18" t="s">
         <v>55</v>
@@ -8422,32 +8389,32 @@
       <c r="H209" s="29"/>
       <c r="I209" s="29"/>
       <c r="K209" s="19"/>
-      <c r="L209" s="38" t="s">
+      <c r="L209" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M209" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="N209" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="O209" s="40" t="s">
+      <c r="M209" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="N209" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="O209" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="P209" s="41" t="s">
-        <v>269</v>
+      <c r="P209" s="37" t="s">
+        <v>267</v>
       </c>
       <c r="Q209" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R209" s="34" t="s">
-        <v>272</v>
+      <c r="R209" s="26" t="s">
+        <v>270</v>
       </c>
       <c r="S209" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="T209" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="210" spans="1:22" s="17" customFormat="1">
@@ -8491,7 +8458,7 @@
         <v>4</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G211" s="2" t="s">
         <v>5</v>
@@ -8502,10 +8469,10 @@
       <c r="I211" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J211" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K211" s="27"/>
+      <c r="J211" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K211" s="31"/>
       <c r="L211" s="3" t="s">
         <v>8</v>
       </c>
@@ -8537,44 +8504,44 @@
     </row>
     <row r="212" spans="1:22" s="17" customFormat="1">
       <c r="A212" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B212" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D212" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E212" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F212" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G212" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H212" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I212" s="29"/>
       <c r="J212" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K212" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L212" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L212" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M212" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N212" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O212" s="17" t="s">
         <v>21</v>
@@ -8597,17 +8564,17 @@
       <c r="H213" s="29"/>
       <c r="I213" s="29"/>
       <c r="J213" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K213" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L213" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L213" s="32"/>
       <c r="M213" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N213" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O213" s="18" t="s">
         <v>26</v>
@@ -8619,10 +8586,10 @@
         <v>28</v>
       </c>
       <c r="R213" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T213" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="214" spans="1:22" s="17" customFormat="1">
@@ -8636,17 +8603,17 @@
       <c r="H214" s="29"/>
       <c r="I214" s="29"/>
       <c r="J214" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K214" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L214" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L214" s="32"/>
       <c r="M214" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N214" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O214" s="17" t="s">
         <v>30</v>
@@ -8658,10 +8625,10 @@
         <v>28</v>
       </c>
       <c r="R214" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T214" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="215" spans="1:22" s="17" customFormat="1">
@@ -8675,12 +8642,12 @@
       <c r="H215" s="29"/>
       <c r="I215" s="29"/>
       <c r="K215" s="19"/>
-      <c r="L215" s="28"/>
+      <c r="L215" s="32"/>
       <c r="M215" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N215" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O215" s="17" t="s">
         <v>33</v>
@@ -8703,7 +8670,7 @@
       <c r="H216" s="29"/>
       <c r="I216" s="29"/>
       <c r="K216" s="19"/>
-      <c r="L216" s="28"/>
+      <c r="L216" s="32"/>
       <c r="M216" s="3" t="s">
         <v>35</v>
       </c>
@@ -8731,12 +8698,12 @@
       <c r="H217" s="29"/>
       <c r="I217" s="29"/>
       <c r="K217" s="19"/>
-      <c r="L217" s="28"/>
+      <c r="L217" s="32"/>
       <c r="M217" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N217" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O217" s="17" t="s">
         <v>39</v>
@@ -8759,12 +8726,12 @@
       <c r="H218" s="29"/>
       <c r="I218" s="29"/>
       <c r="K218" s="19"/>
-      <c r="L218" s="28"/>
+      <c r="L218" s="32"/>
       <c r="M218" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N218" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O218" s="17" t="s">
         <v>42</v>
@@ -8787,7 +8754,7 @@
       <c r="H219" s="29"/>
       <c r="I219" s="29"/>
       <c r="K219" s="19"/>
-      <c r="L219" s="28"/>
+      <c r="L219" s="32"/>
       <c r="M219" s="3" t="s">
         <v>44</v>
       </c>
@@ -8815,12 +8782,12 @@
       <c r="H220" s="29"/>
       <c r="I220" s="29"/>
       <c r="K220" s="19"/>
-      <c r="L220" s="28"/>
+      <c r="L220" s="32"/>
       <c r="M220" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N220" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O220" s="17" t="s">
         <v>48</v>
@@ -8843,7 +8810,7 @@
       <c r="H221" s="29"/>
       <c r="I221" s="29"/>
       <c r="K221" s="19"/>
-      <c r="L221" s="28"/>
+      <c r="L221" s="32"/>
       <c r="M221" s="3" t="s">
         <v>50</v>
       </c>
@@ -8871,12 +8838,12 @@
       <c r="H222" s="29"/>
       <c r="I222" s="29"/>
       <c r="K222" s="19"/>
-      <c r="L222" s="28"/>
+      <c r="L222" s="32"/>
       <c r="M222" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N222" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O222" s="17" t="s">
         <v>52</v>
@@ -8899,12 +8866,12 @@
       <c r="H223" s="29"/>
       <c r="I223" s="29"/>
       <c r="K223" s="19"/>
-      <c r="L223" s="28"/>
+      <c r="L223" s="32"/>
       <c r="M223" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N223" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O223" s="18" t="s">
         <v>55</v>
@@ -8927,32 +8894,32 @@
       <c r="H224" s="29"/>
       <c r="I224" s="29"/>
       <c r="K224" s="19"/>
-      <c r="L224" s="38" t="s">
+      <c r="L224" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M224" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="N224" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="O224" s="40" t="s">
+      <c r="M224" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="N224" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="O224" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="P224" s="41" t="s">
-        <v>269</v>
+      <c r="P224" s="37" t="s">
+        <v>267</v>
       </c>
       <c r="Q224" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R224" s="34" t="s">
-        <v>280</v>
+      <c r="R224" s="26" t="s">
+        <v>278</v>
       </c>
       <c r="S224" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T224" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="225" spans="1:22" s="17" customFormat="1">
@@ -8996,7 +8963,7 @@
         <v>4</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>5</v>
@@ -9007,10 +8974,10 @@
       <c r="I226" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J226" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K226" s="27"/>
+      <c r="J226" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K226" s="31"/>
       <c r="L226" s="3" t="s">
         <v>8</v>
       </c>
@@ -9042,44 +9009,44 @@
     </row>
     <row r="227" spans="1:22" s="17" customFormat="1">
       <c r="A227" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B227" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C227" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D227" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E227" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F227" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G227" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H227" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I227" s="29"/>
       <c r="J227" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K227" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L227" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L227" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M227" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N227" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O227" s="17" t="s">
         <v>21</v>
@@ -9102,17 +9069,17 @@
       <c r="H228" s="29"/>
       <c r="I228" s="29"/>
       <c r="J228" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K228" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L228" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L228" s="32"/>
       <c r="M228" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N228" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O228" s="18" t="s">
         <v>26</v>
@@ -9124,10 +9091,10 @@
         <v>28</v>
       </c>
       <c r="R228" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T228" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="229" spans="1:22" s="17" customFormat="1">
@@ -9141,17 +9108,17 @@
       <c r="H229" s="29"/>
       <c r="I229" s="29"/>
       <c r="J229" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K229" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L229" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L229" s="32"/>
       <c r="M229" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N229" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O229" s="17" t="s">
         <v>30</v>
@@ -9163,10 +9130,10 @@
         <v>28</v>
       </c>
       <c r="R229" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T229" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="230" spans="1:22" s="17" customFormat="1">
@@ -9180,12 +9147,12 @@
       <c r="H230" s="29"/>
       <c r="I230" s="29"/>
       <c r="K230" s="19"/>
-      <c r="L230" s="28"/>
+      <c r="L230" s="32"/>
       <c r="M230" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N230" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O230" s="17" t="s">
         <v>33</v>
@@ -9208,7 +9175,7 @@
       <c r="H231" s="29"/>
       <c r="I231" s="29"/>
       <c r="K231" s="19"/>
-      <c r="L231" s="28"/>
+      <c r="L231" s="32"/>
       <c r="M231" s="3" t="s">
         <v>35</v>
       </c>
@@ -9236,12 +9203,12 @@
       <c r="H232" s="29"/>
       <c r="I232" s="29"/>
       <c r="K232" s="19"/>
-      <c r="L232" s="28"/>
+      <c r="L232" s="32"/>
       <c r="M232" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N232" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O232" s="17" t="s">
         <v>39</v>
@@ -9264,12 +9231,12 @@
       <c r="H233" s="29"/>
       <c r="I233" s="29"/>
       <c r="K233" s="19"/>
-      <c r="L233" s="28"/>
+      <c r="L233" s="32"/>
       <c r="M233" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N233" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O233" s="17" t="s">
         <v>42</v>
@@ -9292,7 +9259,7 @@
       <c r="H234" s="29"/>
       <c r="I234" s="29"/>
       <c r="K234" s="19"/>
-      <c r="L234" s="28"/>
+      <c r="L234" s="32"/>
       <c r="M234" s="3" t="s">
         <v>44</v>
       </c>
@@ -9320,12 +9287,12 @@
       <c r="H235" s="29"/>
       <c r="I235" s="29"/>
       <c r="K235" s="19"/>
-      <c r="L235" s="28"/>
+      <c r="L235" s="32"/>
       <c r="M235" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N235" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O235" s="17" t="s">
         <v>48</v>
@@ -9348,7 +9315,7 @@
       <c r="H236" s="29"/>
       <c r="I236" s="29"/>
       <c r="K236" s="19"/>
-      <c r="L236" s="28"/>
+      <c r="L236" s="32"/>
       <c r="M236" s="3" t="s">
         <v>50</v>
       </c>
@@ -9376,12 +9343,12 @@
       <c r="H237" s="29"/>
       <c r="I237" s="29"/>
       <c r="K237" s="19"/>
-      <c r="L237" s="28"/>
+      <c r="L237" s="32"/>
       <c r="M237" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N237" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O237" s="17" t="s">
         <v>52</v>
@@ -9404,12 +9371,12 @@
       <c r="H238" s="29"/>
       <c r="I238" s="29"/>
       <c r="K238" s="19"/>
-      <c r="L238" s="28"/>
+      <c r="L238" s="32"/>
       <c r="M238" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N238" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O238" s="18" t="s">
         <v>55</v>
@@ -9432,32 +9399,32 @@
       <c r="H239" s="29"/>
       <c r="I239" s="29"/>
       <c r="K239" s="19"/>
-      <c r="L239" s="38" t="s">
+      <c r="L239" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M239" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="N239" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="O239" s="40" t="s">
+      <c r="M239" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="N239" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="O239" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="P239" s="41" t="s">
-        <v>269</v>
+      <c r="P239" s="37" t="s">
+        <v>267</v>
       </c>
       <c r="Q239" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R239" s="34" t="s">
-        <v>281</v>
+      <c r="R239" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="S239" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="T239" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="240" spans="1:22" s="17" customFormat="1">
@@ -9501,7 +9468,7 @@
         <v>4</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>5</v>
@@ -9512,10 +9479,10 @@
       <c r="I241" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J241" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K241" s="27"/>
+      <c r="J241" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K241" s="31"/>
       <c r="L241" s="3" t="s">
         <v>8</v>
       </c>
@@ -9547,44 +9514,44 @@
     </row>
     <row r="242" spans="1:22" s="17" customFormat="1">
       <c r="A242" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B242" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C242" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D242" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E242" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F242" s="29" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G242" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H242" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I242" s="29"/>
       <c r="J242" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K242" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L242" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L242" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M242" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N242" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O242" s="17" t="s">
         <v>21</v>
@@ -9607,17 +9574,17 @@
       <c r="H243" s="29"/>
       <c r="I243" s="29"/>
       <c r="J243" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K243" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L243" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L243" s="32"/>
       <c r="M243" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N243" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O243" s="18" t="s">
         <v>26</v>
@@ -9629,10 +9596,10 @@
         <v>28</v>
       </c>
       <c r="R243" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T243" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="244" spans="1:22" s="17" customFormat="1">
@@ -9646,17 +9613,17 @@
       <c r="H244" s="29"/>
       <c r="I244" s="29"/>
       <c r="J244" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K244" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L244" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L244" s="32"/>
       <c r="M244" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N244" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O244" s="17" t="s">
         <v>30</v>
@@ -9668,10 +9635,10 @@
         <v>28</v>
       </c>
       <c r="R244" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T244" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="245" spans="1:22" s="17" customFormat="1" ht="49.5">
@@ -9685,17 +9652,17 @@
       <c r="H245" s="29"/>
       <c r="I245" s="29"/>
       <c r="J245" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K245" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="L245" s="28"/>
+        <v>217</v>
+      </c>
+      <c r="L245" s="32"/>
       <c r="M245" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N245" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O245" s="17" t="s">
         <v>33</v>
@@ -9718,12 +9685,12 @@
       <c r="H246" s="29"/>
       <c r="I246" s="29"/>
       <c r="J246" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K246" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="L246" s="28"/>
+        <v>218</v>
+      </c>
+      <c r="L246" s="32"/>
       <c r="M246" s="3" t="s">
         <v>35</v>
       </c>
@@ -9751,12 +9718,12 @@
       <c r="H247" s="29"/>
       <c r="I247" s="29"/>
       <c r="K247" s="19"/>
-      <c r="L247" s="28"/>
+      <c r="L247" s="32"/>
       <c r="M247" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N247" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O247" s="17" t="s">
         <v>39</v>
@@ -9779,12 +9746,12 @@
       <c r="H248" s="29"/>
       <c r="I248" s="29"/>
       <c r="K248" s="19"/>
-      <c r="L248" s="28"/>
+      <c r="L248" s="32"/>
       <c r="M248" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N248" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O248" s="17" t="s">
         <v>42</v>
@@ -9807,7 +9774,7 @@
       <c r="H249" s="29"/>
       <c r="I249" s="29"/>
       <c r="K249" s="19"/>
-      <c r="L249" s="28"/>
+      <c r="L249" s="32"/>
       <c r="M249" s="3" t="s">
         <v>44</v>
       </c>
@@ -9835,12 +9802,12 @@
       <c r="H250" s="29"/>
       <c r="I250" s="29"/>
       <c r="K250" s="19"/>
-      <c r="L250" s="28"/>
+      <c r="L250" s="32"/>
       <c r="M250" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N250" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O250" s="17" t="s">
         <v>48</v>
@@ -9863,7 +9830,7 @@
       <c r="H251" s="29"/>
       <c r="I251" s="29"/>
       <c r="K251" s="19"/>
-      <c r="L251" s="28"/>
+      <c r="L251" s="32"/>
       <c r="M251" s="3" t="s">
         <v>50</v>
       </c>
@@ -9891,12 +9858,12 @@
       <c r="H252" s="29"/>
       <c r="I252" s="29"/>
       <c r="K252" s="19"/>
-      <c r="L252" s="28"/>
+      <c r="L252" s="32"/>
       <c r="M252" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N252" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O252" s="17" t="s">
         <v>52</v>
@@ -9919,12 +9886,12 @@
       <c r="H253" s="29"/>
       <c r="I253" s="29"/>
       <c r="K253" s="19"/>
-      <c r="L253" s="28"/>
+      <c r="L253" s="32"/>
       <c r="M253" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N253" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O253" s="18" t="s">
         <v>55</v>
@@ -9947,32 +9914,32 @@
       <c r="H254" s="29"/>
       <c r="I254" s="29"/>
       <c r="K254" s="19"/>
-      <c r="L254" s="38" t="s">
+      <c r="L254" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M254" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="N254" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="O254" s="40" t="s">
+      <c r="M254" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="N254" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="O254" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="P254" s="41" t="s">
-        <v>269</v>
+      <c r="P254" s="37" t="s">
+        <v>267</v>
       </c>
       <c r="Q254" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R254" s="34" t="s">
-        <v>282</v>
+      <c r="R254" s="26" t="s">
+        <v>280</v>
       </c>
       <c r="S254" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T254" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="255" spans="1:22" s="17" customFormat="1">
@@ -10016,7 +9983,7 @@
         <v>4</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>5</v>
@@ -10027,10 +9994,10 @@
       <c r="I256" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J256" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K256" s="27"/>
+      <c r="J256" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K256" s="31"/>
       <c r="L256" s="3" t="s">
         <v>8</v>
       </c>
@@ -10062,44 +10029,44 @@
     </row>
     <row r="257" spans="1:22" s="17" customFormat="1">
       <c r="A257" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B257" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C257" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D257" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E257" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F257" s="29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G257" s="30" t="s">
         <v>18</v>
       </c>
       <c r="H257" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I257" s="29"/>
       <c r="J257" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K257" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L257" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L257" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M257" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N257" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O257" s="17" t="s">
         <v>21</v>
@@ -10122,17 +10089,17 @@
       <c r="H258" s="29"/>
       <c r="I258" s="29"/>
       <c r="J258" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K258" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L258" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L258" s="32"/>
       <c r="M258" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N258" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O258" s="18" t="s">
         <v>26</v>
@@ -10144,10 +10111,10 @@
         <v>28</v>
       </c>
       <c r="R258" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T258" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="259" spans="1:22" s="17" customFormat="1">
@@ -10161,17 +10128,17 @@
       <c r="H259" s="29"/>
       <c r="I259" s="29"/>
       <c r="J259" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K259" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L259" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L259" s="32"/>
       <c r="M259" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N259" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O259" s="17" t="s">
         <v>30</v>
@@ -10183,10 +10150,10 @@
         <v>28</v>
       </c>
       <c r="R259" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T259" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="260" spans="1:22" s="17" customFormat="1">
@@ -10200,12 +10167,12 @@
       <c r="H260" s="29"/>
       <c r="I260" s="29"/>
       <c r="K260" s="19"/>
-      <c r="L260" s="28"/>
+      <c r="L260" s="32"/>
       <c r="M260" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N260" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O260" s="17" t="s">
         <v>33</v>
@@ -10228,7 +10195,7 @@
       <c r="H261" s="29"/>
       <c r="I261" s="29"/>
       <c r="K261" s="19"/>
-      <c r="L261" s="28"/>
+      <c r="L261" s="32"/>
       <c r="M261" s="3" t="s">
         <v>35</v>
       </c>
@@ -10256,12 +10223,12 @@
       <c r="H262" s="29"/>
       <c r="I262" s="29"/>
       <c r="K262" s="19"/>
-      <c r="L262" s="28"/>
+      <c r="L262" s="32"/>
       <c r="M262" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N262" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O262" s="17" t="s">
         <v>39</v>
@@ -10284,12 +10251,12 @@
       <c r="H263" s="29"/>
       <c r="I263" s="29"/>
       <c r="K263" s="19"/>
-      <c r="L263" s="28"/>
+      <c r="L263" s="32"/>
       <c r="M263" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N263" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O263" s="17" t="s">
         <v>42</v>
@@ -10312,7 +10279,7 @@
       <c r="H264" s="29"/>
       <c r="I264" s="29"/>
       <c r="K264" s="19"/>
-      <c r="L264" s="28"/>
+      <c r="L264" s="32"/>
       <c r="M264" s="3" t="s">
         <v>44</v>
       </c>
@@ -10340,12 +10307,12 @@
       <c r="H265" s="29"/>
       <c r="I265" s="29"/>
       <c r="K265" s="19"/>
-      <c r="L265" s="28"/>
+      <c r="L265" s="32"/>
       <c r="M265" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N265" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O265" s="17" t="s">
         <v>48</v>
@@ -10368,7 +10335,7 @@
       <c r="H266" s="29"/>
       <c r="I266" s="29"/>
       <c r="K266" s="19"/>
-      <c r="L266" s="28"/>
+      <c r="L266" s="32"/>
       <c r="M266" s="3" t="s">
         <v>50</v>
       </c>
@@ -10396,12 +10363,12 @@
       <c r="H267" s="29"/>
       <c r="I267" s="29"/>
       <c r="K267" s="19"/>
-      <c r="L267" s="28"/>
+      <c r="L267" s="32"/>
       <c r="M267" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N267" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O267" s="17" t="s">
         <v>52</v>
@@ -10424,12 +10391,12 @@
       <c r="H268" s="29"/>
       <c r="I268" s="29"/>
       <c r="K268" s="19"/>
-      <c r="L268" s="28"/>
+      <c r="L268" s="32"/>
       <c r="M268" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N268" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O268" s="18" t="s">
         <v>55</v>
@@ -10452,32 +10419,32 @@
       <c r="H269" s="29"/>
       <c r="I269" s="29"/>
       <c r="K269" s="19"/>
-      <c r="L269" s="38" t="s">
+      <c r="L269" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M269" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="N269" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="O269" s="40" t="s">
+      <c r="M269" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="N269" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="O269" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="P269" s="41" t="s">
-        <v>269</v>
+      <c r="P269" s="37" t="s">
+        <v>267</v>
       </c>
       <c r="Q269" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="R269" s="34" t="s">
-        <v>283</v>
+      <c r="R269" s="26" t="s">
+        <v>281</v>
       </c>
       <c r="S269" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="T269" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="270" spans="1:22" s="17" customFormat="1">
@@ -10521,7 +10488,7 @@
         <v>4</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>5</v>
@@ -10532,10 +10499,10 @@
       <c r="I271" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J271" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="K271" s="27"/>
+      <c r="J271" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="K271" s="31"/>
       <c r="L271" s="3" t="s">
         <v>8</v>
       </c>
@@ -10567,44 +10534,44 @@
     </row>
     <row r="272" spans="1:22" s="17" customFormat="1">
       <c r="A272" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B272" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C272" s="29" t="s">
         <v>190</v>
-      </c>
-      <c r="B272" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C272" s="29" t="s">
-        <v>191</v>
       </c>
       <c r="D272" s="29" t="s">
         <v>17</v>
       </c>
       <c r="E272" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F272" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G272" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H272" s="29" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I272" s="29"/>
       <c r="J272" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K272" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L272" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L272" s="32" t="s">
         <v>19</v>
       </c>
       <c r="M272" s="3" t="s">
         <v>20</v>
       </c>
       <c r="N272" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O272" s="17" t="s">
         <v>21</v>
@@ -10627,17 +10594,17 @@
       <c r="H273" s="29"/>
       <c r="I273" s="29"/>
       <c r="J273" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K273" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L273" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="L273" s="32"/>
       <c r="M273" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N273" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O273" s="18" t="s">
         <v>26</v>
@@ -10649,10 +10616,10 @@
         <v>28</v>
       </c>
       <c r="R273" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T273" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="274" spans="1:20" s="17" customFormat="1">
@@ -10666,17 +10633,17 @@
       <c r="H274" s="29"/>
       <c r="I274" s="29"/>
       <c r="J274" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K274" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L274" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="L274" s="32"/>
       <c r="M274" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N274" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O274" s="17" t="s">
         <v>30</v>
@@ -10688,10 +10655,10 @@
         <v>28</v>
       </c>
       <c r="R274" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T274" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="275" spans="1:20" s="17" customFormat="1" ht="49.5">
@@ -10705,17 +10672,17 @@
       <c r="H275" s="29"/>
       <c r="I275" s="29"/>
       <c r="J275" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K275" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="L275" s="28"/>
+        <v>221</v>
+      </c>
+      <c r="L275" s="32"/>
       <c r="M275" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N275" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O275" s="17" t="s">
         <v>33</v>
@@ -10738,12 +10705,12 @@
       <c r="H276" s="29"/>
       <c r="I276" s="29"/>
       <c r="J276" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K276" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="L276" s="28"/>
+        <v>218</v>
+      </c>
+      <c r="L276" s="32"/>
       <c r="M276" s="3" t="s">
         <v>35</v>
       </c>
@@ -10771,12 +10738,12 @@
       <c r="H277" s="29"/>
       <c r="I277" s="29"/>
       <c r="K277" s="21"/>
-      <c r="L277" s="28"/>
+      <c r="L277" s="32"/>
       <c r="M277" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N277" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O277" s="17" t="s">
         <v>39</v>
@@ -10799,12 +10766,12 @@
       <c r="H278" s="29"/>
       <c r="I278" s="29"/>
       <c r="K278" s="21"/>
-      <c r="L278" s="28"/>
+      <c r="L278" s="32"/>
       <c r="M278" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N278" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O278" s="17" t="s">
         <v>42</v>
@@ -10827,7 +10794,7 @@
       <c r="H279" s="29"/>
       <c r="I279" s="29"/>
       <c r="K279" s="21"/>
-      <c r="L279" s="28"/>
+      <c r="L279" s="32"/>
       <c r="M279" s="3" t="s">
         <v>44</v>
       </c>
@@ -10855,12 +10822,12 @@
       <c r="H280" s="29"/>
       <c r="I280" s="29"/>
       <c r="K280" s="21"/>
-      <c r="L280" s="28"/>
+      <c r="L280" s="32"/>
       <c r="M280" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N280" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O280" s="17" t="s">
         <v>48</v>
@@ -10883,7 +10850,7 @@
       <c r="H281" s="29"/>
       <c r="I281" s="29"/>
       <c r="K281" s="21"/>
-      <c r="L281" s="28"/>
+      <c r="L281" s="32"/>
       <c r="M281" s="3" t="s">
         <v>50</v>
       </c>
@@ -10911,12 +10878,12 @@
       <c r="H282" s="29"/>
       <c r="I282" s="29"/>
       <c r="K282" s="21"/>
-      <c r="L282" s="28"/>
+      <c r="L282" s="32"/>
       <c r="M282" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N282" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O282" s="17" t="s">
         <v>52</v>
@@ -10939,12 +10906,12 @@
       <c r="H283" s="29"/>
       <c r="I283" s="29"/>
       <c r="K283" s="21"/>
-      <c r="L283" s="28"/>
+      <c r="L283" s="32"/>
       <c r="M283" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N283" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O283" s="18" t="s">
         <v>55</v>
@@ -10967,36 +10934,39 @@
       <c r="H284" s="29"/>
       <c r="I284" s="29"/>
       <c r="K284" s="21"/>
-      <c r="L284" s="38" t="s">
+      <c r="L284" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M284" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="N284" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="O284" s="40" t="s">
+      <c r="M284" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="N284" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="O284" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="P284" s="41" t="s">
-        <v>269</v>
+      <c r="P284" s="37" t="s">
+        <v>267</v>
       </c>
       <c r="Q284" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R284" s="18"/>
       <c r="T284" s="18" t="s">
-        <v>238</v>
-      </c>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20">
+      <c r="F287"/>
     </row>
   </sheetData>
   <mergeCells count="203">
-    <mergeCell ref="L242:L253"/>
-    <mergeCell ref="F227:F239"/>
-    <mergeCell ref="F242:F254"/>
-    <mergeCell ref="F257:F269"/>
-    <mergeCell ref="G257:G269"/>
+    <mergeCell ref="D227:D239"/>
+    <mergeCell ref="D242:D254"/>
+    <mergeCell ref="D257:D269"/>
+    <mergeCell ref="G197:G209"/>
+    <mergeCell ref="G212:G224"/>
     <mergeCell ref="J196:K196"/>
     <mergeCell ref="A181:A193"/>
     <mergeCell ref="B197:B209"/>
@@ -11009,6 +10979,8 @@
     <mergeCell ref="L212:L223"/>
     <mergeCell ref="F197:F209"/>
     <mergeCell ref="F212:F224"/>
+    <mergeCell ref="D197:D209"/>
+    <mergeCell ref="D212:D224"/>
     <mergeCell ref="A165:A177"/>
     <mergeCell ref="B165:B177"/>
     <mergeCell ref="C165:C177"/>
@@ -11019,7 +10991,8 @@
     <mergeCell ref="C181:C193"/>
     <mergeCell ref="L181:L192"/>
     <mergeCell ref="F181:F193"/>
-    <mergeCell ref="L19:L30"/>
+    <mergeCell ref="F165:F177"/>
+    <mergeCell ref="D181:D193"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="A19:A31"/>
     <mergeCell ref="B19:B31"/>
@@ -11030,10 +11003,6 @@
     <mergeCell ref="H19:H31"/>
     <mergeCell ref="I19:I31"/>
     <mergeCell ref="F19:F31"/>
-    <mergeCell ref="E118:E130"/>
-    <mergeCell ref="H118:H130"/>
-    <mergeCell ref="I118:I130"/>
-    <mergeCell ref="F118:F130"/>
     <mergeCell ref="A102:A114"/>
     <mergeCell ref="B102:B114"/>
     <mergeCell ref="C102:C114"/>
@@ -11042,6 +11011,7 @@
     <mergeCell ref="G102:G114"/>
     <mergeCell ref="H102:H114"/>
     <mergeCell ref="I102:I114"/>
+    <mergeCell ref="L19:L30"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="H35:H47"/>
     <mergeCell ref="I35:I47"/>
@@ -11086,6 +11056,7 @@
     <mergeCell ref="H3:H15"/>
     <mergeCell ref="I3:I15"/>
     <mergeCell ref="F3:F15"/>
+    <mergeCell ref="D165:D177"/>
     <mergeCell ref="L150:L161"/>
     <mergeCell ref="L134:L145"/>
     <mergeCell ref="L118:L129"/>
@@ -11107,8 +11078,8 @@
     <mergeCell ref="G134:G146"/>
     <mergeCell ref="H134:H146"/>
     <mergeCell ref="F134:F146"/>
-    <mergeCell ref="F165:F177"/>
-    <mergeCell ref="G272:G284"/>
+    <mergeCell ref="E118:E130"/>
+    <mergeCell ref="H118:H130"/>
     <mergeCell ref="J85:K85"/>
     <mergeCell ref="A86:A98"/>
     <mergeCell ref="B86:B98"/>
@@ -11131,14 +11102,8 @@
     <mergeCell ref="B118:B130"/>
     <mergeCell ref="C118:C130"/>
     <mergeCell ref="D118:D130"/>
-    <mergeCell ref="D165:D177"/>
-    <mergeCell ref="D181:D193"/>
-    <mergeCell ref="D197:D209"/>
-    <mergeCell ref="D212:D224"/>
-    <mergeCell ref="D227:D239"/>
-    <mergeCell ref="D242:D254"/>
-    <mergeCell ref="D257:D269"/>
-    <mergeCell ref="D272:D284"/>
+    <mergeCell ref="I118:I130"/>
+    <mergeCell ref="F118:F130"/>
     <mergeCell ref="E165:E177"/>
     <mergeCell ref="E181:E193"/>
     <mergeCell ref="E197:E209"/>
@@ -11147,8 +11112,11 @@
     <mergeCell ref="E242:E254"/>
     <mergeCell ref="E257:E269"/>
     <mergeCell ref="E272:E284"/>
-    <mergeCell ref="G197:G209"/>
-    <mergeCell ref="G212:G224"/>
+    <mergeCell ref="G272:G284"/>
+    <mergeCell ref="F227:F239"/>
+    <mergeCell ref="F242:F254"/>
+    <mergeCell ref="F257:F269"/>
+    <mergeCell ref="G257:G269"/>
     <mergeCell ref="G227:G239"/>
     <mergeCell ref="G242:G254"/>
     <mergeCell ref="J271:K271"/>
@@ -11171,6 +11139,8 @@
     <mergeCell ref="A242:A254"/>
     <mergeCell ref="B242:B254"/>
     <mergeCell ref="C242:C254"/>
+    <mergeCell ref="D272:D284"/>
+    <mergeCell ref="L242:L253"/>
     <mergeCell ref="L47:L48"/>
     <mergeCell ref="L64:L65"/>
     <mergeCell ref="L81:L82"/>

--- a/gd/美术需求文档/怪物需求/Ver0.3怪物需求.xlsx
+++ b/gd/美术需求文档/怪物需求/Ver0.3怪物需求.xlsx
@@ -929,19 +929,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ultPanshenPre</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ultXiyirenPre</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultLuoxinfuPre</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ultHapiPre</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -955,10 +943,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ultAmutePre</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ultHuapoPre</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1067,10 +1051,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>爪子展开时分别有刀光闪烁（类似拳皇放大招前），点击怪物复用刺击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>示威时伴随气旋冲击效果，挠复用斩效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1096,6 +1076,41 @@
   </si>
   <si>
     <t>ultPanshenPre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultLangrenPre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光球：ultHapiPre
+光环：ultHapiPre01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>水流汇聚：ultAmutePre
+盾：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ultAmuteBuff</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爪子展开时分别有刀光闪烁（类似拳皇放大招前），背景有骷髅特效。点击怪物复用刺击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爪子闪：ultLuoxinfuPre
+背景骷髅：ultLuoxinfuPre01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1103,7 +1118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1136,6 +1151,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1267,6 +1289,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1287,15 +1318,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1809,7 +1831,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1819,11 +1841,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V287"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D141" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="L76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K155" sqref="K155"/>
+      <selection pane="bottomRight" activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1875,10 +1897,10 @@
       <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1911,38 +1933,38 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -1959,22 +1981,22 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="34"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="32"/>
+      <c r="L4" s="35"/>
       <c r="M4" s="3" t="s">
         <v>25</v>
       </c>
@@ -1996,22 +2018,22 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="34"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="29"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="32"/>
+      <c r="L5" s="35"/>
       <c r="M5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2032,18 +2054,18 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="34"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="29"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="32"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2058,18 +2080,18 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="34"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="29"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="32"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="3" t="s">
         <v>35</v>
       </c>
@@ -2084,18 +2106,18 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="34"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="29"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="32"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="3" t="s">
         <v>38</v>
       </c>
@@ -2110,18 +2132,18 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="34"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="29"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="32"/>
+      <c r="L9" s="35"/>
       <c r="M9" s="3" t="s">
         <v>41</v>
       </c>
@@ -2136,18 +2158,18 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="34"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="29"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="32"/>
+      <c r="L10" s="35"/>
       <c r="M10" s="3" t="s">
         <v>44</v>
       </c>
@@ -2162,18 +2184,18 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="34"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="32"/>
+      <c r="L11" s="35"/>
       <c r="M11" s="3" t="s">
         <v>47</v>
       </c>
@@ -2188,18 +2210,18 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="34"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="29"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="32"/>
+      <c r="L12" s="35"/>
       <c r="M12" s="3" t="s">
         <v>50</v>
       </c>
@@ -2214,18 +2236,18 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="34"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="29"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="32"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
@@ -2240,18 +2262,18 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="34"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="29"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="32"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="3" t="s">
         <v>54</v>
       </c>
@@ -2267,15 +2289,15 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="34"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="29"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="13" t="s">
@@ -2289,7 +2311,7 @@
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>28</v>
@@ -2325,10 +2347,10 @@
       <c r="I18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K18" s="31"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2359,38 +2381,38 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="29"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -2407,22 +2429,22 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="33">
-      <c r="A20" s="34"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="29"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L20" s="32"/>
+      <c r="L20" s="35"/>
       <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
@@ -2444,22 +2466,22 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="34"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="29"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="32"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="3" t="s">
         <v>29</v>
       </c>
@@ -2480,18 +2502,18 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="34"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="29"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="32"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="3" t="s">
         <v>32</v>
       </c>
@@ -2506,18 +2528,18 @@
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="34"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="29"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="32"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="3" t="s">
         <v>35</v>
       </c>
@@ -2532,18 +2554,18 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="34"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="29"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="32"/>
+      <c r="L24" s="35"/>
       <c r="M24" s="3" t="s">
         <v>38</v>
       </c>
@@ -2558,18 +2580,18 @@
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="34"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="29"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="32"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="3" t="s">
         <v>41</v>
       </c>
@@ -2584,18 +2606,18 @@
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="34"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="29"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="32"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="3" t="s">
         <v>44</v>
       </c>
@@ -2610,18 +2632,18 @@
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="34"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="29"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="32"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="3" t="s">
         <v>47</v>
       </c>
@@ -2636,18 +2658,18 @@
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="34"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="29"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="32"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="3" t="s">
         <v>50</v>
       </c>
@@ -2662,18 +2684,18 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="34"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="29"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="32"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="32"/>
+      <c r="L29" s="35"/>
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
@@ -2688,18 +2710,18 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="34"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="29"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="32"/>
+      <c r="L30" s="35"/>
       <c r="M30" s="3" t="s">
         <v>54</v>
       </c>
@@ -2715,15 +2737,15 @@
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="34"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="29"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="13" t="s">
@@ -2737,7 +2759,7 @@
       </c>
       <c r="O31" s="10"/>
       <c r="P31" s="17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>28</v>
@@ -2773,10 +2795,10 @@
       <c r="I34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="31" t="s">
+      <c r="J34" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K34" s="31"/>
+      <c r="K34" s="34"/>
       <c r="L34" s="3" t="s">
         <v>8</v>
       </c>
@@ -2809,38 +2831,38 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="G35" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="30" t="s">
+      <c r="H35" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I35" s="29"/>
+      <c r="I35" s="32"/>
       <c r="J35" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L35" s="32" t="s">
+      <c r="L35" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -2857,22 +2879,22 @@
       </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="29"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L36" s="32"/>
+      <c r="L36" s="35"/>
       <c r="M36" s="3" t="s">
         <v>25</v>
       </c>
@@ -2894,22 +2916,22 @@
       </c>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="29"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="32"/>
       <c r="J37" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K37" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L37" s="32"/>
+      <c r="L37" s="35"/>
       <c r="M37" s="3" t="s">
         <v>29</v>
       </c>
@@ -2930,18 +2952,18 @@
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="29"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="32"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
-      <c r="L38" s="32"/>
+      <c r="L38" s="35"/>
       <c r="M38" s="3" t="s">
         <v>32</v>
       </c>
@@ -2956,18 +2978,18 @@
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="29"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="32"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="32"/>
+      <c r="L39" s="35"/>
       <c r="M39" s="3" t="s">
         <v>35</v>
       </c>
@@ -2982,18 +3004,18 @@
       </c>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="29"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="32"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="32"/>
+      <c r="L40" s="35"/>
       <c r="M40" s="3" t="s">
         <v>38</v>
       </c>
@@ -3008,18 +3030,18 @@
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="29"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="32"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
-      <c r="L41" s="32"/>
+      <c r="L41" s="35"/>
       <c r="M41" s="3" t="s">
         <v>41</v>
       </c>
@@ -3034,18 +3056,18 @@
       </c>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="32"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
-      <c r="L42" s="32"/>
+      <c r="L42" s="35"/>
       <c r="M42" s="3" t="s">
         <v>44</v>
       </c>
@@ -3060,18 +3082,18 @@
       </c>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="29"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="32"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
-      <c r="L43" s="32"/>
+      <c r="L43" s="35"/>
       <c r="M43" s="3" t="s">
         <v>47</v>
       </c>
@@ -3086,18 +3108,18 @@
       </c>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="29"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="32"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
-      <c r="L44" s="32"/>
+      <c r="L44" s="35"/>
       <c r="M44" s="3" t="s">
         <v>50</v>
       </c>
@@ -3112,18 +3134,18 @@
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="29"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="32"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
-      <c r="L45" s="32"/>
+      <c r="L45" s="35"/>
       <c r="M45" s="3" t="s">
         <v>24</v>
       </c>
@@ -3138,18 +3160,18 @@
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="29"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="32"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
-      <c r="L46" s="32"/>
+      <c r="L46" s="35"/>
       <c r="M46" s="3" t="s">
         <v>54</v>
       </c>
@@ -3165,38 +3187,38 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="66">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="29"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="32"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
-      <c r="L47" s="31" t="s">
+      <c r="L47" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="M47" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="N47" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="O47" s="38"/>
-      <c r="P47" s="37" t="s">
-        <v>267</v>
+      <c r="M47" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="N47" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="O47" s="31"/>
+      <c r="P47" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="Q47" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R47" s="26" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="S47" s="17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="T47" s="18" t="s">
         <v>226</v>
@@ -3215,16 +3237,16 @@
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="N48" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="O48" s="38"/>
-      <c r="P48" s="37" t="s">
-        <v>266</v>
+      <c r="L48" s="34"/>
+      <c r="M48" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="N48" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="O48" s="31"/>
+      <c r="P48" s="30" t="s">
+        <v>262</v>
       </c>
       <c r="R48" s="26"/>
       <c r="T48" s="18"/>
@@ -3258,10 +3280,10 @@
       <c r="I51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J51" s="31" t="s">
+      <c r="J51" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K51" s="31"/>
+      <c r="K51" s="34"/>
       <c r="L51" s="3" t="s">
         <v>8</v>
       </c>
@@ -3292,38 +3314,38 @@
       </c>
     </row>
     <row r="52" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="F52" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G52" s="30" t="s">
+      <c r="G52" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="30" t="s">
+      <c r="H52" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="I52" s="29"/>
+      <c r="I52" s="32"/>
       <c r="J52" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L52" s="32" t="s">
+      <c r="L52" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M52" s="3" t="s">
@@ -3343,22 +3365,22 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="33">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="29"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="32"/>
       <c r="J53" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L53" s="32"/>
+      <c r="L53" s="35"/>
       <c r="M53" s="3" t="s">
         <v>25</v>
       </c>
@@ -3382,22 +3404,22 @@
       </c>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="29"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="32"/>
       <c r="J54" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K54" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L54" s="32"/>
+      <c r="L54" s="35"/>
       <c r="M54" s="3" t="s">
         <v>29</v>
       </c>
@@ -3421,18 +3443,18 @@
       </c>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="29"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="32"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
-      <c r="L55" s="32"/>
+      <c r="L55" s="35"/>
       <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
@@ -3450,18 +3472,18 @@
       </c>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="29"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="32"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
-      <c r="L56" s="32"/>
+      <c r="L56" s="35"/>
       <c r="M56" s="3" t="s">
         <v>35</v>
       </c>
@@ -3479,18 +3501,18 @@
       </c>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="29"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="32"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
-      <c r="L57" s="32"/>
+      <c r="L57" s="35"/>
       <c r="M57" s="3" t="s">
         <v>38</v>
       </c>
@@ -3508,18 +3530,18 @@
       </c>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="29"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="32"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
-      <c r="L58" s="32"/>
+      <c r="L58" s="35"/>
       <c r="M58" s="3" t="s">
         <v>41</v>
       </c>
@@ -3537,18 +3559,18 @@
       </c>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="29"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="32"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
-      <c r="L59" s="32"/>
+      <c r="L59" s="35"/>
       <c r="M59" s="3" t="s">
         <v>44</v>
       </c>
@@ -3566,18 +3588,18 @@
       </c>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="29"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="32"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
-      <c r="L60" s="32"/>
+      <c r="L60" s="35"/>
       <c r="M60" s="3" t="s">
         <v>47</v>
       </c>
@@ -3595,18 +3617,18 @@
       </c>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="29"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="32"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
-      <c r="L61" s="32"/>
+      <c r="L61" s="35"/>
       <c r="M61" s="3" t="s">
         <v>50</v>
       </c>
@@ -3624,18 +3646,18 @@
       </c>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="29"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="32"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
-      <c r="L62" s="32"/>
+      <c r="L62" s="35"/>
       <c r="M62" s="3" t="s">
         <v>24</v>
       </c>
@@ -3653,18 +3675,18 @@
       </c>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="29"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="32"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
-      <c r="L63" s="32"/>
+      <c r="L63" s="35"/>
       <c r="M63" s="3" t="s">
         <v>54</v>
       </c>
@@ -3682,40 +3704,40 @@
       </c>
     </row>
     <row r="64" spans="1:21" ht="66">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="29"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="32"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
-      <c r="L64" s="31" t="s">
+      <c r="L64" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="M64" s="36" t="s">
+      <c r="M64" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="N64" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="N64" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="O64" s="38" t="s">
+      <c r="O64" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="P64" s="37" t="s">
-        <v>267</v>
+      <c r="P64" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="Q64" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R64" s="26" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="S64" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T64" s="18" t="s">
         <v>226</v>
@@ -3734,16 +3756,16 @@
       <c r="I65" s="23"/>
       <c r="J65" s="23"/>
       <c r="K65" s="23"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="N65" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="O65" s="38"/>
-      <c r="P65" s="37" t="s">
-        <v>266</v>
+      <c r="L65" s="34"/>
+      <c r="M65" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="N65" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="O65" s="31"/>
+      <c r="P65" s="30" t="s">
+        <v>262</v>
       </c>
       <c r="R65" s="26"/>
       <c r="T65" s="18"/>
@@ -3777,10 +3799,10 @@
       <c r="I68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J68" s="31" t="s">
+      <c r="J68" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K68" s="31"/>
+      <c r="K68" s="34"/>
       <c r="L68" s="3" t="s">
         <v>8</v>
       </c>
@@ -3811,38 +3833,38 @@
       </c>
     </row>
     <row r="69" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="E69" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F69" s="29" t="s">
+      <c r="F69" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="G69" s="30" t="s">
+      <c r="G69" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H69" s="30" t="s">
+      <c r="H69" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I69" s="29"/>
+      <c r="I69" s="32"/>
       <c r="J69" s="7" t="s">
         <v>206</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L69" s="32" t="s">
+      <c r="L69" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M69" s="3" t="s">
@@ -3862,22 +3884,22 @@
       </c>
     </row>
     <row r="70" spans="1:21" ht="33">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="29"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="32"/>
       <c r="J70" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L70" s="32"/>
+      <c r="L70" s="35"/>
       <c r="M70" s="3" t="s">
         <v>25</v>
       </c>
@@ -3901,22 +3923,22 @@
       </c>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="29"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="32"/>
       <c r="J71" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K71" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L71" s="32"/>
+      <c r="L71" s="35"/>
       <c r="M71" s="3" t="s">
         <v>29</v>
       </c>
@@ -3940,22 +3962,22 @@
       </c>
     </row>
     <row r="72" spans="1:21" ht="49.5">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="29"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="32"/>
       <c r="J72" s="22" t="s">
         <v>207</v>
       </c>
       <c r="K72" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="L72" s="32"/>
+      <c r="L72" s="35"/>
       <c r="M72" s="3" t="s">
         <v>32</v>
       </c>
@@ -3973,22 +3995,22 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="49.5">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="29"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="32"/>
       <c r="J73" s="22" t="s">
         <v>208</v>
       </c>
       <c r="K73" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="L73" s="32"/>
+      <c r="L73" s="35"/>
       <c r="M73" s="3" t="s">
         <v>35</v>
       </c>
@@ -4006,22 +4028,22 @@
       </c>
     </row>
     <row r="74" spans="1:21" ht="49.5">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="29"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="32"/>
       <c r="J74" s="22" t="s">
         <v>209</v>
       </c>
       <c r="K74" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="L74" s="32"/>
+      <c r="L74" s="35"/>
       <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
@@ -4039,22 +4061,22 @@
       </c>
     </row>
     <row r="75" spans="1:21" ht="49.5">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="29"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="32"/>
       <c r="J75" s="22" t="s">
         <v>210</v>
       </c>
       <c r="K75" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="L75" s="32"/>
+      <c r="L75" s="35"/>
       <c r="M75" s="3" t="s">
         <v>41</v>
       </c>
@@ -4072,22 +4094,22 @@
       </c>
     </row>
     <row r="76" spans="1:21" ht="49.5">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="29"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="32"/>
       <c r="J76" s="22" t="s">
         <v>211</v>
       </c>
       <c r="K76" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="L76" s="32"/>
+      <c r="L76" s="35"/>
       <c r="M76" s="3" t="s">
         <v>44</v>
       </c>
@@ -4105,22 +4127,22 @@
       </c>
     </row>
     <row r="77" spans="1:21" ht="49.5">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="29"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="32"/>
       <c r="J77" s="22" t="s">
         <v>212</v>
       </c>
       <c r="K77" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="L77" s="32"/>
+      <c r="L77" s="35"/>
       <c r="M77" s="3" t="s">
         <v>47</v>
       </c>
@@ -4138,22 +4160,22 @@
       </c>
     </row>
     <row r="78" spans="1:21" ht="49.5">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="29"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="32"/>
       <c r="J78" s="22" t="s">
         <v>213</v>
       </c>
       <c r="K78" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="L78" s="32"/>
+      <c r="L78" s="35"/>
       <c r="M78" s="3" t="s">
         <v>50</v>
       </c>
@@ -4171,18 +4193,18 @@
       </c>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="29"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="32"/>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
-      <c r="L79" s="32"/>
+      <c r="L79" s="35"/>
       <c r="M79" s="3" t="s">
         <v>24</v>
       </c>
@@ -4200,18 +4222,18 @@
       </c>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="29"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="32"/>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
-      <c r="L80" s="32"/>
+      <c r="L80" s="35"/>
       <c r="M80" s="3" t="s">
         <v>54</v>
       </c>
@@ -4229,40 +4251,40 @@
       </c>
     </row>
     <row r="81" spans="1:21" ht="66">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="29"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="32"/>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
-      <c r="L81" s="31" t="s">
+      <c r="L81" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="M81" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="N81" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="O81" s="38" t="s">
+      <c r="M81" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="N81" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="O81" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="P81" s="37" t="s">
-        <v>267</v>
+      <c r="P81" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="Q81" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R81" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="S81" s="17" t="s">
-        <v>243</v>
+        <v>281</v>
+      </c>
+      <c r="S81" s="18" t="s">
+        <v>282</v>
       </c>
       <c r="T81" s="18" t="s">
         <v>227</v>
@@ -4281,16 +4303,16 @@
       <c r="I82" s="23"/>
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="N82" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="O82" s="38"/>
-      <c r="P82" s="37" t="s">
-        <v>266</v>
+      <c r="L82" s="34"/>
+      <c r="M82" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="N82" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="O82" s="31"/>
+      <c r="P82" s="30" t="s">
+        <v>262</v>
       </c>
       <c r="R82" s="26"/>
       <c r="T82" s="18"/>
@@ -4324,10 +4346,10 @@
       <c r="I85" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J85" s="31" t="s">
+      <c r="J85" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K85" s="31"/>
+      <c r="K85" s="34"/>
       <c r="L85" s="3" t="s">
         <v>8</v>
       </c>
@@ -4358,38 +4380,38 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D86" s="29" t="s">
+      <c r="D86" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E86" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F86" s="29" t="s">
+      <c r="F86" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="G86" s="30" t="s">
+      <c r="G86" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H86" s="30" t="s">
+      <c r="H86" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="I86" s="29"/>
+      <c r="I86" s="32"/>
       <c r="J86" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K86" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L86" s="32" t="s">
+      <c r="L86" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M86" s="3" t="s">
@@ -4409,22 +4431,22 @@
       </c>
     </row>
     <row r="87" spans="1:21" ht="33">
-      <c r="A87" s="34"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="29"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="32"/>
       <c r="J87" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K87" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L87" s="32"/>
+      <c r="L87" s="35"/>
       <c r="M87" s="3" t="s">
         <v>25</v>
       </c>
@@ -4448,22 +4470,22 @@
       </c>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="34"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="29"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="32"/>
       <c r="J88" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K88" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L88" s="32"/>
+      <c r="L88" s="35"/>
       <c r="M88" s="3" t="s">
         <v>29</v>
       </c>
@@ -4487,18 +4509,18 @@
       </c>
     </row>
     <row r="89" spans="1:21">
-      <c r="A89" s="34"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="29"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="32"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
-      <c r="L89" s="32"/>
+      <c r="L89" s="35"/>
       <c r="M89" s="3" t="s">
         <v>32</v>
       </c>
@@ -4516,18 +4538,18 @@
       </c>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="34"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="29"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="32"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
-      <c r="L90" s="32"/>
+      <c r="L90" s="35"/>
       <c r="M90" s="3" t="s">
         <v>35</v>
       </c>
@@ -4545,18 +4567,18 @@
       </c>
     </row>
     <row r="91" spans="1:21">
-      <c r="A91" s="34"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="29"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="32"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
-      <c r="L91" s="32"/>
+      <c r="L91" s="35"/>
       <c r="M91" s="3" t="s">
         <v>38</v>
       </c>
@@ -4574,18 +4596,18 @@
       </c>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="34"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="29"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="32"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
-      <c r="L92" s="32"/>
+      <c r="L92" s="35"/>
       <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
@@ -4603,18 +4625,18 @@
       </c>
     </row>
     <row r="93" spans="1:21">
-      <c r="A93" s="34"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="29"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="32"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
-      <c r="L93" s="32"/>
+      <c r="L93" s="35"/>
       <c r="M93" s="3" t="s">
         <v>44</v>
       </c>
@@ -4632,18 +4654,18 @@
       </c>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="34"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="29"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="32"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
-      <c r="L94" s="32"/>
+      <c r="L94" s="35"/>
       <c r="M94" s="3" t="s">
         <v>47</v>
       </c>
@@ -4661,18 +4683,18 @@
       </c>
     </row>
     <row r="95" spans="1:21">
-      <c r="A95" s="34"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="29"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="32"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
-      <c r="L95" s="32"/>
+      <c r="L95" s="35"/>
       <c r="M95" s="3" t="s">
         <v>50</v>
       </c>
@@ -4690,18 +4712,18 @@
       </c>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="34"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="29"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="32"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
-      <c r="L96" s="32"/>
+      <c r="L96" s="35"/>
       <c r="M96" s="3" t="s">
         <v>24</v>
       </c>
@@ -4719,18 +4741,18 @@
       </c>
     </row>
     <row r="97" spans="1:21">
-      <c r="A97" s="34"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="29"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="32"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
-      <c r="L97" s="32"/>
+      <c r="L97" s="35"/>
       <c r="M97" s="3" t="s">
         <v>54</v>
       </c>
@@ -4748,15 +4770,15 @@
       </c>
     </row>
     <row r="98" spans="1:21" ht="33">
-      <c r="A98" s="34"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="29"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="32"/>
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
       <c r="L98" s="13" t="s">
@@ -4772,7 +4794,7 @@
         <v>58</v>
       </c>
       <c r="P98" s="17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q98" s="6" t="s">
         <v>28</v>
@@ -4824,10 +4846,10 @@
       <c r="I101" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J101" s="31" t="s">
+      <c r="J101" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K101" s="31"/>
+      <c r="K101" s="34"/>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
@@ -4858,38 +4880,38 @@
       </c>
     </row>
     <row r="102" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A102" s="30" t="s">
+      <c r="A102" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C102" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D102" s="29" t="s">
+      <c r="D102" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E102" s="29" t="s">
+      <c r="E102" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F102" s="29" t="s">
+      <c r="F102" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="G102" s="30" t="s">
+      <c r="G102" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H102" s="30" t="s">
+      <c r="H102" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="I102" s="29"/>
+      <c r="I102" s="32"/>
       <c r="J102" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K102" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L102" s="32" t="s">
+      <c r="L102" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M102" s="3" t="s">
@@ -4909,22 +4931,22 @@
       </c>
     </row>
     <row r="103" spans="1:21" ht="33">
-      <c r="A103" s="30"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="29"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="32"/>
       <c r="J103" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K103" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L103" s="32"/>
+      <c r="L103" s="35"/>
       <c r="M103" s="3" t="s">
         <v>25</v>
       </c>
@@ -4948,22 +4970,22 @@
       </c>
     </row>
     <row r="104" spans="1:21">
-      <c r="A104" s="30"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="29"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="32"/>
       <c r="J104" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K104" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L104" s="32"/>
+      <c r="L104" s="35"/>
       <c r="M104" s="3" t="s">
         <v>29</v>
       </c>
@@ -4987,18 +5009,18 @@
       </c>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="30"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
-      <c r="I105" s="29"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="32"/>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
-      <c r="L105" s="32"/>
+      <c r="L105" s="35"/>
       <c r="M105" s="3" t="s">
         <v>32</v>
       </c>
@@ -5016,18 +5038,18 @@
       </c>
     </row>
     <row r="106" spans="1:21">
-      <c r="A106" s="30"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
-      <c r="I106" s="29"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="32"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
-      <c r="L106" s="32"/>
+      <c r="L106" s="35"/>
       <c r="M106" s="3" t="s">
         <v>35</v>
       </c>
@@ -5045,18 +5067,18 @@
       </c>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="30"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30"/>
-      <c r="I107" s="29"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="32"/>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
-      <c r="L107" s="32"/>
+      <c r="L107" s="35"/>
       <c r="M107" s="3" t="s">
         <v>38</v>
       </c>
@@ -5074,18 +5096,18 @@
       </c>
     </row>
     <row r="108" spans="1:21">
-      <c r="A108" s="30"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="29"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="32"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
-      <c r="L108" s="32"/>
+      <c r="L108" s="35"/>
       <c r="M108" s="3" t="s">
         <v>41</v>
       </c>
@@ -5103,18 +5125,18 @@
       </c>
     </row>
     <row r="109" spans="1:21">
-      <c r="A109" s="30"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="29"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="33"/>
+      <c r="I109" s="32"/>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
-      <c r="L109" s="32"/>
+      <c r="L109" s="35"/>
       <c r="M109" s="3" t="s">
         <v>44</v>
       </c>
@@ -5132,18 +5154,18 @@
       </c>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="30"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
-      <c r="I110" s="29"/>
+      <c r="A110" s="33"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="32"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
-      <c r="L110" s="32"/>
+      <c r="L110" s="35"/>
       <c r="M110" s="3" t="s">
         <v>47</v>
       </c>
@@ -5161,18 +5183,18 @@
       </c>
     </row>
     <row r="111" spans="1:21">
-      <c r="A111" s="30"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
-      <c r="I111" s="29"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="32"/>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
-      <c r="L111" s="32"/>
+      <c r="L111" s="35"/>
       <c r="M111" s="3" t="s">
         <v>50</v>
       </c>
@@ -5190,18 +5212,18 @@
       </c>
     </row>
     <row r="112" spans="1:21">
-      <c r="A112" s="30"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="29"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="32"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
-      <c r="L112" s="32"/>
+      <c r="L112" s="35"/>
       <c r="M112" s="3" t="s">
         <v>24</v>
       </c>
@@ -5219,18 +5241,18 @@
       </c>
     </row>
     <row r="113" spans="1:21">
-      <c r="A113" s="30"/>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
-      <c r="I113" s="29"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="32"/>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
-      <c r="L113" s="32"/>
+      <c r="L113" s="35"/>
       <c r="M113" s="3" t="s">
         <v>54</v>
       </c>
@@ -5248,40 +5270,40 @@
       </c>
     </row>
     <row r="114" spans="1:21" ht="66">
-      <c r="A114" s="30"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="30"/>
-      <c r="I114" s="29"/>
+      <c r="A114" s="33"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="32"/>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
       <c r="L114" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M114" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="N114" s="38" t="s">
+      <c r="M114" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="N114" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="O114" s="38" t="s">
+      <c r="O114" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="P114" s="37" t="s">
-        <v>267</v>
+      <c r="P114" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="Q114" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R114" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="S114" s="17" t="s">
-        <v>244</v>
+        <v>270</v>
+      </c>
+      <c r="S114" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="T114" s="18" t="s">
         <v>228</v>
@@ -5332,10 +5354,10 @@
       <c r="I117" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J117" s="31" t="s">
+      <c r="J117" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K117" s="31"/>
+      <c r="K117" s="34"/>
       <c r="L117" s="3" t="s">
         <v>8</v>
       </c>
@@ -5366,38 +5388,38 @@
       </c>
     </row>
     <row r="118" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A118" s="30" t="s">
+      <c r="A118" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B118" s="29" t="s">
+      <c r="B118" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C118" s="29" t="s">
+      <c r="C118" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D118" s="29" t="s">
+      <c r="D118" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E118" s="29" t="s">
+      <c r="E118" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F118" s="29" t="s">
+      <c r="F118" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G118" s="30" t="s">
+      <c r="G118" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H118" s="30" t="s">
+      <c r="H118" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="I118" s="29"/>
+      <c r="I118" s="32"/>
       <c r="J118" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K118" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L118" s="32" t="s">
+      <c r="L118" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M118" s="3" t="s">
@@ -5417,22 +5439,22 @@
       </c>
     </row>
     <row r="119" spans="1:21" ht="33">
-      <c r="A119" s="30"/>
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="29"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="30"/>
-      <c r="I119" s="29"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="32"/>
       <c r="J119" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K119" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L119" s="32"/>
+      <c r="L119" s="35"/>
       <c r="M119" s="3" t="s">
         <v>25</v>
       </c>
@@ -5456,22 +5478,22 @@
       </c>
     </row>
     <row r="120" spans="1:21">
-      <c r="A120" s="30"/>
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="30"/>
-      <c r="H120" s="30"/>
-      <c r="I120" s="29"/>
+      <c r="A120" s="33"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="32"/>
       <c r="J120" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K120" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L120" s="32"/>
+      <c r="L120" s="35"/>
       <c r="M120" s="3" t="s">
         <v>29</v>
       </c>
@@ -5495,18 +5517,18 @@
       </c>
     </row>
     <row r="121" spans="1:21">
-      <c r="A121" s="30"/>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="30"/>
-      <c r="I121" s="29"/>
+      <c r="A121" s="33"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="32"/>
       <c r="J121" s="15"/>
       <c r="K121" s="12"/>
-      <c r="L121" s="32"/>
+      <c r="L121" s="35"/>
       <c r="M121" s="3" t="s">
         <v>32</v>
       </c>
@@ -5524,18 +5546,18 @@
       </c>
     </row>
     <row r="122" spans="1:21">
-      <c r="A122" s="30"/>
-      <c r="B122" s="29"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="30"/>
-      <c r="H122" s="30"/>
-      <c r="I122" s="29"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="33"/>
+      <c r="H122" s="33"/>
+      <c r="I122" s="32"/>
       <c r="J122" s="15"/>
       <c r="K122" s="12"/>
-      <c r="L122" s="32"/>
+      <c r="L122" s="35"/>
       <c r="M122" s="3" t="s">
         <v>35</v>
       </c>
@@ -5553,18 +5575,18 @@
       </c>
     </row>
     <row r="123" spans="1:21">
-      <c r="A123" s="30"/>
-      <c r="B123" s="29"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="30"/>
-      <c r="I123" s="29"/>
+      <c r="A123" s="33"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="32"/>
       <c r="J123" s="15"/>
       <c r="K123" s="12"/>
-      <c r="L123" s="32"/>
+      <c r="L123" s="35"/>
       <c r="M123" s="3" t="s">
         <v>38</v>
       </c>
@@ -5582,18 +5604,18 @@
       </c>
     </row>
     <row r="124" spans="1:21">
-      <c r="A124" s="30"/>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="30"/>
-      <c r="H124" s="30"/>
-      <c r="I124" s="29"/>
+      <c r="A124" s="33"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="32"/>
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
-      <c r="L124" s="32"/>
+      <c r="L124" s="35"/>
       <c r="M124" s="3" t="s">
         <v>41</v>
       </c>
@@ -5611,18 +5633,18 @@
       </c>
     </row>
     <row r="125" spans="1:21">
-      <c r="A125" s="30"/>
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="30"/>
-      <c r="I125" s="29"/>
+      <c r="A125" s="33"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="32"/>
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
-      <c r="L125" s="32"/>
+      <c r="L125" s="35"/>
       <c r="M125" s="3" t="s">
         <v>44</v>
       </c>
@@ -5640,18 +5662,18 @@
       </c>
     </row>
     <row r="126" spans="1:21">
-      <c r="A126" s="30"/>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="30"/>
-      <c r="I126" s="29"/>
+      <c r="A126" s="33"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="33"/>
+      <c r="H126" s="33"/>
+      <c r="I126" s="32"/>
       <c r="J126" s="12"/>
       <c r="K126" s="12"/>
-      <c r="L126" s="32"/>
+      <c r="L126" s="35"/>
       <c r="M126" s="3" t="s">
         <v>47</v>
       </c>
@@ -5669,18 +5691,18 @@
       </c>
     </row>
     <row r="127" spans="1:21">
-      <c r="A127" s="30"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="30"/>
-      <c r="H127" s="30"/>
-      <c r="I127" s="29"/>
+      <c r="A127" s="33"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="33"/>
+      <c r="H127" s="33"/>
+      <c r="I127" s="32"/>
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
-      <c r="L127" s="32"/>
+      <c r="L127" s="35"/>
       <c r="M127" s="3" t="s">
         <v>50</v>
       </c>
@@ -5698,18 +5720,18 @@
       </c>
     </row>
     <row r="128" spans="1:21">
-      <c r="A128" s="30"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="30"/>
-      <c r="H128" s="30"/>
-      <c r="I128" s="29"/>
+      <c r="A128" s="33"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="33"/>
+      <c r="I128" s="32"/>
       <c r="J128" s="12"/>
       <c r="K128" s="12"/>
-      <c r="L128" s="32"/>
+      <c r="L128" s="35"/>
       <c r="M128" s="3" t="s">
         <v>24</v>
       </c>
@@ -5727,18 +5749,18 @@
       </c>
     </row>
     <row r="129" spans="1:21">
-      <c r="A129" s="30"/>
-      <c r="B129" s="29"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="30"/>
-      <c r="H129" s="30"/>
-      <c r="I129" s="29"/>
+      <c r="A129" s="33"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="33"/>
+      <c r="H129" s="33"/>
+      <c r="I129" s="32"/>
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
-      <c r="L129" s="32"/>
+      <c r="L129" s="35"/>
       <c r="M129" s="3" t="s">
         <v>54</v>
       </c>
@@ -5756,31 +5778,31 @@
       </c>
     </row>
     <row r="130" spans="1:21" ht="66">
-      <c r="A130" s="30"/>
-      <c r="B130" s="29"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="30"/>
-      <c r="H130" s="30"/>
-      <c r="I130" s="29"/>
+      <c r="A130" s="33"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33"/>
+      <c r="I130" s="32"/>
       <c r="J130" s="12"/>
       <c r="K130" s="12"/>
       <c r="L130" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M130" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="N130" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="O130" s="38" t="s">
+      <c r="M130" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="N130" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="O130" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="P130" s="37" t="s">
-        <v>267</v>
+      <c r="P130" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="Q130" s="6" t="s">
         <v>28</v>
@@ -5789,7 +5811,7 @@
         <v>240</v>
       </c>
       <c r="S130" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="T130" s="18" t="s">
         <v>227</v>
@@ -5840,10 +5862,10 @@
       <c r="I133" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J133" s="31" t="s">
+      <c r="J133" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K133" s="31"/>
+      <c r="K133" s="34"/>
       <c r="L133" s="3" t="s">
         <v>8</v>
       </c>
@@ -5874,38 +5896,38 @@
       </c>
     </row>
     <row r="134" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A134" s="30" t="s">
+      <c r="A134" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B134" s="29" t="s">
+      <c r="B134" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C134" s="29" t="s">
+      <c r="C134" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D134" s="29" t="s">
+      <c r="D134" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E134" s="29" t="s">
+      <c r="E134" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F134" s="29" t="s">
+      <c r="F134" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="G134" s="30" t="s">
+      <c r="G134" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H134" s="30" t="s">
+      <c r="H134" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="I134" s="29"/>
+      <c r="I134" s="32"/>
       <c r="J134" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K134" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L134" s="32" t="s">
+      <c r="L134" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M134" s="3" t="s">
@@ -5925,22 +5947,22 @@
       </c>
     </row>
     <row r="135" spans="1:21" ht="33">
-      <c r="A135" s="30"/>
-      <c r="B135" s="29"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="30"/>
-      <c r="H135" s="30"/>
-      <c r="I135" s="29"/>
+      <c r="A135" s="33"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="33"/>
+      <c r="H135" s="33"/>
+      <c r="I135" s="32"/>
       <c r="J135" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K135" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L135" s="32"/>
+      <c r="L135" s="35"/>
       <c r="M135" s="3" t="s">
         <v>25</v>
       </c>
@@ -5964,22 +5986,22 @@
       </c>
     </row>
     <row r="136" spans="1:21">
-      <c r="A136" s="30"/>
-      <c r="B136" s="29"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="30"/>
-      <c r="I136" s="29"/>
+      <c r="A136" s="33"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="33"/>
+      <c r="H136" s="33"/>
+      <c r="I136" s="32"/>
       <c r="J136" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K136" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L136" s="32"/>
+      <c r="L136" s="35"/>
       <c r="M136" s="3" t="s">
         <v>29</v>
       </c>
@@ -6003,22 +6025,22 @@
       </c>
     </row>
     <row r="137" spans="1:21" ht="49.5">
-      <c r="A137" s="30"/>
-      <c r="B137" s="29"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="29"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30"/>
-      <c r="I137" s="29"/>
+      <c r="A137" s="33"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="33"/>
+      <c r="I137" s="32"/>
       <c r="J137" s="22" t="s">
         <v>214</v>
       </c>
       <c r="K137" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="L137" s="32"/>
+      <c r="L137" s="35"/>
       <c r="M137" s="3" t="s">
         <v>32</v>
       </c>
@@ -6036,22 +6058,22 @@
       </c>
     </row>
     <row r="138" spans="1:21" ht="49.5">
-      <c r="A138" s="30"/>
-      <c r="B138" s="29"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="30"/>
-      <c r="I138" s="29"/>
+      <c r="A138" s="33"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="32"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="33"/>
+      <c r="I138" s="32"/>
       <c r="J138" s="22" t="s">
         <v>215</v>
       </c>
       <c r="K138" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="L138" s="32"/>
+      <c r="L138" s="35"/>
       <c r="M138" s="3" t="s">
         <v>35</v>
       </c>
@@ -6069,18 +6091,18 @@
       </c>
     </row>
     <row r="139" spans="1:21">
-      <c r="A139" s="30"/>
-      <c r="B139" s="29"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="30"/>
-      <c r="I139" s="29"/>
+      <c r="A139" s="33"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="33"/>
+      <c r="I139" s="32"/>
       <c r="J139" s="22"/>
       <c r="K139" s="20"/>
-      <c r="L139" s="32"/>
+      <c r="L139" s="35"/>
       <c r="M139" s="3" t="s">
         <v>38</v>
       </c>
@@ -6098,18 +6120,18 @@
       </c>
     </row>
     <row r="140" spans="1:21">
-      <c r="A140" s="30"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="30"/>
-      <c r="I140" s="29"/>
+      <c r="A140" s="33"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33"/>
+      <c r="I140" s="32"/>
       <c r="J140" s="12"/>
       <c r="K140" s="12"/>
-      <c r="L140" s="32"/>
+      <c r="L140" s="35"/>
       <c r="M140" s="3" t="s">
         <v>41</v>
       </c>
@@ -6127,18 +6149,18 @@
       </c>
     </row>
     <row r="141" spans="1:21">
-      <c r="A141" s="30"/>
-      <c r="B141" s="29"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="29"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="30"/>
-      <c r="H141" s="30"/>
-      <c r="I141" s="29"/>
+      <c r="A141" s="33"/>
+      <c r="B141" s="32"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="33"/>
+      <c r="I141" s="32"/>
       <c r="J141" s="12"/>
       <c r="K141" s="12"/>
-      <c r="L141" s="32"/>
+      <c r="L141" s="35"/>
       <c r="M141" s="3" t="s">
         <v>44</v>
       </c>
@@ -6156,18 +6178,18 @@
       </c>
     </row>
     <row r="142" spans="1:21">
-      <c r="A142" s="30"/>
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="29"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="29"/>
-      <c r="G142" s="30"/>
-      <c r="H142" s="30"/>
-      <c r="I142" s="29"/>
+      <c r="A142" s="33"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="33"/>
+      <c r="H142" s="33"/>
+      <c r="I142" s="32"/>
       <c r="J142" s="12"/>
       <c r="K142" s="12"/>
-      <c r="L142" s="32"/>
+      <c r="L142" s="35"/>
       <c r="M142" s="3" t="s">
         <v>47</v>
       </c>
@@ -6185,18 +6207,18 @@
       </c>
     </row>
     <row r="143" spans="1:21">
-      <c r="A143" s="30"/>
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="30"/>
-      <c r="I143" s="29"/>
+      <c r="A143" s="33"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="33"/>
+      <c r="H143" s="33"/>
+      <c r="I143" s="32"/>
       <c r="J143" s="12"/>
       <c r="K143" s="12"/>
-      <c r="L143" s="32"/>
+      <c r="L143" s="35"/>
       <c r="M143" s="3" t="s">
         <v>50</v>
       </c>
@@ -6214,18 +6236,18 @@
       </c>
     </row>
     <row r="144" spans="1:21">
-      <c r="A144" s="30"/>
-      <c r="B144" s="29"/>
-      <c r="C144" s="29"/>
-      <c r="D144" s="29"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="29"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="30"/>
-      <c r="I144" s="29"/>
+      <c r="A144" s="33"/>
+      <c r="B144" s="32"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="33"/>
+      <c r="H144" s="33"/>
+      <c r="I144" s="32"/>
       <c r="J144" s="12"/>
       <c r="K144" s="12"/>
-      <c r="L144" s="32"/>
+      <c r="L144" s="35"/>
       <c r="M144" s="3" t="s">
         <v>24</v>
       </c>
@@ -6243,18 +6265,18 @@
       </c>
     </row>
     <row r="145" spans="1:21">
-      <c r="A145" s="30"/>
-      <c r="B145" s="29"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="30"/>
-      <c r="I145" s="29"/>
+      <c r="A145" s="33"/>
+      <c r="B145" s="32"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="33"/>
+      <c r="I145" s="32"/>
       <c r="J145" s="12"/>
       <c r="K145" s="12"/>
-      <c r="L145" s="32"/>
+      <c r="L145" s="35"/>
       <c r="M145" s="3" t="s">
         <v>54</v>
       </c>
@@ -6272,40 +6294,40 @@
       </c>
     </row>
     <row r="146" spans="1:21" ht="66">
-      <c r="A146" s="30"/>
-      <c r="B146" s="29"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="29"/>
-      <c r="E146" s="29"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="30"/>
-      <c r="I146" s="29"/>
+      <c r="A146" s="33"/>
+      <c r="B146" s="32"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="33"/>
+      <c r="I146" s="32"/>
       <c r="J146" s="12"/>
       <c r="K146" s="12"/>
       <c r="L146" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M146" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="N146" s="37" t="s">
+      <c r="M146" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="N146" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="O146" s="38" t="s">
+      <c r="O146" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="P146" s="37" t="s">
-        <v>267</v>
+      <c r="P146" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="Q146" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R146" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="S146" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="T146" s="18" t="s">
         <v>229</v>
@@ -6356,10 +6378,10 @@
       <c r="I149" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J149" s="31" t="s">
+      <c r="J149" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K149" s="31"/>
+      <c r="K149" s="34"/>
       <c r="L149" s="3" t="s">
         <v>8</v>
       </c>
@@ -6390,38 +6412,38 @@
       </c>
     </row>
     <row r="150" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A150" s="30" t="s">
+      <c r="A150" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B150" s="29" t="s">
+      <c r="B150" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C150" s="29" t="s">
+      <c r="C150" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D150" s="29" t="s">
+      <c r="D150" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E150" s="29" t="s">
+      <c r="E150" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F150" s="29" t="s">
+      <c r="F150" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="G150" s="30" t="s">
+      <c r="G150" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H150" s="30" t="s">
+      <c r="H150" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="I150" s="29"/>
+      <c r="I150" s="32"/>
       <c r="J150" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K150" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="L150" s="32" t="s">
+      <c r="L150" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M150" s="3" t="s">
@@ -6441,22 +6463,22 @@
       </c>
     </row>
     <row r="151" spans="1:21" ht="33">
-      <c r="A151" s="30"/>
-      <c r="B151" s="29"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="30"/>
-      <c r="H151" s="30"/>
-      <c r="I151" s="29"/>
+      <c r="A151" s="33"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="32"/>
+      <c r="G151" s="33"/>
+      <c r="H151" s="33"/>
+      <c r="I151" s="32"/>
       <c r="J151" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K151" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L151" s="32"/>
+      <c r="L151" s="35"/>
       <c r="M151" s="3" t="s">
         <v>25</v>
       </c>
@@ -6480,22 +6502,22 @@
       </c>
     </row>
     <row r="152" spans="1:21">
-      <c r="A152" s="30"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="30"/>
-      <c r="I152" s="29"/>
+      <c r="A152" s="33"/>
+      <c r="B152" s="32"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="32"/>
+      <c r="G152" s="33"/>
+      <c r="H152" s="33"/>
+      <c r="I152" s="32"/>
       <c r="J152" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K152" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L152" s="32"/>
+      <c r="L152" s="35"/>
       <c r="M152" s="3" t="s">
         <v>29</v>
       </c>
@@ -6519,22 +6541,22 @@
       </c>
     </row>
     <row r="153" spans="1:21" ht="49.5">
-      <c r="A153" s="30"/>
-      <c r="B153" s="29"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="30"/>
-      <c r="I153" s="29"/>
+      <c r="A153" s="33"/>
+      <c r="B153" s="32"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="32"/>
+      <c r="G153" s="33"/>
+      <c r="H153" s="33"/>
+      <c r="I153" s="32"/>
       <c r="J153" s="22" t="s">
         <v>214</v>
       </c>
       <c r="K153" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="L153" s="32"/>
+      <c r="L153" s="35"/>
       <c r="M153" s="3" t="s">
         <v>32</v>
       </c>
@@ -6552,22 +6574,22 @@
       </c>
     </row>
     <row r="154" spans="1:21" ht="66">
-      <c r="A154" s="30"/>
-      <c r="B154" s="29"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="30"/>
-      <c r="H154" s="30"/>
-      <c r="I154" s="29"/>
+      <c r="A154" s="33"/>
+      <c r="B154" s="32"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="32"/>
+      <c r="G154" s="33"/>
+      <c r="H154" s="33"/>
+      <c r="I154" s="32"/>
       <c r="J154" s="22" t="s">
         <v>215</v>
       </c>
       <c r="K154" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="L154" s="32"/>
+      <c r="L154" s="35"/>
       <c r="M154" s="3" t="s">
         <v>35</v>
       </c>
@@ -6585,22 +6607,22 @@
       </c>
     </row>
     <row r="155" spans="1:21" ht="49.5">
-      <c r="A155" s="30"/>
-      <c r="B155" s="29"/>
-      <c r="C155" s="29"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="30"/>
-      <c r="H155" s="30"/>
-      <c r="I155" s="29"/>
+      <c r="A155" s="33"/>
+      <c r="B155" s="32"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="32"/>
+      <c r="G155" s="33"/>
+      <c r="H155" s="33"/>
+      <c r="I155" s="32"/>
       <c r="J155" s="22" t="s">
         <v>216</v>
       </c>
       <c r="K155" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="L155" s="32"/>
+      <c r="L155" s="35"/>
       <c r="M155" s="3" t="s">
         <v>38</v>
       </c>
@@ -6618,18 +6640,18 @@
       </c>
     </row>
     <row r="156" spans="1:21">
-      <c r="A156" s="30"/>
-      <c r="B156" s="29"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="29"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="29"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="30"/>
-      <c r="I156" s="29"/>
+      <c r="A156" s="33"/>
+      <c r="B156" s="32"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="32"/>
+      <c r="G156" s="33"/>
+      <c r="H156" s="33"/>
+      <c r="I156" s="32"/>
       <c r="J156" s="12"/>
       <c r="K156" s="12"/>
-      <c r="L156" s="32"/>
+      <c r="L156" s="35"/>
       <c r="M156" s="3" t="s">
         <v>41</v>
       </c>
@@ -6647,18 +6669,18 @@
       </c>
     </row>
     <row r="157" spans="1:21">
-      <c r="A157" s="30"/>
-      <c r="B157" s="29"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="29"/>
-      <c r="E157" s="29"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="30"/>
-      <c r="I157" s="29"/>
+      <c r="A157" s="33"/>
+      <c r="B157" s="32"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="32"/>
+      <c r="E157" s="32"/>
+      <c r="F157" s="32"/>
+      <c r="G157" s="33"/>
+      <c r="H157" s="33"/>
+      <c r="I157" s="32"/>
       <c r="J157" s="12"/>
       <c r="K157" s="12"/>
-      <c r="L157" s="32"/>
+      <c r="L157" s="35"/>
       <c r="M157" s="3" t="s">
         <v>44</v>
       </c>
@@ -6676,18 +6698,18 @@
       </c>
     </row>
     <row r="158" spans="1:21">
-      <c r="A158" s="30"/>
-      <c r="B158" s="29"/>
-      <c r="C158" s="29"/>
-      <c r="D158" s="29"/>
-      <c r="E158" s="29"/>
-      <c r="F158" s="29"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="30"/>
-      <c r="I158" s="29"/>
+      <c r="A158" s="33"/>
+      <c r="B158" s="32"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32"/>
+      <c r="G158" s="33"/>
+      <c r="H158" s="33"/>
+      <c r="I158" s="32"/>
       <c r="J158" s="12"/>
       <c r="K158" s="12"/>
-      <c r="L158" s="32"/>
+      <c r="L158" s="35"/>
       <c r="M158" s="3" t="s">
         <v>47</v>
       </c>
@@ -6705,18 +6727,18 @@
       </c>
     </row>
     <row r="159" spans="1:21">
-      <c r="A159" s="30"/>
-      <c r="B159" s="29"/>
-      <c r="C159" s="29"/>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="29"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="30"/>
-      <c r="I159" s="29"/>
+      <c r="A159" s="33"/>
+      <c r="B159" s="32"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="32"/>
+      <c r="G159" s="33"/>
+      <c r="H159" s="33"/>
+      <c r="I159" s="32"/>
       <c r="J159" s="12"/>
       <c r="K159" s="12"/>
-      <c r="L159" s="32"/>
+      <c r="L159" s="35"/>
       <c r="M159" s="3" t="s">
         <v>50</v>
       </c>
@@ -6734,18 +6756,18 @@
       </c>
     </row>
     <row r="160" spans="1:21">
-      <c r="A160" s="30"/>
-      <c r="B160" s="29"/>
-      <c r="C160" s="29"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="30"/>
-      <c r="I160" s="29"/>
+      <c r="A160" s="33"/>
+      <c r="B160" s="32"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="32"/>
+      <c r="G160" s="33"/>
+      <c r="H160" s="33"/>
+      <c r="I160" s="32"/>
       <c r="J160" s="12"/>
       <c r="K160" s="12"/>
-      <c r="L160" s="32"/>
+      <c r="L160" s="35"/>
       <c r="M160" s="3" t="s">
         <v>24</v>
       </c>
@@ -6763,18 +6785,18 @@
       </c>
     </row>
     <row r="161" spans="1:22">
-      <c r="A161" s="30"/>
-      <c r="B161" s="29"/>
-      <c r="C161" s="29"/>
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="30"/>
-      <c r="I161" s="29"/>
+      <c r="A161" s="33"/>
+      <c r="B161" s="32"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="32"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="33"/>
+      <c r="I161" s="32"/>
       <c r="J161" s="12"/>
       <c r="K161" s="12"/>
-      <c r="L161" s="32"/>
+      <c r="L161" s="35"/>
       <c r="M161" s="3" t="s">
         <v>54</v>
       </c>
@@ -6792,40 +6814,40 @@
       </c>
     </row>
     <row r="162" spans="1:22" ht="66">
-      <c r="A162" s="30"/>
-      <c r="B162" s="29"/>
-      <c r="C162" s="29"/>
-      <c r="D162" s="29"/>
-      <c r="E162" s="29"/>
-      <c r="F162" s="29"/>
-      <c r="G162" s="30"/>
-      <c r="H162" s="30"/>
-      <c r="I162" s="29"/>
+      <c r="A162" s="33"/>
+      <c r="B162" s="32"/>
+      <c r="C162" s="32"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="32"/>
+      <c r="G162" s="33"/>
+      <c r="H162" s="33"/>
+      <c r="I162" s="32"/>
       <c r="J162" s="12"/>
       <c r="K162" s="12"/>
       <c r="L162" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M162" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="N162" s="37" t="s">
+      <c r="M162" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="N162" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="O162" s="38" t="s">
+      <c r="O162" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="P162" s="37" t="s">
-        <v>267</v>
+      <c r="P162" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="Q162" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R162" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="S162" s="17" t="s">
-        <v>247</v>
+        <v>268</v>
+      </c>
+      <c r="S162" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="T162" s="18" t="s">
         <v>230</v>
@@ -6883,10 +6905,10 @@
       <c r="I164" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J164" s="31" t="s">
+      <c r="J164" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K164" s="31"/>
+      <c r="K164" s="34"/>
       <c r="L164" s="3" t="s">
         <v>8</v>
       </c>
@@ -6918,38 +6940,38 @@
       <c r="V164" s="17"/>
     </row>
     <row r="165" spans="1:22">
-      <c r="A165" s="30" t="s">
+      <c r="A165" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B165" s="29" t="s">
+      <c r="B165" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C165" s="29" t="s">
+      <c r="C165" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="D165" s="29" t="s">
+      <c r="D165" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E165" s="29" t="s">
+      <c r="E165" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="F165" s="29" t="s">
+      <c r="F165" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="G165" s="30" t="s">
+      <c r="G165" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H165" s="29" t="s">
+      <c r="H165" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="I165" s="29"/>
+      <c r="I165" s="32"/>
       <c r="J165" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K165" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L165" s="32" t="s">
+      <c r="L165" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M165" s="3" t="s">
@@ -6970,22 +6992,22 @@
       <c r="R165" s="17"/>
     </row>
     <row r="166" spans="1:22" ht="33">
-      <c r="A166" s="30"/>
-      <c r="B166" s="29"/>
-      <c r="C166" s="29"/>
-      <c r="D166" s="29"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="29"/>
-      <c r="G166" s="30"/>
-      <c r="H166" s="29"/>
-      <c r="I166" s="29"/>
+      <c r="A166" s="33"/>
+      <c r="B166" s="32"/>
+      <c r="C166" s="32"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="32"/>
+      <c r="G166" s="33"/>
+      <c r="H166" s="32"/>
+      <c r="I166" s="32"/>
       <c r="J166" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K166" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L166" s="32"/>
+      <c r="L166" s="35"/>
       <c r="M166" s="3" t="s">
         <v>25</v>
       </c>
@@ -7009,22 +7031,22 @@
       </c>
     </row>
     <row r="167" spans="1:22">
-      <c r="A167" s="30"/>
-      <c r="B167" s="29"/>
-      <c r="C167" s="29"/>
-      <c r="D167" s="29"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="30"/>
-      <c r="H167" s="29"/>
-      <c r="I167" s="29"/>
+      <c r="A167" s="33"/>
+      <c r="B167" s="32"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="32"/>
+      <c r="G167" s="33"/>
+      <c r="H167" s="32"/>
+      <c r="I167" s="32"/>
       <c r="J167" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K167" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L167" s="32"/>
+      <c r="L167" s="35"/>
       <c r="M167" s="3" t="s">
         <v>29</v>
       </c>
@@ -7048,17 +7070,17 @@
       </c>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="30"/>
-      <c r="B168" s="29"/>
-      <c r="C168" s="29"/>
-      <c r="D168" s="29"/>
-      <c r="E168" s="29"/>
-      <c r="F168" s="29"/>
-      <c r="G168" s="30"/>
-      <c r="H168" s="29"/>
-      <c r="I168" s="29"/>
+      <c r="A168" s="33"/>
+      <c r="B168" s="32"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="32"/>
+      <c r="G168" s="33"/>
+      <c r="H168" s="32"/>
+      <c r="I168" s="32"/>
       <c r="K168" s="19"/>
-      <c r="L168" s="32"/>
+      <c r="L168" s="35"/>
       <c r="M168" s="3" t="s">
         <v>32</v>
       </c>
@@ -7077,17 +7099,17 @@
       <c r="R168" s="17"/>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="30"/>
-      <c r="B169" s="29"/>
-      <c r="C169" s="29"/>
-      <c r="D169" s="29"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="29"/>
-      <c r="G169" s="30"/>
-      <c r="H169" s="29"/>
-      <c r="I169" s="29"/>
+      <c r="A169" s="33"/>
+      <c r="B169" s="32"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="32"/>
+      <c r="G169" s="33"/>
+      <c r="H169" s="32"/>
+      <c r="I169" s="32"/>
       <c r="K169" s="19"/>
-      <c r="L169" s="32"/>
+      <c r="L169" s="35"/>
       <c r="M169" s="3" t="s">
         <v>35</v>
       </c>
@@ -7106,17 +7128,17 @@
       <c r="R169" s="17"/>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="30"/>
-      <c r="B170" s="29"/>
-      <c r="C170" s="29"/>
-      <c r="D170" s="29"/>
-      <c r="E170" s="29"/>
-      <c r="F170" s="29"/>
-      <c r="G170" s="30"/>
-      <c r="H170" s="29"/>
-      <c r="I170" s="29"/>
+      <c r="A170" s="33"/>
+      <c r="B170" s="32"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="32"/>
+      <c r="F170" s="32"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="32"/>
+      <c r="I170" s="32"/>
       <c r="K170" s="19"/>
-      <c r="L170" s="32"/>
+      <c r="L170" s="35"/>
       <c r="M170" s="3" t="s">
         <v>38</v>
       </c>
@@ -7135,17 +7157,17 @@
       <c r="R170" s="17"/>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="30"/>
-      <c r="B171" s="29"/>
-      <c r="C171" s="29"/>
-      <c r="D171" s="29"/>
-      <c r="E171" s="29"/>
-      <c r="F171" s="29"/>
-      <c r="G171" s="30"/>
-      <c r="H171" s="29"/>
-      <c r="I171" s="29"/>
+      <c r="A171" s="33"/>
+      <c r="B171" s="32"/>
+      <c r="C171" s="32"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="32"/>
+      <c r="F171" s="32"/>
+      <c r="G171" s="33"/>
+      <c r="H171" s="32"/>
+      <c r="I171" s="32"/>
       <c r="K171" s="19"/>
-      <c r="L171" s="32"/>
+      <c r="L171" s="35"/>
       <c r="M171" s="3" t="s">
         <v>41</v>
       </c>
@@ -7164,17 +7186,17 @@
       <c r="R171" s="17"/>
     </row>
     <row r="172" spans="1:22">
-      <c r="A172" s="30"/>
-      <c r="B172" s="29"/>
-      <c r="C172" s="29"/>
-      <c r="D172" s="29"/>
-      <c r="E172" s="29"/>
-      <c r="F172" s="29"/>
-      <c r="G172" s="30"/>
-      <c r="H172" s="29"/>
-      <c r="I172" s="29"/>
+      <c r="A172" s="33"/>
+      <c r="B172" s="32"/>
+      <c r="C172" s="32"/>
+      <c r="D172" s="32"/>
+      <c r="E172" s="32"/>
+      <c r="F172" s="32"/>
+      <c r="G172" s="33"/>
+      <c r="H172" s="32"/>
+      <c r="I172" s="32"/>
       <c r="K172" s="19"/>
-      <c r="L172" s="32"/>
+      <c r="L172" s="35"/>
       <c r="M172" s="3" t="s">
         <v>44</v>
       </c>
@@ -7193,17 +7215,17 @@
       <c r="R172" s="17"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="30"/>
-      <c r="B173" s="29"/>
-      <c r="C173" s="29"/>
-      <c r="D173" s="29"/>
-      <c r="E173" s="29"/>
-      <c r="F173" s="29"/>
-      <c r="G173" s="30"/>
-      <c r="H173" s="29"/>
-      <c r="I173" s="29"/>
+      <c r="A173" s="33"/>
+      <c r="B173" s="32"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="32"/>
+      <c r="E173" s="32"/>
+      <c r="F173" s="32"/>
+      <c r="G173" s="33"/>
+      <c r="H173" s="32"/>
+      <c r="I173" s="32"/>
       <c r="K173" s="19"/>
-      <c r="L173" s="32"/>
+      <c r="L173" s="35"/>
       <c r="M173" s="3" t="s">
         <v>47</v>
       </c>
@@ -7222,17 +7244,17 @@
       <c r="R173" s="17"/>
     </row>
     <row r="174" spans="1:22">
-      <c r="A174" s="30"/>
-      <c r="B174" s="29"/>
-      <c r="C174" s="29"/>
-      <c r="D174" s="29"/>
-      <c r="E174" s="29"/>
-      <c r="F174" s="29"/>
-      <c r="G174" s="30"/>
-      <c r="H174" s="29"/>
-      <c r="I174" s="29"/>
+      <c r="A174" s="33"/>
+      <c r="B174" s="32"/>
+      <c r="C174" s="32"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="32"/>
+      <c r="F174" s="32"/>
+      <c r="G174" s="33"/>
+      <c r="H174" s="32"/>
+      <c r="I174" s="32"/>
       <c r="K174" s="19"/>
-      <c r="L174" s="32"/>
+      <c r="L174" s="35"/>
       <c r="M174" s="3" t="s">
         <v>50</v>
       </c>
@@ -7251,17 +7273,17 @@
       <c r="R174" s="17"/>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="30"/>
-      <c r="B175" s="29"/>
-      <c r="C175" s="29"/>
-      <c r="D175" s="29"/>
-      <c r="E175" s="29"/>
-      <c r="F175" s="29"/>
-      <c r="G175" s="30"/>
-      <c r="H175" s="29"/>
-      <c r="I175" s="29"/>
+      <c r="A175" s="33"/>
+      <c r="B175" s="32"/>
+      <c r="C175" s="32"/>
+      <c r="D175" s="32"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="32"/>
+      <c r="G175" s="33"/>
+      <c r="H175" s="32"/>
+      <c r="I175" s="32"/>
       <c r="K175" s="19"/>
-      <c r="L175" s="32"/>
+      <c r="L175" s="35"/>
       <c r="M175" s="3" t="s">
         <v>24</v>
       </c>
@@ -7280,17 +7302,17 @@
       <c r="R175" s="17"/>
     </row>
     <row r="176" spans="1:22">
-      <c r="A176" s="30"/>
-      <c r="B176" s="29"/>
-      <c r="C176" s="29"/>
-      <c r="D176" s="29"/>
-      <c r="E176" s="29"/>
-      <c r="F176" s="29"/>
-      <c r="G176" s="30"/>
-      <c r="H176" s="29"/>
-      <c r="I176" s="29"/>
+      <c r="A176" s="33"/>
+      <c r="B176" s="32"/>
+      <c r="C176" s="32"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="32"/>
+      <c r="G176" s="33"/>
+      <c r="H176" s="32"/>
+      <c r="I176" s="32"/>
       <c r="K176" s="19"/>
-      <c r="L176" s="32"/>
+      <c r="L176" s="35"/>
       <c r="M176" s="3" t="s">
         <v>54</v>
       </c>
@@ -7309,39 +7331,39 @@
       <c r="R176" s="17"/>
     </row>
     <row r="177" spans="1:22" ht="66">
-      <c r="A177" s="30"/>
-      <c r="B177" s="29"/>
-      <c r="C177" s="29"/>
-      <c r="D177" s="29"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="29"/>
-      <c r="G177" s="30"/>
-      <c r="H177" s="29"/>
-      <c r="I177" s="29"/>
+      <c r="A177" s="33"/>
+      <c r="B177" s="32"/>
+      <c r="C177" s="32"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="32"/>
+      <c r="G177" s="33"/>
+      <c r="H177" s="32"/>
+      <c r="I177" s="32"/>
       <c r="K177" s="19"/>
-      <c r="L177" s="31" t="s">
+      <c r="L177" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="M177" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="N177" s="38" t="s">
+      <c r="M177" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="N177" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="O177" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="P177" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="O177" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="P177" s="37" t="s">
+      <c r="Q177" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R177" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="Q177" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="R177" s="26" t="s">
-        <v>271</v>
-      </c>
       <c r="S177" s="17" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="T177" s="18" t="s">
         <v>227</v>
@@ -7358,16 +7380,16 @@
       <c r="H178" s="23"/>
       <c r="I178" s="23"/>
       <c r="K178" s="23"/>
-      <c r="L178" s="31"/>
-      <c r="M178" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="N178" s="38" t="s">
+      <c r="L178" s="34"/>
+      <c r="M178" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="N178" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="O178" s="31"/>
+      <c r="P178" s="30" t="s">
         <v>262</v>
-      </c>
-      <c r="O178" s="38"/>
-      <c r="P178" s="37" t="s">
-        <v>266</v>
       </c>
       <c r="R178" s="26"/>
       <c r="T178" s="18"/>
@@ -7424,10 +7446,10 @@
       <c r="I180" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J180" s="31" t="s">
+      <c r="J180" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K180" s="31"/>
+      <c r="K180" s="34"/>
       <c r="L180" s="3" t="s">
         <v>8</v>
       </c>
@@ -7458,38 +7480,38 @@
       </c>
     </row>
     <row r="181" spans="1:22" s="17" customFormat="1">
-      <c r="A181" s="30" t="s">
+      <c r="A181" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B181" s="29" t="s">
+      <c r="B181" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C181" s="29" t="s">
+      <c r="C181" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D181" s="29" t="s">
+      <c r="D181" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E181" s="29" t="s">
+      <c r="E181" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="F181" s="29" t="s">
+      <c r="F181" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="G181" s="30" t="s">
+      <c r="G181" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H181" s="29" t="s">
+      <c r="H181" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="I181" s="29"/>
+      <c r="I181" s="32"/>
       <c r="J181" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K181" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L181" s="32" t="s">
+      <c r="L181" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M181" s="3" t="s">
@@ -7509,22 +7531,22 @@
       </c>
     </row>
     <row r="182" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A182" s="30"/>
-      <c r="B182" s="29"/>
-      <c r="C182" s="29"/>
-      <c r="D182" s="29"/>
-      <c r="E182" s="29"/>
-      <c r="F182" s="29"/>
-      <c r="G182" s="30"/>
-      <c r="H182" s="29"/>
-      <c r="I182" s="29"/>
+      <c r="A182" s="33"/>
+      <c r="B182" s="32"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="32"/>
+      <c r="E182" s="32"/>
+      <c r="F182" s="32"/>
+      <c r="G182" s="33"/>
+      <c r="H182" s="32"/>
+      <c r="I182" s="32"/>
       <c r="J182" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K182" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L182" s="32"/>
+      <c r="L182" s="35"/>
       <c r="M182" s="3" t="s">
         <v>25</v>
       </c>
@@ -7548,22 +7570,22 @@
       </c>
     </row>
     <row r="183" spans="1:22" s="17" customFormat="1">
-      <c r="A183" s="30"/>
-      <c r="B183" s="29"/>
-      <c r="C183" s="29"/>
-      <c r="D183" s="29"/>
-      <c r="E183" s="29"/>
-      <c r="F183" s="29"/>
-      <c r="G183" s="30"/>
-      <c r="H183" s="29"/>
-      <c r="I183" s="29"/>
+      <c r="A183" s="33"/>
+      <c r="B183" s="32"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="32"/>
+      <c r="G183" s="33"/>
+      <c r="H183" s="32"/>
+      <c r="I183" s="32"/>
       <c r="J183" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K183" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L183" s="32"/>
+      <c r="L183" s="35"/>
       <c r="M183" s="3" t="s">
         <v>29</v>
       </c>
@@ -7587,17 +7609,17 @@
       </c>
     </row>
     <row r="184" spans="1:22" s="17" customFormat="1">
-      <c r="A184" s="30"/>
-      <c r="B184" s="29"/>
-      <c r="C184" s="29"/>
-      <c r="D184" s="29"/>
-      <c r="E184" s="29"/>
-      <c r="F184" s="29"/>
-      <c r="G184" s="30"/>
-      <c r="H184" s="29"/>
-      <c r="I184" s="29"/>
+      <c r="A184" s="33"/>
+      <c r="B184" s="32"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="32"/>
+      <c r="E184" s="32"/>
+      <c r="F184" s="32"/>
+      <c r="G184" s="33"/>
+      <c r="H184" s="32"/>
+      <c r="I184" s="32"/>
       <c r="K184" s="19"/>
-      <c r="L184" s="32"/>
+      <c r="L184" s="35"/>
       <c r="M184" s="3" t="s">
         <v>32</v>
       </c>
@@ -7615,17 +7637,17 @@
       </c>
     </row>
     <row r="185" spans="1:22" s="17" customFormat="1">
-      <c r="A185" s="30"/>
-      <c r="B185" s="29"/>
-      <c r="C185" s="29"/>
-      <c r="D185" s="29"/>
-      <c r="E185" s="29"/>
-      <c r="F185" s="29"/>
-      <c r="G185" s="30"/>
-      <c r="H185" s="29"/>
-      <c r="I185" s="29"/>
+      <c r="A185" s="33"/>
+      <c r="B185" s="32"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="32"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="32"/>
+      <c r="G185" s="33"/>
+      <c r="H185" s="32"/>
+      <c r="I185" s="32"/>
       <c r="K185" s="19"/>
-      <c r="L185" s="32"/>
+      <c r="L185" s="35"/>
       <c r="M185" s="3" t="s">
         <v>35</v>
       </c>
@@ -7643,17 +7665,17 @@
       </c>
     </row>
     <row r="186" spans="1:22" s="17" customFormat="1">
-      <c r="A186" s="30"/>
-      <c r="B186" s="29"/>
-      <c r="C186" s="29"/>
-      <c r="D186" s="29"/>
-      <c r="E186" s="29"/>
-      <c r="F186" s="29"/>
-      <c r="G186" s="30"/>
-      <c r="H186" s="29"/>
-      <c r="I186" s="29"/>
+      <c r="A186" s="33"/>
+      <c r="B186" s="32"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="32"/>
+      <c r="E186" s="32"/>
+      <c r="F186" s="32"/>
+      <c r="G186" s="33"/>
+      <c r="H186" s="32"/>
+      <c r="I186" s="32"/>
       <c r="K186" s="19"/>
-      <c r="L186" s="32"/>
+      <c r="L186" s="35"/>
       <c r="M186" s="3" t="s">
         <v>38</v>
       </c>
@@ -7671,17 +7693,17 @@
       </c>
     </row>
     <row r="187" spans="1:22" s="17" customFormat="1">
-      <c r="A187" s="30"/>
-      <c r="B187" s="29"/>
-      <c r="C187" s="29"/>
-      <c r="D187" s="29"/>
-      <c r="E187" s="29"/>
-      <c r="F187" s="29"/>
-      <c r="G187" s="30"/>
-      <c r="H187" s="29"/>
-      <c r="I187" s="29"/>
+      <c r="A187" s="33"/>
+      <c r="B187" s="32"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="32"/>
+      <c r="E187" s="32"/>
+      <c r="F187" s="32"/>
+      <c r="G187" s="33"/>
+      <c r="H187" s="32"/>
+      <c r="I187" s="32"/>
       <c r="K187" s="19"/>
-      <c r="L187" s="32"/>
+      <c r="L187" s="35"/>
       <c r="M187" s="3" t="s">
         <v>41</v>
       </c>
@@ -7699,17 +7721,17 @@
       </c>
     </row>
     <row r="188" spans="1:22" s="17" customFormat="1">
-      <c r="A188" s="30"/>
-      <c r="B188" s="29"/>
-      <c r="C188" s="29"/>
-      <c r="D188" s="29"/>
-      <c r="E188" s="29"/>
-      <c r="F188" s="29"/>
-      <c r="G188" s="30"/>
-      <c r="H188" s="29"/>
-      <c r="I188" s="29"/>
+      <c r="A188" s="33"/>
+      <c r="B188" s="32"/>
+      <c r="C188" s="32"/>
+      <c r="D188" s="32"/>
+      <c r="E188" s="32"/>
+      <c r="F188" s="32"/>
+      <c r="G188" s="33"/>
+      <c r="H188" s="32"/>
+      <c r="I188" s="32"/>
       <c r="K188" s="19"/>
-      <c r="L188" s="32"/>
+      <c r="L188" s="35"/>
       <c r="M188" s="3" t="s">
         <v>44</v>
       </c>
@@ -7727,17 +7749,17 @@
       </c>
     </row>
     <row r="189" spans="1:22" s="17" customFormat="1">
-      <c r="A189" s="30"/>
-      <c r="B189" s="29"/>
-      <c r="C189" s="29"/>
-      <c r="D189" s="29"/>
-      <c r="E189" s="29"/>
-      <c r="F189" s="29"/>
-      <c r="G189" s="30"/>
-      <c r="H189" s="29"/>
-      <c r="I189" s="29"/>
+      <c r="A189" s="33"/>
+      <c r="B189" s="32"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="32"/>
+      <c r="E189" s="32"/>
+      <c r="F189" s="32"/>
+      <c r="G189" s="33"/>
+      <c r="H189" s="32"/>
+      <c r="I189" s="32"/>
       <c r="K189" s="19"/>
-      <c r="L189" s="32"/>
+      <c r="L189" s="35"/>
       <c r="M189" s="3" t="s">
         <v>47</v>
       </c>
@@ -7755,17 +7777,17 @@
       </c>
     </row>
     <row r="190" spans="1:22" s="17" customFormat="1">
-      <c r="A190" s="30"/>
-      <c r="B190" s="29"/>
-      <c r="C190" s="29"/>
-      <c r="D190" s="29"/>
-      <c r="E190" s="29"/>
-      <c r="F190" s="29"/>
-      <c r="G190" s="30"/>
-      <c r="H190" s="29"/>
-      <c r="I190" s="29"/>
+      <c r="A190" s="33"/>
+      <c r="B190" s="32"/>
+      <c r="C190" s="32"/>
+      <c r="D190" s="32"/>
+      <c r="E190" s="32"/>
+      <c r="F190" s="32"/>
+      <c r="G190" s="33"/>
+      <c r="H190" s="32"/>
+      <c r="I190" s="32"/>
       <c r="K190" s="19"/>
-      <c r="L190" s="32"/>
+      <c r="L190" s="35"/>
       <c r="M190" s="3" t="s">
         <v>50</v>
       </c>
@@ -7783,17 +7805,17 @@
       </c>
     </row>
     <row r="191" spans="1:22" s="17" customFormat="1">
-      <c r="A191" s="30"/>
-      <c r="B191" s="29"/>
-      <c r="C191" s="29"/>
-      <c r="D191" s="29"/>
-      <c r="E191" s="29"/>
-      <c r="F191" s="29"/>
-      <c r="G191" s="30"/>
-      <c r="H191" s="29"/>
-      <c r="I191" s="29"/>
+      <c r="A191" s="33"/>
+      <c r="B191" s="32"/>
+      <c r="C191" s="32"/>
+      <c r="D191" s="32"/>
+      <c r="E191" s="32"/>
+      <c r="F191" s="32"/>
+      <c r="G191" s="33"/>
+      <c r="H191" s="32"/>
+      <c r="I191" s="32"/>
       <c r="K191" s="19"/>
-      <c r="L191" s="32"/>
+      <c r="L191" s="35"/>
       <c r="M191" s="3" t="s">
         <v>24</v>
       </c>
@@ -7811,17 +7833,17 @@
       </c>
     </row>
     <row r="192" spans="1:22" s="17" customFormat="1">
-      <c r="A192" s="30"/>
-      <c r="B192" s="29"/>
-      <c r="C192" s="29"/>
-      <c r="D192" s="29"/>
-      <c r="E192" s="29"/>
-      <c r="F192" s="29"/>
-      <c r="G192" s="30"/>
-      <c r="H192" s="29"/>
-      <c r="I192" s="29"/>
+      <c r="A192" s="33"/>
+      <c r="B192" s="32"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="32"/>
+      <c r="G192" s="33"/>
+      <c r="H192" s="32"/>
+      <c r="I192" s="32"/>
       <c r="K192" s="19"/>
-      <c r="L192" s="32"/>
+      <c r="L192" s="35"/>
       <c r="M192" s="3" t="s">
         <v>54</v>
       </c>
@@ -7839,39 +7861,39 @@
       </c>
     </row>
     <row r="193" spans="1:22" s="17" customFormat="1" ht="66">
-      <c r="A193" s="30"/>
-      <c r="B193" s="29"/>
-      <c r="C193" s="29"/>
-      <c r="D193" s="29"/>
-      <c r="E193" s="29"/>
-      <c r="F193" s="29"/>
-      <c r="G193" s="30"/>
-      <c r="H193" s="29"/>
-      <c r="I193" s="29"/>
+      <c r="A193" s="33"/>
+      <c r="B193" s="32"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="32"/>
+      <c r="E193" s="32"/>
+      <c r="F193" s="32"/>
+      <c r="G193" s="33"/>
+      <c r="H193" s="32"/>
+      <c r="I193" s="32"/>
       <c r="K193" s="19"/>
-      <c r="L193" s="31" t="s">
+      <c r="L193" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="M193" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="N193" s="37" t="s">
+      <c r="M193" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="N193" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O193" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="P193" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q193" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="R193" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="O193" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="P193" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q193" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="R193" s="26" t="s">
-        <v>269</v>
-      </c>
       <c r="S193" s="17" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="T193" s="18" t="s">
         <v>227</v>
@@ -7888,16 +7910,16 @@
       <c r="H194" s="23"/>
       <c r="I194" s="23"/>
       <c r="K194" s="23"/>
-      <c r="L194" s="31"/>
-      <c r="M194" s="36" t="s">
+      <c r="L194" s="34"/>
+      <c r="M194" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="N194" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="O194" s="38"/>
-      <c r="P194" s="37" t="s">
-        <v>266</v>
+      <c r="N194" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="O194" s="31"/>
+      <c r="P194" s="30" t="s">
+        <v>262</v>
       </c>
       <c r="R194" s="26"/>
       <c r="T194" s="18"/>
@@ -7954,10 +7976,10 @@
       <c r="I196" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J196" s="31" t="s">
+      <c r="J196" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K196" s="31"/>
+      <c r="K196" s="34"/>
       <c r="L196" s="3" t="s">
         <v>8</v>
       </c>
@@ -7988,38 +8010,38 @@
       </c>
     </row>
     <row r="197" spans="1:22" s="17" customFormat="1">
-      <c r="A197" s="30" t="s">
+      <c r="A197" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="B197" s="29" t="s">
+      <c r="B197" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C197" s="29" t="s">
+      <c r="C197" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="D197" s="29" t="s">
+      <c r="D197" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E197" s="29" t="s">
+      <c r="E197" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="F197" s="29" t="s">
+      <c r="F197" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="G197" s="30" t="s">
+      <c r="G197" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H197" s="29" t="s">
+      <c r="H197" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="I197" s="29"/>
+      <c r="I197" s="32"/>
       <c r="J197" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K197" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L197" s="32" t="s">
+      <c r="L197" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M197" s="3" t="s">
@@ -8039,22 +8061,22 @@
       </c>
     </row>
     <row r="198" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A198" s="30"/>
-      <c r="B198" s="29"/>
-      <c r="C198" s="29"/>
-      <c r="D198" s="29"/>
-      <c r="E198" s="29"/>
-      <c r="F198" s="29"/>
-      <c r="G198" s="30"/>
-      <c r="H198" s="29"/>
-      <c r="I198" s="29"/>
+      <c r="A198" s="33"/>
+      <c r="B198" s="32"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
+      <c r="F198" s="32"/>
+      <c r="G198" s="33"/>
+      <c r="H198" s="32"/>
+      <c r="I198" s="32"/>
       <c r="J198" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K198" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L198" s="32"/>
+      <c r="L198" s="35"/>
       <c r="M198" s="3" t="s">
         <v>25</v>
       </c>
@@ -8078,22 +8100,22 @@
       </c>
     </row>
     <row r="199" spans="1:22" s="17" customFormat="1">
-      <c r="A199" s="30"/>
-      <c r="B199" s="29"/>
-      <c r="C199" s="29"/>
-      <c r="D199" s="29"/>
-      <c r="E199" s="29"/>
-      <c r="F199" s="29"/>
-      <c r="G199" s="30"/>
-      <c r="H199" s="29"/>
-      <c r="I199" s="29"/>
+      <c r="A199" s="33"/>
+      <c r="B199" s="32"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32"/>
+      <c r="F199" s="32"/>
+      <c r="G199" s="33"/>
+      <c r="H199" s="32"/>
+      <c r="I199" s="32"/>
       <c r="J199" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K199" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L199" s="32"/>
+      <c r="L199" s="35"/>
       <c r="M199" s="3" t="s">
         <v>29</v>
       </c>
@@ -8117,22 +8139,22 @@
       </c>
     </row>
     <row r="200" spans="1:22" s="17" customFormat="1" ht="49.5">
-      <c r="A200" s="30"/>
-      <c r="B200" s="29"/>
-      <c r="C200" s="29"/>
-      <c r="D200" s="29"/>
-      <c r="E200" s="29"/>
-      <c r="F200" s="29"/>
-      <c r="G200" s="30"/>
-      <c r="H200" s="29"/>
-      <c r="I200" s="29"/>
+      <c r="A200" s="33"/>
+      <c r="B200" s="32"/>
+      <c r="C200" s="32"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="32"/>
+      <c r="F200" s="32"/>
+      <c r="G200" s="33"/>
+      <c r="H200" s="32"/>
+      <c r="I200" s="32"/>
       <c r="J200" s="22" t="s">
         <v>214</v>
       </c>
       <c r="K200" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="L200" s="32"/>
+      <c r="L200" s="35"/>
       <c r="M200" s="3" t="s">
         <v>32</v>
       </c>
@@ -8150,22 +8172,22 @@
       </c>
     </row>
     <row r="201" spans="1:22" s="17" customFormat="1" ht="49.5">
-      <c r="A201" s="30"/>
-      <c r="B201" s="29"/>
-      <c r="C201" s="29"/>
-      <c r="D201" s="29"/>
-      <c r="E201" s="29"/>
-      <c r="F201" s="29"/>
-      <c r="G201" s="30"/>
-      <c r="H201" s="29"/>
-      <c r="I201" s="29"/>
+      <c r="A201" s="33"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="32"/>
+      <c r="E201" s="32"/>
+      <c r="F201" s="32"/>
+      <c r="G201" s="33"/>
+      <c r="H201" s="32"/>
+      <c r="I201" s="32"/>
       <c r="J201" s="22" t="s">
         <v>215</v>
       </c>
       <c r="K201" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="L201" s="32"/>
+      <c r="L201" s="35"/>
       <c r="M201" s="3" t="s">
         <v>35</v>
       </c>
@@ -8183,17 +8205,17 @@
       </c>
     </row>
     <row r="202" spans="1:22" s="17" customFormat="1">
-      <c r="A202" s="30"/>
-      <c r="B202" s="29"/>
-      <c r="C202" s="29"/>
-      <c r="D202" s="29"/>
-      <c r="E202" s="29"/>
-      <c r="F202" s="29"/>
-      <c r="G202" s="30"/>
-      <c r="H202" s="29"/>
-      <c r="I202" s="29"/>
+      <c r="A202" s="33"/>
+      <c r="B202" s="32"/>
+      <c r="C202" s="32"/>
+      <c r="D202" s="32"/>
+      <c r="E202" s="32"/>
+      <c r="F202" s="32"/>
+      <c r="G202" s="33"/>
+      <c r="H202" s="32"/>
+      <c r="I202" s="32"/>
       <c r="K202" s="19"/>
-      <c r="L202" s="32"/>
+      <c r="L202" s="35"/>
       <c r="M202" s="3" t="s">
         <v>38</v>
       </c>
@@ -8211,17 +8233,17 @@
       </c>
     </row>
     <row r="203" spans="1:22" s="17" customFormat="1">
-      <c r="A203" s="30"/>
-      <c r="B203" s="29"/>
-      <c r="C203" s="29"/>
-      <c r="D203" s="29"/>
-      <c r="E203" s="29"/>
-      <c r="F203" s="29"/>
-      <c r="G203" s="30"/>
-      <c r="H203" s="29"/>
-      <c r="I203" s="29"/>
+      <c r="A203" s="33"/>
+      <c r="B203" s="32"/>
+      <c r="C203" s="32"/>
+      <c r="D203" s="32"/>
+      <c r="E203" s="32"/>
+      <c r="F203" s="32"/>
+      <c r="G203" s="33"/>
+      <c r="H203" s="32"/>
+      <c r="I203" s="32"/>
       <c r="K203" s="19"/>
-      <c r="L203" s="32"/>
+      <c r="L203" s="35"/>
       <c r="M203" s="3" t="s">
         <v>41</v>
       </c>
@@ -8239,17 +8261,17 @@
       </c>
     </row>
     <row r="204" spans="1:22" s="17" customFormat="1">
-      <c r="A204" s="30"/>
-      <c r="B204" s="29"/>
-      <c r="C204" s="29"/>
-      <c r="D204" s="29"/>
-      <c r="E204" s="29"/>
-      <c r="F204" s="29"/>
-      <c r="G204" s="30"/>
-      <c r="H204" s="29"/>
-      <c r="I204" s="29"/>
+      <c r="A204" s="33"/>
+      <c r="B204" s="32"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="32"/>
+      <c r="F204" s="32"/>
+      <c r="G204" s="33"/>
+      <c r="H204" s="32"/>
+      <c r="I204" s="32"/>
       <c r="K204" s="19"/>
-      <c r="L204" s="32"/>
+      <c r="L204" s="35"/>
       <c r="M204" s="3" t="s">
         <v>44</v>
       </c>
@@ -8267,17 +8289,17 @@
       </c>
     </row>
     <row r="205" spans="1:22" s="17" customFormat="1">
-      <c r="A205" s="30"/>
-      <c r="B205" s="29"/>
-      <c r="C205" s="29"/>
-      <c r="D205" s="29"/>
-      <c r="E205" s="29"/>
-      <c r="F205" s="29"/>
-      <c r="G205" s="30"/>
-      <c r="H205" s="29"/>
-      <c r="I205" s="29"/>
+      <c r="A205" s="33"/>
+      <c r="B205" s="32"/>
+      <c r="C205" s="32"/>
+      <c r="D205" s="32"/>
+      <c r="E205" s="32"/>
+      <c r="F205" s="32"/>
+      <c r="G205" s="33"/>
+      <c r="H205" s="32"/>
+      <c r="I205" s="32"/>
       <c r="K205" s="19"/>
-      <c r="L205" s="32"/>
+      <c r="L205" s="35"/>
       <c r="M205" s="3" t="s">
         <v>47</v>
       </c>
@@ -8295,17 +8317,17 @@
       </c>
     </row>
     <row r="206" spans="1:22" s="17" customFormat="1">
-      <c r="A206" s="30"/>
-      <c r="B206" s="29"/>
-      <c r="C206" s="29"/>
-      <c r="D206" s="29"/>
-      <c r="E206" s="29"/>
-      <c r="F206" s="29"/>
-      <c r="G206" s="30"/>
-      <c r="H206" s="29"/>
-      <c r="I206" s="29"/>
+      <c r="A206" s="33"/>
+      <c r="B206" s="32"/>
+      <c r="C206" s="32"/>
+      <c r="D206" s="32"/>
+      <c r="E206" s="32"/>
+      <c r="F206" s="32"/>
+      <c r="G206" s="33"/>
+      <c r="H206" s="32"/>
+      <c r="I206" s="32"/>
       <c r="K206" s="19"/>
-      <c r="L206" s="32"/>
+      <c r="L206" s="35"/>
       <c r="M206" s="3" t="s">
         <v>50</v>
       </c>
@@ -8323,17 +8345,17 @@
       </c>
     </row>
     <row r="207" spans="1:22" s="17" customFormat="1">
-      <c r="A207" s="30"/>
-      <c r="B207" s="29"/>
-      <c r="C207" s="29"/>
-      <c r="D207" s="29"/>
-      <c r="E207" s="29"/>
-      <c r="F207" s="29"/>
-      <c r="G207" s="30"/>
-      <c r="H207" s="29"/>
-      <c r="I207" s="29"/>
+      <c r="A207" s="33"/>
+      <c r="B207" s="32"/>
+      <c r="C207" s="32"/>
+      <c r="D207" s="32"/>
+      <c r="E207" s="32"/>
+      <c r="F207" s="32"/>
+      <c r="G207" s="33"/>
+      <c r="H207" s="32"/>
+      <c r="I207" s="32"/>
       <c r="K207" s="19"/>
-      <c r="L207" s="32"/>
+      <c r="L207" s="35"/>
       <c r="M207" s="3" t="s">
         <v>24</v>
       </c>
@@ -8351,17 +8373,17 @@
       </c>
     </row>
     <row r="208" spans="1:22" s="17" customFormat="1">
-      <c r="A208" s="30"/>
-      <c r="B208" s="29"/>
-      <c r="C208" s="29"/>
-      <c r="D208" s="29"/>
-      <c r="E208" s="29"/>
-      <c r="F208" s="29"/>
-      <c r="G208" s="30"/>
-      <c r="H208" s="29"/>
-      <c r="I208" s="29"/>
+      <c r="A208" s="33"/>
+      <c r="B208" s="32"/>
+      <c r="C208" s="32"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="32"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="33"/>
+      <c r="H208" s="32"/>
+      <c r="I208" s="32"/>
       <c r="K208" s="19"/>
-      <c r="L208" s="32"/>
+      <c r="L208" s="35"/>
       <c r="M208" s="3" t="s">
         <v>54</v>
       </c>
@@ -8379,39 +8401,39 @@
       </c>
     </row>
     <row r="209" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A209" s="30"/>
-      <c r="B209" s="29"/>
-      <c r="C209" s="29"/>
-      <c r="D209" s="29"/>
-      <c r="E209" s="29"/>
-      <c r="F209" s="29"/>
-      <c r="G209" s="30"/>
-      <c r="H209" s="29"/>
-      <c r="I209" s="29"/>
+      <c r="A209" s="33"/>
+      <c r="B209" s="32"/>
+      <c r="C209" s="32"/>
+      <c r="D209" s="32"/>
+      <c r="E209" s="32"/>
+      <c r="F209" s="32"/>
+      <c r="G209" s="33"/>
+      <c r="H209" s="32"/>
+      <c r="I209" s="32"/>
       <c r="K209" s="19"/>
       <c r="L209" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M209" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="N209" s="37" t="s">
+      <c r="M209" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="N209" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="O209" s="38" t="s">
+      <c r="O209" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="P209" s="37" t="s">
-        <v>267</v>
+      <c r="P209" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="Q209" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R209" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="S209" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="T209" s="18" t="s">
         <v>231</v>
@@ -8469,10 +8491,10 @@
       <c r="I211" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J211" s="31" t="s">
+      <c r="J211" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K211" s="31"/>
+      <c r="K211" s="34"/>
       <c r="L211" s="3" t="s">
         <v>8</v>
       </c>
@@ -8503,38 +8525,38 @@
       </c>
     </row>
     <row r="212" spans="1:22" s="17" customFormat="1">
-      <c r="A212" s="30" t="s">
+      <c r="A212" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B212" s="29" t="s">
+      <c r="B212" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C212" s="29" t="s">
+      <c r="C212" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="D212" s="29" t="s">
+      <c r="D212" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E212" s="29" t="s">
+      <c r="E212" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F212" s="29" t="s">
+      <c r="F212" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="G212" s="30" t="s">
+      <c r="G212" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H212" s="29" t="s">
+      <c r="H212" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="I212" s="29"/>
+      <c r="I212" s="32"/>
       <c r="J212" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K212" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L212" s="32" t="s">
+      <c r="L212" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M212" s="3" t="s">
@@ -8554,22 +8576,22 @@
       </c>
     </row>
     <row r="213" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A213" s="30"/>
-      <c r="B213" s="29"/>
-      <c r="C213" s="29"/>
-      <c r="D213" s="29"/>
-      <c r="E213" s="29"/>
-      <c r="F213" s="29"/>
-      <c r="G213" s="30"/>
-      <c r="H213" s="29"/>
-      <c r="I213" s="29"/>
+      <c r="A213" s="33"/>
+      <c r="B213" s="32"/>
+      <c r="C213" s="32"/>
+      <c r="D213" s="32"/>
+      <c r="E213" s="32"/>
+      <c r="F213" s="32"/>
+      <c r="G213" s="33"/>
+      <c r="H213" s="32"/>
+      <c r="I213" s="32"/>
       <c r="J213" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K213" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L213" s="32"/>
+      <c r="L213" s="35"/>
       <c r="M213" s="3" t="s">
         <v>25</v>
       </c>
@@ -8593,22 +8615,22 @@
       </c>
     </row>
     <row r="214" spans="1:22" s="17" customFormat="1">
-      <c r="A214" s="30"/>
-      <c r="B214" s="29"/>
-      <c r="C214" s="29"/>
-      <c r="D214" s="29"/>
-      <c r="E214" s="29"/>
-      <c r="F214" s="29"/>
-      <c r="G214" s="30"/>
-      <c r="H214" s="29"/>
-      <c r="I214" s="29"/>
+      <c r="A214" s="33"/>
+      <c r="B214" s="32"/>
+      <c r="C214" s="32"/>
+      <c r="D214" s="32"/>
+      <c r="E214" s="32"/>
+      <c r="F214" s="32"/>
+      <c r="G214" s="33"/>
+      <c r="H214" s="32"/>
+      <c r="I214" s="32"/>
       <c r="J214" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K214" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L214" s="32"/>
+      <c r="L214" s="35"/>
       <c r="M214" s="3" t="s">
         <v>29</v>
       </c>
@@ -8632,17 +8654,17 @@
       </c>
     </row>
     <row r="215" spans="1:22" s="17" customFormat="1">
-      <c r="A215" s="30"/>
-      <c r="B215" s="29"/>
-      <c r="C215" s="29"/>
-      <c r="D215" s="29"/>
-      <c r="E215" s="29"/>
-      <c r="F215" s="29"/>
-      <c r="G215" s="30"/>
-      <c r="H215" s="29"/>
-      <c r="I215" s="29"/>
+      <c r="A215" s="33"/>
+      <c r="B215" s="32"/>
+      <c r="C215" s="32"/>
+      <c r="D215" s="32"/>
+      <c r="E215" s="32"/>
+      <c r="F215" s="32"/>
+      <c r="G215" s="33"/>
+      <c r="H215" s="32"/>
+      <c r="I215" s="32"/>
       <c r="K215" s="19"/>
-      <c r="L215" s="32"/>
+      <c r="L215" s="35"/>
       <c r="M215" s="3" t="s">
         <v>32</v>
       </c>
@@ -8660,17 +8682,17 @@
       </c>
     </row>
     <row r="216" spans="1:22" s="17" customFormat="1">
-      <c r="A216" s="30"/>
-      <c r="B216" s="29"/>
-      <c r="C216" s="29"/>
-      <c r="D216" s="29"/>
-      <c r="E216" s="29"/>
-      <c r="F216" s="29"/>
-      <c r="G216" s="30"/>
-      <c r="H216" s="29"/>
-      <c r="I216" s="29"/>
+      <c r="A216" s="33"/>
+      <c r="B216" s="32"/>
+      <c r="C216" s="32"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="32"/>
+      <c r="F216" s="32"/>
+      <c r="G216" s="33"/>
+      <c r="H216" s="32"/>
+      <c r="I216" s="32"/>
       <c r="K216" s="19"/>
-      <c r="L216" s="32"/>
+      <c r="L216" s="35"/>
       <c r="M216" s="3" t="s">
         <v>35</v>
       </c>
@@ -8688,17 +8710,17 @@
       </c>
     </row>
     <row r="217" spans="1:22" s="17" customFormat="1">
-      <c r="A217" s="30"/>
-      <c r="B217" s="29"/>
-      <c r="C217" s="29"/>
-      <c r="D217" s="29"/>
-      <c r="E217" s="29"/>
-      <c r="F217" s="29"/>
-      <c r="G217" s="30"/>
-      <c r="H217" s="29"/>
-      <c r="I217" s="29"/>
+      <c r="A217" s="33"/>
+      <c r="B217" s="32"/>
+      <c r="C217" s="32"/>
+      <c r="D217" s="32"/>
+      <c r="E217" s="32"/>
+      <c r="F217" s="32"/>
+      <c r="G217" s="33"/>
+      <c r="H217" s="32"/>
+      <c r="I217" s="32"/>
       <c r="K217" s="19"/>
-      <c r="L217" s="32"/>
+      <c r="L217" s="35"/>
       <c r="M217" s="3" t="s">
         <v>38</v>
       </c>
@@ -8716,17 +8738,17 @@
       </c>
     </row>
     <row r="218" spans="1:22" s="17" customFormat="1">
-      <c r="A218" s="30"/>
-      <c r="B218" s="29"/>
-      <c r="C218" s="29"/>
-      <c r="D218" s="29"/>
-      <c r="E218" s="29"/>
-      <c r="F218" s="29"/>
-      <c r="G218" s="30"/>
-      <c r="H218" s="29"/>
-      <c r="I218" s="29"/>
+      <c r="A218" s="33"/>
+      <c r="B218" s="32"/>
+      <c r="C218" s="32"/>
+      <c r="D218" s="32"/>
+      <c r="E218" s="32"/>
+      <c r="F218" s="32"/>
+      <c r="G218" s="33"/>
+      <c r="H218" s="32"/>
+      <c r="I218" s="32"/>
       <c r="K218" s="19"/>
-      <c r="L218" s="32"/>
+      <c r="L218" s="35"/>
       <c r="M218" s="3" t="s">
         <v>41</v>
       </c>
@@ -8744,17 +8766,17 @@
       </c>
     </row>
     <row r="219" spans="1:22" s="17" customFormat="1">
-      <c r="A219" s="30"/>
-      <c r="B219" s="29"/>
-      <c r="C219" s="29"/>
-      <c r="D219" s="29"/>
-      <c r="E219" s="29"/>
-      <c r="F219" s="29"/>
-      <c r="G219" s="30"/>
-      <c r="H219" s="29"/>
-      <c r="I219" s="29"/>
+      <c r="A219" s="33"/>
+      <c r="B219" s="32"/>
+      <c r="C219" s="32"/>
+      <c r="D219" s="32"/>
+      <c r="E219" s="32"/>
+      <c r="F219" s="32"/>
+      <c r="G219" s="33"/>
+      <c r="H219" s="32"/>
+      <c r="I219" s="32"/>
       <c r="K219" s="19"/>
-      <c r="L219" s="32"/>
+      <c r="L219" s="35"/>
       <c r="M219" s="3" t="s">
         <v>44</v>
       </c>
@@ -8772,17 +8794,17 @@
       </c>
     </row>
     <row r="220" spans="1:22" s="17" customFormat="1">
-      <c r="A220" s="30"/>
-      <c r="B220" s="29"/>
-      <c r="C220" s="29"/>
-      <c r="D220" s="29"/>
-      <c r="E220" s="29"/>
-      <c r="F220" s="29"/>
-      <c r="G220" s="30"/>
-      <c r="H220" s="29"/>
-      <c r="I220" s="29"/>
+      <c r="A220" s="33"/>
+      <c r="B220" s="32"/>
+      <c r="C220" s="32"/>
+      <c r="D220" s="32"/>
+      <c r="E220" s="32"/>
+      <c r="F220" s="32"/>
+      <c r="G220" s="33"/>
+      <c r="H220" s="32"/>
+      <c r="I220" s="32"/>
       <c r="K220" s="19"/>
-      <c r="L220" s="32"/>
+      <c r="L220" s="35"/>
       <c r="M220" s="3" t="s">
         <v>47</v>
       </c>
@@ -8800,17 +8822,17 @@
       </c>
     </row>
     <row r="221" spans="1:22" s="17" customFormat="1">
-      <c r="A221" s="30"/>
-      <c r="B221" s="29"/>
-      <c r="C221" s="29"/>
-      <c r="D221" s="29"/>
-      <c r="E221" s="29"/>
-      <c r="F221" s="29"/>
-      <c r="G221" s="30"/>
-      <c r="H221" s="29"/>
-      <c r="I221" s="29"/>
+      <c r="A221" s="33"/>
+      <c r="B221" s="32"/>
+      <c r="C221" s="32"/>
+      <c r="D221" s="32"/>
+      <c r="E221" s="32"/>
+      <c r="F221" s="32"/>
+      <c r="G221" s="33"/>
+      <c r="H221" s="32"/>
+      <c r="I221" s="32"/>
       <c r="K221" s="19"/>
-      <c r="L221" s="32"/>
+      <c r="L221" s="35"/>
       <c r="M221" s="3" t="s">
         <v>50</v>
       </c>
@@ -8828,17 +8850,17 @@
       </c>
     </row>
     <row r="222" spans="1:22" s="17" customFormat="1">
-      <c r="A222" s="30"/>
-      <c r="B222" s="29"/>
-      <c r="C222" s="29"/>
-      <c r="D222" s="29"/>
-      <c r="E222" s="29"/>
-      <c r="F222" s="29"/>
-      <c r="G222" s="30"/>
-      <c r="H222" s="29"/>
-      <c r="I222" s="29"/>
+      <c r="A222" s="33"/>
+      <c r="B222" s="32"/>
+      <c r="C222" s="32"/>
+      <c r="D222" s="32"/>
+      <c r="E222" s="32"/>
+      <c r="F222" s="32"/>
+      <c r="G222" s="33"/>
+      <c r="H222" s="32"/>
+      <c r="I222" s="32"/>
       <c r="K222" s="19"/>
-      <c r="L222" s="32"/>
+      <c r="L222" s="35"/>
       <c r="M222" s="3" t="s">
         <v>24</v>
       </c>
@@ -8856,17 +8878,17 @@
       </c>
     </row>
     <row r="223" spans="1:22" s="17" customFormat="1">
-      <c r="A223" s="30"/>
-      <c r="B223" s="29"/>
-      <c r="C223" s="29"/>
-      <c r="D223" s="29"/>
-      <c r="E223" s="29"/>
-      <c r="F223" s="29"/>
-      <c r="G223" s="30"/>
-      <c r="H223" s="29"/>
-      <c r="I223" s="29"/>
+      <c r="A223" s="33"/>
+      <c r="B223" s="32"/>
+      <c r="C223" s="32"/>
+      <c r="D223" s="32"/>
+      <c r="E223" s="32"/>
+      <c r="F223" s="32"/>
+      <c r="G223" s="33"/>
+      <c r="H223" s="32"/>
+      <c r="I223" s="32"/>
       <c r="K223" s="19"/>
-      <c r="L223" s="32"/>
+      <c r="L223" s="35"/>
       <c r="M223" s="3" t="s">
         <v>54</v>
       </c>
@@ -8884,39 +8906,39 @@
       </c>
     </row>
     <row r="224" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A224" s="30"/>
-      <c r="B224" s="29"/>
-      <c r="C224" s="29"/>
-      <c r="D224" s="29"/>
-      <c r="E224" s="29"/>
-      <c r="F224" s="29"/>
-      <c r="G224" s="30"/>
-      <c r="H224" s="29"/>
-      <c r="I224" s="29"/>
+      <c r="A224" s="33"/>
+      <c r="B224" s="32"/>
+      <c r="C224" s="32"/>
+      <c r="D224" s="32"/>
+      <c r="E224" s="32"/>
+      <c r="F224" s="32"/>
+      <c r="G224" s="33"/>
+      <c r="H224" s="32"/>
+      <c r="I224" s="32"/>
       <c r="K224" s="19"/>
       <c r="L224" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M224" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="N224" s="37" t="s">
+      <c r="M224" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="N224" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="O224" s="38" t="s">
+      <c r="O224" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="P224" s="37" t="s">
-        <v>267</v>
+      <c r="P224" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="Q224" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R224" s="26" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="S224" s="17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="T224" s="18" t="s">
         <v>232</v>
@@ -8974,10 +8996,10 @@
       <c r="I226" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J226" s="31" t="s">
+      <c r="J226" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K226" s="31"/>
+      <c r="K226" s="34"/>
       <c r="L226" s="3" t="s">
         <v>8</v>
       </c>
@@ -9008,38 +9030,38 @@
       </c>
     </row>
     <row r="227" spans="1:22" s="17" customFormat="1">
-      <c r="A227" s="30" t="s">
+      <c r="A227" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B227" s="29" t="s">
+      <c r="B227" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="C227" s="29" t="s">
+      <c r="C227" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D227" s="29" t="s">
+      <c r="D227" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E227" s="29" t="s">
+      <c r="E227" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F227" s="29" t="s">
+      <c r="F227" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="G227" s="30" t="s">
+      <c r="G227" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H227" s="29" t="s">
+      <c r="H227" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="I227" s="29"/>
+      <c r="I227" s="32"/>
       <c r="J227" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K227" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L227" s="32" t="s">
+      <c r="L227" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M227" s="3" t="s">
@@ -9059,22 +9081,22 @@
       </c>
     </row>
     <row r="228" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A228" s="30"/>
-      <c r="B228" s="29"/>
-      <c r="C228" s="29"/>
-      <c r="D228" s="29"/>
-      <c r="E228" s="29"/>
-      <c r="F228" s="29"/>
-      <c r="G228" s="30"/>
-      <c r="H228" s="29"/>
-      <c r="I228" s="29"/>
+      <c r="A228" s="33"/>
+      <c r="B228" s="32"/>
+      <c r="C228" s="32"/>
+      <c r="D228" s="32"/>
+      <c r="E228" s="32"/>
+      <c r="F228" s="32"/>
+      <c r="G228" s="33"/>
+      <c r="H228" s="32"/>
+      <c r="I228" s="32"/>
       <c r="J228" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K228" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L228" s="32"/>
+      <c r="L228" s="35"/>
       <c r="M228" s="3" t="s">
         <v>25</v>
       </c>
@@ -9098,22 +9120,22 @@
       </c>
     </row>
     <row r="229" spans="1:22" s="17" customFormat="1">
-      <c r="A229" s="30"/>
-      <c r="B229" s="29"/>
-      <c r="C229" s="29"/>
-      <c r="D229" s="29"/>
-      <c r="E229" s="29"/>
-      <c r="F229" s="29"/>
-      <c r="G229" s="30"/>
-      <c r="H229" s="29"/>
-      <c r="I229" s="29"/>
+      <c r="A229" s="33"/>
+      <c r="B229" s="32"/>
+      <c r="C229" s="32"/>
+      <c r="D229" s="32"/>
+      <c r="E229" s="32"/>
+      <c r="F229" s="32"/>
+      <c r="G229" s="33"/>
+      <c r="H229" s="32"/>
+      <c r="I229" s="32"/>
       <c r="J229" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K229" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L229" s="32"/>
+      <c r="L229" s="35"/>
       <c r="M229" s="3" t="s">
         <v>29</v>
       </c>
@@ -9137,17 +9159,17 @@
       </c>
     </row>
     <row r="230" spans="1:22" s="17" customFormat="1">
-      <c r="A230" s="30"/>
-      <c r="B230" s="29"/>
-      <c r="C230" s="29"/>
-      <c r="D230" s="29"/>
-      <c r="E230" s="29"/>
-      <c r="F230" s="29"/>
-      <c r="G230" s="30"/>
-      <c r="H230" s="29"/>
-      <c r="I230" s="29"/>
+      <c r="A230" s="33"/>
+      <c r="B230" s="32"/>
+      <c r="C230" s="32"/>
+      <c r="D230" s="32"/>
+      <c r="E230" s="32"/>
+      <c r="F230" s="32"/>
+      <c r="G230" s="33"/>
+      <c r="H230" s="32"/>
+      <c r="I230" s="32"/>
       <c r="K230" s="19"/>
-      <c r="L230" s="32"/>
+      <c r="L230" s="35"/>
       <c r="M230" s="3" t="s">
         <v>32</v>
       </c>
@@ -9165,17 +9187,17 @@
       </c>
     </row>
     <row r="231" spans="1:22" s="17" customFormat="1">
-      <c r="A231" s="30"/>
-      <c r="B231" s="29"/>
-      <c r="C231" s="29"/>
-      <c r="D231" s="29"/>
-      <c r="E231" s="29"/>
-      <c r="F231" s="29"/>
-      <c r="G231" s="30"/>
-      <c r="H231" s="29"/>
-      <c r="I231" s="29"/>
+      <c r="A231" s="33"/>
+      <c r="B231" s="32"/>
+      <c r="C231" s="32"/>
+      <c r="D231" s="32"/>
+      <c r="E231" s="32"/>
+      <c r="F231" s="32"/>
+      <c r="G231" s="33"/>
+      <c r="H231" s="32"/>
+      <c r="I231" s="32"/>
       <c r="K231" s="19"/>
-      <c r="L231" s="32"/>
+      <c r="L231" s="35"/>
       <c r="M231" s="3" t="s">
         <v>35</v>
       </c>
@@ -9193,17 +9215,17 @@
       </c>
     </row>
     <row r="232" spans="1:22" s="17" customFormat="1">
-      <c r="A232" s="30"/>
-      <c r="B232" s="29"/>
-      <c r="C232" s="29"/>
-      <c r="D232" s="29"/>
-      <c r="E232" s="29"/>
-      <c r="F232" s="29"/>
-      <c r="G232" s="30"/>
-      <c r="H232" s="29"/>
-      <c r="I232" s="29"/>
+      <c r="A232" s="33"/>
+      <c r="B232" s="32"/>
+      <c r="C232" s="32"/>
+      <c r="D232" s="32"/>
+      <c r="E232" s="32"/>
+      <c r="F232" s="32"/>
+      <c r="G232" s="33"/>
+      <c r="H232" s="32"/>
+      <c r="I232" s="32"/>
       <c r="K232" s="19"/>
-      <c r="L232" s="32"/>
+      <c r="L232" s="35"/>
       <c r="M232" s="3" t="s">
         <v>38</v>
       </c>
@@ -9221,17 +9243,17 @@
       </c>
     </row>
     <row r="233" spans="1:22" s="17" customFormat="1">
-      <c r="A233" s="30"/>
-      <c r="B233" s="29"/>
-      <c r="C233" s="29"/>
-      <c r="D233" s="29"/>
-      <c r="E233" s="29"/>
-      <c r="F233" s="29"/>
-      <c r="G233" s="30"/>
-      <c r="H233" s="29"/>
-      <c r="I233" s="29"/>
+      <c r="A233" s="33"/>
+      <c r="B233" s="32"/>
+      <c r="C233" s="32"/>
+      <c r="D233" s="32"/>
+      <c r="E233" s="32"/>
+      <c r="F233" s="32"/>
+      <c r="G233" s="33"/>
+      <c r="H233" s="32"/>
+      <c r="I233" s="32"/>
       <c r="K233" s="19"/>
-      <c r="L233" s="32"/>
+      <c r="L233" s="35"/>
       <c r="M233" s="3" t="s">
         <v>41</v>
       </c>
@@ -9249,17 +9271,17 @@
       </c>
     </row>
     <row r="234" spans="1:22" s="17" customFormat="1">
-      <c r="A234" s="30"/>
-      <c r="B234" s="29"/>
-      <c r="C234" s="29"/>
-      <c r="D234" s="29"/>
-      <c r="E234" s="29"/>
-      <c r="F234" s="29"/>
-      <c r="G234" s="30"/>
-      <c r="H234" s="29"/>
-      <c r="I234" s="29"/>
+      <c r="A234" s="33"/>
+      <c r="B234" s="32"/>
+      <c r="C234" s="32"/>
+      <c r="D234" s="32"/>
+      <c r="E234" s="32"/>
+      <c r="F234" s="32"/>
+      <c r="G234" s="33"/>
+      <c r="H234" s="32"/>
+      <c r="I234" s="32"/>
       <c r="K234" s="19"/>
-      <c r="L234" s="32"/>
+      <c r="L234" s="35"/>
       <c r="M234" s="3" t="s">
         <v>44</v>
       </c>
@@ -9277,17 +9299,17 @@
       </c>
     </row>
     <row r="235" spans="1:22" s="17" customFormat="1">
-      <c r="A235" s="30"/>
-      <c r="B235" s="29"/>
-      <c r="C235" s="29"/>
-      <c r="D235" s="29"/>
-      <c r="E235" s="29"/>
-      <c r="F235" s="29"/>
-      <c r="G235" s="30"/>
-      <c r="H235" s="29"/>
-      <c r="I235" s="29"/>
+      <c r="A235" s="33"/>
+      <c r="B235" s="32"/>
+      <c r="C235" s="32"/>
+      <c r="D235" s="32"/>
+      <c r="E235" s="32"/>
+      <c r="F235" s="32"/>
+      <c r="G235" s="33"/>
+      <c r="H235" s="32"/>
+      <c r="I235" s="32"/>
       <c r="K235" s="19"/>
-      <c r="L235" s="32"/>
+      <c r="L235" s="35"/>
       <c r="M235" s="3" t="s">
         <v>47</v>
       </c>
@@ -9305,17 +9327,17 @@
       </c>
     </row>
     <row r="236" spans="1:22" s="17" customFormat="1">
-      <c r="A236" s="30"/>
-      <c r="B236" s="29"/>
-      <c r="C236" s="29"/>
-      <c r="D236" s="29"/>
-      <c r="E236" s="29"/>
-      <c r="F236" s="29"/>
-      <c r="G236" s="30"/>
-      <c r="H236" s="29"/>
-      <c r="I236" s="29"/>
+      <c r="A236" s="33"/>
+      <c r="B236" s="32"/>
+      <c r="C236" s="32"/>
+      <c r="D236" s="32"/>
+      <c r="E236" s="32"/>
+      <c r="F236" s="32"/>
+      <c r="G236" s="33"/>
+      <c r="H236" s="32"/>
+      <c r="I236" s="32"/>
       <c r="K236" s="19"/>
-      <c r="L236" s="32"/>
+      <c r="L236" s="35"/>
       <c r="M236" s="3" t="s">
         <v>50</v>
       </c>
@@ -9333,17 +9355,17 @@
       </c>
     </row>
     <row r="237" spans="1:22" s="17" customFormat="1">
-      <c r="A237" s="30"/>
-      <c r="B237" s="29"/>
-      <c r="C237" s="29"/>
-      <c r="D237" s="29"/>
-      <c r="E237" s="29"/>
-      <c r="F237" s="29"/>
-      <c r="G237" s="30"/>
-      <c r="H237" s="29"/>
-      <c r="I237" s="29"/>
+      <c r="A237" s="33"/>
+      <c r="B237" s="32"/>
+      <c r="C237" s="32"/>
+      <c r="D237" s="32"/>
+      <c r="E237" s="32"/>
+      <c r="F237" s="32"/>
+      <c r="G237" s="33"/>
+      <c r="H237" s="32"/>
+      <c r="I237" s="32"/>
       <c r="K237" s="19"/>
-      <c r="L237" s="32"/>
+      <c r="L237" s="35"/>
       <c r="M237" s="3" t="s">
         <v>24</v>
       </c>
@@ -9361,17 +9383,17 @@
       </c>
     </row>
     <row r="238" spans="1:22" s="17" customFormat="1">
-      <c r="A238" s="30"/>
-      <c r="B238" s="29"/>
-      <c r="C238" s="29"/>
-      <c r="D238" s="29"/>
-      <c r="E238" s="29"/>
-      <c r="F238" s="29"/>
-      <c r="G238" s="30"/>
-      <c r="H238" s="29"/>
-      <c r="I238" s="29"/>
+      <c r="A238" s="33"/>
+      <c r="B238" s="32"/>
+      <c r="C238" s="32"/>
+      <c r="D238" s="32"/>
+      <c r="E238" s="32"/>
+      <c r="F238" s="32"/>
+      <c r="G238" s="33"/>
+      <c r="H238" s="32"/>
+      <c r="I238" s="32"/>
       <c r="K238" s="19"/>
-      <c r="L238" s="32"/>
+      <c r="L238" s="35"/>
       <c r="M238" s="3" t="s">
         <v>54</v>
       </c>
@@ -9389,39 +9411,39 @@
       </c>
     </row>
     <row r="239" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A239" s="30"/>
-      <c r="B239" s="29"/>
-      <c r="C239" s="29"/>
-      <c r="D239" s="29"/>
-      <c r="E239" s="29"/>
-      <c r="F239" s="29"/>
-      <c r="G239" s="30"/>
-      <c r="H239" s="29"/>
-      <c r="I239" s="29"/>
+      <c r="A239" s="33"/>
+      <c r="B239" s="32"/>
+      <c r="C239" s="32"/>
+      <c r="D239" s="32"/>
+      <c r="E239" s="32"/>
+      <c r="F239" s="32"/>
+      <c r="G239" s="33"/>
+      <c r="H239" s="32"/>
+      <c r="I239" s="32"/>
       <c r="K239" s="19"/>
       <c r="L239" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M239" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="N239" s="37" t="s">
+      <c r="M239" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="N239" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="O239" s="38" t="s">
+      <c r="O239" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="P239" s="37" t="s">
-        <v>267</v>
+      <c r="P239" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="Q239" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R239" s="26" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="S239" s="17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="T239" s="18" t="s">
         <v>233</v>
@@ -9479,10 +9501,10 @@
       <c r="I241" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J241" s="31" t="s">
+      <c r="J241" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K241" s="31"/>
+      <c r="K241" s="34"/>
       <c r="L241" s="3" t="s">
         <v>8</v>
       </c>
@@ -9513,38 +9535,38 @@
       </c>
     </row>
     <row r="242" spans="1:22" s="17" customFormat="1">
-      <c r="A242" s="30" t="s">
+      <c r="A242" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="B242" s="29" t="s">
+      <c r="B242" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C242" s="29" t="s">
+      <c r="C242" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="D242" s="29" t="s">
+      <c r="D242" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E242" s="29" t="s">
+      <c r="E242" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F242" s="29" t="s">
+      <c r="F242" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="G242" s="30" t="s">
+      <c r="G242" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H242" s="29" t="s">
+      <c r="H242" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="I242" s="29"/>
+      <c r="I242" s="32"/>
       <c r="J242" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K242" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L242" s="32" t="s">
+      <c r="L242" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M242" s="3" t="s">
@@ -9564,22 +9586,22 @@
       </c>
     </row>
     <row r="243" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A243" s="30"/>
-      <c r="B243" s="29"/>
-      <c r="C243" s="29"/>
-      <c r="D243" s="29"/>
-      <c r="E243" s="29"/>
-      <c r="F243" s="29"/>
-      <c r="G243" s="30"/>
-      <c r="H243" s="29"/>
-      <c r="I243" s="29"/>
+      <c r="A243" s="33"/>
+      <c r="B243" s="32"/>
+      <c r="C243" s="32"/>
+      <c r="D243" s="32"/>
+      <c r="E243" s="32"/>
+      <c r="F243" s="32"/>
+      <c r="G243" s="33"/>
+      <c r="H243" s="32"/>
+      <c r="I243" s="32"/>
       <c r="J243" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K243" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L243" s="32"/>
+      <c r="L243" s="35"/>
       <c r="M243" s="3" t="s">
         <v>25</v>
       </c>
@@ -9603,22 +9625,22 @@
       </c>
     </row>
     <row r="244" spans="1:22" s="17" customFormat="1">
-      <c r="A244" s="30"/>
-      <c r="B244" s="29"/>
-      <c r="C244" s="29"/>
-      <c r="D244" s="29"/>
-      <c r="E244" s="29"/>
-      <c r="F244" s="29"/>
-      <c r="G244" s="30"/>
-      <c r="H244" s="29"/>
-      <c r="I244" s="29"/>
+      <c r="A244" s="33"/>
+      <c r="B244" s="32"/>
+      <c r="C244" s="32"/>
+      <c r="D244" s="32"/>
+      <c r="E244" s="32"/>
+      <c r="F244" s="32"/>
+      <c r="G244" s="33"/>
+      <c r="H244" s="32"/>
+      <c r="I244" s="32"/>
       <c r="J244" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K244" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L244" s="32"/>
+      <c r="L244" s="35"/>
       <c r="M244" s="3" t="s">
         <v>29</v>
       </c>
@@ -9642,22 +9664,22 @@
       </c>
     </row>
     <row r="245" spans="1:22" s="17" customFormat="1" ht="49.5">
-      <c r="A245" s="30"/>
-      <c r="B245" s="29"/>
-      <c r="C245" s="29"/>
-      <c r="D245" s="29"/>
-      <c r="E245" s="29"/>
-      <c r="F245" s="29"/>
-      <c r="G245" s="30"/>
-      <c r="H245" s="29"/>
-      <c r="I245" s="29"/>
+      <c r="A245" s="33"/>
+      <c r="B245" s="32"/>
+      <c r="C245" s="32"/>
+      <c r="D245" s="32"/>
+      <c r="E245" s="32"/>
+      <c r="F245" s="32"/>
+      <c r="G245" s="33"/>
+      <c r="H245" s="32"/>
+      <c r="I245" s="32"/>
       <c r="J245" s="22" t="s">
         <v>214</v>
       </c>
       <c r="K245" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="L245" s="32"/>
+      <c r="L245" s="35"/>
       <c r="M245" s="3" t="s">
         <v>32</v>
       </c>
@@ -9675,22 +9697,22 @@
       </c>
     </row>
     <row r="246" spans="1:22" s="17" customFormat="1" ht="49.5">
-      <c r="A246" s="30"/>
-      <c r="B246" s="29"/>
-      <c r="C246" s="29"/>
-      <c r="D246" s="29"/>
-      <c r="E246" s="29"/>
-      <c r="F246" s="29"/>
-      <c r="G246" s="30"/>
-      <c r="H246" s="29"/>
-      <c r="I246" s="29"/>
+      <c r="A246" s="33"/>
+      <c r="B246" s="32"/>
+      <c r="C246" s="32"/>
+      <c r="D246" s="32"/>
+      <c r="E246" s="32"/>
+      <c r="F246" s="32"/>
+      <c r="G246" s="33"/>
+      <c r="H246" s="32"/>
+      <c r="I246" s="32"/>
       <c r="J246" s="22" t="s">
         <v>215</v>
       </c>
       <c r="K246" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="L246" s="32"/>
+      <c r="L246" s="35"/>
       <c r="M246" s="3" t="s">
         <v>35</v>
       </c>
@@ -9708,17 +9730,17 @@
       </c>
     </row>
     <row r="247" spans="1:22" s="17" customFormat="1">
-      <c r="A247" s="30"/>
-      <c r="B247" s="29"/>
-      <c r="C247" s="29"/>
-      <c r="D247" s="29"/>
-      <c r="E247" s="29"/>
-      <c r="F247" s="29"/>
-      <c r="G247" s="30"/>
-      <c r="H247" s="29"/>
-      <c r="I247" s="29"/>
+      <c r="A247" s="33"/>
+      <c r="B247" s="32"/>
+      <c r="C247" s="32"/>
+      <c r="D247" s="32"/>
+      <c r="E247" s="32"/>
+      <c r="F247" s="32"/>
+      <c r="G247" s="33"/>
+      <c r="H247" s="32"/>
+      <c r="I247" s="32"/>
       <c r="K247" s="19"/>
-      <c r="L247" s="32"/>
+      <c r="L247" s="35"/>
       <c r="M247" s="3" t="s">
         <v>38</v>
       </c>
@@ -9736,17 +9758,17 @@
       </c>
     </row>
     <row r="248" spans="1:22" s="17" customFormat="1">
-      <c r="A248" s="30"/>
-      <c r="B248" s="29"/>
-      <c r="C248" s="29"/>
-      <c r="D248" s="29"/>
-      <c r="E248" s="29"/>
-      <c r="F248" s="29"/>
-      <c r="G248" s="30"/>
-      <c r="H248" s="29"/>
-      <c r="I248" s="29"/>
+      <c r="A248" s="33"/>
+      <c r="B248" s="32"/>
+      <c r="C248" s="32"/>
+      <c r="D248" s="32"/>
+      <c r="E248" s="32"/>
+      <c r="F248" s="32"/>
+      <c r="G248" s="33"/>
+      <c r="H248" s="32"/>
+      <c r="I248" s="32"/>
       <c r="K248" s="19"/>
-      <c r="L248" s="32"/>
+      <c r="L248" s="35"/>
       <c r="M248" s="3" t="s">
         <v>41</v>
       </c>
@@ -9764,17 +9786,17 @@
       </c>
     </row>
     <row r="249" spans="1:22" s="17" customFormat="1">
-      <c r="A249" s="30"/>
-      <c r="B249" s="29"/>
-      <c r="C249" s="29"/>
-      <c r="D249" s="29"/>
-      <c r="E249" s="29"/>
-      <c r="F249" s="29"/>
-      <c r="G249" s="30"/>
-      <c r="H249" s="29"/>
-      <c r="I249" s="29"/>
+      <c r="A249" s="33"/>
+      <c r="B249" s="32"/>
+      <c r="C249" s="32"/>
+      <c r="D249" s="32"/>
+      <c r="E249" s="32"/>
+      <c r="F249" s="32"/>
+      <c r="G249" s="33"/>
+      <c r="H249" s="32"/>
+      <c r="I249" s="32"/>
       <c r="K249" s="19"/>
-      <c r="L249" s="32"/>
+      <c r="L249" s="35"/>
       <c r="M249" s="3" t="s">
         <v>44</v>
       </c>
@@ -9792,17 +9814,17 @@
       </c>
     </row>
     <row r="250" spans="1:22" s="17" customFormat="1">
-      <c r="A250" s="30"/>
-      <c r="B250" s="29"/>
-      <c r="C250" s="29"/>
-      <c r="D250" s="29"/>
-      <c r="E250" s="29"/>
-      <c r="F250" s="29"/>
-      <c r="G250" s="30"/>
-      <c r="H250" s="29"/>
-      <c r="I250" s="29"/>
+      <c r="A250" s="33"/>
+      <c r="B250" s="32"/>
+      <c r="C250" s="32"/>
+      <c r="D250" s="32"/>
+      <c r="E250" s="32"/>
+      <c r="F250" s="32"/>
+      <c r="G250" s="33"/>
+      <c r="H250" s="32"/>
+      <c r="I250" s="32"/>
       <c r="K250" s="19"/>
-      <c r="L250" s="32"/>
+      <c r="L250" s="35"/>
       <c r="M250" s="3" t="s">
         <v>47</v>
       </c>
@@ -9820,17 +9842,17 @@
       </c>
     </row>
     <row r="251" spans="1:22" s="17" customFormat="1">
-      <c r="A251" s="30"/>
-      <c r="B251" s="29"/>
-      <c r="C251" s="29"/>
-      <c r="D251" s="29"/>
-      <c r="E251" s="29"/>
-      <c r="F251" s="29"/>
-      <c r="G251" s="30"/>
-      <c r="H251" s="29"/>
-      <c r="I251" s="29"/>
+      <c r="A251" s="33"/>
+      <c r="B251" s="32"/>
+      <c r="C251" s="32"/>
+      <c r="D251" s="32"/>
+      <c r="E251" s="32"/>
+      <c r="F251" s="32"/>
+      <c r="G251" s="33"/>
+      <c r="H251" s="32"/>
+      <c r="I251" s="32"/>
       <c r="K251" s="19"/>
-      <c r="L251" s="32"/>
+      <c r="L251" s="35"/>
       <c r="M251" s="3" t="s">
         <v>50</v>
       </c>
@@ -9848,17 +9870,17 @@
       </c>
     </row>
     <row r="252" spans="1:22" s="17" customFormat="1">
-      <c r="A252" s="30"/>
-      <c r="B252" s="29"/>
-      <c r="C252" s="29"/>
-      <c r="D252" s="29"/>
-      <c r="E252" s="29"/>
-      <c r="F252" s="29"/>
-      <c r="G252" s="30"/>
-      <c r="H252" s="29"/>
-      <c r="I252" s="29"/>
+      <c r="A252" s="33"/>
+      <c r="B252" s="32"/>
+      <c r="C252" s="32"/>
+      <c r="D252" s="32"/>
+      <c r="E252" s="32"/>
+      <c r="F252" s="32"/>
+      <c r="G252" s="33"/>
+      <c r="H252" s="32"/>
+      <c r="I252" s="32"/>
       <c r="K252" s="19"/>
-      <c r="L252" s="32"/>
+      <c r="L252" s="35"/>
       <c r="M252" s="3" t="s">
         <v>24</v>
       </c>
@@ -9876,17 +9898,17 @@
       </c>
     </row>
     <row r="253" spans="1:22" s="17" customFormat="1">
-      <c r="A253" s="30"/>
-      <c r="B253" s="29"/>
-      <c r="C253" s="29"/>
-      <c r="D253" s="29"/>
-      <c r="E253" s="29"/>
-      <c r="F253" s="29"/>
-      <c r="G253" s="30"/>
-      <c r="H253" s="29"/>
-      <c r="I253" s="29"/>
+      <c r="A253" s="33"/>
+      <c r="B253" s="32"/>
+      <c r="C253" s="32"/>
+      <c r="D253" s="32"/>
+      <c r="E253" s="32"/>
+      <c r="F253" s="32"/>
+      <c r="G253" s="33"/>
+      <c r="H253" s="32"/>
+      <c r="I253" s="32"/>
       <c r="K253" s="19"/>
-      <c r="L253" s="32"/>
+      <c r="L253" s="35"/>
       <c r="M253" s="3" t="s">
         <v>54</v>
       </c>
@@ -9904,39 +9926,39 @@
       </c>
     </row>
     <row r="254" spans="1:22" s="17" customFormat="1" ht="115.5">
-      <c r="A254" s="30"/>
-      <c r="B254" s="29"/>
-      <c r="C254" s="29"/>
-      <c r="D254" s="29"/>
-      <c r="E254" s="29"/>
-      <c r="F254" s="29"/>
-      <c r="G254" s="30"/>
-      <c r="H254" s="29"/>
-      <c r="I254" s="29"/>
+      <c r="A254" s="33"/>
+      <c r="B254" s="32"/>
+      <c r="C254" s="32"/>
+      <c r="D254" s="32"/>
+      <c r="E254" s="32"/>
+      <c r="F254" s="32"/>
+      <c r="G254" s="33"/>
+      <c r="H254" s="32"/>
+      <c r="I254" s="32"/>
       <c r="K254" s="19"/>
       <c r="L254" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M254" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="N254" s="37" t="s">
+      <c r="M254" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="N254" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="O254" s="38" t="s">
+      <c r="O254" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="P254" s="37" t="s">
-        <v>267</v>
+      <c r="P254" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="Q254" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R254" s="26" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="S254" s="18" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="T254" s="18" t="s">
         <v>234</v>
@@ -9994,10 +10016,10 @@
       <c r="I256" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J256" s="31" t="s">
+      <c r="J256" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K256" s="31"/>
+      <c r="K256" s="34"/>
       <c r="L256" s="3" t="s">
         <v>8</v>
       </c>
@@ -10028,38 +10050,38 @@
       </c>
     </row>
     <row r="257" spans="1:22" s="17" customFormat="1">
-      <c r="A257" s="30" t="s">
+      <c r="A257" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="B257" s="29" t="s">
+      <c r="B257" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="C257" s="29" t="s">
+      <c r="C257" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="D257" s="29" t="s">
+      <c r="D257" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E257" s="29" t="s">
+      <c r="E257" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="F257" s="29" t="s">
+      <c r="F257" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="G257" s="30" t="s">
+      <c r="G257" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H257" s="29" t="s">
+      <c r="H257" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="I257" s="29"/>
+      <c r="I257" s="32"/>
       <c r="J257" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K257" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L257" s="32" t="s">
+      <c r="L257" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M257" s="3" t="s">
@@ -10079,22 +10101,22 @@
       </c>
     </row>
     <row r="258" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A258" s="30"/>
-      <c r="B258" s="29"/>
-      <c r="C258" s="29"/>
-      <c r="D258" s="29"/>
-      <c r="E258" s="29"/>
-      <c r="F258" s="29"/>
-      <c r="G258" s="30"/>
-      <c r="H258" s="29"/>
-      <c r="I258" s="29"/>
+      <c r="A258" s="33"/>
+      <c r="B258" s="32"/>
+      <c r="C258" s="32"/>
+      <c r="D258" s="32"/>
+      <c r="E258" s="32"/>
+      <c r="F258" s="32"/>
+      <c r="G258" s="33"/>
+      <c r="H258" s="32"/>
+      <c r="I258" s="32"/>
       <c r="J258" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K258" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L258" s="32"/>
+      <c r="L258" s="35"/>
       <c r="M258" s="3" t="s">
         <v>25</v>
       </c>
@@ -10118,22 +10140,22 @@
       </c>
     </row>
     <row r="259" spans="1:22" s="17" customFormat="1">
-      <c r="A259" s="30"/>
-      <c r="B259" s="29"/>
-      <c r="C259" s="29"/>
-      <c r="D259" s="29"/>
-      <c r="E259" s="29"/>
-      <c r="F259" s="29"/>
-      <c r="G259" s="30"/>
-      <c r="H259" s="29"/>
-      <c r="I259" s="29"/>
+      <c r="A259" s="33"/>
+      <c r="B259" s="32"/>
+      <c r="C259" s="32"/>
+      <c r="D259" s="32"/>
+      <c r="E259" s="32"/>
+      <c r="F259" s="32"/>
+      <c r="G259" s="33"/>
+      <c r="H259" s="32"/>
+      <c r="I259" s="32"/>
       <c r="J259" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K259" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L259" s="32"/>
+      <c r="L259" s="35"/>
       <c r="M259" s="3" t="s">
         <v>29</v>
       </c>
@@ -10157,17 +10179,17 @@
       </c>
     </row>
     <row r="260" spans="1:22" s="17" customFormat="1">
-      <c r="A260" s="30"/>
-      <c r="B260" s="29"/>
-      <c r="C260" s="29"/>
-      <c r="D260" s="29"/>
-      <c r="E260" s="29"/>
-      <c r="F260" s="29"/>
-      <c r="G260" s="30"/>
-      <c r="H260" s="29"/>
-      <c r="I260" s="29"/>
+      <c r="A260" s="33"/>
+      <c r="B260" s="32"/>
+      <c r="C260" s="32"/>
+      <c r="D260" s="32"/>
+      <c r="E260" s="32"/>
+      <c r="F260" s="32"/>
+      <c r="G260" s="33"/>
+      <c r="H260" s="32"/>
+      <c r="I260" s="32"/>
       <c r="K260" s="19"/>
-      <c r="L260" s="32"/>
+      <c r="L260" s="35"/>
       <c r="M260" s="3" t="s">
         <v>32</v>
       </c>
@@ -10185,17 +10207,17 @@
       </c>
     </row>
     <row r="261" spans="1:22" s="17" customFormat="1">
-      <c r="A261" s="30"/>
-      <c r="B261" s="29"/>
-      <c r="C261" s="29"/>
-      <c r="D261" s="29"/>
-      <c r="E261" s="29"/>
-      <c r="F261" s="29"/>
-      <c r="G261" s="30"/>
-      <c r="H261" s="29"/>
-      <c r="I261" s="29"/>
+      <c r="A261" s="33"/>
+      <c r="B261" s="32"/>
+      <c r="C261" s="32"/>
+      <c r="D261" s="32"/>
+      <c r="E261" s="32"/>
+      <c r="F261" s="32"/>
+      <c r="G261" s="33"/>
+      <c r="H261" s="32"/>
+      <c r="I261" s="32"/>
       <c r="K261" s="19"/>
-      <c r="L261" s="32"/>
+      <c r="L261" s="35"/>
       <c r="M261" s="3" t="s">
         <v>35</v>
       </c>
@@ -10213,17 +10235,17 @@
       </c>
     </row>
     <row r="262" spans="1:22" s="17" customFormat="1">
-      <c r="A262" s="30"/>
-      <c r="B262" s="29"/>
-      <c r="C262" s="29"/>
-      <c r="D262" s="29"/>
-      <c r="E262" s="29"/>
-      <c r="F262" s="29"/>
-      <c r="G262" s="30"/>
-      <c r="H262" s="29"/>
-      <c r="I262" s="29"/>
+      <c r="A262" s="33"/>
+      <c r="B262" s="32"/>
+      <c r="C262" s="32"/>
+      <c r="D262" s="32"/>
+      <c r="E262" s="32"/>
+      <c r="F262" s="32"/>
+      <c r="G262" s="33"/>
+      <c r="H262" s="32"/>
+      <c r="I262" s="32"/>
       <c r="K262" s="19"/>
-      <c r="L262" s="32"/>
+      <c r="L262" s="35"/>
       <c r="M262" s="3" t="s">
         <v>38</v>
       </c>
@@ -10241,17 +10263,17 @@
       </c>
     </row>
     <row r="263" spans="1:22" s="17" customFormat="1">
-      <c r="A263" s="30"/>
-      <c r="B263" s="29"/>
-      <c r="C263" s="29"/>
-      <c r="D263" s="29"/>
-      <c r="E263" s="29"/>
-      <c r="F263" s="29"/>
-      <c r="G263" s="30"/>
-      <c r="H263" s="29"/>
-      <c r="I263" s="29"/>
+      <c r="A263" s="33"/>
+      <c r="B263" s="32"/>
+      <c r="C263" s="32"/>
+      <c r="D263" s="32"/>
+      <c r="E263" s="32"/>
+      <c r="F263" s="32"/>
+      <c r="G263" s="33"/>
+      <c r="H263" s="32"/>
+      <c r="I263" s="32"/>
       <c r="K263" s="19"/>
-      <c r="L263" s="32"/>
+      <c r="L263" s="35"/>
       <c r="M263" s="3" t="s">
         <v>41</v>
       </c>
@@ -10269,17 +10291,17 @@
       </c>
     </row>
     <row r="264" spans="1:22" s="17" customFormat="1">
-      <c r="A264" s="30"/>
-      <c r="B264" s="29"/>
-      <c r="C264" s="29"/>
-      <c r="D264" s="29"/>
-      <c r="E264" s="29"/>
-      <c r="F264" s="29"/>
-      <c r="G264" s="30"/>
-      <c r="H264" s="29"/>
-      <c r="I264" s="29"/>
+      <c r="A264" s="33"/>
+      <c r="B264" s="32"/>
+      <c r="C264" s="32"/>
+      <c r="D264" s="32"/>
+      <c r="E264" s="32"/>
+      <c r="F264" s="32"/>
+      <c r="G264" s="33"/>
+      <c r="H264" s="32"/>
+      <c r="I264" s="32"/>
       <c r="K264" s="19"/>
-      <c r="L264" s="32"/>
+      <c r="L264" s="35"/>
       <c r="M264" s="3" t="s">
         <v>44</v>
       </c>
@@ -10297,17 +10319,17 @@
       </c>
     </row>
     <row r="265" spans="1:22" s="17" customFormat="1">
-      <c r="A265" s="30"/>
-      <c r="B265" s="29"/>
-      <c r="C265" s="29"/>
-      <c r="D265" s="29"/>
-      <c r="E265" s="29"/>
-      <c r="F265" s="29"/>
-      <c r="G265" s="30"/>
-      <c r="H265" s="29"/>
-      <c r="I265" s="29"/>
+      <c r="A265" s="33"/>
+      <c r="B265" s="32"/>
+      <c r="C265" s="32"/>
+      <c r="D265" s="32"/>
+      <c r="E265" s="32"/>
+      <c r="F265" s="32"/>
+      <c r="G265" s="33"/>
+      <c r="H265" s="32"/>
+      <c r="I265" s="32"/>
       <c r="K265" s="19"/>
-      <c r="L265" s="32"/>
+      <c r="L265" s="35"/>
       <c r="M265" s="3" t="s">
         <v>47</v>
       </c>
@@ -10325,17 +10347,17 @@
       </c>
     </row>
     <row r="266" spans="1:22" s="17" customFormat="1">
-      <c r="A266" s="30"/>
-      <c r="B266" s="29"/>
-      <c r="C266" s="29"/>
-      <c r="D266" s="29"/>
-      <c r="E266" s="29"/>
-      <c r="F266" s="29"/>
-      <c r="G266" s="30"/>
-      <c r="H266" s="29"/>
-      <c r="I266" s="29"/>
+      <c r="A266" s="33"/>
+      <c r="B266" s="32"/>
+      <c r="C266" s="32"/>
+      <c r="D266" s="32"/>
+      <c r="E266" s="32"/>
+      <c r="F266" s="32"/>
+      <c r="G266" s="33"/>
+      <c r="H266" s="32"/>
+      <c r="I266" s="32"/>
       <c r="K266" s="19"/>
-      <c r="L266" s="32"/>
+      <c r="L266" s="35"/>
       <c r="M266" s="3" t="s">
         <v>50</v>
       </c>
@@ -10353,17 +10375,17 @@
       </c>
     </row>
     <row r="267" spans="1:22" s="17" customFormat="1">
-      <c r="A267" s="30"/>
-      <c r="B267" s="29"/>
-      <c r="C267" s="29"/>
-      <c r="D267" s="29"/>
-      <c r="E267" s="29"/>
-      <c r="F267" s="29"/>
-      <c r="G267" s="30"/>
-      <c r="H267" s="29"/>
-      <c r="I267" s="29"/>
+      <c r="A267" s="33"/>
+      <c r="B267" s="32"/>
+      <c r="C267" s="32"/>
+      <c r="D267" s="32"/>
+      <c r="E267" s="32"/>
+      <c r="F267" s="32"/>
+      <c r="G267" s="33"/>
+      <c r="H267" s="32"/>
+      <c r="I267" s="32"/>
       <c r="K267" s="19"/>
-      <c r="L267" s="32"/>
+      <c r="L267" s="35"/>
       <c r="M267" s="3" t="s">
         <v>24</v>
       </c>
@@ -10381,17 +10403,17 @@
       </c>
     </row>
     <row r="268" spans="1:22" s="17" customFormat="1">
-      <c r="A268" s="30"/>
-      <c r="B268" s="29"/>
-      <c r="C268" s="29"/>
-      <c r="D268" s="29"/>
-      <c r="E268" s="29"/>
-      <c r="F268" s="29"/>
-      <c r="G268" s="30"/>
-      <c r="H268" s="29"/>
-      <c r="I268" s="29"/>
+      <c r="A268" s="33"/>
+      <c r="B268" s="32"/>
+      <c r="C268" s="32"/>
+      <c r="D268" s="32"/>
+      <c r="E268" s="32"/>
+      <c r="F268" s="32"/>
+      <c r="G268" s="33"/>
+      <c r="H268" s="32"/>
+      <c r="I268" s="32"/>
       <c r="K268" s="19"/>
-      <c r="L268" s="32"/>
+      <c r="L268" s="35"/>
       <c r="M268" s="3" t="s">
         <v>54</v>
       </c>
@@ -10409,39 +10431,39 @@
       </c>
     </row>
     <row r="269" spans="1:22" s="17" customFormat="1" ht="115.5">
-      <c r="A269" s="30"/>
-      <c r="B269" s="29"/>
-      <c r="C269" s="29"/>
-      <c r="D269" s="29"/>
-      <c r="E269" s="29"/>
-      <c r="F269" s="29"/>
-      <c r="G269" s="30"/>
-      <c r="H269" s="29"/>
-      <c r="I269" s="29"/>
+      <c r="A269" s="33"/>
+      <c r="B269" s="32"/>
+      <c r="C269" s="32"/>
+      <c r="D269" s="32"/>
+      <c r="E269" s="32"/>
+      <c r="F269" s="32"/>
+      <c r="G269" s="33"/>
+      <c r="H269" s="32"/>
+      <c r="I269" s="32"/>
       <c r="K269" s="19"/>
       <c r="L269" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M269" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="N269" s="37" t="s">
+      <c r="M269" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="N269" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="O269" s="38" t="s">
+      <c r="O269" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="P269" s="37" t="s">
-        <v>267</v>
+      <c r="P269" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="Q269" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R269" s="26" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="S269" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="T269" s="18" t="s">
         <v>235</v>
@@ -10499,10 +10521,10 @@
       <c r="I271" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J271" s="31" t="s">
+      <c r="J271" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="K271" s="31"/>
+      <c r="K271" s="34"/>
       <c r="L271" s="3" t="s">
         <v>8</v>
       </c>
@@ -10533,38 +10555,38 @@
       </c>
     </row>
     <row r="272" spans="1:22" s="17" customFormat="1">
-      <c r="A272" s="30" t="s">
+      <c r="A272" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B272" s="29" t="s">
+      <c r="B272" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C272" s="29" t="s">
+      <c r="C272" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="D272" s="29" t="s">
+      <c r="D272" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E272" s="29" t="s">
+      <c r="E272" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F272" s="29" t="s">
+      <c r="F272" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="G272" s="30" t="s">
+      <c r="G272" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H272" s="29" t="s">
+      <c r="H272" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="I272" s="29"/>
+      <c r="I272" s="32"/>
       <c r="J272" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K272" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L272" s="32" t="s">
+      <c r="L272" s="35" t="s">
         <v>19</v>
       </c>
       <c r="M272" s="3" t="s">
@@ -10584,22 +10606,22 @@
       </c>
     </row>
     <row r="273" spans="1:20" s="17" customFormat="1" ht="33">
-      <c r="A273" s="30"/>
-      <c r="B273" s="29"/>
-      <c r="C273" s="29"/>
-      <c r="D273" s="29"/>
-      <c r="E273" s="29"/>
-      <c r="F273" s="29"/>
-      <c r="G273" s="30"/>
-      <c r="H273" s="29"/>
-      <c r="I273" s="29"/>
+      <c r="A273" s="33"/>
+      <c r="B273" s="32"/>
+      <c r="C273" s="32"/>
+      <c r="D273" s="32"/>
+      <c r="E273" s="32"/>
+      <c r="F273" s="32"/>
+      <c r="G273" s="33"/>
+      <c r="H273" s="32"/>
+      <c r="I273" s="32"/>
       <c r="J273" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K273" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L273" s="32"/>
+      <c r="L273" s="35"/>
       <c r="M273" s="3" t="s">
         <v>25</v>
       </c>
@@ -10623,22 +10645,22 @@
       </c>
     </row>
     <row r="274" spans="1:20" s="17" customFormat="1">
-      <c r="A274" s="30"/>
-      <c r="B274" s="29"/>
-      <c r="C274" s="29"/>
-      <c r="D274" s="29"/>
-      <c r="E274" s="29"/>
-      <c r="F274" s="29"/>
-      <c r="G274" s="30"/>
-      <c r="H274" s="29"/>
-      <c r="I274" s="29"/>
+      <c r="A274" s="33"/>
+      <c r="B274" s="32"/>
+      <c r="C274" s="32"/>
+      <c r="D274" s="32"/>
+      <c r="E274" s="32"/>
+      <c r="F274" s="32"/>
+      <c r="G274" s="33"/>
+      <c r="H274" s="32"/>
+      <c r="I274" s="32"/>
       <c r="J274" s="7" t="s">
         <v>181</v>
       </c>
       <c r="K274" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L274" s="32"/>
+      <c r="L274" s="35"/>
       <c r="M274" s="3" t="s">
         <v>29</v>
       </c>
@@ -10662,22 +10684,22 @@
       </c>
     </row>
     <row r="275" spans="1:20" s="17" customFormat="1" ht="49.5">
-      <c r="A275" s="30"/>
-      <c r="B275" s="29"/>
-      <c r="C275" s="29"/>
-      <c r="D275" s="29"/>
-      <c r="E275" s="29"/>
-      <c r="F275" s="29"/>
-      <c r="G275" s="30"/>
-      <c r="H275" s="29"/>
-      <c r="I275" s="29"/>
+      <c r="A275" s="33"/>
+      <c r="B275" s="32"/>
+      <c r="C275" s="32"/>
+      <c r="D275" s="32"/>
+      <c r="E275" s="32"/>
+      <c r="F275" s="32"/>
+      <c r="G275" s="33"/>
+      <c r="H275" s="32"/>
+      <c r="I275" s="32"/>
       <c r="J275" s="22" t="s">
         <v>214</v>
       </c>
       <c r="K275" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="L275" s="32"/>
+      <c r="L275" s="35"/>
       <c r="M275" s="3" t="s">
         <v>32</v>
       </c>
@@ -10695,22 +10717,22 @@
       </c>
     </row>
     <row r="276" spans="1:20" s="17" customFormat="1" ht="49.5">
-      <c r="A276" s="30"/>
-      <c r="B276" s="29"/>
-      <c r="C276" s="29"/>
-      <c r="D276" s="29"/>
-      <c r="E276" s="29"/>
-      <c r="F276" s="29"/>
-      <c r="G276" s="30"/>
-      <c r="H276" s="29"/>
-      <c r="I276" s="29"/>
+      <c r="A276" s="33"/>
+      <c r="B276" s="32"/>
+      <c r="C276" s="32"/>
+      <c r="D276" s="32"/>
+      <c r="E276" s="32"/>
+      <c r="F276" s="32"/>
+      <c r="G276" s="33"/>
+      <c r="H276" s="32"/>
+      <c r="I276" s="32"/>
       <c r="J276" s="22" t="s">
         <v>215</v>
       </c>
       <c r="K276" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="L276" s="32"/>
+      <c r="L276" s="35"/>
       <c r="M276" s="3" t="s">
         <v>35</v>
       </c>
@@ -10728,17 +10750,17 @@
       </c>
     </row>
     <row r="277" spans="1:20" s="17" customFormat="1">
-      <c r="A277" s="30"/>
-      <c r="B277" s="29"/>
-      <c r="C277" s="29"/>
-      <c r="D277" s="29"/>
-      <c r="E277" s="29"/>
-      <c r="F277" s="29"/>
-      <c r="G277" s="30"/>
-      <c r="H277" s="29"/>
-      <c r="I277" s="29"/>
+      <c r="A277" s="33"/>
+      <c r="B277" s="32"/>
+      <c r="C277" s="32"/>
+      <c r="D277" s="32"/>
+      <c r="E277" s="32"/>
+      <c r="F277" s="32"/>
+      <c r="G277" s="33"/>
+      <c r="H277" s="32"/>
+      <c r="I277" s="32"/>
       <c r="K277" s="21"/>
-      <c r="L277" s="32"/>
+      <c r="L277" s="35"/>
       <c r="M277" s="3" t="s">
         <v>38</v>
       </c>
@@ -10756,17 +10778,17 @@
       </c>
     </row>
     <row r="278" spans="1:20" s="17" customFormat="1">
-      <c r="A278" s="30"/>
-      <c r="B278" s="29"/>
-      <c r="C278" s="29"/>
-      <c r="D278" s="29"/>
-      <c r="E278" s="29"/>
-      <c r="F278" s="29"/>
-      <c r="G278" s="30"/>
-      <c r="H278" s="29"/>
-      <c r="I278" s="29"/>
+      <c r="A278" s="33"/>
+      <c r="B278" s="32"/>
+      <c r="C278" s="32"/>
+      <c r="D278" s="32"/>
+      <c r="E278" s="32"/>
+      <c r="F278" s="32"/>
+      <c r="G278" s="33"/>
+      <c r="H278" s="32"/>
+      <c r="I278" s="32"/>
       <c r="K278" s="21"/>
-      <c r="L278" s="32"/>
+      <c r="L278" s="35"/>
       <c r="M278" s="3" t="s">
         <v>41</v>
       </c>
@@ -10784,17 +10806,17 @@
       </c>
     </row>
     <row r="279" spans="1:20" s="17" customFormat="1">
-      <c r="A279" s="30"/>
-      <c r="B279" s="29"/>
-      <c r="C279" s="29"/>
-      <c r="D279" s="29"/>
-      <c r="E279" s="29"/>
-      <c r="F279" s="29"/>
-      <c r="G279" s="30"/>
-      <c r="H279" s="29"/>
-      <c r="I279" s="29"/>
+      <c r="A279" s="33"/>
+      <c r="B279" s="32"/>
+      <c r="C279" s="32"/>
+      <c r="D279" s="32"/>
+      <c r="E279" s="32"/>
+      <c r="F279" s="32"/>
+      <c r="G279" s="33"/>
+      <c r="H279" s="32"/>
+      <c r="I279" s="32"/>
       <c r="K279" s="21"/>
-      <c r="L279" s="32"/>
+      <c r="L279" s="35"/>
       <c r="M279" s="3" t="s">
         <v>44</v>
       </c>
@@ -10812,17 +10834,17 @@
       </c>
     </row>
     <row r="280" spans="1:20" s="17" customFormat="1">
-      <c r="A280" s="30"/>
-      <c r="B280" s="29"/>
-      <c r="C280" s="29"/>
-      <c r="D280" s="29"/>
-      <c r="E280" s="29"/>
-      <c r="F280" s="29"/>
-      <c r="G280" s="30"/>
-      <c r="H280" s="29"/>
-      <c r="I280" s="29"/>
+      <c r="A280" s="33"/>
+      <c r="B280" s="32"/>
+      <c r="C280" s="32"/>
+      <c r="D280" s="32"/>
+      <c r="E280" s="32"/>
+      <c r="F280" s="32"/>
+      <c r="G280" s="33"/>
+      <c r="H280" s="32"/>
+      <c r="I280" s="32"/>
       <c r="K280" s="21"/>
-      <c r="L280" s="32"/>
+      <c r="L280" s="35"/>
       <c r="M280" s="3" t="s">
         <v>47</v>
       </c>
@@ -10840,17 +10862,17 @@
       </c>
     </row>
     <row r="281" spans="1:20" s="17" customFormat="1">
-      <c r="A281" s="30"/>
-      <c r="B281" s="29"/>
-      <c r="C281" s="29"/>
-      <c r="D281" s="29"/>
-      <c r="E281" s="29"/>
-      <c r="F281" s="29"/>
-      <c r="G281" s="30"/>
-      <c r="H281" s="29"/>
-      <c r="I281" s="29"/>
+      <c r="A281" s="33"/>
+      <c r="B281" s="32"/>
+      <c r="C281" s="32"/>
+      <c r="D281" s="32"/>
+      <c r="E281" s="32"/>
+      <c r="F281" s="32"/>
+      <c r="G281" s="33"/>
+      <c r="H281" s="32"/>
+      <c r="I281" s="32"/>
       <c r="K281" s="21"/>
-      <c r="L281" s="32"/>
+      <c r="L281" s="35"/>
       <c r="M281" s="3" t="s">
         <v>50</v>
       </c>
@@ -10868,17 +10890,17 @@
       </c>
     </row>
     <row r="282" spans="1:20" s="17" customFormat="1">
-      <c r="A282" s="30"/>
-      <c r="B282" s="29"/>
-      <c r="C282" s="29"/>
-      <c r="D282" s="29"/>
-      <c r="E282" s="29"/>
-      <c r="F282" s="29"/>
-      <c r="G282" s="30"/>
-      <c r="H282" s="29"/>
-      <c r="I282" s="29"/>
+      <c r="A282" s="33"/>
+      <c r="B282" s="32"/>
+      <c r="C282" s="32"/>
+      <c r="D282" s="32"/>
+      <c r="E282" s="32"/>
+      <c r="F282" s="32"/>
+      <c r="G282" s="33"/>
+      <c r="H282" s="32"/>
+      <c r="I282" s="32"/>
       <c r="K282" s="21"/>
-      <c r="L282" s="32"/>
+      <c r="L282" s="35"/>
       <c r="M282" s="3" t="s">
         <v>24</v>
       </c>
@@ -10896,17 +10918,17 @@
       </c>
     </row>
     <row r="283" spans="1:20" s="17" customFormat="1">
-      <c r="A283" s="30"/>
-      <c r="B283" s="29"/>
-      <c r="C283" s="29"/>
-      <c r="D283" s="29"/>
-      <c r="E283" s="29"/>
-      <c r="F283" s="29"/>
-      <c r="G283" s="30"/>
-      <c r="H283" s="29"/>
-      <c r="I283" s="29"/>
+      <c r="A283" s="33"/>
+      <c r="B283" s="32"/>
+      <c r="C283" s="32"/>
+      <c r="D283" s="32"/>
+      <c r="E283" s="32"/>
+      <c r="F283" s="32"/>
+      <c r="G283" s="33"/>
+      <c r="H283" s="32"/>
+      <c r="I283" s="32"/>
       <c r="K283" s="21"/>
-      <c r="L283" s="32"/>
+      <c r="L283" s="35"/>
       <c r="M283" s="3" t="s">
         <v>54</v>
       </c>
@@ -10924,30 +10946,30 @@
       </c>
     </row>
     <row r="284" spans="1:20" s="17" customFormat="1" ht="66">
-      <c r="A284" s="30"/>
-      <c r="B284" s="29"/>
-      <c r="C284" s="29"/>
-      <c r="D284" s="29"/>
-      <c r="E284" s="29"/>
-      <c r="F284" s="29"/>
-      <c r="G284" s="30"/>
-      <c r="H284" s="29"/>
-      <c r="I284" s="29"/>
+      <c r="A284" s="33"/>
+      <c r="B284" s="32"/>
+      <c r="C284" s="32"/>
+      <c r="D284" s="32"/>
+      <c r="E284" s="32"/>
+      <c r="F284" s="32"/>
+      <c r="G284" s="33"/>
+      <c r="H284" s="32"/>
+      <c r="I284" s="32"/>
       <c r="K284" s="21"/>
       <c r="L284" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="M284" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="N284" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="O284" s="38" t="s">
+      <c r="M284" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="N284" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="O284" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="P284" s="37" t="s">
-        <v>267</v>
+      <c r="P284" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="Q284" s="17" t="s">
         <v>28</v>
@@ -10962,47 +10984,125 @@
     </row>
   </sheetData>
   <mergeCells count="203">
-    <mergeCell ref="D227:D239"/>
-    <mergeCell ref="D242:D254"/>
-    <mergeCell ref="D257:D269"/>
-    <mergeCell ref="G197:G209"/>
-    <mergeCell ref="G212:G224"/>
-    <mergeCell ref="J196:K196"/>
-    <mergeCell ref="A181:A193"/>
-    <mergeCell ref="B197:B209"/>
-    <mergeCell ref="C197:C209"/>
-    <mergeCell ref="L197:L208"/>
-    <mergeCell ref="J211:K211"/>
-    <mergeCell ref="A212:A224"/>
-    <mergeCell ref="B212:B224"/>
-    <mergeCell ref="C212:C224"/>
-    <mergeCell ref="L212:L223"/>
-    <mergeCell ref="F197:F209"/>
-    <mergeCell ref="F212:F224"/>
-    <mergeCell ref="D197:D209"/>
-    <mergeCell ref="D212:D224"/>
-    <mergeCell ref="A165:A177"/>
-    <mergeCell ref="B165:B177"/>
-    <mergeCell ref="C165:C177"/>
-    <mergeCell ref="J164:K164"/>
-    <mergeCell ref="L165:L176"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="B181:B193"/>
-    <mergeCell ref="C181:C193"/>
-    <mergeCell ref="L181:L192"/>
-    <mergeCell ref="F181:F193"/>
-    <mergeCell ref="F165:F177"/>
-    <mergeCell ref="D181:D193"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="A19:A31"/>
-    <mergeCell ref="B19:B31"/>
-    <mergeCell ref="C19:C31"/>
-    <mergeCell ref="D19:D31"/>
-    <mergeCell ref="E19:E31"/>
-    <mergeCell ref="G19:G31"/>
-    <mergeCell ref="H19:H31"/>
-    <mergeCell ref="I19:I31"/>
-    <mergeCell ref="F19:F31"/>
+    <mergeCell ref="A272:A284"/>
+    <mergeCell ref="B272:B284"/>
+    <mergeCell ref="C272:C284"/>
+    <mergeCell ref="L272:L283"/>
+    <mergeCell ref="A197:A209"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="A257:A269"/>
+    <mergeCell ref="B257:B269"/>
+    <mergeCell ref="C257:C269"/>
+    <mergeCell ref="L257:L268"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="A227:A239"/>
+    <mergeCell ref="B227:B239"/>
+    <mergeCell ref="C227:C239"/>
+    <mergeCell ref="L227:L238"/>
+    <mergeCell ref="J241:K241"/>
+    <mergeCell ref="A242:A254"/>
+    <mergeCell ref="B242:B254"/>
+    <mergeCell ref="C242:C254"/>
+    <mergeCell ref="D272:D284"/>
+    <mergeCell ref="L242:L253"/>
+    <mergeCell ref="F272:F284"/>
+    <mergeCell ref="I227:I239"/>
+    <mergeCell ref="I212:I224"/>
+    <mergeCell ref="E272:E284"/>
+    <mergeCell ref="G272:G284"/>
+    <mergeCell ref="F227:F239"/>
+    <mergeCell ref="F242:F254"/>
+    <mergeCell ref="F257:F269"/>
+    <mergeCell ref="G257:G269"/>
+    <mergeCell ref="G227:G239"/>
+    <mergeCell ref="G242:G254"/>
+    <mergeCell ref="J271:K271"/>
+    <mergeCell ref="I242:I254"/>
+    <mergeCell ref="I257:I269"/>
+    <mergeCell ref="I272:I284"/>
+    <mergeCell ref="H227:H239"/>
+    <mergeCell ref="H242:H254"/>
+    <mergeCell ref="H257:H269"/>
+    <mergeCell ref="H272:H284"/>
+    <mergeCell ref="A150:A162"/>
+    <mergeCell ref="B150:B162"/>
+    <mergeCell ref="C150:C162"/>
+    <mergeCell ref="D150:D162"/>
+    <mergeCell ref="E150:E162"/>
+    <mergeCell ref="A134:A146"/>
+    <mergeCell ref="B134:B146"/>
+    <mergeCell ref="C134:C146"/>
+    <mergeCell ref="D134:D146"/>
+    <mergeCell ref="E134:E146"/>
+    <mergeCell ref="E118:E130"/>
+    <mergeCell ref="H118:H130"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="A86:A98"/>
+    <mergeCell ref="B86:B98"/>
+    <mergeCell ref="C86:C98"/>
+    <mergeCell ref="D86:D98"/>
+    <mergeCell ref="E86:E98"/>
+    <mergeCell ref="F102:F114"/>
+    <mergeCell ref="A118:A130"/>
+    <mergeCell ref="B118:B130"/>
+    <mergeCell ref="C118:C130"/>
+    <mergeCell ref="D118:D130"/>
+    <mergeCell ref="I118:I130"/>
+    <mergeCell ref="F118:F130"/>
+    <mergeCell ref="L150:L161"/>
+    <mergeCell ref="L134:L145"/>
+    <mergeCell ref="L118:L129"/>
+    <mergeCell ref="F86:F98"/>
+    <mergeCell ref="I86:I98"/>
+    <mergeCell ref="L86:L97"/>
+    <mergeCell ref="G86:G98"/>
+    <mergeCell ref="H86:H98"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="J133:K133"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="L102:L113"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="I134:I146"/>
+    <mergeCell ref="G118:G130"/>
+    <mergeCell ref="G150:G162"/>
+    <mergeCell ref="H150:H162"/>
+    <mergeCell ref="F150:F162"/>
+    <mergeCell ref="G134:G146"/>
+    <mergeCell ref="H134:H146"/>
+    <mergeCell ref="F134:F146"/>
+    <mergeCell ref="I150:I162"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="C3:C15"/>
+    <mergeCell ref="D3:D15"/>
+    <mergeCell ref="E3:E15"/>
+    <mergeCell ref="G3:G15"/>
+    <mergeCell ref="H3:H15"/>
+    <mergeCell ref="I3:I15"/>
+    <mergeCell ref="F3:F15"/>
+    <mergeCell ref="A52:A64"/>
+    <mergeCell ref="B52:B64"/>
+    <mergeCell ref="C52:C64"/>
+    <mergeCell ref="D52:D64"/>
+    <mergeCell ref="E52:E64"/>
+    <mergeCell ref="G52:G64"/>
+    <mergeCell ref="F35:F47"/>
+    <mergeCell ref="H52:H64"/>
+    <mergeCell ref="L3:L14"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="B69:B81"/>
+    <mergeCell ref="C69:C81"/>
+    <mergeCell ref="D69:D81"/>
+    <mergeCell ref="E69:E81"/>
+    <mergeCell ref="G69:G81"/>
+    <mergeCell ref="F69:F81"/>
+    <mergeCell ref="F52:F64"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L52:L63"/>
+    <mergeCell ref="I52:I64"/>
+    <mergeCell ref="L81:L82"/>
     <mergeCell ref="A102:A114"/>
     <mergeCell ref="B102:B114"/>
     <mergeCell ref="C102:C114"/>
@@ -11027,144 +11127,66 @@
     <mergeCell ref="L69:L80"/>
     <mergeCell ref="J51:K51"/>
     <mergeCell ref="A69:A81"/>
-    <mergeCell ref="B69:B81"/>
-    <mergeCell ref="C69:C81"/>
-    <mergeCell ref="D69:D81"/>
-    <mergeCell ref="E69:E81"/>
-    <mergeCell ref="G69:G81"/>
-    <mergeCell ref="F69:F81"/>
-    <mergeCell ref="F52:F64"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L52:L63"/>
-    <mergeCell ref="I52:I64"/>
-    <mergeCell ref="A52:A64"/>
-    <mergeCell ref="B52:B64"/>
-    <mergeCell ref="C52:C64"/>
-    <mergeCell ref="D52:D64"/>
-    <mergeCell ref="E52:E64"/>
-    <mergeCell ref="G52:G64"/>
-    <mergeCell ref="F35:F47"/>
-    <mergeCell ref="H52:H64"/>
-    <mergeCell ref="L3:L14"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="C3:C15"/>
-    <mergeCell ref="D3:D15"/>
-    <mergeCell ref="E3:E15"/>
-    <mergeCell ref="G3:G15"/>
-    <mergeCell ref="H3:H15"/>
-    <mergeCell ref="I3:I15"/>
-    <mergeCell ref="F3:F15"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="B19:B31"/>
+    <mergeCell ref="C19:C31"/>
+    <mergeCell ref="D19:D31"/>
+    <mergeCell ref="E19:E31"/>
+    <mergeCell ref="G19:G31"/>
+    <mergeCell ref="H19:H31"/>
+    <mergeCell ref="I19:I31"/>
+    <mergeCell ref="F19:F31"/>
+    <mergeCell ref="A165:A177"/>
+    <mergeCell ref="B165:B177"/>
+    <mergeCell ref="C165:C177"/>
+    <mergeCell ref="J164:K164"/>
+    <mergeCell ref="L165:L176"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="B181:B193"/>
+    <mergeCell ref="C181:C193"/>
+    <mergeCell ref="L181:L192"/>
+    <mergeCell ref="F181:F193"/>
+    <mergeCell ref="F165:F177"/>
+    <mergeCell ref="D181:D193"/>
     <mergeCell ref="D165:D177"/>
-    <mergeCell ref="L150:L161"/>
-    <mergeCell ref="L134:L145"/>
-    <mergeCell ref="L118:L129"/>
-    <mergeCell ref="F86:F98"/>
-    <mergeCell ref="I86:I98"/>
-    <mergeCell ref="L86:L97"/>
-    <mergeCell ref="G86:G98"/>
-    <mergeCell ref="H86:H98"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="J133:K133"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="L102:L113"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="I134:I146"/>
-    <mergeCell ref="G118:G130"/>
-    <mergeCell ref="G150:G162"/>
-    <mergeCell ref="H150:H162"/>
-    <mergeCell ref="F150:F162"/>
-    <mergeCell ref="G134:G146"/>
-    <mergeCell ref="H134:H146"/>
-    <mergeCell ref="F134:F146"/>
-    <mergeCell ref="E118:E130"/>
-    <mergeCell ref="H118:H130"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="A86:A98"/>
-    <mergeCell ref="B86:B98"/>
-    <mergeCell ref="C86:C98"/>
-    <mergeCell ref="D86:D98"/>
-    <mergeCell ref="E86:E98"/>
-    <mergeCell ref="F102:F114"/>
-    <mergeCell ref="I150:I162"/>
-    <mergeCell ref="A150:A162"/>
-    <mergeCell ref="B150:B162"/>
-    <mergeCell ref="C150:C162"/>
-    <mergeCell ref="D150:D162"/>
-    <mergeCell ref="E150:E162"/>
-    <mergeCell ref="A134:A146"/>
-    <mergeCell ref="B134:B146"/>
-    <mergeCell ref="C134:C146"/>
-    <mergeCell ref="D134:D146"/>
-    <mergeCell ref="E134:E146"/>
-    <mergeCell ref="A118:A130"/>
-    <mergeCell ref="B118:B130"/>
-    <mergeCell ref="C118:C130"/>
-    <mergeCell ref="D118:D130"/>
-    <mergeCell ref="I118:I130"/>
-    <mergeCell ref="F118:F130"/>
     <mergeCell ref="E165:E177"/>
     <mergeCell ref="E181:E193"/>
-    <mergeCell ref="E197:E209"/>
-    <mergeCell ref="E212:E224"/>
-    <mergeCell ref="E227:E239"/>
-    <mergeCell ref="E242:E254"/>
-    <mergeCell ref="E257:E269"/>
-    <mergeCell ref="E272:E284"/>
-    <mergeCell ref="G272:G284"/>
-    <mergeCell ref="F227:F239"/>
-    <mergeCell ref="F242:F254"/>
-    <mergeCell ref="F257:F269"/>
-    <mergeCell ref="G257:G269"/>
-    <mergeCell ref="G227:G239"/>
-    <mergeCell ref="G242:G254"/>
-    <mergeCell ref="J271:K271"/>
-    <mergeCell ref="A272:A284"/>
-    <mergeCell ref="B272:B284"/>
-    <mergeCell ref="C272:C284"/>
-    <mergeCell ref="L272:L283"/>
-    <mergeCell ref="A197:A209"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="A257:A269"/>
-    <mergeCell ref="B257:B269"/>
-    <mergeCell ref="C257:C269"/>
-    <mergeCell ref="L257:L268"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="A227:A239"/>
-    <mergeCell ref="B227:B239"/>
-    <mergeCell ref="C227:C239"/>
-    <mergeCell ref="L227:L238"/>
-    <mergeCell ref="J241:K241"/>
-    <mergeCell ref="A242:A254"/>
-    <mergeCell ref="B242:B254"/>
-    <mergeCell ref="C242:C254"/>
-    <mergeCell ref="D272:D284"/>
-    <mergeCell ref="L242:L253"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="L81:L82"/>
     <mergeCell ref="L177:L178"/>
     <mergeCell ref="L193:L194"/>
-    <mergeCell ref="F272:F284"/>
-    <mergeCell ref="I227:I239"/>
-    <mergeCell ref="I212:I224"/>
-    <mergeCell ref="I197:I209"/>
-    <mergeCell ref="I242:I254"/>
-    <mergeCell ref="I257:I269"/>
-    <mergeCell ref="I272:I284"/>
     <mergeCell ref="I165:I177"/>
     <mergeCell ref="I181:I193"/>
     <mergeCell ref="H165:H177"/>
     <mergeCell ref="H181:H193"/>
+    <mergeCell ref="G165:G177"/>
+    <mergeCell ref="G181:G193"/>
+    <mergeCell ref="L197:L208"/>
+    <mergeCell ref="J211:K211"/>
+    <mergeCell ref="A212:A224"/>
+    <mergeCell ref="B212:B224"/>
+    <mergeCell ref="C212:C224"/>
+    <mergeCell ref="L212:L223"/>
+    <mergeCell ref="F197:F209"/>
+    <mergeCell ref="F212:F224"/>
+    <mergeCell ref="D197:D209"/>
+    <mergeCell ref="D212:D224"/>
+    <mergeCell ref="E197:E209"/>
+    <mergeCell ref="E212:E224"/>
+    <mergeCell ref="I197:I209"/>
     <mergeCell ref="H197:H209"/>
     <mergeCell ref="H212:H224"/>
-    <mergeCell ref="H227:H239"/>
-    <mergeCell ref="H242:H254"/>
-    <mergeCell ref="H257:H269"/>
-    <mergeCell ref="H272:H284"/>
-    <mergeCell ref="G165:G177"/>
-    <mergeCell ref="G181:G193"/>
+    <mergeCell ref="D227:D239"/>
+    <mergeCell ref="D242:D254"/>
+    <mergeCell ref="D257:D269"/>
+    <mergeCell ref="G197:G209"/>
+    <mergeCell ref="G212:G224"/>
+    <mergeCell ref="J196:K196"/>
+    <mergeCell ref="A181:A193"/>
+    <mergeCell ref="B197:B209"/>
+    <mergeCell ref="C197:C209"/>
+    <mergeCell ref="E227:E239"/>
+    <mergeCell ref="E242:E254"/>
+    <mergeCell ref="E257:E269"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/美术需求文档/怪物需求/Ver0.3怪物需求.xlsx
+++ b/gd/美术需求文档/怪物需求/Ver0.3怪物需求.xlsx
@@ -10,12 +10,12 @@
     <sheet name="小怪" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="288">
   <si>
     <t>id</t>
   </si>
@@ -681,10 +681,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 法攻，特写施法动作3秒（聚气+放出）。猴子欢乐蹦跶亮相，发出时半站起然后鼓掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>弱点拆分</t>
   </si>
   <si>
@@ -869,50 +865,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>特写时有“叮”音效，斩击复用斩击音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特写时有“叮”音效，刺击复用刺击音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特写时有“叮”音效，金环散射复用治疗音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特写时有“叮”音效，爆炸时有爆炸音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特写时有“叮”音效，上盾时有“腾”的一声</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特写时有“叮”音效，聚气复用聚气音效，刺击复用刺击音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>特写时有“叮”音效，聚气复用聚气音效，浪拍击用水流音效</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>特写时有“叮”音效，聚气复用聚气音效，龙卷爆裂用水流音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特写时有“叮”音效，聚气复用聚气音效，洗礼角色复用治疗音效音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特写时有“叮”音效，聚气复用聚气音效，鼓掌音效，加血复用治疗音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特写时有“叮”音效，聚气复用聚气音效，</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>先往前跳50cm，蓄力施法状态，1.5秒时放出，</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -922,10 +878,6 @@
   </si>
   <si>
     <t>木</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转带起紫色粒子跟随，中间夹杂亮紫色的飘带状光，被劈的怪身上横向紫色刀光+紫色粒子星云爆炸。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1047,14 +999,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>蓄力时金色粒子漩涡装收到手捧的光球，放出法术时做光环散射状，己方全员身上复用金色气旋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>示威时伴随气旋冲击效果，挠复用斩效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>展示肌肉时做闪光灯，挠复用斩效果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1063,15 +1007,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>相扑式登场时左右脚踏地面分别激起水花，聚气，对面敌人身上各自出现小水龙卷爆裂（复用水龙卷）。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>捧龙珠时伴随浅蓝色聚拢光效，上浮龙珠时光带做托举旋转上升状，升到头顶后每个角色头顶都浮现光球，放出时光球化成光柱洗礼角色然后消散。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蹦跶时跟随动作发出光环随即消散，鼓掌放出法术时所有被加血对象身上复用直加血-强的加血特效。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1105,12 +1041,104 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>爪子展开时分别有刀光闪烁（类似拳皇放大招前），背景有骷髅特效。点击怪物复用刺击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>爪子闪：ultLuoxinfuPre
 背景骷髅：ultLuoxinfuPre01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>示威时伴随气旋冲击效果，挠复用斩效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气旋：Xiyiren1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爪子展开时分别有刀光闪烁（类似拳皇放大招前），背景有骷髅特效。点击怪物复用刺击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅特效：Louxinfu1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longxinfu2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特写狼人吼叫：Langren1；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Langren2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漩涡：Hapi1
+光环：Hapi2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镰刀旋转：Kairuisi1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镰刀旋转带起紫色粒子跟随，中间夹杂亮紫色的飘带状光，被劈的怪身上横向紫色刀光+紫色粒子星云爆炸。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色气旋：Anpusha1
+扩散：Anpusha2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水流汇聚：Amute1
+盾牌：Amute2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤蔓特效：Huapo1
+扔刺：Huapo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相扑式登场时左右脚踏地面分别激起水花，释放时向前手刀，对面敌人身上各自出现小水龙卷爆裂（复用水龙卷）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水花：Hetong1
+手刀：Hetong2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚气：Longgongtongzi1
+洗礼：Longgongtongzi2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 法攻，特写施法动作3秒（聚气+放出）。蹦跶亮相，发出时拍屁股</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹦跶时跟随动作发出光环随即消散，放出法术时所有被加血对象身上复用直加血-强的加血特效。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蹦跶：Momo1
+拍屁股：Momo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚气：Zouyincao1
+释放：Zouyincao2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力时金色粒子漩涡装收到手捧的光球，放出法术时做光环散射状</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1163,7 +1191,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1188,6 +1216,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1203,7 +1237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1296,6 +1330,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1842,10 +1879,10 @@
   <dimension ref="A1:V287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="L76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="L99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S81" sqref="S81"/>
+      <selection pane="bottomRight" activeCell="R114" sqref="R114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1864,7 +1901,7 @@
     <col min="17" max="17" width="9" style="6"/>
     <col min="18" max="18" width="28.25" style="6" customWidth="1"/>
     <col min="19" max="19" width="16.75" style="6" customWidth="1"/>
-    <col min="20" max="20" width="11.25" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.125" style="17" customWidth="1"/>
     <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -1897,10 +1934,10 @@
       <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" s="34"/>
+      <c r="J2" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" s="35"/>
       <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1926,45 +1963,45 @@
         <v>15</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="L3" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -1981,22 +2018,22 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="37"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L4" s="35"/>
+      <c r="L4" s="36"/>
       <c r="M4" s="3" t="s">
         <v>25</v>
       </c>
@@ -2014,26 +2051,26 @@
         <v>107</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="37"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="32"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="35"/>
+      <c r="L5" s="36"/>
       <c r="M5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2050,22 +2087,22 @@
         <v>107</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="37"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="32"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="35"/>
+      <c r="L6" s="36"/>
       <c r="M6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2080,18 +2117,18 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="37"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="32"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="35"/>
+      <c r="L7" s="36"/>
       <c r="M7" s="3" t="s">
         <v>35</v>
       </c>
@@ -2106,18 +2143,18 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="37"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="32"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="35"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="3" t="s">
         <v>38</v>
       </c>
@@ -2132,18 +2169,18 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="37"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="32"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="35"/>
+      <c r="L9" s="36"/>
       <c r="M9" s="3" t="s">
         <v>41</v>
       </c>
@@ -2158,18 +2195,18 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="37"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="32"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="35"/>
+      <c r="L10" s="36"/>
       <c r="M10" s="3" t="s">
         <v>44</v>
       </c>
@@ -2184,18 +2221,18 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="37"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="32"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="35"/>
+      <c r="L11" s="36"/>
       <c r="M11" s="3" t="s">
         <v>47</v>
       </c>
@@ -2210,18 +2247,18 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="37"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="32"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="35"/>
+      <c r="L12" s="36"/>
       <c r="M12" s="3" t="s">
         <v>50</v>
       </c>
@@ -2236,18 +2273,18 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="37"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="32"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="33"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="35"/>
+      <c r="L13" s="36"/>
       <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
@@ -2262,18 +2299,18 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="37"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="32"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="35"/>
+      <c r="L14" s="36"/>
       <c r="M14" s="3" t="s">
         <v>54</v>
       </c>
@@ -2289,15 +2326,15 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="37"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="32"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="13" t="s">
@@ -2311,7 +2348,7 @@
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>28</v>
@@ -2347,10 +2384,10 @@
       <c r="I18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K18" s="34"/>
+      <c r="J18" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" s="35"/>
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2381,38 +2418,38 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="32"/>
+      <c r="I19" s="33"/>
       <c r="J19" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="L19" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -2429,22 +2466,22 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="33">
-      <c r="A20" s="37"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="32"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L20" s="35"/>
+      <c r="L20" s="36"/>
       <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
@@ -2462,26 +2499,26 @@
         <v>107</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="37"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="32"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="35"/>
+      <c r="L21" s="36"/>
       <c r="M21" s="3" t="s">
         <v>29</v>
       </c>
@@ -2498,22 +2535,22 @@
         <v>107</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="37"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="32"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
-      <c r="L22" s="35"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="3" t="s">
         <v>32</v>
       </c>
@@ -2528,18 +2565,18 @@
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="37"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="32"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="33"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="35"/>
+      <c r="L23" s="36"/>
       <c r="M23" s="3" t="s">
         <v>35</v>
       </c>
@@ -2554,18 +2591,18 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="37"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="32"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
-      <c r="L24" s="35"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="3" t="s">
         <v>38</v>
       </c>
@@ -2580,18 +2617,18 @@
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="37"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="32"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="33"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="35"/>
+      <c r="L25" s="36"/>
       <c r="M25" s="3" t="s">
         <v>41</v>
       </c>
@@ -2606,18 +2643,18 @@
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="37"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="32"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="33"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="35"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="3" t="s">
         <v>44</v>
       </c>
@@ -2632,18 +2669,18 @@
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="37"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="32"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="33"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
-      <c r="L27" s="35"/>
+      <c r="L27" s="36"/>
       <c r="M27" s="3" t="s">
         <v>47</v>
       </c>
@@ -2658,18 +2695,18 @@
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="37"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="32"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="33"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="35"/>
+      <c r="L28" s="36"/>
       <c r="M28" s="3" t="s">
         <v>50</v>
       </c>
@@ -2684,18 +2721,18 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="37"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="32"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="33"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="35"/>
+      <c r="L29" s="36"/>
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
@@ -2710,18 +2747,18 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="37"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="32"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="33"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
-      <c r="L30" s="35"/>
+      <c r="L30" s="36"/>
       <c r="M30" s="3" t="s">
         <v>54</v>
       </c>
@@ -2737,15 +2774,15 @@
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="37"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="32"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="13" t="s">
@@ -2759,7 +2796,7 @@
       </c>
       <c r="O31" s="10"/>
       <c r="P31" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>28</v>
@@ -2795,10 +2832,10 @@
       <c r="I34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K34" s="34"/>
+      <c r="J34" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K34" s="35"/>
       <c r="L34" s="3" t="s">
         <v>8</v>
       </c>
@@ -2831,38 +2868,38 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="I35" s="32"/>
+      <c r="H35" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="I35" s="33"/>
       <c r="J35" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L35" s="35" t="s">
+      <c r="L35" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -2879,22 +2916,22 @@
       </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="32"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L36" s="35"/>
+      <c r="L36" s="36"/>
       <c r="M36" s="3" t="s">
         <v>25</v>
       </c>
@@ -2912,26 +2949,26 @@
         <v>107</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="32"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K37" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L37" s="35"/>
+      <c r="L37" s="36"/>
       <c r="M37" s="3" t="s">
         <v>29</v>
       </c>
@@ -2948,22 +2985,22 @@
         <v>107</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="32"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
-      <c r="L38" s="35"/>
+      <c r="L38" s="36"/>
       <c r="M38" s="3" t="s">
         <v>32</v>
       </c>
@@ -2978,18 +3015,18 @@
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="32"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="35"/>
+      <c r="L39" s="36"/>
       <c r="M39" s="3" t="s">
         <v>35</v>
       </c>
@@ -3004,18 +3041,18 @@
       </c>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="32"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="33"/>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="35"/>
+      <c r="L40" s="36"/>
       <c r="M40" s="3" t="s">
         <v>38</v>
       </c>
@@ -3030,18 +3067,18 @@
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="32"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
-      <c r="L41" s="35"/>
+      <c r="L41" s="36"/>
       <c r="M41" s="3" t="s">
         <v>41</v>
       </c>
@@ -3056,18 +3093,18 @@
       </c>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="32"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="33"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
-      <c r="L42" s="35"/>
+      <c r="L42" s="36"/>
       <c r="M42" s="3" t="s">
         <v>44</v>
       </c>
@@ -3082,18 +3119,18 @@
       </c>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="32"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="33"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
-      <c r="L43" s="35"/>
+      <c r="L43" s="36"/>
       <c r="M43" s="3" t="s">
         <v>47</v>
       </c>
@@ -3108,18 +3145,18 @@
       </c>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="32"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="33"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
-      <c r="L44" s="35"/>
+      <c r="L44" s="36"/>
       <c r="M44" s="3" t="s">
         <v>50</v>
       </c>
@@ -3134,18 +3171,18 @@
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="32"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="33"/>
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
-      <c r="L45" s="35"/>
+      <c r="L45" s="36"/>
       <c r="M45" s="3" t="s">
         <v>24</v>
       </c>
@@ -3160,18 +3197,18 @@
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="32"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="32"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="33"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
-      <c r="L46" s="35"/>
+      <c r="L46" s="36"/>
       <c r="M46" s="3" t="s">
         <v>54</v>
       </c>
@@ -3186,42 +3223,42 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="66">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="32"/>
+    <row r="47" spans="1:21" ht="33">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="33"/>
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
-      <c r="L47" s="34" t="s">
+      <c r="L47" s="35" t="s">
         <v>57</v>
       </c>
       <c r="M47" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N47" s="30" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="O47" s="31"/>
       <c r="P47" s="30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="Q47" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R47" s="26" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="S47" s="17" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="T47" s="18" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="U47" s="17"/>
     </row>
@@ -3237,19 +3274,21 @@
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
-      <c r="L48" s="34"/>
+      <c r="L48" s="35"/>
       <c r="M48" s="29" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="N48" s="30" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="O48" s="31"/>
       <c r="P48" s="30" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="R48" s="26"/>
-      <c r="T48" s="18"/>
+      <c r="T48" s="18" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="50" spans="1:21" s="1" customFormat="1"/>
     <row r="51" spans="1:21">
@@ -3280,10 +3319,10 @@
       <c r="I51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J51" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K51" s="34"/>
+      <c r="J51" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K51" s="35"/>
       <c r="L51" s="3" t="s">
         <v>8</v>
       </c>
@@ -3314,38 +3353,38 @@
       </c>
     </row>
     <row r="52" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F52" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="G52" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="I52" s="32"/>
+      <c r="H52" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="I52" s="33"/>
       <c r="J52" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L52" s="35" t="s">
+      <c r="L52" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M52" s="3" t="s">
@@ -3365,22 +3404,22 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="33">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="32"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="33"/>
       <c r="J53" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L53" s="35"/>
+      <c r="L53" s="36"/>
       <c r="M53" s="3" t="s">
         <v>25</v>
       </c>
@@ -3400,26 +3439,26 @@
         <v>107</v>
       </c>
       <c r="T53" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="32"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="33"/>
       <c r="J54" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K54" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L54" s="35"/>
+      <c r="L54" s="36"/>
       <c r="M54" s="3" t="s">
         <v>29</v>
       </c>
@@ -3439,22 +3478,22 @@
         <v>107</v>
       </c>
       <c r="T54" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="32"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="33"/>
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
-      <c r="L55" s="35"/>
+      <c r="L55" s="36"/>
       <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
@@ -3472,18 +3511,18 @@
       </c>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="32"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="33"/>
       <c r="J56" s="12"/>
       <c r="K56" s="12"/>
-      <c r="L56" s="35"/>
+      <c r="L56" s="36"/>
       <c r="M56" s="3" t="s">
         <v>35</v>
       </c>
@@ -3501,18 +3540,18 @@
       </c>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="32"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="33"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
-      <c r="L57" s="35"/>
+      <c r="L57" s="36"/>
       <c r="M57" s="3" t="s">
         <v>38</v>
       </c>
@@ -3530,18 +3569,18 @@
       </c>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="32"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="33"/>
       <c r="J58" s="12"/>
       <c r="K58" s="12"/>
-      <c r="L58" s="35"/>
+      <c r="L58" s="36"/>
       <c r="M58" s="3" t="s">
         <v>41</v>
       </c>
@@ -3559,18 +3598,18 @@
       </c>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="32"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="33"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
-      <c r="L59" s="35"/>
+      <c r="L59" s="36"/>
       <c r="M59" s="3" t="s">
         <v>44</v>
       </c>
@@ -3588,18 +3627,18 @@
       </c>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="32"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="32"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="33"/>
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
-      <c r="L60" s="35"/>
+      <c r="L60" s="36"/>
       <c r="M60" s="3" t="s">
         <v>47</v>
       </c>
@@ -3617,18 +3656,18 @@
       </c>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="32"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="32"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="33"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
-      <c r="L61" s="35"/>
+      <c r="L61" s="36"/>
       <c r="M61" s="3" t="s">
         <v>50</v>
       </c>
@@ -3646,18 +3685,18 @@
       </c>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="32"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="32"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="33"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
-      <c r="L62" s="35"/>
+      <c r="L62" s="36"/>
       <c r="M62" s="3" t="s">
         <v>24</v>
       </c>
@@ -3675,18 +3714,18 @@
       </c>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="32"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="33"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
-      <c r="L63" s="35"/>
+      <c r="L63" s="36"/>
       <c r="M63" s="3" t="s">
         <v>54</v>
       </c>
@@ -3703,44 +3742,44 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="66">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="32"/>
+    <row r="64" spans="1:21" ht="66" customHeight="1">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="33"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
-      <c r="L64" s="34" t="s">
+      <c r="L64" s="35" t="s">
         <v>57</v>
       </c>
       <c r="M64" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N64" s="30" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="O64" s="31" t="s">
         <v>58</v>
       </c>
       <c r="P64" s="30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="Q64" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R64" s="26" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="S64" s="17" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="T64" s="18" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="U64" s="17"/>
     </row>
@@ -3756,16 +3795,16 @@
       <c r="I65" s="23"/>
       <c r="J65" s="23"/>
       <c r="K65" s="23"/>
-      <c r="L65" s="34"/>
+      <c r="L65" s="35"/>
       <c r="M65" s="29" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="N65" s="30" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="O65" s="31"/>
       <c r="P65" s="30" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="R65" s="26"/>
       <c r="T65" s="18"/>
@@ -3799,10 +3838,10 @@
       <c r="I68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J68" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K68" s="34"/>
+      <c r="J68" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K68" s="35"/>
       <c r="L68" s="3" t="s">
         <v>8</v>
       </c>
@@ -3833,38 +3872,38 @@
       </c>
     </row>
     <row r="69" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="C69" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D69" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="38" t="s">
+      <c r="E69" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="F69" s="32" t="s">
+      <c r="F69" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H69" s="33" t="s">
+      <c r="H69" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="I69" s="32"/>
+      <c r="I69" s="33"/>
       <c r="J69" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L69" s="35" t="s">
+      <c r="L69" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M69" s="3" t="s">
@@ -3884,22 +3923,22 @@
       </c>
     </row>
     <row r="70" spans="1:21" ht="33">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="32"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="33"/>
       <c r="J70" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L70" s="35"/>
+      <c r="L70" s="36"/>
       <c r="M70" s="3" t="s">
         <v>25</v>
       </c>
@@ -3919,26 +3958,26 @@
         <v>107</v>
       </c>
       <c r="T70" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="32"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="33"/>
       <c r="J71" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K71" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L71" s="35"/>
+      <c r="L71" s="36"/>
       <c r="M71" s="3" t="s">
         <v>29</v>
       </c>
@@ -3958,26 +3997,26 @@
         <v>107</v>
       </c>
       <c r="T71" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="49.5">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="32"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="33"/>
       <c r="J72" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K72" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="L72" s="35"/>
+        <v>181</v>
+      </c>
+      <c r="L72" s="36"/>
       <c r="M72" s="3" t="s">
         <v>32</v>
       </c>
@@ -3995,22 +4034,22 @@
       </c>
     </row>
     <row r="73" spans="1:21" ht="49.5">
-      <c r="A73" s="32"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="32"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="33"/>
       <c r="J73" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K73" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="L73" s="35"/>
+        <v>183</v>
+      </c>
+      <c r="L73" s="36"/>
       <c r="M73" s="3" t="s">
         <v>35</v>
       </c>
@@ -4028,22 +4067,22 @@
       </c>
     </row>
     <row r="74" spans="1:21" ht="49.5">
-      <c r="A74" s="32"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="32"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="33"/>
       <c r="J74" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K74" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="L74" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="L74" s="36"/>
       <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
@@ -4061,22 +4100,22 @@
       </c>
     </row>
     <row r="75" spans="1:21" ht="49.5">
-      <c r="A75" s="32"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="32"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="33"/>
       <c r="J75" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K75" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="L75" s="35"/>
+        <v>184</v>
+      </c>
+      <c r="L75" s="36"/>
       <c r="M75" s="3" t="s">
         <v>41</v>
       </c>
@@ -4094,22 +4133,22 @@
       </c>
     </row>
     <row r="76" spans="1:21" ht="49.5">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="32"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="33"/>
       <c r="J76" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K76" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="L76" s="35"/>
+        <v>185</v>
+      </c>
+      <c r="L76" s="36"/>
       <c r="M76" s="3" t="s">
         <v>44</v>
       </c>
@@ -4127,22 +4166,22 @@
       </c>
     </row>
     <row r="77" spans="1:21" ht="49.5">
-      <c r="A77" s="32"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="32"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="33"/>
       <c r="J77" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="L77" s="35"/>
+        <v>186</v>
+      </c>
+      <c r="L77" s="36"/>
       <c r="M77" s="3" t="s">
         <v>47</v>
       </c>
@@ -4160,22 +4199,22 @@
       </c>
     </row>
     <row r="78" spans="1:21" ht="49.5">
-      <c r="A78" s="32"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="32"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="33"/>
       <c r="J78" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="L78" s="35"/>
+        <v>187</v>
+      </c>
+      <c r="L78" s="36"/>
       <c r="M78" s="3" t="s">
         <v>50</v>
       </c>
@@ -4193,18 +4232,18 @@
       </c>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="32"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="32"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="33"/>
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
-      <c r="L79" s="35"/>
+      <c r="L79" s="36"/>
       <c r="M79" s="3" t="s">
         <v>24</v>
       </c>
@@ -4222,18 +4261,18 @@
       </c>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="32"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="32"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="33"/>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
-      <c r="L80" s="35"/>
+      <c r="L80" s="36"/>
       <c r="M80" s="3" t="s">
         <v>54</v>
       </c>
@@ -4251,43 +4290,43 @@
       </c>
     </row>
     <row r="81" spans="1:21" ht="66">
-      <c r="A81" s="32"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="32"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="33"/>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
-      <c r="L81" s="34" t="s">
+      <c r="L81" s="35" t="s">
         <v>57</v>
       </c>
       <c r="M81" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N81" s="31" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="O81" s="31" t="s">
         <v>58</v>
       </c>
       <c r="P81" s="30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="Q81" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R81" s="26" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="S81" s="18" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="T81" s="18" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="U81" s="17"/>
     </row>
@@ -4303,19 +4342,21 @@
       <c r="I82" s="23"/>
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
-      <c r="L82" s="34"/>
+      <c r="L82" s="35"/>
       <c r="M82" s="29" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="N82" s="31" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="O82" s="31"/>
       <c r="P82" s="30" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="R82" s="26"/>
-      <c r="T82" s="18"/>
+      <c r="T82" s="18" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="84" spans="1:21" s="1" customFormat="1"/>
     <row r="85" spans="1:21">
@@ -4346,10 +4387,10 @@
       <c r="I85" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J85" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K85" s="34"/>
+      <c r="J85" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K85" s="35"/>
       <c r="L85" s="3" t="s">
         <v>8</v>
       </c>
@@ -4380,38 +4421,38 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A86" s="36" t="s">
+      <c r="A86" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B86" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="C86" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D86" s="32" t="s">
+      <c r="D86" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E86" s="32" t="s">
+      <c r="E86" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F86" s="32" t="s">
+      <c r="F86" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G86" s="33" t="s">
+      <c r="G86" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H86" s="33" t="s">
+      <c r="H86" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="I86" s="32"/>
+      <c r="I86" s="33"/>
       <c r="J86" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K86" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L86" s="35" t="s">
+      <c r="L86" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M86" s="3" t="s">
@@ -4431,22 +4472,22 @@
       </c>
     </row>
     <row r="87" spans="1:21" ht="33">
-      <c r="A87" s="37"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="32"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="33"/>
       <c r="J87" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K87" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L87" s="35"/>
+      <c r="L87" s="36"/>
       <c r="M87" s="3" t="s">
         <v>25</v>
       </c>
@@ -4466,26 +4507,26 @@
         <v>107</v>
       </c>
       <c r="T87" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="37"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="32"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="33"/>
       <c r="J88" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K88" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L88" s="35"/>
+      <c r="L88" s="36"/>
       <c r="M88" s="3" t="s">
         <v>29</v>
       </c>
@@ -4505,22 +4546,22 @@
         <v>107</v>
       </c>
       <c r="T88" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89" spans="1:21">
-      <c r="A89" s="37"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="32"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="33"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="33"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
-      <c r="L89" s="35"/>
+      <c r="L89" s="36"/>
       <c r="M89" s="3" t="s">
         <v>32</v>
       </c>
@@ -4538,18 +4579,18 @@
       </c>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="37"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="32"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="33"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
-      <c r="L90" s="35"/>
+      <c r="L90" s="36"/>
       <c r="M90" s="3" t="s">
         <v>35</v>
       </c>
@@ -4567,18 +4608,18 @@
       </c>
     </row>
     <row r="91" spans="1:21">
-      <c r="A91" s="37"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="32"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="33"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
-      <c r="L91" s="35"/>
+      <c r="L91" s="36"/>
       <c r="M91" s="3" t="s">
         <v>38</v>
       </c>
@@ -4596,18 +4637,18 @@
       </c>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="37"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="32"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="33"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
-      <c r="L92" s="35"/>
+      <c r="L92" s="36"/>
       <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
@@ -4625,18 +4666,18 @@
       </c>
     </row>
     <row r="93" spans="1:21">
-      <c r="A93" s="37"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="32"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="33"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
-      <c r="L93" s="35"/>
+      <c r="L93" s="36"/>
       <c r="M93" s="3" t="s">
         <v>44</v>
       </c>
@@ -4654,18 +4695,18 @@
       </c>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="37"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="32"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="33"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
-      <c r="L94" s="35"/>
+      <c r="L94" s="36"/>
       <c r="M94" s="3" t="s">
         <v>47</v>
       </c>
@@ -4683,18 +4724,18 @@
       </c>
     </row>
     <row r="95" spans="1:21">
-      <c r="A95" s="37"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="32"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="33"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
-      <c r="L95" s="35"/>
+      <c r="L95" s="36"/>
       <c r="M95" s="3" t="s">
         <v>50</v>
       </c>
@@ -4712,18 +4753,18 @@
       </c>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="37"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
-      <c r="F96" s="32"/>
-      <c r="G96" s="32"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="32"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="33"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
-      <c r="L96" s="35"/>
+      <c r="L96" s="36"/>
       <c r="M96" s="3" t="s">
         <v>24</v>
       </c>
@@ -4741,18 +4782,18 @@
       </c>
     </row>
     <row r="97" spans="1:21">
-      <c r="A97" s="37"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="F97" s="32"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="33"/>
-      <c r="I97" s="32"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="33"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
-      <c r="L97" s="35"/>
+      <c r="L97" s="36"/>
       <c r="M97" s="3" t="s">
         <v>54</v>
       </c>
@@ -4770,15 +4811,15 @@
       </c>
     </row>
     <row r="98" spans="1:21" ht="33">
-      <c r="A98" s="37"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="33"/>
-      <c r="I98" s="32"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="33"/>
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
       <c r="L98" s="13" t="s">
@@ -4794,7 +4835,7 @@
         <v>58</v>
       </c>
       <c r="P98" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="Q98" s="6" t="s">
         <v>28</v>
@@ -4846,10 +4887,10 @@
       <c r="I101" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J101" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K101" s="34"/>
+      <c r="J101" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K101" s="35"/>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
@@ -4880,38 +4921,38 @@
       </c>
     </row>
     <row r="102" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A102" s="33" t="s">
+      <c r="A102" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="32" t="s">
+      <c r="C102" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D102" s="32" t="s">
+      <c r="D102" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E102" s="32" t="s">
+      <c r="E102" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F102" s="32" t="s">
+      <c r="F102" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="G102" s="33" t="s">
+      <c r="G102" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H102" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="I102" s="32"/>
+      <c r="H102" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="I102" s="33"/>
       <c r="J102" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K102" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L102" s="35" t="s">
+      <c r="L102" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M102" s="3" t="s">
@@ -4931,22 +4972,22 @@
       </c>
     </row>
     <row r="103" spans="1:21" ht="33">
-      <c r="A103" s="33"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="32"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="32"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="33"/>
       <c r="J103" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K103" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L103" s="35"/>
+      <c r="L103" s="36"/>
       <c r="M103" s="3" t="s">
         <v>25</v>
       </c>
@@ -4966,26 +5007,26 @@
         <v>107</v>
       </c>
       <c r="T103" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:21">
-      <c r="A104" s="33"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33"/>
-      <c r="I104" s="32"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="33"/>
       <c r="J104" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K104" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L104" s="35"/>
+      <c r="L104" s="36"/>
       <c r="M104" s="3" t="s">
         <v>29</v>
       </c>
@@ -5005,22 +5046,22 @@
         <v>107</v>
       </c>
       <c r="T104" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:21">
-      <c r="A105" s="33"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33"/>
-      <c r="I105" s="32"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="33"/>
       <c r="J105" s="12"/>
       <c r="K105" s="12"/>
-      <c r="L105" s="35"/>
+      <c r="L105" s="36"/>
       <c r="M105" s="3" t="s">
         <v>32</v>
       </c>
@@ -5038,18 +5079,18 @@
       </c>
     </row>
     <row r="106" spans="1:21">
-      <c r="A106" s="33"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33"/>
-      <c r="I106" s="32"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="33"/>
       <c r="J106" s="12"/>
       <c r="K106" s="12"/>
-      <c r="L106" s="35"/>
+      <c r="L106" s="36"/>
       <c r="M106" s="3" t="s">
         <v>35</v>
       </c>
@@ -5067,18 +5108,18 @@
       </c>
     </row>
     <row r="107" spans="1:21">
-      <c r="A107" s="33"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33"/>
-      <c r="I107" s="32"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="33"/>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
-      <c r="L107" s="35"/>
+      <c r="L107" s="36"/>
       <c r="M107" s="3" t="s">
         <v>38</v>
       </c>
@@ -5096,18 +5137,18 @@
       </c>
     </row>
     <row r="108" spans="1:21">
-      <c r="A108" s="33"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33"/>
-      <c r="I108" s="32"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="33"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="33"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
-      <c r="L108" s="35"/>
+      <c r="L108" s="36"/>
       <c r="M108" s="3" t="s">
         <v>41</v>
       </c>
@@ -5125,18 +5166,18 @@
       </c>
     </row>
     <row r="109" spans="1:21">
-      <c r="A109" s="33"/>
-      <c r="B109" s="32"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="32"/>
-      <c r="F109" s="32"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33"/>
-      <c r="I109" s="32"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="33"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="33"/>
       <c r="J109" s="12"/>
       <c r="K109" s="12"/>
-      <c r="L109" s="35"/>
+      <c r="L109" s="36"/>
       <c r="M109" s="3" t="s">
         <v>44</v>
       </c>
@@ -5154,18 +5195,18 @@
       </c>
     </row>
     <row r="110" spans="1:21">
-      <c r="A110" s="33"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="32"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="32"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="33"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="33"/>
       <c r="J110" s="12"/>
       <c r="K110" s="12"/>
-      <c r="L110" s="35"/>
+      <c r="L110" s="36"/>
       <c r="M110" s="3" t="s">
         <v>47</v>
       </c>
@@ -5183,18 +5224,18 @@
       </c>
     </row>
     <row r="111" spans="1:21">
-      <c r="A111" s="33"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="32"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="32"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33"/>
-      <c r="I111" s="32"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="33"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="33"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="33"/>
       <c r="J111" s="12"/>
       <c r="K111" s="12"/>
-      <c r="L111" s="35"/>
+      <c r="L111" s="36"/>
       <c r="M111" s="3" t="s">
         <v>50</v>
       </c>
@@ -5212,18 +5253,18 @@
       </c>
     </row>
     <row r="112" spans="1:21">
-      <c r="A112" s="33"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
-      <c r="I112" s="32"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="33"/>
       <c r="J112" s="12"/>
       <c r="K112" s="12"/>
-      <c r="L112" s="35"/>
+      <c r="L112" s="36"/>
       <c r="M112" s="3" t="s">
         <v>24</v>
       </c>
@@ -5241,18 +5282,18 @@
       </c>
     </row>
     <row r="113" spans="1:21">
-      <c r="A113" s="33"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33"/>
-      <c r="I113" s="32"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="33"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="33"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="33"/>
       <c r="J113" s="12"/>
       <c r="K113" s="12"/>
-      <c r="L113" s="35"/>
+      <c r="L113" s="36"/>
       <c r="M113" s="3" t="s">
         <v>54</v>
       </c>
@@ -5269,23 +5310,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="66">
-      <c r="A114" s="33"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="32"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33"/>
-      <c r="I114" s="32"/>
+    <row r="114" spans="1:21" ht="49.5">
+      <c r="A114" s="34"/>
+      <c r="B114" s="33"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="33"/>
       <c r="J114" s="12"/>
       <c r="K114" s="12"/>
       <c r="L114" s="28" t="s">
         <v>57</v>
       </c>
       <c r="M114" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N114" s="31" t="s">
         <v>141</v>
@@ -5294,19 +5335,19 @@
         <v>58</v>
       </c>
       <c r="P114" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q114" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R114" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="S114" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="Q114" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R114" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="S114" s="18" t="s">
-        <v>279</v>
-      </c>
       <c r="T114" s="18" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -5354,10 +5395,10 @@
       <c r="I117" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J117" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K117" s="34"/>
+      <c r="J117" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K117" s="35"/>
       <c r="L117" s="3" t="s">
         <v>8</v>
       </c>
@@ -5388,38 +5429,38 @@
       </c>
     </row>
     <row r="118" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B118" s="32" t="s">
+      <c r="B118" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C118" s="32" t="s">
+      <c r="C118" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D118" s="32" t="s">
+      <c r="D118" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E118" s="32" t="s">
+      <c r="E118" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F118" s="32" t="s">
+      <c r="F118" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G118" s="33" t="s">
+      <c r="G118" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H118" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="I118" s="32"/>
+      <c r="H118" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="I118" s="33"/>
       <c r="J118" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K118" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L118" s="35" t="s">
+      <c r="L118" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M118" s="3" t="s">
@@ -5439,22 +5480,22 @@
       </c>
     </row>
     <row r="119" spans="1:21" ht="33">
-      <c r="A119" s="33"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="32"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="32"/>
+      <c r="A119" s="34"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="33"/>
       <c r="J119" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K119" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L119" s="35"/>
+      <c r="L119" s="36"/>
       <c r="M119" s="3" t="s">
         <v>25</v>
       </c>
@@ -5474,26 +5515,26 @@
         <v>107</v>
       </c>
       <c r="T119" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:21">
-      <c r="A120" s="33"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="32"/>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="32"/>
+      <c r="A120" s="34"/>
+      <c r="B120" s="33"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="34"/>
+      <c r="I120" s="33"/>
       <c r="J120" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K120" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L120" s="35"/>
+      <c r="L120" s="36"/>
       <c r="M120" s="3" t="s">
         <v>29</v>
       </c>
@@ -5513,22 +5554,22 @@
         <v>107</v>
       </c>
       <c r="T120" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:21">
-      <c r="A121" s="33"/>
-      <c r="B121" s="32"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="32"/>
-      <c r="G121" s="33"/>
-      <c r="H121" s="33"/>
-      <c r="I121" s="32"/>
+      <c r="A121" s="34"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="34"/>
+      <c r="H121" s="34"/>
+      <c r="I121" s="33"/>
       <c r="J121" s="15"/>
       <c r="K121" s="12"/>
-      <c r="L121" s="35"/>
+      <c r="L121" s="36"/>
       <c r="M121" s="3" t="s">
         <v>32</v>
       </c>
@@ -5546,18 +5587,18 @@
       </c>
     </row>
     <row r="122" spans="1:21">
-      <c r="A122" s="33"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33"/>
-      <c r="I122" s="32"/>
+      <c r="A122" s="34"/>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="33"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="33"/>
       <c r="J122" s="15"/>
       <c r="K122" s="12"/>
-      <c r="L122" s="35"/>
+      <c r="L122" s="36"/>
       <c r="M122" s="3" t="s">
         <v>35</v>
       </c>
@@ -5575,18 +5616,18 @@
       </c>
     </row>
     <row r="123" spans="1:21">
-      <c r="A123" s="33"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="32"/>
-      <c r="F123" s="32"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
-      <c r="I123" s="32"/>
+      <c r="A123" s="34"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="34"/>
+      <c r="I123" s="33"/>
       <c r="J123" s="15"/>
       <c r="K123" s="12"/>
-      <c r="L123" s="35"/>
+      <c r="L123" s="36"/>
       <c r="M123" s="3" t="s">
         <v>38</v>
       </c>
@@ -5604,18 +5645,18 @@
       </c>
     </row>
     <row r="124" spans="1:21">
-      <c r="A124" s="33"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="32"/>
-      <c r="E124" s="32"/>
-      <c r="F124" s="32"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
-      <c r="I124" s="32"/>
+      <c r="A124" s="34"/>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="34"/>
+      <c r="H124" s="34"/>
+      <c r="I124" s="33"/>
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
-      <c r="L124" s="35"/>
+      <c r="L124" s="36"/>
       <c r="M124" s="3" t="s">
         <v>41</v>
       </c>
@@ -5633,18 +5674,18 @@
       </c>
     </row>
     <row r="125" spans="1:21">
-      <c r="A125" s="33"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33"/>
-      <c r="I125" s="32"/>
+      <c r="A125" s="34"/>
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="34"/>
+      <c r="I125" s="33"/>
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
-      <c r="L125" s="35"/>
+      <c r="L125" s="36"/>
       <c r="M125" s="3" t="s">
         <v>44</v>
       </c>
@@ -5662,18 +5703,18 @@
       </c>
     </row>
     <row r="126" spans="1:21">
-      <c r="A126" s="33"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="32"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33"/>
-      <c r="I126" s="32"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="34"/>
+      <c r="I126" s="33"/>
       <c r="J126" s="12"/>
       <c r="K126" s="12"/>
-      <c r="L126" s="35"/>
+      <c r="L126" s="36"/>
       <c r="M126" s="3" t="s">
         <v>47</v>
       </c>
@@ -5691,18 +5732,18 @@
       </c>
     </row>
     <row r="127" spans="1:21">
-      <c r="A127" s="33"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="33"/>
-      <c r="H127" s="33"/>
-      <c r="I127" s="32"/>
+      <c r="A127" s="34"/>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="33"/>
       <c r="J127" s="12"/>
       <c r="K127" s="12"/>
-      <c r="L127" s="35"/>
+      <c r="L127" s="36"/>
       <c r="M127" s="3" t="s">
         <v>50</v>
       </c>
@@ -5720,18 +5761,18 @@
       </c>
     </row>
     <row r="128" spans="1:21">
-      <c r="A128" s="33"/>
-      <c r="B128" s="32"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="33"/>
-      <c r="I128" s="32"/>
+      <c r="A128" s="34"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="33"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="33"/>
       <c r="J128" s="12"/>
       <c r="K128" s="12"/>
-      <c r="L128" s="35"/>
+      <c r="L128" s="36"/>
       <c r="M128" s="3" t="s">
         <v>24</v>
       </c>
@@ -5749,18 +5790,18 @@
       </c>
     </row>
     <row r="129" spans="1:21">
-      <c r="A129" s="33"/>
-      <c r="B129" s="32"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="32"/>
-      <c r="E129" s="32"/>
-      <c r="F129" s="32"/>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33"/>
-      <c r="I129" s="32"/>
+      <c r="A129" s="34"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="34"/>
+      <c r="I129" s="33"/>
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
-      <c r="L129" s="35"/>
+      <c r="L129" s="36"/>
       <c r="M129" s="3" t="s">
         <v>54</v>
       </c>
@@ -5778,43 +5819,43 @@
       </c>
     </row>
     <row r="130" spans="1:21" ht="66">
-      <c r="A130" s="33"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33"/>
-      <c r="I130" s="32"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="33"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="34"/>
+      <c r="I130" s="33"/>
       <c r="J130" s="12"/>
       <c r="K130" s="12"/>
       <c r="L130" s="28" t="s">
         <v>57</v>
       </c>
       <c r="M130" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N130" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="O130" s="31" t="s">
         <v>58</v>
       </c>
       <c r="P130" s="30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="Q130" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R130" s="26" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="S130" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="T130" s="18" t="s">
-        <v>227</v>
+        <v>230</v>
+      </c>
+      <c r="T130" s="32" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -5862,10 +5903,10 @@
       <c r="I133" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J133" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K133" s="34"/>
+      <c r="J133" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K133" s="35"/>
       <c r="L133" s="3" t="s">
         <v>8</v>
       </c>
@@ -5896,38 +5937,38 @@
       </c>
     </row>
     <row r="134" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A134" s="33" t="s">
+      <c r="A134" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B134" s="32" t="s">
+      <c r="B134" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C134" s="32" t="s">
+      <c r="C134" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D134" s="32" t="s">
+      <c r="D134" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E134" s="32" t="s">
+      <c r="E134" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F134" s="32" t="s">
+      <c r="F134" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G134" s="33" t="s">
+      <c r="G134" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H134" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="I134" s="32"/>
+      <c r="H134" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="I134" s="33"/>
       <c r="J134" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K134" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L134" s="35" t="s">
+      <c r="L134" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M134" s="3" t="s">
@@ -5947,22 +5988,22 @@
       </c>
     </row>
     <row r="135" spans="1:21" ht="33">
-      <c r="A135" s="33"/>
-      <c r="B135" s="32"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="32"/>
-      <c r="E135" s="32"/>
-      <c r="F135" s="32"/>
-      <c r="G135" s="33"/>
-      <c r="H135" s="33"/>
-      <c r="I135" s="32"/>
+      <c r="A135" s="34"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="34"/>
+      <c r="I135" s="33"/>
       <c r="J135" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K135" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L135" s="35"/>
+      <c r="L135" s="36"/>
       <c r="M135" s="3" t="s">
         <v>25</v>
       </c>
@@ -5982,26 +6023,26 @@
         <v>107</v>
       </c>
       <c r="T135" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="136" spans="1:21">
-      <c r="A136" s="33"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="32"/>
-      <c r="D136" s="32"/>
-      <c r="E136" s="32"/>
-      <c r="F136" s="32"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="33"/>
-      <c r="I136" s="32"/>
+      <c r="A136" s="34"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="34"/>
+      <c r="I136" s="33"/>
       <c r="J136" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K136" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L136" s="35"/>
+      <c r="L136" s="36"/>
       <c r="M136" s="3" t="s">
         <v>29</v>
       </c>
@@ -6021,26 +6062,26 @@
         <v>107</v>
       </c>
       <c r="T136" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="137" spans="1:21" ht="49.5">
-      <c r="A137" s="33"/>
-      <c r="B137" s="32"/>
-      <c r="C137" s="32"/>
-      <c r="D137" s="32"/>
-      <c r="E137" s="32"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33"/>
-      <c r="I137" s="32"/>
+      <c r="A137" s="34"/>
+      <c r="B137" s="33"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="34"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="33"/>
       <c r="J137" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K137" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="L137" s="35"/>
+        <v>216</v>
+      </c>
+      <c r="L137" s="36"/>
       <c r="M137" s="3" t="s">
         <v>32</v>
       </c>
@@ -6058,22 +6099,22 @@
       </c>
     </row>
     <row r="138" spans="1:21" ht="49.5">
-      <c r="A138" s="33"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="32"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="32"/>
-      <c r="F138" s="32"/>
-      <c r="G138" s="33"/>
-      <c r="H138" s="33"/>
-      <c r="I138" s="32"/>
+      <c r="A138" s="34"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
+      <c r="G138" s="34"/>
+      <c r="H138" s="34"/>
+      <c r="I138" s="33"/>
       <c r="J138" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K138" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="L138" s="35"/>
+        <v>217</v>
+      </c>
+      <c r="L138" s="36"/>
       <c r="M138" s="3" t="s">
         <v>35</v>
       </c>
@@ -6091,18 +6132,18 @@
       </c>
     </row>
     <row r="139" spans="1:21">
-      <c r="A139" s="33"/>
-      <c r="B139" s="32"/>
-      <c r="C139" s="32"/>
-      <c r="D139" s="32"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="32"/>
-      <c r="G139" s="33"/>
-      <c r="H139" s="33"/>
-      <c r="I139" s="32"/>
+      <c r="A139" s="34"/>
+      <c r="B139" s="33"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="33"/>
       <c r="J139" s="22"/>
       <c r="K139" s="20"/>
-      <c r="L139" s="35"/>
+      <c r="L139" s="36"/>
       <c r="M139" s="3" t="s">
         <v>38</v>
       </c>
@@ -6120,18 +6161,18 @@
       </c>
     </row>
     <row r="140" spans="1:21">
-      <c r="A140" s="33"/>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="32"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="32"/>
-      <c r="G140" s="33"/>
-      <c r="H140" s="33"/>
-      <c r="I140" s="32"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="34"/>
+      <c r="H140" s="34"/>
+      <c r="I140" s="33"/>
       <c r="J140" s="12"/>
       <c r="K140" s="12"/>
-      <c r="L140" s="35"/>
+      <c r="L140" s="36"/>
       <c r="M140" s="3" t="s">
         <v>41</v>
       </c>
@@ -6149,18 +6190,18 @@
       </c>
     </row>
     <row r="141" spans="1:21">
-      <c r="A141" s="33"/>
-      <c r="B141" s="32"/>
-      <c r="C141" s="32"/>
-      <c r="D141" s="32"/>
-      <c r="E141" s="32"/>
-      <c r="F141" s="32"/>
-      <c r="G141" s="33"/>
-      <c r="H141" s="33"/>
-      <c r="I141" s="32"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="33"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="34"/>
+      <c r="H141" s="34"/>
+      <c r="I141" s="33"/>
       <c r="J141" s="12"/>
       <c r="K141" s="12"/>
-      <c r="L141" s="35"/>
+      <c r="L141" s="36"/>
       <c r="M141" s="3" t="s">
         <v>44</v>
       </c>
@@ -6178,18 +6219,18 @@
       </c>
     </row>
     <row r="142" spans="1:21">
-      <c r="A142" s="33"/>
-      <c r="B142" s="32"/>
-      <c r="C142" s="32"/>
-      <c r="D142" s="32"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="32"/>
-      <c r="G142" s="33"/>
-      <c r="H142" s="33"/>
-      <c r="I142" s="32"/>
+      <c r="A142" s="34"/>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="33"/>
+      <c r="G142" s="34"/>
+      <c r="H142" s="34"/>
+      <c r="I142" s="33"/>
       <c r="J142" s="12"/>
       <c r="K142" s="12"/>
-      <c r="L142" s="35"/>
+      <c r="L142" s="36"/>
       <c r="M142" s="3" t="s">
         <v>47</v>
       </c>
@@ -6207,18 +6248,18 @@
       </c>
     </row>
     <row r="143" spans="1:21">
-      <c r="A143" s="33"/>
-      <c r="B143" s="32"/>
-      <c r="C143" s="32"/>
-      <c r="D143" s="32"/>
-      <c r="E143" s="32"/>
-      <c r="F143" s="32"/>
-      <c r="G143" s="33"/>
-      <c r="H143" s="33"/>
-      <c r="I143" s="32"/>
+      <c r="A143" s="34"/>
+      <c r="B143" s="33"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="33"/>
+      <c r="F143" s="33"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="34"/>
+      <c r="I143" s="33"/>
       <c r="J143" s="12"/>
       <c r="K143" s="12"/>
-      <c r="L143" s="35"/>
+      <c r="L143" s="36"/>
       <c r="M143" s="3" t="s">
         <v>50</v>
       </c>
@@ -6236,18 +6277,18 @@
       </c>
     </row>
     <row r="144" spans="1:21">
-      <c r="A144" s="33"/>
-      <c r="B144" s="32"/>
-      <c r="C144" s="32"/>
-      <c r="D144" s="32"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="32"/>
-      <c r="G144" s="33"/>
-      <c r="H144" s="33"/>
-      <c r="I144" s="32"/>
+      <c r="A144" s="34"/>
+      <c r="B144" s="33"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="33"/>
+      <c r="G144" s="34"/>
+      <c r="H144" s="34"/>
+      <c r="I144" s="33"/>
       <c r="J144" s="12"/>
       <c r="K144" s="12"/>
-      <c r="L144" s="35"/>
+      <c r="L144" s="36"/>
       <c r="M144" s="3" t="s">
         <v>24</v>
       </c>
@@ -6265,18 +6306,18 @@
       </c>
     </row>
     <row r="145" spans="1:21">
-      <c r="A145" s="33"/>
-      <c r="B145" s="32"/>
-      <c r="C145" s="32"/>
-      <c r="D145" s="32"/>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="33"/>
-      <c r="H145" s="33"/>
-      <c r="I145" s="32"/>
+      <c r="A145" s="34"/>
+      <c r="B145" s="33"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="33"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="34"/>
+      <c r="I145" s="33"/>
       <c r="J145" s="12"/>
       <c r="K145" s="12"/>
-      <c r="L145" s="35"/>
+      <c r="L145" s="36"/>
       <c r="M145" s="3" t="s">
         <v>54</v>
       </c>
@@ -6294,22 +6335,22 @@
       </c>
     </row>
     <row r="146" spans="1:21" ht="66">
-      <c r="A146" s="33"/>
-      <c r="B146" s="32"/>
-      <c r="C146" s="32"/>
-      <c r="D146" s="32"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="32"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
-      <c r="I146" s="32"/>
+      <c r="A146" s="34"/>
+      <c r="B146" s="33"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="34"/>
+      <c r="I146" s="33"/>
       <c r="J146" s="12"/>
       <c r="K146" s="12"/>
       <c r="L146" s="28" t="s">
         <v>57</v>
       </c>
       <c r="M146" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N146" s="30" t="s">
         <v>144</v>
@@ -6318,19 +6359,19 @@
         <v>58</v>
       </c>
       <c r="P146" s="30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="Q146" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R146" s="26" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="S146" s="18" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="T146" s="18" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -6378,10 +6419,10 @@
       <c r="I149" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J149" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K149" s="34"/>
+      <c r="J149" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K149" s="35"/>
       <c r="L149" s="3" t="s">
         <v>8</v>
       </c>
@@ -6412,38 +6453,38 @@
       </c>
     </row>
     <row r="150" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A150" s="33" t="s">
+      <c r="A150" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B150" s="32" t="s">
+      <c r="B150" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C150" s="32" t="s">
+      <c r="C150" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D150" s="32" t="s">
+      <c r="D150" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E150" s="32" t="s">
+      <c r="E150" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F150" s="32" t="s">
+      <c r="F150" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G150" s="33" t="s">
+      <c r="G150" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H150" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="I150" s="32"/>
+      <c r="H150" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="I150" s="33"/>
       <c r="J150" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K150" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="L150" s="35" t="s">
+      <c r="L150" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M150" s="3" t="s">
@@ -6463,22 +6504,22 @@
       </c>
     </row>
     <row r="151" spans="1:21" ht="33">
-      <c r="A151" s="33"/>
-      <c r="B151" s="32"/>
-      <c r="C151" s="32"/>
-      <c r="D151" s="32"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="32"/>
-      <c r="G151" s="33"/>
-      <c r="H151" s="33"/>
-      <c r="I151" s="32"/>
+      <c r="A151" s="34"/>
+      <c r="B151" s="33"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="33"/>
+      <c r="F151" s="33"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="34"/>
+      <c r="I151" s="33"/>
       <c r="J151" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K151" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L151" s="35"/>
+      <c r="L151" s="36"/>
       <c r="M151" s="3" t="s">
         <v>25</v>
       </c>
@@ -6498,26 +6539,26 @@
         <v>107</v>
       </c>
       <c r="T151" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="152" spans="1:21">
-      <c r="A152" s="33"/>
-      <c r="B152" s="32"/>
-      <c r="C152" s="32"/>
-      <c r="D152" s="32"/>
-      <c r="E152" s="32"/>
-      <c r="F152" s="32"/>
-      <c r="G152" s="33"/>
-      <c r="H152" s="33"/>
-      <c r="I152" s="32"/>
+      <c r="A152" s="34"/>
+      <c r="B152" s="33"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33"/>
+      <c r="G152" s="34"/>
+      <c r="H152" s="34"/>
+      <c r="I152" s="33"/>
       <c r="J152" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K152" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L152" s="35"/>
+      <c r="L152" s="36"/>
       <c r="M152" s="3" t="s">
         <v>29</v>
       </c>
@@ -6537,26 +6578,26 @@
         <v>107</v>
       </c>
       <c r="T152" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="153" spans="1:21" ht="49.5">
-      <c r="A153" s="33"/>
-      <c r="B153" s="32"/>
-      <c r="C153" s="32"/>
-      <c r="D153" s="32"/>
-      <c r="E153" s="32"/>
-      <c r="F153" s="32"/>
-      <c r="G153" s="33"/>
-      <c r="H153" s="33"/>
-      <c r="I153" s="32"/>
+      <c r="A153" s="34"/>
+      <c r="B153" s="33"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33"/>
+      <c r="G153" s="34"/>
+      <c r="H153" s="34"/>
+      <c r="I153" s="33"/>
       <c r="J153" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K153" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="L153" s="35"/>
+        <v>203</v>
+      </c>
+      <c r="L153" s="36"/>
       <c r="M153" s="3" t="s">
         <v>32</v>
       </c>
@@ -6574,22 +6615,22 @@
       </c>
     </row>
     <row r="154" spans="1:21" ht="66">
-      <c r="A154" s="33"/>
-      <c r="B154" s="32"/>
-      <c r="C154" s="32"/>
-      <c r="D154" s="32"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32"/>
-      <c r="G154" s="33"/>
-      <c r="H154" s="33"/>
-      <c r="I154" s="32"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="33"/>
+      <c r="F154" s="33"/>
+      <c r="G154" s="34"/>
+      <c r="H154" s="34"/>
+      <c r="I154" s="33"/>
       <c r="J154" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K154" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="L154" s="35"/>
+        <v>204</v>
+      </c>
+      <c r="L154" s="36"/>
       <c r="M154" s="3" t="s">
         <v>35</v>
       </c>
@@ -6607,22 +6648,22 @@
       </c>
     </row>
     <row r="155" spans="1:21" ht="49.5">
-      <c r="A155" s="33"/>
-      <c r="B155" s="32"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="32"/>
-      <c r="F155" s="32"/>
-      <c r="G155" s="33"/>
-      <c r="H155" s="33"/>
-      <c r="I155" s="32"/>
+      <c r="A155" s="34"/>
+      <c r="B155" s="33"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
+      <c r="G155" s="34"/>
+      <c r="H155" s="34"/>
+      <c r="I155" s="33"/>
       <c r="J155" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K155" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="L155" s="35"/>
+        <v>217</v>
+      </c>
+      <c r="L155" s="36"/>
       <c r="M155" s="3" t="s">
         <v>38</v>
       </c>
@@ -6640,18 +6681,18 @@
       </c>
     </row>
     <row r="156" spans="1:21">
-      <c r="A156" s="33"/>
-      <c r="B156" s="32"/>
-      <c r="C156" s="32"/>
-      <c r="D156" s="32"/>
-      <c r="E156" s="32"/>
-      <c r="F156" s="32"/>
-      <c r="G156" s="33"/>
-      <c r="H156" s="33"/>
-      <c r="I156" s="32"/>
+      <c r="A156" s="34"/>
+      <c r="B156" s="33"/>
+      <c r="C156" s="33"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="33"/>
+      <c r="F156" s="33"/>
+      <c r="G156" s="34"/>
+      <c r="H156" s="34"/>
+      <c r="I156" s="33"/>
       <c r="J156" s="12"/>
       <c r="K156" s="12"/>
-      <c r="L156" s="35"/>
+      <c r="L156" s="36"/>
       <c r="M156" s="3" t="s">
         <v>41</v>
       </c>
@@ -6669,18 +6710,18 @@
       </c>
     </row>
     <row r="157" spans="1:21">
-      <c r="A157" s="33"/>
-      <c r="B157" s="32"/>
-      <c r="C157" s="32"/>
-      <c r="D157" s="32"/>
-      <c r="E157" s="32"/>
-      <c r="F157" s="32"/>
-      <c r="G157" s="33"/>
-      <c r="H157" s="33"/>
-      <c r="I157" s="32"/>
+      <c r="A157" s="34"/>
+      <c r="B157" s="33"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="34"/>
+      <c r="H157" s="34"/>
+      <c r="I157" s="33"/>
       <c r="J157" s="12"/>
       <c r="K157" s="12"/>
-      <c r="L157" s="35"/>
+      <c r="L157" s="36"/>
       <c r="M157" s="3" t="s">
         <v>44</v>
       </c>
@@ -6698,18 +6739,18 @@
       </c>
     </row>
     <row r="158" spans="1:21">
-      <c r="A158" s="33"/>
-      <c r="B158" s="32"/>
-      <c r="C158" s="32"/>
-      <c r="D158" s="32"/>
-      <c r="E158" s="32"/>
-      <c r="F158" s="32"/>
-      <c r="G158" s="33"/>
-      <c r="H158" s="33"/>
-      <c r="I158" s="32"/>
+      <c r="A158" s="34"/>
+      <c r="B158" s="33"/>
+      <c r="C158" s="33"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="33"/>
+      <c r="F158" s="33"/>
+      <c r="G158" s="34"/>
+      <c r="H158" s="34"/>
+      <c r="I158" s="33"/>
       <c r="J158" s="12"/>
       <c r="K158" s="12"/>
-      <c r="L158" s="35"/>
+      <c r="L158" s="36"/>
       <c r="M158" s="3" t="s">
         <v>47</v>
       </c>
@@ -6727,18 +6768,18 @@
       </c>
     </row>
     <row r="159" spans="1:21">
-      <c r="A159" s="33"/>
-      <c r="B159" s="32"/>
-      <c r="C159" s="32"/>
-      <c r="D159" s="32"/>
-      <c r="E159" s="32"/>
-      <c r="F159" s="32"/>
-      <c r="G159" s="33"/>
-      <c r="H159" s="33"/>
-      <c r="I159" s="32"/>
+      <c r="A159" s="34"/>
+      <c r="B159" s="33"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="33"/>
+      <c r="G159" s="34"/>
+      <c r="H159" s="34"/>
+      <c r="I159" s="33"/>
       <c r="J159" s="12"/>
       <c r="K159" s="12"/>
-      <c r="L159" s="35"/>
+      <c r="L159" s="36"/>
       <c r="M159" s="3" t="s">
         <v>50</v>
       </c>
@@ -6756,18 +6797,18 @@
       </c>
     </row>
     <row r="160" spans="1:21">
-      <c r="A160" s="33"/>
-      <c r="B160" s="32"/>
-      <c r="C160" s="32"/>
-      <c r="D160" s="32"/>
-      <c r="E160" s="32"/>
-      <c r="F160" s="32"/>
-      <c r="G160" s="33"/>
-      <c r="H160" s="33"/>
-      <c r="I160" s="32"/>
+      <c r="A160" s="34"/>
+      <c r="B160" s="33"/>
+      <c r="C160" s="33"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="33"/>
+      <c r="F160" s="33"/>
+      <c r="G160" s="34"/>
+      <c r="H160" s="34"/>
+      <c r="I160" s="33"/>
       <c r="J160" s="12"/>
       <c r="K160" s="12"/>
-      <c r="L160" s="35"/>
+      <c r="L160" s="36"/>
       <c r="M160" s="3" t="s">
         <v>24</v>
       </c>
@@ -6785,18 +6826,18 @@
       </c>
     </row>
     <row r="161" spans="1:22">
-      <c r="A161" s="33"/>
-      <c r="B161" s="32"/>
-      <c r="C161" s="32"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="32"/>
-      <c r="G161" s="33"/>
-      <c r="H161" s="33"/>
-      <c r="I161" s="32"/>
+      <c r="A161" s="34"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="33"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="33"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="34"/>
+      <c r="H161" s="34"/>
+      <c r="I161" s="33"/>
       <c r="J161" s="12"/>
       <c r="K161" s="12"/>
-      <c r="L161" s="35"/>
+      <c r="L161" s="36"/>
       <c r="M161" s="3" t="s">
         <v>54</v>
       </c>
@@ -6814,22 +6855,22 @@
       </c>
     </row>
     <row r="162" spans="1:22" ht="66">
-      <c r="A162" s="33"/>
-      <c r="B162" s="32"/>
-      <c r="C162" s="32"/>
-      <c r="D162" s="32"/>
-      <c r="E162" s="32"/>
-      <c r="F162" s="32"/>
-      <c r="G162" s="33"/>
-      <c r="H162" s="33"/>
-      <c r="I162" s="32"/>
+      <c r="A162" s="34"/>
+      <c r="B162" s="33"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="33"/>
+      <c r="F162" s="33"/>
+      <c r="G162" s="34"/>
+      <c r="H162" s="34"/>
+      <c r="I162" s="33"/>
       <c r="J162" s="12"/>
       <c r="K162" s="12"/>
       <c r="L162" s="28" t="s">
         <v>57</v>
       </c>
       <c r="M162" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N162" s="30" t="s">
         <v>147</v>
@@ -6838,19 +6879,19 @@
         <v>58</v>
       </c>
       <c r="P162" s="30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="Q162" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R162" s="26" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="S162" s="18" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="T162" s="18" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -6905,10 +6946,10 @@
       <c r="I164" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J164" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K164" s="34"/>
+      <c r="J164" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K164" s="35"/>
       <c r="L164" s="3" t="s">
         <v>8</v>
       </c>
@@ -6940,38 +6981,38 @@
       <c r="V164" s="17"/>
     </row>
     <row r="165" spans="1:22">
-      <c r="A165" s="33" t="s">
+      <c r="A165" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B165" s="32" t="s">
+      <c r="B165" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="C165" s="32" t="s">
+      <c r="C165" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="D165" s="32" t="s">
+      <c r="D165" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E165" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="F165" s="32" t="s">
+      <c r="E165" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="F165" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="G165" s="33" t="s">
+      <c r="G165" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H165" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="I165" s="32"/>
+      <c r="H165" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="I165" s="33"/>
       <c r="J165" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K165" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L165" s="35" t="s">
+      <c r="L165" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M165" s="3" t="s">
@@ -6992,22 +7033,22 @@
       <c r="R165" s="17"/>
     </row>
     <row r="166" spans="1:22" ht="33">
-      <c r="A166" s="33"/>
-      <c r="B166" s="32"/>
-      <c r="C166" s="32"/>
-      <c r="D166" s="32"/>
-      <c r="E166" s="32"/>
-      <c r="F166" s="32"/>
-      <c r="G166" s="33"/>
-      <c r="H166" s="32"/>
-      <c r="I166" s="32"/>
+      <c r="A166" s="34"/>
+      <c r="B166" s="33"/>
+      <c r="C166" s="33"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="33"/>
+      <c r="F166" s="33"/>
+      <c r="G166" s="34"/>
+      <c r="H166" s="33"/>
+      <c r="I166" s="33"/>
       <c r="J166" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K166" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L166" s="35"/>
+      <c r="L166" s="36"/>
       <c r="M166" s="3" t="s">
         <v>25</v>
       </c>
@@ -7027,26 +7068,26 @@
         <v>107</v>
       </c>
       <c r="T166" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="167" spans="1:22">
-      <c r="A167" s="33"/>
-      <c r="B167" s="32"/>
-      <c r="C167" s="32"/>
-      <c r="D167" s="32"/>
-      <c r="E167" s="32"/>
-      <c r="F167" s="32"/>
-      <c r="G167" s="33"/>
-      <c r="H167" s="32"/>
-      <c r="I167" s="32"/>
+      <c r="A167" s="34"/>
+      <c r="B167" s="33"/>
+      <c r="C167" s="33"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="33"/>
+      <c r="F167" s="33"/>
+      <c r="G167" s="34"/>
+      <c r="H167" s="33"/>
+      <c r="I167" s="33"/>
       <c r="J167" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K167" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L167" s="35"/>
+      <c r="L167" s="36"/>
       <c r="M167" s="3" t="s">
         <v>29</v>
       </c>
@@ -7066,21 +7107,21 @@
         <v>107</v>
       </c>
       <c r="T167" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="33"/>
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="32"/>
-      <c r="F168" s="32"/>
-      <c r="G168" s="33"/>
-      <c r="H168" s="32"/>
-      <c r="I168" s="32"/>
+      <c r="A168" s="34"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="33"/>
+      <c r="G168" s="34"/>
+      <c r="H168" s="33"/>
+      <c r="I168" s="33"/>
       <c r="K168" s="19"/>
-      <c r="L168" s="35"/>
+      <c r="L168" s="36"/>
       <c r="M168" s="3" t="s">
         <v>32</v>
       </c>
@@ -7099,17 +7140,17 @@
       <c r="R168" s="17"/>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="33"/>
-      <c r="B169" s="32"/>
-      <c r="C169" s="32"/>
-      <c r="D169" s="32"/>
-      <c r="E169" s="32"/>
-      <c r="F169" s="32"/>
-      <c r="G169" s="33"/>
-      <c r="H169" s="32"/>
-      <c r="I169" s="32"/>
+      <c r="A169" s="34"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="33"/>
+      <c r="G169" s="34"/>
+      <c r="H169" s="33"/>
+      <c r="I169" s="33"/>
       <c r="K169" s="19"/>
-      <c r="L169" s="35"/>
+      <c r="L169" s="36"/>
       <c r="M169" s="3" t="s">
         <v>35</v>
       </c>
@@ -7128,17 +7169,17 @@
       <c r="R169" s="17"/>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="33"/>
-      <c r="B170" s="32"/>
-      <c r="C170" s="32"/>
-      <c r="D170" s="32"/>
-      <c r="E170" s="32"/>
-      <c r="F170" s="32"/>
-      <c r="G170" s="33"/>
-      <c r="H170" s="32"/>
-      <c r="I170" s="32"/>
+      <c r="A170" s="34"/>
+      <c r="B170" s="33"/>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
+      <c r="G170" s="34"/>
+      <c r="H170" s="33"/>
+      <c r="I170" s="33"/>
       <c r="K170" s="19"/>
-      <c r="L170" s="35"/>
+      <c r="L170" s="36"/>
       <c r="M170" s="3" t="s">
         <v>38</v>
       </c>
@@ -7157,17 +7198,17 @@
       <c r="R170" s="17"/>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="33"/>
-      <c r="B171" s="32"/>
-      <c r="C171" s="32"/>
-      <c r="D171" s="32"/>
-      <c r="E171" s="32"/>
-      <c r="F171" s="32"/>
-      <c r="G171" s="33"/>
-      <c r="H171" s="32"/>
-      <c r="I171" s="32"/>
+      <c r="A171" s="34"/>
+      <c r="B171" s="33"/>
+      <c r="C171" s="33"/>
+      <c r="D171" s="33"/>
+      <c r="E171" s="33"/>
+      <c r="F171" s="33"/>
+      <c r="G171" s="34"/>
+      <c r="H171" s="33"/>
+      <c r="I171" s="33"/>
       <c r="K171" s="19"/>
-      <c r="L171" s="35"/>
+      <c r="L171" s="36"/>
       <c r="M171" s="3" t="s">
         <v>41</v>
       </c>
@@ -7186,17 +7227,17 @@
       <c r="R171" s="17"/>
     </row>
     <row r="172" spans="1:22">
-      <c r="A172" s="33"/>
-      <c r="B172" s="32"/>
-      <c r="C172" s="32"/>
-      <c r="D172" s="32"/>
-      <c r="E172" s="32"/>
-      <c r="F172" s="32"/>
-      <c r="G172" s="33"/>
-      <c r="H172" s="32"/>
-      <c r="I172" s="32"/>
+      <c r="A172" s="34"/>
+      <c r="B172" s="33"/>
+      <c r="C172" s="33"/>
+      <c r="D172" s="33"/>
+      <c r="E172" s="33"/>
+      <c r="F172" s="33"/>
+      <c r="G172" s="34"/>
+      <c r="H172" s="33"/>
+      <c r="I172" s="33"/>
       <c r="K172" s="19"/>
-      <c r="L172" s="35"/>
+      <c r="L172" s="36"/>
       <c r="M172" s="3" t="s">
         <v>44</v>
       </c>
@@ -7215,17 +7256,17 @@
       <c r="R172" s="17"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="33"/>
-      <c r="B173" s="32"/>
-      <c r="C173" s="32"/>
-      <c r="D173" s="32"/>
-      <c r="E173" s="32"/>
-      <c r="F173" s="32"/>
-      <c r="G173" s="33"/>
-      <c r="H173" s="32"/>
-      <c r="I173" s="32"/>
+      <c r="A173" s="34"/>
+      <c r="B173" s="33"/>
+      <c r="C173" s="33"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="33"/>
+      <c r="F173" s="33"/>
+      <c r="G173" s="34"/>
+      <c r="H173" s="33"/>
+      <c r="I173" s="33"/>
       <c r="K173" s="19"/>
-      <c r="L173" s="35"/>
+      <c r="L173" s="36"/>
       <c r="M173" s="3" t="s">
         <v>47</v>
       </c>
@@ -7244,17 +7285,17 @@
       <c r="R173" s="17"/>
     </row>
     <row r="174" spans="1:22">
-      <c r="A174" s="33"/>
-      <c r="B174" s="32"/>
-      <c r="C174" s="32"/>
-      <c r="D174" s="32"/>
-      <c r="E174" s="32"/>
-      <c r="F174" s="32"/>
-      <c r="G174" s="33"/>
-      <c r="H174" s="32"/>
-      <c r="I174" s="32"/>
+      <c r="A174" s="34"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="33"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="33"/>
+      <c r="F174" s="33"/>
+      <c r="G174" s="34"/>
+      <c r="H174" s="33"/>
+      <c r="I174" s="33"/>
       <c r="K174" s="19"/>
-      <c r="L174" s="35"/>
+      <c r="L174" s="36"/>
       <c r="M174" s="3" t="s">
         <v>50</v>
       </c>
@@ -7273,17 +7314,17 @@
       <c r="R174" s="17"/>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="33"/>
-      <c r="B175" s="32"/>
-      <c r="C175" s="32"/>
-      <c r="D175" s="32"/>
-      <c r="E175" s="32"/>
-      <c r="F175" s="32"/>
-      <c r="G175" s="33"/>
-      <c r="H175" s="32"/>
-      <c r="I175" s="32"/>
+      <c r="A175" s="34"/>
+      <c r="B175" s="33"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="33"/>
+      <c r="E175" s="33"/>
+      <c r="F175" s="33"/>
+      <c r="G175" s="34"/>
+      <c r="H175" s="33"/>
+      <c r="I175" s="33"/>
       <c r="K175" s="19"/>
-      <c r="L175" s="35"/>
+      <c r="L175" s="36"/>
       <c r="M175" s="3" t="s">
         <v>24</v>
       </c>
@@ -7302,17 +7343,17 @@
       <c r="R175" s="17"/>
     </row>
     <row r="176" spans="1:22">
-      <c r="A176" s="33"/>
-      <c r="B176" s="32"/>
-      <c r="C176" s="32"/>
-      <c r="D176" s="32"/>
-      <c r="E176" s="32"/>
-      <c r="F176" s="32"/>
-      <c r="G176" s="33"/>
-      <c r="H176" s="32"/>
-      <c r="I176" s="32"/>
+      <c r="A176" s="34"/>
+      <c r="B176" s="33"/>
+      <c r="C176" s="33"/>
+      <c r="D176" s="33"/>
+      <c r="E176" s="33"/>
+      <c r="F176" s="33"/>
+      <c r="G176" s="34"/>
+      <c r="H176" s="33"/>
+      <c r="I176" s="33"/>
       <c r="K176" s="19"/>
-      <c r="L176" s="35"/>
+      <c r="L176" s="36"/>
       <c r="M176" s="3" t="s">
         <v>54</v>
       </c>
@@ -7330,43 +7371,43 @@
       </c>
       <c r="R176" s="17"/>
     </row>
-    <row r="177" spans="1:22" ht="66">
-      <c r="A177" s="33"/>
-      <c r="B177" s="32"/>
-      <c r="C177" s="32"/>
-      <c r="D177" s="32"/>
-      <c r="E177" s="32"/>
-      <c r="F177" s="32"/>
-      <c r="G177" s="33"/>
-      <c r="H177" s="32"/>
-      <c r="I177" s="32"/>
+    <row r="177" spans="1:22" ht="49.5">
+      <c r="A177" s="34"/>
+      <c r="B177" s="33"/>
+      <c r="C177" s="33"/>
+      <c r="D177" s="33"/>
+      <c r="E177" s="33"/>
+      <c r="F177" s="33"/>
+      <c r="G177" s="34"/>
+      <c r="H177" s="33"/>
+      <c r="I177" s="33"/>
       <c r="K177" s="19"/>
-      <c r="L177" s="34" t="s">
+      <c r="L177" s="35" t="s">
         <v>57</v>
       </c>
       <c r="M177" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N177" s="31" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="O177" s="31" t="s">
         <v>58</v>
       </c>
       <c r="P177" s="30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="Q177" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R177" s="26" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="S177" s="17" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="T177" s="18" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:22" s="17" customFormat="1">
@@ -7380,16 +7421,16 @@
       <c r="H178" s="23"/>
       <c r="I178" s="23"/>
       <c r="K178" s="23"/>
-      <c r="L178" s="34"/>
+      <c r="L178" s="35"/>
       <c r="M178" s="29" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="N178" s="31" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="O178" s="31"/>
       <c r="P178" s="30" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="R178" s="26"/>
       <c r="T178" s="18"/>
@@ -7446,10 +7487,10 @@
       <c r="I180" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J180" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K180" s="34"/>
+      <c r="J180" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K180" s="35"/>
       <c r="L180" s="3" t="s">
         <v>8</v>
       </c>
@@ -7480,38 +7521,38 @@
       </c>
     </row>
     <row r="181" spans="1:22" s="17" customFormat="1">
-      <c r="A181" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="B181" s="32" t="s">
+      <c r="A181" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B181" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C181" s="32" t="s">
+      <c r="C181" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D181" s="32" t="s">
+      <c r="D181" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E181" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="F181" s="32" t="s">
+      <c r="E181" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="F181" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G181" s="33" t="s">
+      <c r="G181" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H181" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="I181" s="32"/>
+      <c r="H181" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="I181" s="33"/>
       <c r="J181" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K181" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L181" s="35" t="s">
+      <c r="L181" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M181" s="3" t="s">
@@ -7531,22 +7572,22 @@
       </c>
     </row>
     <row r="182" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A182" s="33"/>
-      <c r="B182" s="32"/>
-      <c r="C182" s="32"/>
-      <c r="D182" s="32"/>
-      <c r="E182" s="32"/>
-      <c r="F182" s="32"/>
-      <c r="G182" s="33"/>
-      <c r="H182" s="32"/>
-      <c r="I182" s="32"/>
+      <c r="A182" s="34"/>
+      <c r="B182" s="33"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="33"/>
+      <c r="F182" s="33"/>
+      <c r="G182" s="34"/>
+      <c r="H182" s="33"/>
+      <c r="I182" s="33"/>
       <c r="J182" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K182" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L182" s="35"/>
+      <c r="L182" s="36"/>
       <c r="M182" s="3" t="s">
         <v>25</v>
       </c>
@@ -7566,26 +7607,26 @@
         <v>107</v>
       </c>
       <c r="T182" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="183" spans="1:22" s="17" customFormat="1">
-      <c r="A183" s="33"/>
-      <c r="B183" s="32"/>
-      <c r="C183" s="32"/>
-      <c r="D183" s="32"/>
-      <c r="E183" s="32"/>
-      <c r="F183" s="32"/>
-      <c r="G183" s="33"/>
-      <c r="H183" s="32"/>
-      <c r="I183" s="32"/>
+      <c r="A183" s="34"/>
+      <c r="B183" s="33"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="33"/>
+      <c r="E183" s="33"/>
+      <c r="F183" s="33"/>
+      <c r="G183" s="34"/>
+      <c r="H183" s="33"/>
+      <c r="I183" s="33"/>
       <c r="J183" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K183" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L183" s="35"/>
+      <c r="L183" s="36"/>
       <c r="M183" s="3" t="s">
         <v>29</v>
       </c>
@@ -7605,21 +7646,21 @@
         <v>107</v>
       </c>
       <c r="T183" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="184" spans="1:22" s="17" customFormat="1">
-      <c r="A184" s="33"/>
-      <c r="B184" s="32"/>
-      <c r="C184" s="32"/>
-      <c r="D184" s="32"/>
-      <c r="E184" s="32"/>
-      <c r="F184" s="32"/>
-      <c r="G184" s="33"/>
-      <c r="H184" s="32"/>
-      <c r="I184" s="32"/>
+      <c r="A184" s="34"/>
+      <c r="B184" s="33"/>
+      <c r="C184" s="33"/>
+      <c r="D184" s="33"/>
+      <c r="E184" s="33"/>
+      <c r="F184" s="33"/>
+      <c r="G184" s="34"/>
+      <c r="H184" s="33"/>
+      <c r="I184" s="33"/>
       <c r="K184" s="19"/>
-      <c r="L184" s="35"/>
+      <c r="L184" s="36"/>
       <c r="M184" s="3" t="s">
         <v>32</v>
       </c>
@@ -7637,17 +7678,17 @@
       </c>
     </row>
     <row r="185" spans="1:22" s="17" customFormat="1">
-      <c r="A185" s="33"/>
-      <c r="B185" s="32"/>
-      <c r="C185" s="32"/>
-      <c r="D185" s="32"/>
-      <c r="E185" s="32"/>
-      <c r="F185" s="32"/>
-      <c r="G185" s="33"/>
-      <c r="H185" s="32"/>
-      <c r="I185" s="32"/>
+      <c r="A185" s="34"/>
+      <c r="B185" s="33"/>
+      <c r="C185" s="33"/>
+      <c r="D185" s="33"/>
+      <c r="E185" s="33"/>
+      <c r="F185" s="33"/>
+      <c r="G185" s="34"/>
+      <c r="H185" s="33"/>
+      <c r="I185" s="33"/>
       <c r="K185" s="19"/>
-      <c r="L185" s="35"/>
+      <c r="L185" s="36"/>
       <c r="M185" s="3" t="s">
         <v>35</v>
       </c>
@@ -7665,17 +7706,17 @@
       </c>
     </row>
     <row r="186" spans="1:22" s="17" customFormat="1">
-      <c r="A186" s="33"/>
-      <c r="B186" s="32"/>
-      <c r="C186" s="32"/>
-      <c r="D186" s="32"/>
-      <c r="E186" s="32"/>
-      <c r="F186" s="32"/>
-      <c r="G186" s="33"/>
-      <c r="H186" s="32"/>
-      <c r="I186" s="32"/>
+      <c r="A186" s="34"/>
+      <c r="B186" s="33"/>
+      <c r="C186" s="33"/>
+      <c r="D186" s="33"/>
+      <c r="E186" s="33"/>
+      <c r="F186" s="33"/>
+      <c r="G186" s="34"/>
+      <c r="H186" s="33"/>
+      <c r="I186" s="33"/>
       <c r="K186" s="19"/>
-      <c r="L186" s="35"/>
+      <c r="L186" s="36"/>
       <c r="M186" s="3" t="s">
         <v>38</v>
       </c>
@@ -7693,17 +7734,17 @@
       </c>
     </row>
     <row r="187" spans="1:22" s="17" customFormat="1">
-      <c r="A187" s="33"/>
-      <c r="B187" s="32"/>
-      <c r="C187" s="32"/>
-      <c r="D187" s="32"/>
-      <c r="E187" s="32"/>
-      <c r="F187" s="32"/>
-      <c r="G187" s="33"/>
-      <c r="H187" s="32"/>
-      <c r="I187" s="32"/>
+      <c r="A187" s="34"/>
+      <c r="B187" s="33"/>
+      <c r="C187" s="33"/>
+      <c r="D187" s="33"/>
+      <c r="E187" s="33"/>
+      <c r="F187" s="33"/>
+      <c r="G187" s="34"/>
+      <c r="H187" s="33"/>
+      <c r="I187" s="33"/>
       <c r="K187" s="19"/>
-      <c r="L187" s="35"/>
+      <c r="L187" s="36"/>
       <c r="M187" s="3" t="s">
         <v>41</v>
       </c>
@@ -7721,17 +7762,17 @@
       </c>
     </row>
     <row r="188" spans="1:22" s="17" customFormat="1">
-      <c r="A188" s="33"/>
-      <c r="B188" s="32"/>
-      <c r="C188" s="32"/>
-      <c r="D188" s="32"/>
-      <c r="E188" s="32"/>
-      <c r="F188" s="32"/>
-      <c r="G188" s="33"/>
-      <c r="H188" s="32"/>
-      <c r="I188" s="32"/>
+      <c r="A188" s="34"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="33"/>
+      <c r="D188" s="33"/>
+      <c r="E188" s="33"/>
+      <c r="F188" s="33"/>
+      <c r="G188" s="34"/>
+      <c r="H188" s="33"/>
+      <c r="I188" s="33"/>
       <c r="K188" s="19"/>
-      <c r="L188" s="35"/>
+      <c r="L188" s="36"/>
       <c r="M188" s="3" t="s">
         <v>44</v>
       </c>
@@ -7749,17 +7790,17 @@
       </c>
     </row>
     <row r="189" spans="1:22" s="17" customFormat="1">
-      <c r="A189" s="33"/>
-      <c r="B189" s="32"/>
-      <c r="C189" s="32"/>
-      <c r="D189" s="32"/>
-      <c r="E189" s="32"/>
-      <c r="F189" s="32"/>
-      <c r="G189" s="33"/>
-      <c r="H189" s="32"/>
-      <c r="I189" s="32"/>
+      <c r="A189" s="34"/>
+      <c r="B189" s="33"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="33"/>
+      <c r="E189" s="33"/>
+      <c r="F189" s="33"/>
+      <c r="G189" s="34"/>
+      <c r="H189" s="33"/>
+      <c r="I189" s="33"/>
       <c r="K189" s="19"/>
-      <c r="L189" s="35"/>
+      <c r="L189" s="36"/>
       <c r="M189" s="3" t="s">
         <v>47</v>
       </c>
@@ -7777,17 +7818,17 @@
       </c>
     </row>
     <row r="190" spans="1:22" s="17" customFormat="1">
-      <c r="A190" s="33"/>
-      <c r="B190" s="32"/>
-      <c r="C190" s="32"/>
-      <c r="D190" s="32"/>
-      <c r="E190" s="32"/>
-      <c r="F190" s="32"/>
-      <c r="G190" s="33"/>
-      <c r="H190" s="32"/>
-      <c r="I190" s="32"/>
+      <c r="A190" s="34"/>
+      <c r="B190" s="33"/>
+      <c r="C190" s="33"/>
+      <c r="D190" s="33"/>
+      <c r="E190" s="33"/>
+      <c r="F190" s="33"/>
+      <c r="G190" s="34"/>
+      <c r="H190" s="33"/>
+      <c r="I190" s="33"/>
       <c r="K190" s="19"/>
-      <c r="L190" s="35"/>
+      <c r="L190" s="36"/>
       <c r="M190" s="3" t="s">
         <v>50</v>
       </c>
@@ -7805,17 +7846,17 @@
       </c>
     </row>
     <row r="191" spans="1:22" s="17" customFormat="1">
-      <c r="A191" s="33"/>
-      <c r="B191" s="32"/>
-      <c r="C191" s="32"/>
-      <c r="D191" s="32"/>
-      <c r="E191" s="32"/>
-      <c r="F191" s="32"/>
-      <c r="G191" s="33"/>
-      <c r="H191" s="32"/>
-      <c r="I191" s="32"/>
+      <c r="A191" s="34"/>
+      <c r="B191" s="33"/>
+      <c r="C191" s="33"/>
+      <c r="D191" s="33"/>
+      <c r="E191" s="33"/>
+      <c r="F191" s="33"/>
+      <c r="G191" s="34"/>
+      <c r="H191" s="33"/>
+      <c r="I191" s="33"/>
       <c r="K191" s="19"/>
-      <c r="L191" s="35"/>
+      <c r="L191" s="36"/>
       <c r="M191" s="3" t="s">
         <v>24</v>
       </c>
@@ -7833,17 +7874,17 @@
       </c>
     </row>
     <row r="192" spans="1:22" s="17" customFormat="1">
-      <c r="A192" s="33"/>
-      <c r="B192" s="32"/>
-      <c r="C192" s="32"/>
-      <c r="D192" s="32"/>
-      <c r="E192" s="32"/>
-      <c r="F192" s="32"/>
-      <c r="G192" s="33"/>
-      <c r="H192" s="32"/>
-      <c r="I192" s="32"/>
+      <c r="A192" s="34"/>
+      <c r="B192" s="33"/>
+      <c r="C192" s="33"/>
+      <c r="D192" s="33"/>
+      <c r="E192" s="33"/>
+      <c r="F192" s="33"/>
+      <c r="G192" s="34"/>
+      <c r="H192" s="33"/>
+      <c r="I192" s="33"/>
       <c r="K192" s="19"/>
-      <c r="L192" s="35"/>
+      <c r="L192" s="36"/>
       <c r="M192" s="3" t="s">
         <v>54</v>
       </c>
@@ -7861,42 +7902,42 @@
       </c>
     </row>
     <row r="193" spans="1:22" s="17" customFormat="1" ht="66">
-      <c r="A193" s="33"/>
-      <c r="B193" s="32"/>
-      <c r="C193" s="32"/>
-      <c r="D193" s="32"/>
-      <c r="E193" s="32"/>
-      <c r="F193" s="32"/>
-      <c r="G193" s="33"/>
-      <c r="H193" s="32"/>
-      <c r="I193" s="32"/>
+      <c r="A193" s="34"/>
+      <c r="B193" s="33"/>
+      <c r="C193" s="33"/>
+      <c r="D193" s="33"/>
+      <c r="E193" s="33"/>
+      <c r="F193" s="33"/>
+      <c r="G193" s="34"/>
+      <c r="H193" s="33"/>
+      <c r="I193" s="33"/>
       <c r="K193" s="19"/>
-      <c r="L193" s="34" t="s">
+      <c r="L193" s="35" t="s">
         <v>57</v>
       </c>
       <c r="M193" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N193" s="30" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="O193" s="31" t="s">
         <v>58</v>
       </c>
       <c r="P193" s="30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="Q193" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R193" s="26" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="S193" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="T193" s="18" t="s">
-        <v>227</v>
+        <v>261</v>
+      </c>
+      <c r="T193" s="32" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="194" spans="1:22" s="17" customFormat="1">
@@ -7910,16 +7951,16 @@
       <c r="H194" s="23"/>
       <c r="I194" s="23"/>
       <c r="K194" s="23"/>
-      <c r="L194" s="34"/>
+      <c r="L194" s="35"/>
       <c r="M194" s="29" t="s">
         <v>57</v>
       </c>
       <c r="N194" s="30" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="O194" s="31"/>
       <c r="P194" s="30" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="R194" s="26"/>
       <c r="T194" s="18"/>
@@ -7976,10 +8017,10 @@
       <c r="I196" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J196" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K196" s="34"/>
+      <c r="J196" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K196" s="35"/>
       <c r="L196" s="3" t="s">
         <v>8</v>
       </c>
@@ -8010,38 +8051,38 @@
       </c>
     </row>
     <row r="197" spans="1:22" s="17" customFormat="1">
-      <c r="A197" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="B197" s="32" t="s">
+      <c r="A197" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B197" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="C197" s="32" t="s">
+      <c r="C197" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="D197" s="32" t="s">
+      <c r="D197" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E197" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="F197" s="32" t="s">
+      <c r="E197" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="F197" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="G197" s="33" t="s">
+      <c r="G197" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H197" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="I197" s="32"/>
+      <c r="H197" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="I197" s="33"/>
       <c r="J197" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K197" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L197" s="35" t="s">
+      <c r="L197" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M197" s="3" t="s">
@@ -8061,22 +8102,22 @@
       </c>
     </row>
     <row r="198" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A198" s="33"/>
-      <c r="B198" s="32"/>
-      <c r="C198" s="32"/>
-      <c r="D198" s="32"/>
-      <c r="E198" s="32"/>
-      <c r="F198" s="32"/>
-      <c r="G198" s="33"/>
-      <c r="H198" s="32"/>
-      <c r="I198" s="32"/>
+      <c r="A198" s="34"/>
+      <c r="B198" s="33"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="33"/>
+      <c r="E198" s="33"/>
+      <c r="F198" s="33"/>
+      <c r="G198" s="34"/>
+      <c r="H198" s="33"/>
+      <c r="I198" s="33"/>
       <c r="J198" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K198" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L198" s="35"/>
+      <c r="L198" s="36"/>
       <c r="M198" s="3" t="s">
         <v>25</v>
       </c>
@@ -8096,26 +8137,26 @@
         <v>107</v>
       </c>
       <c r="T198" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="1:22" s="17" customFormat="1">
-      <c r="A199" s="33"/>
-      <c r="B199" s="32"/>
-      <c r="C199" s="32"/>
-      <c r="D199" s="32"/>
-      <c r="E199" s="32"/>
-      <c r="F199" s="32"/>
-      <c r="G199" s="33"/>
-      <c r="H199" s="32"/>
-      <c r="I199" s="32"/>
+      <c r="A199" s="34"/>
+      <c r="B199" s="33"/>
+      <c r="C199" s="33"/>
+      <c r="D199" s="33"/>
+      <c r="E199" s="33"/>
+      <c r="F199" s="33"/>
+      <c r="G199" s="34"/>
+      <c r="H199" s="33"/>
+      <c r="I199" s="33"/>
       <c r="J199" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K199" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L199" s="35"/>
+      <c r="L199" s="36"/>
       <c r="M199" s="3" t="s">
         <v>29</v>
       </c>
@@ -8135,26 +8176,26 @@
         <v>107</v>
       </c>
       <c r="T199" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="200" spans="1:22" s="17" customFormat="1" ht="49.5">
-      <c r="A200" s="33"/>
-      <c r="B200" s="32"/>
-      <c r="C200" s="32"/>
-      <c r="D200" s="32"/>
-      <c r="E200" s="32"/>
-      <c r="F200" s="32"/>
-      <c r="G200" s="33"/>
-      <c r="H200" s="32"/>
-      <c r="I200" s="32"/>
+      <c r="A200" s="34"/>
+      <c r="B200" s="33"/>
+      <c r="C200" s="33"/>
+      <c r="D200" s="33"/>
+      <c r="E200" s="33"/>
+      <c r="F200" s="33"/>
+      <c r="G200" s="34"/>
+      <c r="H200" s="33"/>
+      <c r="I200" s="33"/>
       <c r="J200" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K200" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="L200" s="35"/>
+        <v>216</v>
+      </c>
+      <c r="L200" s="36"/>
       <c r="M200" s="3" t="s">
         <v>32</v>
       </c>
@@ -8172,22 +8213,22 @@
       </c>
     </row>
     <row r="201" spans="1:22" s="17" customFormat="1" ht="49.5">
-      <c r="A201" s="33"/>
-      <c r="B201" s="32"/>
-      <c r="C201" s="32"/>
-      <c r="D201" s="32"/>
-      <c r="E201" s="32"/>
-      <c r="F201" s="32"/>
-      <c r="G201" s="33"/>
-      <c r="H201" s="32"/>
-      <c r="I201" s="32"/>
+      <c r="A201" s="34"/>
+      <c r="B201" s="33"/>
+      <c r="C201" s="33"/>
+      <c r="D201" s="33"/>
+      <c r="E201" s="33"/>
+      <c r="F201" s="33"/>
+      <c r="G201" s="34"/>
+      <c r="H201" s="33"/>
+      <c r="I201" s="33"/>
       <c r="J201" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K201" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="L201" s="35"/>
+        <v>217</v>
+      </c>
+      <c r="L201" s="36"/>
       <c r="M201" s="3" t="s">
         <v>35</v>
       </c>
@@ -8205,17 +8246,17 @@
       </c>
     </row>
     <row r="202" spans="1:22" s="17" customFormat="1">
-      <c r="A202" s="33"/>
-      <c r="B202" s="32"/>
-      <c r="C202" s="32"/>
-      <c r="D202" s="32"/>
-      <c r="E202" s="32"/>
-      <c r="F202" s="32"/>
-      <c r="G202" s="33"/>
-      <c r="H202" s="32"/>
-      <c r="I202" s="32"/>
+      <c r="A202" s="34"/>
+      <c r="B202" s="33"/>
+      <c r="C202" s="33"/>
+      <c r="D202" s="33"/>
+      <c r="E202" s="33"/>
+      <c r="F202" s="33"/>
+      <c r="G202" s="34"/>
+      <c r="H202" s="33"/>
+      <c r="I202" s="33"/>
       <c r="K202" s="19"/>
-      <c r="L202" s="35"/>
+      <c r="L202" s="36"/>
       <c r="M202" s="3" t="s">
         <v>38</v>
       </c>
@@ -8233,17 +8274,17 @@
       </c>
     </row>
     <row r="203" spans="1:22" s="17" customFormat="1">
-      <c r="A203" s="33"/>
-      <c r="B203" s="32"/>
-      <c r="C203" s="32"/>
-      <c r="D203" s="32"/>
-      <c r="E203" s="32"/>
-      <c r="F203" s="32"/>
-      <c r="G203" s="33"/>
-      <c r="H203" s="32"/>
-      <c r="I203" s="32"/>
+      <c r="A203" s="34"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
+      <c r="F203" s="33"/>
+      <c r="G203" s="34"/>
+      <c r="H203" s="33"/>
+      <c r="I203" s="33"/>
       <c r="K203" s="19"/>
-      <c r="L203" s="35"/>
+      <c r="L203" s="36"/>
       <c r="M203" s="3" t="s">
         <v>41</v>
       </c>
@@ -8261,17 +8302,17 @@
       </c>
     </row>
     <row r="204" spans="1:22" s="17" customFormat="1">
-      <c r="A204" s="33"/>
-      <c r="B204" s="32"/>
-      <c r="C204" s="32"/>
-      <c r="D204" s="32"/>
-      <c r="E204" s="32"/>
-      <c r="F204" s="32"/>
-      <c r="G204" s="33"/>
-      <c r="H204" s="32"/>
-      <c r="I204" s="32"/>
+      <c r="A204" s="34"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="33"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="33"/>
+      <c r="F204" s="33"/>
+      <c r="G204" s="34"/>
+      <c r="H204" s="33"/>
+      <c r="I204" s="33"/>
       <c r="K204" s="19"/>
-      <c r="L204" s="35"/>
+      <c r="L204" s="36"/>
       <c r="M204" s="3" t="s">
         <v>44</v>
       </c>
@@ -8289,17 +8330,17 @@
       </c>
     </row>
     <row r="205" spans="1:22" s="17" customFormat="1">
-      <c r="A205" s="33"/>
-      <c r="B205" s="32"/>
-      <c r="C205" s="32"/>
-      <c r="D205" s="32"/>
-      <c r="E205" s="32"/>
-      <c r="F205" s="32"/>
-      <c r="G205" s="33"/>
-      <c r="H205" s="32"/>
-      <c r="I205" s="32"/>
+      <c r="A205" s="34"/>
+      <c r="B205" s="33"/>
+      <c r="C205" s="33"/>
+      <c r="D205" s="33"/>
+      <c r="E205" s="33"/>
+      <c r="F205" s="33"/>
+      <c r="G205" s="34"/>
+      <c r="H205" s="33"/>
+      <c r="I205" s="33"/>
       <c r="K205" s="19"/>
-      <c r="L205" s="35"/>
+      <c r="L205" s="36"/>
       <c r="M205" s="3" t="s">
         <v>47</v>
       </c>
@@ -8317,17 +8358,17 @@
       </c>
     </row>
     <row r="206" spans="1:22" s="17" customFormat="1">
-      <c r="A206" s="33"/>
-      <c r="B206" s="32"/>
-      <c r="C206" s="32"/>
-      <c r="D206" s="32"/>
-      <c r="E206" s="32"/>
-      <c r="F206" s="32"/>
-      <c r="G206" s="33"/>
-      <c r="H206" s="32"/>
-      <c r="I206" s="32"/>
+      <c r="A206" s="34"/>
+      <c r="B206" s="33"/>
+      <c r="C206" s="33"/>
+      <c r="D206" s="33"/>
+      <c r="E206" s="33"/>
+      <c r="F206" s="33"/>
+      <c r="G206" s="34"/>
+      <c r="H206" s="33"/>
+      <c r="I206" s="33"/>
       <c r="K206" s="19"/>
-      <c r="L206" s="35"/>
+      <c r="L206" s="36"/>
       <c r="M206" s="3" t="s">
         <v>50</v>
       </c>
@@ -8345,17 +8386,17 @@
       </c>
     </row>
     <row r="207" spans="1:22" s="17" customFormat="1">
-      <c r="A207" s="33"/>
-      <c r="B207" s="32"/>
-      <c r="C207" s="32"/>
-      <c r="D207" s="32"/>
-      <c r="E207" s="32"/>
-      <c r="F207" s="32"/>
-      <c r="G207" s="33"/>
-      <c r="H207" s="32"/>
-      <c r="I207" s="32"/>
+      <c r="A207" s="34"/>
+      <c r="B207" s="33"/>
+      <c r="C207" s="33"/>
+      <c r="D207" s="33"/>
+      <c r="E207" s="33"/>
+      <c r="F207" s="33"/>
+      <c r="G207" s="34"/>
+      <c r="H207" s="33"/>
+      <c r="I207" s="33"/>
       <c r="K207" s="19"/>
-      <c r="L207" s="35"/>
+      <c r="L207" s="36"/>
       <c r="M207" s="3" t="s">
         <v>24</v>
       </c>
@@ -8373,17 +8414,17 @@
       </c>
     </row>
     <row r="208" spans="1:22" s="17" customFormat="1">
-      <c r="A208" s="33"/>
-      <c r="B208" s="32"/>
-      <c r="C208" s="32"/>
-      <c r="D208" s="32"/>
-      <c r="E208" s="32"/>
-      <c r="F208" s="32"/>
-      <c r="G208" s="33"/>
-      <c r="H208" s="32"/>
-      <c r="I208" s="32"/>
+      <c r="A208" s="34"/>
+      <c r="B208" s="33"/>
+      <c r="C208" s="33"/>
+      <c r="D208" s="33"/>
+      <c r="E208" s="33"/>
+      <c r="F208" s="33"/>
+      <c r="G208" s="34"/>
+      <c r="H208" s="33"/>
+      <c r="I208" s="33"/>
       <c r="K208" s="19"/>
-      <c r="L208" s="35"/>
+      <c r="L208" s="36"/>
       <c r="M208" s="3" t="s">
         <v>54</v>
       </c>
@@ -8400,22 +8441,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A209" s="33"/>
-      <c r="B209" s="32"/>
-      <c r="C209" s="32"/>
-      <c r="D209" s="32"/>
-      <c r="E209" s="32"/>
-      <c r="F209" s="32"/>
-      <c r="G209" s="33"/>
-      <c r="H209" s="32"/>
-      <c r="I209" s="32"/>
+    <row r="209" spans="1:22" s="17" customFormat="1" ht="82.5">
+      <c r="A209" s="34"/>
+      <c r="B209" s="33"/>
+      <c r="C209" s="33"/>
+      <c r="D209" s="33"/>
+      <c r="E209" s="33"/>
+      <c r="F209" s="33"/>
+      <c r="G209" s="34"/>
+      <c r="H209" s="33"/>
+      <c r="I209" s="33"/>
       <c r="K209" s="19"/>
       <c r="L209" s="28" t="s">
         <v>57</v>
       </c>
       <c r="M209" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N209" s="30" t="s">
         <v>164</v>
@@ -8424,19 +8465,19 @@
         <v>58</v>
       </c>
       <c r="P209" s="30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="Q209" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R209" s="26" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="S209" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="T209" s="18" t="s">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="T209" s="32" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="210" spans="1:22" s="17" customFormat="1">
@@ -8491,10 +8532,10 @@
       <c r="I211" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J211" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K211" s="34"/>
+      <c r="J211" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K211" s="35"/>
       <c r="L211" s="3" t="s">
         <v>8</v>
       </c>
@@ -8525,38 +8566,38 @@
       </c>
     </row>
     <row r="212" spans="1:22" s="17" customFormat="1">
-      <c r="A212" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B212" s="32" t="s">
+      <c r="A212" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B212" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="C212" s="32" t="s">
+      <c r="C212" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D212" s="32" t="s">
+      <c r="D212" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E212" s="32" t="s">
+      <c r="E212" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F212" s="32" t="s">
+      <c r="F212" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G212" s="33" t="s">
+      <c r="G212" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H212" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="I212" s="32"/>
+      <c r="H212" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="I212" s="33"/>
       <c r="J212" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K212" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L212" s="35" t="s">
+      <c r="L212" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M212" s="3" t="s">
@@ -8576,22 +8617,22 @@
       </c>
     </row>
     <row r="213" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A213" s="33"/>
-      <c r="B213" s="32"/>
-      <c r="C213" s="32"/>
-      <c r="D213" s="32"/>
-      <c r="E213" s="32"/>
-      <c r="F213" s="32"/>
-      <c r="G213" s="33"/>
-      <c r="H213" s="32"/>
-      <c r="I213" s="32"/>
+      <c r="A213" s="34"/>
+      <c r="B213" s="33"/>
+      <c r="C213" s="33"/>
+      <c r="D213" s="33"/>
+      <c r="E213" s="33"/>
+      <c r="F213" s="33"/>
+      <c r="G213" s="34"/>
+      <c r="H213" s="33"/>
+      <c r="I213" s="33"/>
       <c r="J213" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K213" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L213" s="35"/>
+      <c r="L213" s="36"/>
       <c r="M213" s="3" t="s">
         <v>25</v>
       </c>
@@ -8611,26 +8652,26 @@
         <v>107</v>
       </c>
       <c r="T213" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="214" spans="1:22" s="17" customFormat="1">
-      <c r="A214" s="33"/>
-      <c r="B214" s="32"/>
-      <c r="C214" s="32"/>
-      <c r="D214" s="32"/>
-      <c r="E214" s="32"/>
-      <c r="F214" s="32"/>
-      <c r="G214" s="33"/>
-      <c r="H214" s="32"/>
-      <c r="I214" s="32"/>
+      <c r="A214" s="34"/>
+      <c r="B214" s="33"/>
+      <c r="C214" s="33"/>
+      <c r="D214" s="33"/>
+      <c r="E214" s="33"/>
+      <c r="F214" s="33"/>
+      <c r="G214" s="34"/>
+      <c r="H214" s="33"/>
+      <c r="I214" s="33"/>
       <c r="J214" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K214" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L214" s="35"/>
+      <c r="L214" s="36"/>
       <c r="M214" s="3" t="s">
         <v>29</v>
       </c>
@@ -8650,21 +8691,21 @@
         <v>107</v>
       </c>
       <c r="T214" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="215" spans="1:22" s="17" customFormat="1">
-      <c r="A215" s="33"/>
-      <c r="B215" s="32"/>
-      <c r="C215" s="32"/>
-      <c r="D215" s="32"/>
-      <c r="E215" s="32"/>
-      <c r="F215" s="32"/>
-      <c r="G215" s="33"/>
-      <c r="H215" s="32"/>
-      <c r="I215" s="32"/>
+      <c r="A215" s="34"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
+      <c r="F215" s="33"/>
+      <c r="G215" s="34"/>
+      <c r="H215" s="33"/>
+      <c r="I215" s="33"/>
       <c r="K215" s="19"/>
-      <c r="L215" s="35"/>
+      <c r="L215" s="36"/>
       <c r="M215" s="3" t="s">
         <v>32</v>
       </c>
@@ -8682,17 +8723,17 @@
       </c>
     </row>
     <row r="216" spans="1:22" s="17" customFormat="1">
-      <c r="A216" s="33"/>
-      <c r="B216" s="32"/>
-      <c r="C216" s="32"/>
-      <c r="D216" s="32"/>
-      <c r="E216" s="32"/>
-      <c r="F216" s="32"/>
-      <c r="G216" s="33"/>
-      <c r="H216" s="32"/>
-      <c r="I216" s="32"/>
+      <c r="A216" s="34"/>
+      <c r="B216" s="33"/>
+      <c r="C216" s="33"/>
+      <c r="D216" s="33"/>
+      <c r="E216" s="33"/>
+      <c r="F216" s="33"/>
+      <c r="G216" s="34"/>
+      <c r="H216" s="33"/>
+      <c r="I216" s="33"/>
       <c r="K216" s="19"/>
-      <c r="L216" s="35"/>
+      <c r="L216" s="36"/>
       <c r="M216" s="3" t="s">
         <v>35</v>
       </c>
@@ -8710,17 +8751,17 @@
       </c>
     </row>
     <row r="217" spans="1:22" s="17" customFormat="1">
-      <c r="A217" s="33"/>
-      <c r="B217" s="32"/>
-      <c r="C217" s="32"/>
-      <c r="D217" s="32"/>
-      <c r="E217" s="32"/>
-      <c r="F217" s="32"/>
-      <c r="G217" s="33"/>
-      <c r="H217" s="32"/>
-      <c r="I217" s="32"/>
+      <c r="A217" s="34"/>
+      <c r="B217" s="33"/>
+      <c r="C217" s="33"/>
+      <c r="D217" s="33"/>
+      <c r="E217" s="33"/>
+      <c r="F217" s="33"/>
+      <c r="G217" s="34"/>
+      <c r="H217" s="33"/>
+      <c r="I217" s="33"/>
       <c r="K217" s="19"/>
-      <c r="L217" s="35"/>
+      <c r="L217" s="36"/>
       <c r="M217" s="3" t="s">
         <v>38</v>
       </c>
@@ -8738,17 +8779,17 @@
       </c>
     </row>
     <row r="218" spans="1:22" s="17" customFormat="1">
-      <c r="A218" s="33"/>
-      <c r="B218" s="32"/>
-      <c r="C218" s="32"/>
-      <c r="D218" s="32"/>
-      <c r="E218" s="32"/>
-      <c r="F218" s="32"/>
-      <c r="G218" s="33"/>
-      <c r="H218" s="32"/>
-      <c r="I218" s="32"/>
+      <c r="A218" s="34"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="33"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="33"/>
+      <c r="F218" s="33"/>
+      <c r="G218" s="34"/>
+      <c r="H218" s="33"/>
+      <c r="I218" s="33"/>
       <c r="K218" s="19"/>
-      <c r="L218" s="35"/>
+      <c r="L218" s="36"/>
       <c r="M218" s="3" t="s">
         <v>41</v>
       </c>
@@ -8766,17 +8807,17 @@
       </c>
     </row>
     <row r="219" spans="1:22" s="17" customFormat="1">
-      <c r="A219" s="33"/>
-      <c r="B219" s="32"/>
-      <c r="C219" s="32"/>
-      <c r="D219" s="32"/>
-      <c r="E219" s="32"/>
-      <c r="F219" s="32"/>
-      <c r="G219" s="33"/>
-      <c r="H219" s="32"/>
-      <c r="I219" s="32"/>
+      <c r="A219" s="34"/>
+      <c r="B219" s="33"/>
+      <c r="C219" s="33"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="33"/>
+      <c r="F219" s="33"/>
+      <c r="G219" s="34"/>
+      <c r="H219" s="33"/>
+      <c r="I219" s="33"/>
       <c r="K219" s="19"/>
-      <c r="L219" s="35"/>
+      <c r="L219" s="36"/>
       <c r="M219" s="3" t="s">
         <v>44</v>
       </c>
@@ -8794,17 +8835,17 @@
       </c>
     </row>
     <row r="220" spans="1:22" s="17" customFormat="1">
-      <c r="A220" s="33"/>
-      <c r="B220" s="32"/>
-      <c r="C220" s="32"/>
-      <c r="D220" s="32"/>
-      <c r="E220" s="32"/>
-      <c r="F220" s="32"/>
-      <c r="G220" s="33"/>
-      <c r="H220" s="32"/>
-      <c r="I220" s="32"/>
+      <c r="A220" s="34"/>
+      <c r="B220" s="33"/>
+      <c r="C220" s="33"/>
+      <c r="D220" s="33"/>
+      <c r="E220" s="33"/>
+      <c r="F220" s="33"/>
+      <c r="G220" s="34"/>
+      <c r="H220" s="33"/>
+      <c r="I220" s="33"/>
       <c r="K220" s="19"/>
-      <c r="L220" s="35"/>
+      <c r="L220" s="36"/>
       <c r="M220" s="3" t="s">
         <v>47</v>
       </c>
@@ -8822,17 +8863,17 @@
       </c>
     </row>
     <row r="221" spans="1:22" s="17" customFormat="1">
-      <c r="A221" s="33"/>
-      <c r="B221" s="32"/>
-      <c r="C221" s="32"/>
-      <c r="D221" s="32"/>
-      <c r="E221" s="32"/>
-      <c r="F221" s="32"/>
-      <c r="G221" s="33"/>
-      <c r="H221" s="32"/>
-      <c r="I221" s="32"/>
+      <c r="A221" s="34"/>
+      <c r="B221" s="33"/>
+      <c r="C221" s="33"/>
+      <c r="D221" s="33"/>
+      <c r="E221" s="33"/>
+      <c r="F221" s="33"/>
+      <c r="G221" s="34"/>
+      <c r="H221" s="33"/>
+      <c r="I221" s="33"/>
       <c r="K221" s="19"/>
-      <c r="L221" s="35"/>
+      <c r="L221" s="36"/>
       <c r="M221" s="3" t="s">
         <v>50</v>
       </c>
@@ -8850,17 +8891,17 @@
       </c>
     </row>
     <row r="222" spans="1:22" s="17" customFormat="1">
-      <c r="A222" s="33"/>
-      <c r="B222" s="32"/>
-      <c r="C222" s="32"/>
-      <c r="D222" s="32"/>
-      <c r="E222" s="32"/>
-      <c r="F222" s="32"/>
-      <c r="G222" s="33"/>
-      <c r="H222" s="32"/>
-      <c r="I222" s="32"/>
+      <c r="A222" s="34"/>
+      <c r="B222" s="33"/>
+      <c r="C222" s="33"/>
+      <c r="D222" s="33"/>
+      <c r="E222" s="33"/>
+      <c r="F222" s="33"/>
+      <c r="G222" s="34"/>
+      <c r="H222" s="33"/>
+      <c r="I222" s="33"/>
       <c r="K222" s="19"/>
-      <c r="L222" s="35"/>
+      <c r="L222" s="36"/>
       <c r="M222" s="3" t="s">
         <v>24</v>
       </c>
@@ -8878,17 +8919,17 @@
       </c>
     </row>
     <row r="223" spans="1:22" s="17" customFormat="1">
-      <c r="A223" s="33"/>
-      <c r="B223" s="32"/>
-      <c r="C223" s="32"/>
-      <c r="D223" s="32"/>
-      <c r="E223" s="32"/>
-      <c r="F223" s="32"/>
-      <c r="G223" s="33"/>
-      <c r="H223" s="32"/>
-      <c r="I223" s="32"/>
+      <c r="A223" s="34"/>
+      <c r="B223" s="33"/>
+      <c r="C223" s="33"/>
+      <c r="D223" s="33"/>
+      <c r="E223" s="33"/>
+      <c r="F223" s="33"/>
+      <c r="G223" s="34"/>
+      <c r="H223" s="33"/>
+      <c r="I223" s="33"/>
       <c r="K223" s="19"/>
-      <c r="L223" s="35"/>
+      <c r="L223" s="36"/>
       <c r="M223" s="3" t="s">
         <v>54</v>
       </c>
@@ -8905,22 +8946,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A224" s="33"/>
-      <c r="B224" s="32"/>
-      <c r="C224" s="32"/>
-      <c r="D224" s="32"/>
-      <c r="E224" s="32"/>
-      <c r="F224" s="32"/>
-      <c r="G224" s="33"/>
-      <c r="H224" s="32"/>
-      <c r="I224" s="32"/>
+    <row r="224" spans="1:22" s="17" customFormat="1" ht="66">
+      <c r="A224" s="34"/>
+      <c r="B224" s="33"/>
+      <c r="C224" s="33"/>
+      <c r="D224" s="33"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="33"/>
+      <c r="G224" s="34"/>
+      <c r="H224" s="33"/>
+      <c r="I224" s="33"/>
       <c r="K224" s="19"/>
       <c r="L224" s="28" t="s">
         <v>57</v>
       </c>
       <c r="M224" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N224" s="30" t="s">
         <v>167</v>
@@ -8929,19 +8970,19 @@
         <v>58</v>
       </c>
       <c r="P224" s="30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="Q224" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R224" s="26" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="S224" s="17" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="T224" s="18" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="225" spans="1:22" s="17" customFormat="1">
@@ -8996,10 +9037,10 @@
       <c r="I226" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J226" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K226" s="34"/>
+      <c r="J226" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K226" s="35"/>
       <c r="L226" s="3" t="s">
         <v>8</v>
       </c>
@@ -9030,38 +9071,38 @@
       </c>
     </row>
     <row r="227" spans="1:22" s="17" customFormat="1">
-      <c r="A227" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B227" s="32" t="s">
+      <c r="A227" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="B227" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C227" s="32" t="s">
+      <c r="C227" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="D227" s="32" t="s">
+      <c r="D227" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E227" s="32" t="s">
+      <c r="E227" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F227" s="32" t="s">
+      <c r="F227" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G227" s="33" t="s">
+      <c r="G227" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H227" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="I227" s="32"/>
+      <c r="H227" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="I227" s="33"/>
       <c r="J227" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K227" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L227" s="35" t="s">
+      <c r="L227" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M227" s="3" t="s">
@@ -9081,22 +9122,22 @@
       </c>
     </row>
     <row r="228" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A228" s="33"/>
-      <c r="B228" s="32"/>
-      <c r="C228" s="32"/>
-      <c r="D228" s="32"/>
-      <c r="E228" s="32"/>
-      <c r="F228" s="32"/>
-      <c r="G228" s="33"/>
-      <c r="H228" s="32"/>
-      <c r="I228" s="32"/>
+      <c r="A228" s="34"/>
+      <c r="B228" s="33"/>
+      <c r="C228" s="33"/>
+      <c r="D228" s="33"/>
+      <c r="E228" s="33"/>
+      <c r="F228" s="33"/>
+      <c r="G228" s="34"/>
+      <c r="H228" s="33"/>
+      <c r="I228" s="33"/>
       <c r="J228" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K228" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L228" s="35"/>
+      <c r="L228" s="36"/>
       <c r="M228" s="3" t="s">
         <v>25</v>
       </c>
@@ -9116,26 +9157,26 @@
         <v>107</v>
       </c>
       <c r="T228" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="229" spans="1:22" s="17" customFormat="1">
-      <c r="A229" s="33"/>
-      <c r="B229" s="32"/>
-      <c r="C229" s="32"/>
-      <c r="D229" s="32"/>
-      <c r="E229" s="32"/>
-      <c r="F229" s="32"/>
-      <c r="G229" s="33"/>
-      <c r="H229" s="32"/>
-      <c r="I229" s="32"/>
+      <c r="A229" s="34"/>
+      <c r="B229" s="33"/>
+      <c r="C229" s="33"/>
+      <c r="D229" s="33"/>
+      <c r="E229" s="33"/>
+      <c r="F229" s="33"/>
+      <c r="G229" s="34"/>
+      <c r="H229" s="33"/>
+      <c r="I229" s="33"/>
       <c r="J229" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K229" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L229" s="35"/>
+      <c r="L229" s="36"/>
       <c r="M229" s="3" t="s">
         <v>29</v>
       </c>
@@ -9155,21 +9196,21 @@
         <v>107</v>
       </c>
       <c r="T229" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="230" spans="1:22" s="17" customFormat="1">
-      <c r="A230" s="33"/>
-      <c r="B230" s="32"/>
-      <c r="C230" s="32"/>
-      <c r="D230" s="32"/>
-      <c r="E230" s="32"/>
-      <c r="F230" s="32"/>
-      <c r="G230" s="33"/>
-      <c r="H230" s="32"/>
-      <c r="I230" s="32"/>
+      <c r="A230" s="34"/>
+      <c r="B230" s="33"/>
+      <c r="C230" s="33"/>
+      <c r="D230" s="33"/>
+      <c r="E230" s="33"/>
+      <c r="F230" s="33"/>
+      <c r="G230" s="34"/>
+      <c r="H230" s="33"/>
+      <c r="I230" s="33"/>
       <c r="K230" s="19"/>
-      <c r="L230" s="35"/>
+      <c r="L230" s="36"/>
       <c r="M230" s="3" t="s">
         <v>32</v>
       </c>
@@ -9187,17 +9228,17 @@
       </c>
     </row>
     <row r="231" spans="1:22" s="17" customFormat="1">
-      <c r="A231" s="33"/>
-      <c r="B231" s="32"/>
-      <c r="C231" s="32"/>
-      <c r="D231" s="32"/>
-      <c r="E231" s="32"/>
-      <c r="F231" s="32"/>
-      <c r="G231" s="33"/>
-      <c r="H231" s="32"/>
-      <c r="I231" s="32"/>
+      <c r="A231" s="34"/>
+      <c r="B231" s="33"/>
+      <c r="C231" s="33"/>
+      <c r="D231" s="33"/>
+      <c r="E231" s="33"/>
+      <c r="F231" s="33"/>
+      <c r="G231" s="34"/>
+      <c r="H231" s="33"/>
+      <c r="I231" s="33"/>
       <c r="K231" s="19"/>
-      <c r="L231" s="35"/>
+      <c r="L231" s="36"/>
       <c r="M231" s="3" t="s">
         <v>35</v>
       </c>
@@ -9215,17 +9256,17 @@
       </c>
     </row>
     <row r="232" spans="1:22" s="17" customFormat="1">
-      <c r="A232" s="33"/>
-      <c r="B232" s="32"/>
-      <c r="C232" s="32"/>
-      <c r="D232" s="32"/>
-      <c r="E232" s="32"/>
-      <c r="F232" s="32"/>
-      <c r="G232" s="33"/>
-      <c r="H232" s="32"/>
-      <c r="I232" s="32"/>
+      <c r="A232" s="34"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="33"/>
+      <c r="D232" s="33"/>
+      <c r="E232" s="33"/>
+      <c r="F232" s="33"/>
+      <c r="G232" s="34"/>
+      <c r="H232" s="33"/>
+      <c r="I232" s="33"/>
       <c r="K232" s="19"/>
-      <c r="L232" s="35"/>
+      <c r="L232" s="36"/>
       <c r="M232" s="3" t="s">
         <v>38</v>
       </c>
@@ -9243,17 +9284,17 @@
       </c>
     </row>
     <row r="233" spans="1:22" s="17" customFormat="1">
-      <c r="A233" s="33"/>
-      <c r="B233" s="32"/>
-      <c r="C233" s="32"/>
-      <c r="D233" s="32"/>
-      <c r="E233" s="32"/>
-      <c r="F233" s="32"/>
-      <c r="G233" s="33"/>
-      <c r="H233" s="32"/>
-      <c r="I233" s="32"/>
+      <c r="A233" s="34"/>
+      <c r="B233" s="33"/>
+      <c r="C233" s="33"/>
+      <c r="D233" s="33"/>
+      <c r="E233" s="33"/>
+      <c r="F233" s="33"/>
+      <c r="G233" s="34"/>
+      <c r="H233" s="33"/>
+      <c r="I233" s="33"/>
       <c r="K233" s="19"/>
-      <c r="L233" s="35"/>
+      <c r="L233" s="36"/>
       <c r="M233" s="3" t="s">
         <v>41</v>
       </c>
@@ -9271,17 +9312,17 @@
       </c>
     </row>
     <row r="234" spans="1:22" s="17" customFormat="1">
-      <c r="A234" s="33"/>
-      <c r="B234" s="32"/>
-      <c r="C234" s="32"/>
-      <c r="D234" s="32"/>
-      <c r="E234" s="32"/>
-      <c r="F234" s="32"/>
-      <c r="G234" s="33"/>
-      <c r="H234" s="32"/>
-      <c r="I234" s="32"/>
+      <c r="A234" s="34"/>
+      <c r="B234" s="33"/>
+      <c r="C234" s="33"/>
+      <c r="D234" s="33"/>
+      <c r="E234" s="33"/>
+      <c r="F234" s="33"/>
+      <c r="G234" s="34"/>
+      <c r="H234" s="33"/>
+      <c r="I234" s="33"/>
       <c r="K234" s="19"/>
-      <c r="L234" s="35"/>
+      <c r="L234" s="36"/>
       <c r="M234" s="3" t="s">
         <v>44</v>
       </c>
@@ -9299,17 +9340,17 @@
       </c>
     </row>
     <row r="235" spans="1:22" s="17" customFormat="1">
-      <c r="A235" s="33"/>
-      <c r="B235" s="32"/>
-      <c r="C235" s="32"/>
-      <c r="D235" s="32"/>
-      <c r="E235" s="32"/>
-      <c r="F235" s="32"/>
-      <c r="G235" s="33"/>
-      <c r="H235" s="32"/>
-      <c r="I235" s="32"/>
+      <c r="A235" s="34"/>
+      <c r="B235" s="33"/>
+      <c r="C235" s="33"/>
+      <c r="D235" s="33"/>
+      <c r="E235" s="33"/>
+      <c r="F235" s="33"/>
+      <c r="G235" s="34"/>
+      <c r="H235" s="33"/>
+      <c r="I235" s="33"/>
       <c r="K235" s="19"/>
-      <c r="L235" s="35"/>
+      <c r="L235" s="36"/>
       <c r="M235" s="3" t="s">
         <v>47</v>
       </c>
@@ -9327,17 +9368,17 @@
       </c>
     </row>
     <row r="236" spans="1:22" s="17" customFormat="1">
-      <c r="A236" s="33"/>
-      <c r="B236" s="32"/>
-      <c r="C236" s="32"/>
-      <c r="D236" s="32"/>
-      <c r="E236" s="32"/>
-      <c r="F236" s="32"/>
-      <c r="G236" s="33"/>
-      <c r="H236" s="32"/>
-      <c r="I236" s="32"/>
+      <c r="A236" s="34"/>
+      <c r="B236" s="33"/>
+      <c r="C236" s="33"/>
+      <c r="D236" s="33"/>
+      <c r="E236" s="33"/>
+      <c r="F236" s="33"/>
+      <c r="G236" s="34"/>
+      <c r="H236" s="33"/>
+      <c r="I236" s="33"/>
       <c r="K236" s="19"/>
-      <c r="L236" s="35"/>
+      <c r="L236" s="36"/>
       <c r="M236" s="3" t="s">
         <v>50</v>
       </c>
@@ -9355,17 +9396,17 @@
       </c>
     </row>
     <row r="237" spans="1:22" s="17" customFormat="1">
-      <c r="A237" s="33"/>
-      <c r="B237" s="32"/>
-      <c r="C237" s="32"/>
-      <c r="D237" s="32"/>
-      <c r="E237" s="32"/>
-      <c r="F237" s="32"/>
-      <c r="G237" s="33"/>
-      <c r="H237" s="32"/>
-      <c r="I237" s="32"/>
+      <c r="A237" s="34"/>
+      <c r="B237" s="33"/>
+      <c r="C237" s="33"/>
+      <c r="D237" s="33"/>
+      <c r="E237" s="33"/>
+      <c r="F237" s="33"/>
+      <c r="G237" s="34"/>
+      <c r="H237" s="33"/>
+      <c r="I237" s="33"/>
       <c r="K237" s="19"/>
-      <c r="L237" s="35"/>
+      <c r="L237" s="36"/>
       <c r="M237" s="3" t="s">
         <v>24</v>
       </c>
@@ -9383,17 +9424,17 @@
       </c>
     </row>
     <row r="238" spans="1:22" s="17" customFormat="1">
-      <c r="A238" s="33"/>
-      <c r="B238" s="32"/>
-      <c r="C238" s="32"/>
-      <c r="D238" s="32"/>
-      <c r="E238" s="32"/>
-      <c r="F238" s="32"/>
-      <c r="G238" s="33"/>
-      <c r="H238" s="32"/>
-      <c r="I238" s="32"/>
+      <c r="A238" s="34"/>
+      <c r="B238" s="33"/>
+      <c r="C238" s="33"/>
+      <c r="D238" s="33"/>
+      <c r="E238" s="33"/>
+      <c r="F238" s="33"/>
+      <c r="G238" s="34"/>
+      <c r="H238" s="33"/>
+      <c r="I238" s="33"/>
       <c r="K238" s="19"/>
-      <c r="L238" s="35"/>
+      <c r="L238" s="36"/>
       <c r="M238" s="3" t="s">
         <v>54</v>
       </c>
@@ -9410,22 +9451,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:22" s="17" customFormat="1" ht="99">
-      <c r="A239" s="33"/>
-      <c r="B239" s="32"/>
-      <c r="C239" s="32"/>
-      <c r="D239" s="32"/>
-      <c r="E239" s="32"/>
-      <c r="F239" s="32"/>
-      <c r="G239" s="33"/>
-      <c r="H239" s="32"/>
-      <c r="I239" s="32"/>
+    <row r="239" spans="1:22" s="17" customFormat="1" ht="66">
+      <c r="A239" s="34"/>
+      <c r="B239" s="33"/>
+      <c r="C239" s="33"/>
+      <c r="D239" s="33"/>
+      <c r="E239" s="33"/>
+      <c r="F239" s="33"/>
+      <c r="G239" s="34"/>
+      <c r="H239" s="33"/>
+      <c r="I239" s="33"/>
       <c r="K239" s="19"/>
       <c r="L239" s="28" t="s">
         <v>57</v>
       </c>
       <c r="M239" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N239" s="30" t="s">
         <v>170</v>
@@ -9434,19 +9475,19 @@
         <v>58</v>
       </c>
       <c r="P239" s="30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="Q239" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R239" s="26" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="S239" s="17" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="T239" s="18" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
     </row>
     <row r="240" spans="1:22" s="17" customFormat="1">
@@ -9501,10 +9542,10 @@
       <c r="I241" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J241" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K241" s="34"/>
+      <c r="J241" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K241" s="35"/>
       <c r="L241" s="3" t="s">
         <v>8</v>
       </c>
@@ -9535,38 +9576,38 @@
       </c>
     </row>
     <row r="242" spans="1:22" s="17" customFormat="1">
-      <c r="A242" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B242" s="32" t="s">
+      <c r="A242" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B242" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C242" s="32" t="s">
+      <c r="C242" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="D242" s="32" t="s">
+      <c r="D242" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E242" s="32" t="s">
+      <c r="E242" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="F242" s="32" t="s">
+      <c r="F242" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G242" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H242" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="G242" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H242" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="I242" s="32"/>
+      <c r="I242" s="33"/>
       <c r="J242" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K242" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L242" s="35" t="s">
+      <c r="L242" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M242" s="3" t="s">
@@ -9586,22 +9627,22 @@
       </c>
     </row>
     <row r="243" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A243" s="33"/>
-      <c r="B243" s="32"/>
-      <c r="C243" s="32"/>
-      <c r="D243" s="32"/>
-      <c r="E243" s="32"/>
-      <c r="F243" s="32"/>
-      <c r="G243" s="33"/>
-      <c r="H243" s="32"/>
-      <c r="I243" s="32"/>
+      <c r="A243" s="34"/>
+      <c r="B243" s="33"/>
+      <c r="C243" s="33"/>
+      <c r="D243" s="33"/>
+      <c r="E243" s="33"/>
+      <c r="F243" s="33"/>
+      <c r="G243" s="34"/>
+      <c r="H243" s="33"/>
+      <c r="I243" s="33"/>
       <c r="J243" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K243" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L243" s="35"/>
+      <c r="L243" s="36"/>
       <c r="M243" s="3" t="s">
         <v>25</v>
       </c>
@@ -9621,26 +9662,26 @@
         <v>107</v>
       </c>
       <c r="T243" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="244" spans="1:22" s="17" customFormat="1">
-      <c r="A244" s="33"/>
-      <c r="B244" s="32"/>
-      <c r="C244" s="32"/>
-      <c r="D244" s="32"/>
-      <c r="E244" s="32"/>
-      <c r="F244" s="32"/>
-      <c r="G244" s="33"/>
-      <c r="H244" s="32"/>
-      <c r="I244" s="32"/>
+      <c r="A244" s="34"/>
+      <c r="B244" s="33"/>
+      <c r="C244" s="33"/>
+      <c r="D244" s="33"/>
+      <c r="E244" s="33"/>
+      <c r="F244" s="33"/>
+      <c r="G244" s="34"/>
+      <c r="H244" s="33"/>
+      <c r="I244" s="33"/>
       <c r="J244" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K244" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L244" s="35"/>
+      <c r="L244" s="36"/>
       <c r="M244" s="3" t="s">
         <v>29</v>
       </c>
@@ -9660,26 +9701,26 @@
         <v>107</v>
       </c>
       <c r="T244" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="245" spans="1:22" s="17" customFormat="1" ht="49.5">
-      <c r="A245" s="33"/>
-      <c r="B245" s="32"/>
-      <c r="C245" s="32"/>
-      <c r="D245" s="32"/>
-      <c r="E245" s="32"/>
-      <c r="F245" s="32"/>
-      <c r="G245" s="33"/>
-      <c r="H245" s="32"/>
-      <c r="I245" s="32"/>
+      <c r="A245" s="34"/>
+      <c r="B245" s="33"/>
+      <c r="C245" s="33"/>
+      <c r="D245" s="33"/>
+      <c r="E245" s="33"/>
+      <c r="F245" s="33"/>
+      <c r="G245" s="34"/>
+      <c r="H245" s="33"/>
+      <c r="I245" s="33"/>
       <c r="J245" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K245" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="L245" s="35"/>
+        <v>216</v>
+      </c>
+      <c r="L245" s="36"/>
       <c r="M245" s="3" t="s">
         <v>32</v>
       </c>
@@ -9697,22 +9738,22 @@
       </c>
     </row>
     <row r="246" spans="1:22" s="17" customFormat="1" ht="49.5">
-      <c r="A246" s="33"/>
-      <c r="B246" s="32"/>
-      <c r="C246" s="32"/>
-      <c r="D246" s="32"/>
-      <c r="E246" s="32"/>
-      <c r="F246" s="32"/>
-      <c r="G246" s="33"/>
-      <c r="H246" s="32"/>
-      <c r="I246" s="32"/>
+      <c r="A246" s="34"/>
+      <c r="B246" s="33"/>
+      <c r="C246" s="33"/>
+      <c r="D246" s="33"/>
+      <c r="E246" s="33"/>
+      <c r="F246" s="33"/>
+      <c r="G246" s="34"/>
+      <c r="H246" s="33"/>
+      <c r="I246" s="33"/>
       <c r="J246" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K246" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="L246" s="35"/>
+        <v>217</v>
+      </c>
+      <c r="L246" s="36"/>
       <c r="M246" s="3" t="s">
         <v>35</v>
       </c>
@@ -9730,17 +9771,17 @@
       </c>
     </row>
     <row r="247" spans="1:22" s="17" customFormat="1">
-      <c r="A247" s="33"/>
-      <c r="B247" s="32"/>
-      <c r="C247" s="32"/>
-      <c r="D247" s="32"/>
-      <c r="E247" s="32"/>
-      <c r="F247" s="32"/>
-      <c r="G247" s="33"/>
-      <c r="H247" s="32"/>
-      <c r="I247" s="32"/>
+      <c r="A247" s="34"/>
+      <c r="B247" s="33"/>
+      <c r="C247" s="33"/>
+      <c r="D247" s="33"/>
+      <c r="E247" s="33"/>
+      <c r="F247" s="33"/>
+      <c r="G247" s="34"/>
+      <c r="H247" s="33"/>
+      <c r="I247" s="33"/>
       <c r="K247" s="19"/>
-      <c r="L247" s="35"/>
+      <c r="L247" s="36"/>
       <c r="M247" s="3" t="s">
         <v>38</v>
       </c>
@@ -9758,17 +9799,17 @@
       </c>
     </row>
     <row r="248" spans="1:22" s="17" customFormat="1">
-      <c r="A248" s="33"/>
-      <c r="B248" s="32"/>
-      <c r="C248" s="32"/>
-      <c r="D248" s="32"/>
-      <c r="E248" s="32"/>
-      <c r="F248" s="32"/>
-      <c r="G248" s="33"/>
-      <c r="H248" s="32"/>
-      <c r="I248" s="32"/>
+      <c r="A248" s="34"/>
+      <c r="B248" s="33"/>
+      <c r="C248" s="33"/>
+      <c r="D248" s="33"/>
+      <c r="E248" s="33"/>
+      <c r="F248" s="33"/>
+      <c r="G248" s="34"/>
+      <c r="H248" s="33"/>
+      <c r="I248" s="33"/>
       <c r="K248" s="19"/>
-      <c r="L248" s="35"/>
+      <c r="L248" s="36"/>
       <c r="M248" s="3" t="s">
         <v>41</v>
       </c>
@@ -9786,17 +9827,17 @@
       </c>
     </row>
     <row r="249" spans="1:22" s="17" customFormat="1">
-      <c r="A249" s="33"/>
-      <c r="B249" s="32"/>
-      <c r="C249" s="32"/>
-      <c r="D249" s="32"/>
-      <c r="E249" s="32"/>
-      <c r="F249" s="32"/>
-      <c r="G249" s="33"/>
-      <c r="H249" s="32"/>
-      <c r="I249" s="32"/>
+      <c r="A249" s="34"/>
+      <c r="B249" s="33"/>
+      <c r="C249" s="33"/>
+      <c r="D249" s="33"/>
+      <c r="E249" s="33"/>
+      <c r="F249" s="33"/>
+      <c r="G249" s="34"/>
+      <c r="H249" s="33"/>
+      <c r="I249" s="33"/>
       <c r="K249" s="19"/>
-      <c r="L249" s="35"/>
+      <c r="L249" s="36"/>
       <c r="M249" s="3" t="s">
         <v>44</v>
       </c>
@@ -9814,17 +9855,17 @@
       </c>
     </row>
     <row r="250" spans="1:22" s="17" customFormat="1">
-      <c r="A250" s="33"/>
-      <c r="B250" s="32"/>
-      <c r="C250" s="32"/>
-      <c r="D250" s="32"/>
-      <c r="E250" s="32"/>
-      <c r="F250" s="32"/>
-      <c r="G250" s="33"/>
-      <c r="H250" s="32"/>
-      <c r="I250" s="32"/>
+      <c r="A250" s="34"/>
+      <c r="B250" s="33"/>
+      <c r="C250" s="33"/>
+      <c r="D250" s="33"/>
+      <c r="E250" s="33"/>
+      <c r="F250" s="33"/>
+      <c r="G250" s="34"/>
+      <c r="H250" s="33"/>
+      <c r="I250" s="33"/>
       <c r="K250" s="19"/>
-      <c r="L250" s="35"/>
+      <c r="L250" s="36"/>
       <c r="M250" s="3" t="s">
         <v>47</v>
       </c>
@@ -9842,17 +9883,17 @@
       </c>
     </row>
     <row r="251" spans="1:22" s="17" customFormat="1">
-      <c r="A251" s="33"/>
-      <c r="B251" s="32"/>
-      <c r="C251" s="32"/>
-      <c r="D251" s="32"/>
-      <c r="E251" s="32"/>
-      <c r="F251" s="32"/>
-      <c r="G251" s="33"/>
-      <c r="H251" s="32"/>
-      <c r="I251" s="32"/>
+      <c r="A251" s="34"/>
+      <c r="B251" s="33"/>
+      <c r="C251" s="33"/>
+      <c r="D251" s="33"/>
+      <c r="E251" s="33"/>
+      <c r="F251" s="33"/>
+      <c r="G251" s="34"/>
+      <c r="H251" s="33"/>
+      <c r="I251" s="33"/>
       <c r="K251" s="19"/>
-      <c r="L251" s="35"/>
+      <c r="L251" s="36"/>
       <c r="M251" s="3" t="s">
         <v>50</v>
       </c>
@@ -9870,17 +9911,17 @@
       </c>
     </row>
     <row r="252" spans="1:22" s="17" customFormat="1">
-      <c r="A252" s="33"/>
-      <c r="B252" s="32"/>
-      <c r="C252" s="32"/>
-      <c r="D252" s="32"/>
-      <c r="E252" s="32"/>
-      <c r="F252" s="32"/>
-      <c r="G252" s="33"/>
-      <c r="H252" s="32"/>
-      <c r="I252" s="32"/>
+      <c r="A252" s="34"/>
+      <c r="B252" s="33"/>
+      <c r="C252" s="33"/>
+      <c r="D252" s="33"/>
+      <c r="E252" s="33"/>
+      <c r="F252" s="33"/>
+      <c r="G252" s="34"/>
+      <c r="H252" s="33"/>
+      <c r="I252" s="33"/>
       <c r="K252" s="19"/>
-      <c r="L252" s="35"/>
+      <c r="L252" s="36"/>
       <c r="M252" s="3" t="s">
         <v>24</v>
       </c>
@@ -9898,17 +9939,17 @@
       </c>
     </row>
     <row r="253" spans="1:22" s="17" customFormat="1">
-      <c r="A253" s="33"/>
-      <c r="B253" s="32"/>
-      <c r="C253" s="32"/>
-      <c r="D253" s="32"/>
-      <c r="E253" s="32"/>
-      <c r="F253" s="32"/>
-      <c r="G253" s="33"/>
-      <c r="H253" s="32"/>
-      <c r="I253" s="32"/>
+      <c r="A253" s="34"/>
+      <c r="B253" s="33"/>
+      <c r="C253" s="33"/>
+      <c r="D253" s="33"/>
+      <c r="E253" s="33"/>
+      <c r="F253" s="33"/>
+      <c r="G253" s="34"/>
+      <c r="H253" s="33"/>
+      <c r="I253" s="33"/>
       <c r="K253" s="19"/>
-      <c r="L253" s="35"/>
+      <c r="L253" s="36"/>
       <c r="M253" s="3" t="s">
         <v>54</v>
       </c>
@@ -9926,21 +9967,21 @@
       </c>
     </row>
     <row r="254" spans="1:22" s="17" customFormat="1" ht="115.5">
-      <c r="A254" s="33"/>
-      <c r="B254" s="32"/>
-      <c r="C254" s="32"/>
-      <c r="D254" s="32"/>
-      <c r="E254" s="32"/>
-      <c r="F254" s="32"/>
-      <c r="G254" s="33"/>
-      <c r="H254" s="32"/>
-      <c r="I254" s="32"/>
+      <c r="A254" s="34"/>
+      <c r="B254" s="33"/>
+      <c r="C254" s="33"/>
+      <c r="D254" s="33"/>
+      <c r="E254" s="33"/>
+      <c r="F254" s="33"/>
+      <c r="G254" s="34"/>
+      <c r="H254" s="33"/>
+      <c r="I254" s="33"/>
       <c r="K254" s="19"/>
       <c r="L254" s="28" t="s">
         <v>57</v>
       </c>
       <c r="M254" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N254" s="30" t="s">
         <v>173</v>
@@ -9949,19 +9990,19 @@
         <v>58</v>
       </c>
       <c r="P254" s="30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="Q254" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R254" s="26" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="S254" s="18" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="T254" s="18" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
     </row>
     <row r="255" spans="1:22" s="17" customFormat="1">
@@ -10016,10 +10057,10 @@
       <c r="I256" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J256" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K256" s="34"/>
+      <c r="J256" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K256" s="35"/>
       <c r="L256" s="3" t="s">
         <v>8</v>
       </c>
@@ -10050,38 +10091,38 @@
       </c>
     </row>
     <row r="257" spans="1:22" s="17" customFormat="1">
-      <c r="A257" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B257" s="32" t="s">
+      <c r="A257" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B257" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C257" s="32" t="s">
+      <c r="C257" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="D257" s="32" t="s">
+      <c r="D257" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E257" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="F257" s="32" t="s">
+      <c r="E257" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="G257" s="33" t="s">
+      <c r="F257" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G257" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H257" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="I257" s="32"/>
+      <c r="H257" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="I257" s="33"/>
       <c r="J257" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K257" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L257" s="35" t="s">
+      <c r="L257" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M257" s="3" t="s">
@@ -10101,22 +10142,22 @@
       </c>
     </row>
     <row r="258" spans="1:22" s="17" customFormat="1" ht="33">
-      <c r="A258" s="33"/>
-      <c r="B258" s="32"/>
-      <c r="C258" s="32"/>
-      <c r="D258" s="32"/>
-      <c r="E258" s="32"/>
-      <c r="F258" s="32"/>
-      <c r="G258" s="33"/>
-      <c r="H258" s="32"/>
-      <c r="I258" s="32"/>
+      <c r="A258" s="34"/>
+      <c r="B258" s="33"/>
+      <c r="C258" s="33"/>
+      <c r="D258" s="33"/>
+      <c r="E258" s="33"/>
+      <c r="F258" s="33"/>
+      <c r="G258" s="34"/>
+      <c r="H258" s="33"/>
+      <c r="I258" s="33"/>
       <c r="J258" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K258" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L258" s="35"/>
+      <c r="L258" s="36"/>
       <c r="M258" s="3" t="s">
         <v>25</v>
       </c>
@@ -10136,26 +10177,26 @@
         <v>107</v>
       </c>
       <c r="T258" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="259" spans="1:22" s="17" customFormat="1">
-      <c r="A259" s="33"/>
-      <c r="B259" s="32"/>
-      <c r="C259" s="32"/>
-      <c r="D259" s="32"/>
-      <c r="E259" s="32"/>
-      <c r="F259" s="32"/>
-      <c r="G259" s="33"/>
-      <c r="H259" s="32"/>
-      <c r="I259" s="32"/>
+      <c r="A259" s="34"/>
+      <c r="B259" s="33"/>
+      <c r="C259" s="33"/>
+      <c r="D259" s="33"/>
+      <c r="E259" s="33"/>
+      <c r="F259" s="33"/>
+      <c r="G259" s="34"/>
+      <c r="H259" s="33"/>
+      <c r="I259" s="33"/>
       <c r="J259" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K259" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L259" s="35"/>
+      <c r="L259" s="36"/>
       <c r="M259" s="3" t="s">
         <v>29</v>
       </c>
@@ -10175,21 +10216,21 @@
         <v>107</v>
       </c>
       <c r="T259" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="260" spans="1:22" s="17" customFormat="1">
-      <c r="A260" s="33"/>
-      <c r="B260" s="32"/>
-      <c r="C260" s="32"/>
-      <c r="D260" s="32"/>
-      <c r="E260" s="32"/>
-      <c r="F260" s="32"/>
-      <c r="G260" s="33"/>
-      <c r="H260" s="32"/>
-      <c r="I260" s="32"/>
+      <c r="A260" s="34"/>
+      <c r="B260" s="33"/>
+      <c r="C260" s="33"/>
+      <c r="D260" s="33"/>
+      <c r="E260" s="33"/>
+      <c r="F260" s="33"/>
+      <c r="G260" s="34"/>
+      <c r="H260" s="33"/>
+      <c r="I260" s="33"/>
       <c r="K260" s="19"/>
-      <c r="L260" s="35"/>
+      <c r="L260" s="36"/>
       <c r="M260" s="3" t="s">
         <v>32</v>
       </c>
@@ -10207,17 +10248,17 @@
       </c>
     </row>
     <row r="261" spans="1:22" s="17" customFormat="1">
-      <c r="A261" s="33"/>
-      <c r="B261" s="32"/>
-      <c r="C261" s="32"/>
-      <c r="D261" s="32"/>
-      <c r="E261" s="32"/>
-      <c r="F261" s="32"/>
-      <c r="G261" s="33"/>
-      <c r="H261" s="32"/>
-      <c r="I261" s="32"/>
+      <c r="A261" s="34"/>
+      <c r="B261" s="33"/>
+      <c r="C261" s="33"/>
+      <c r="D261" s="33"/>
+      <c r="E261" s="33"/>
+      <c r="F261" s="33"/>
+      <c r="G261" s="34"/>
+      <c r="H261" s="33"/>
+      <c r="I261" s="33"/>
       <c r="K261" s="19"/>
-      <c r="L261" s="35"/>
+      <c r="L261" s="36"/>
       <c r="M261" s="3" t="s">
         <v>35</v>
       </c>
@@ -10235,17 +10276,17 @@
       </c>
     </row>
     <row r="262" spans="1:22" s="17" customFormat="1">
-      <c r="A262" s="33"/>
-      <c r="B262" s="32"/>
-      <c r="C262" s="32"/>
-      <c r="D262" s="32"/>
-      <c r="E262" s="32"/>
-      <c r="F262" s="32"/>
-      <c r="G262" s="33"/>
-      <c r="H262" s="32"/>
-      <c r="I262" s="32"/>
+      <c r="A262" s="34"/>
+      <c r="B262" s="33"/>
+      <c r="C262" s="33"/>
+      <c r="D262" s="33"/>
+      <c r="E262" s="33"/>
+      <c r="F262" s="33"/>
+      <c r="G262" s="34"/>
+      <c r="H262" s="33"/>
+      <c r="I262" s="33"/>
       <c r="K262" s="19"/>
-      <c r="L262" s="35"/>
+      <c r="L262" s="36"/>
       <c r="M262" s="3" t="s">
         <v>38</v>
       </c>
@@ -10263,17 +10304,17 @@
       </c>
     </row>
     <row r="263" spans="1:22" s="17" customFormat="1">
-      <c r="A263" s="33"/>
-      <c r="B263" s="32"/>
-      <c r="C263" s="32"/>
-      <c r="D263" s="32"/>
-      <c r="E263" s="32"/>
-      <c r="F263" s="32"/>
-      <c r="G263" s="33"/>
-      <c r="H263" s="32"/>
-      <c r="I263" s="32"/>
+      <c r="A263" s="34"/>
+      <c r="B263" s="33"/>
+      <c r="C263" s="33"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="33"/>
+      <c r="F263" s="33"/>
+      <c r="G263" s="34"/>
+      <c r="H263" s="33"/>
+      <c r="I263" s="33"/>
       <c r="K263" s="19"/>
-      <c r="L263" s="35"/>
+      <c r="L263" s="36"/>
       <c r="M263" s="3" t="s">
         <v>41</v>
       </c>
@@ -10291,17 +10332,17 @@
       </c>
     </row>
     <row r="264" spans="1:22" s="17" customFormat="1">
-      <c r="A264" s="33"/>
-      <c r="B264" s="32"/>
-      <c r="C264" s="32"/>
-      <c r="D264" s="32"/>
-      <c r="E264" s="32"/>
-      <c r="F264" s="32"/>
-      <c r="G264" s="33"/>
-      <c r="H264" s="32"/>
-      <c r="I264" s="32"/>
+      <c r="A264" s="34"/>
+      <c r="B264" s="33"/>
+      <c r="C264" s="33"/>
+      <c r="D264" s="33"/>
+      <c r="E264" s="33"/>
+      <c r="F264" s="33"/>
+      <c r="G264" s="34"/>
+      <c r="H264" s="33"/>
+      <c r="I264" s="33"/>
       <c r="K264" s="19"/>
-      <c r="L264" s="35"/>
+      <c r="L264" s="36"/>
       <c r="M264" s="3" t="s">
         <v>44</v>
       </c>
@@ -10319,17 +10360,17 @@
       </c>
     </row>
     <row r="265" spans="1:22" s="17" customFormat="1">
-      <c r="A265" s="33"/>
-      <c r="B265" s="32"/>
-      <c r="C265" s="32"/>
-      <c r="D265" s="32"/>
-      <c r="E265" s="32"/>
-      <c r="F265" s="32"/>
-      <c r="G265" s="33"/>
-      <c r="H265" s="32"/>
-      <c r="I265" s="32"/>
+      <c r="A265" s="34"/>
+      <c r="B265" s="33"/>
+      <c r="C265" s="33"/>
+      <c r="D265" s="33"/>
+      <c r="E265" s="33"/>
+      <c r="F265" s="33"/>
+      <c r="G265" s="34"/>
+      <c r="H265" s="33"/>
+      <c r="I265" s="33"/>
       <c r="K265" s="19"/>
-      <c r="L265" s="35"/>
+      <c r="L265" s="36"/>
       <c r="M265" s="3" t="s">
         <v>47</v>
       </c>
@@ -10347,17 +10388,17 @@
       </c>
     </row>
     <row r="266" spans="1:22" s="17" customFormat="1">
-      <c r="A266" s="33"/>
-      <c r="B266" s="32"/>
-      <c r="C266" s="32"/>
-      <c r="D266" s="32"/>
-      <c r="E266" s="32"/>
-      <c r="F266" s="32"/>
-      <c r="G266" s="33"/>
-      <c r="H266" s="32"/>
-      <c r="I266" s="32"/>
+      <c r="A266" s="34"/>
+      <c r="B266" s="33"/>
+      <c r="C266" s="33"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
+      <c r="F266" s="33"/>
+      <c r="G266" s="34"/>
+      <c r="H266" s="33"/>
+      <c r="I266" s="33"/>
       <c r="K266" s="19"/>
-      <c r="L266" s="35"/>
+      <c r="L266" s="36"/>
       <c r="M266" s="3" t="s">
         <v>50</v>
       </c>
@@ -10375,17 +10416,17 @@
       </c>
     </row>
     <row r="267" spans="1:22" s="17" customFormat="1">
-      <c r="A267" s="33"/>
-      <c r="B267" s="32"/>
-      <c r="C267" s="32"/>
-      <c r="D267" s="32"/>
-      <c r="E267" s="32"/>
-      <c r="F267" s="32"/>
-      <c r="G267" s="33"/>
-      <c r="H267" s="32"/>
-      <c r="I267" s="32"/>
+      <c r="A267" s="34"/>
+      <c r="B267" s="33"/>
+      <c r="C267" s="33"/>
+      <c r="D267" s="33"/>
+      <c r="E267" s="33"/>
+      <c r="F267" s="33"/>
+      <c r="G267" s="34"/>
+      <c r="H267" s="33"/>
+      <c r="I267" s="33"/>
       <c r="K267" s="19"/>
-      <c r="L267" s="35"/>
+      <c r="L267" s="36"/>
       <c r="M267" s="3" t="s">
         <v>24</v>
       </c>
@@ -10403,17 +10444,17 @@
       </c>
     </row>
     <row r="268" spans="1:22" s="17" customFormat="1">
-      <c r="A268" s="33"/>
-      <c r="B268" s="32"/>
-      <c r="C268" s="32"/>
-      <c r="D268" s="32"/>
-      <c r="E268" s="32"/>
-      <c r="F268" s="32"/>
-      <c r="G268" s="33"/>
-      <c r="H268" s="32"/>
-      <c r="I268" s="32"/>
+      <c r="A268" s="34"/>
+      <c r="B268" s="33"/>
+      <c r="C268" s="33"/>
+      <c r="D268" s="33"/>
+      <c r="E268" s="33"/>
+      <c r="F268" s="33"/>
+      <c r="G268" s="34"/>
+      <c r="H268" s="33"/>
+      <c r="I268" s="33"/>
       <c r="K268" s="19"/>
-      <c r="L268" s="35"/>
+      <c r="L268" s="36"/>
       <c r="M268" s="3" t="s">
         <v>54</v>
       </c>
@@ -10430,43 +10471,43 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:22" s="17" customFormat="1" ht="115.5">
-      <c r="A269" s="33"/>
-      <c r="B269" s="32"/>
-      <c r="C269" s="32"/>
-      <c r="D269" s="32"/>
-      <c r="E269" s="32"/>
-      <c r="F269" s="32"/>
-      <c r="G269" s="33"/>
-      <c r="H269" s="32"/>
-      <c r="I269" s="32"/>
+    <row r="269" spans="1:22" s="17" customFormat="1" ht="49.5">
+      <c r="A269" s="34"/>
+      <c r="B269" s="33"/>
+      <c r="C269" s="33"/>
+      <c r="D269" s="33"/>
+      <c r="E269" s="33"/>
+      <c r="F269" s="33"/>
+      <c r="G269" s="34"/>
+      <c r="H269" s="33"/>
+      <c r="I269" s="33"/>
       <c r="K269" s="19"/>
       <c r="L269" s="28" t="s">
         <v>57</v>
       </c>
       <c r="M269" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N269" s="30" t="s">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="O269" s="31" t="s">
         <v>58</v>
       </c>
       <c r="P269" s="30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="Q269" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R269" s="26" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="S269" s="17" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="T269" s="18" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
     </row>
     <row r="270" spans="1:22" s="17" customFormat="1">
@@ -10521,10 +10562,10 @@
       <c r="I271" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J271" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K271" s="34"/>
+      <c r="J271" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K271" s="35"/>
       <c r="L271" s="3" t="s">
         <v>8</v>
       </c>
@@ -10555,38 +10596,38 @@
       </c>
     </row>
     <row r="272" spans="1:22" s="17" customFormat="1">
-      <c r="A272" s="33" t="s">
+      <c r="A272" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B272" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C272" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B272" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="C272" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="D272" s="32" t="s">
+      <c r="D272" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E272" s="32" t="s">
+      <c r="E272" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F272" s="32" t="s">
+      <c r="F272" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="G272" s="33" t="s">
+      <c r="G272" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H272" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="I272" s="32"/>
+      <c r="H272" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="I272" s="33"/>
       <c r="J272" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K272" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L272" s="35" t="s">
+      <c r="L272" s="36" t="s">
         <v>19</v>
       </c>
       <c r="M272" s="3" t="s">
@@ -10606,27 +10647,27 @@
       </c>
     </row>
     <row r="273" spans="1:20" s="17" customFormat="1" ht="33">
-      <c r="A273" s="33"/>
-      <c r="B273" s="32"/>
-      <c r="C273" s="32"/>
-      <c r="D273" s="32"/>
-      <c r="E273" s="32"/>
-      <c r="F273" s="32"/>
-      <c r="G273" s="33"/>
-      <c r="H273" s="32"/>
-      <c r="I273" s="32"/>
+      <c r="A273" s="34"/>
+      <c r="B273" s="33"/>
+      <c r="C273" s="33"/>
+      <c r="D273" s="33"/>
+      <c r="E273" s="33"/>
+      <c r="F273" s="33"/>
+      <c r="G273" s="34"/>
+      <c r="H273" s="33"/>
+      <c r="I273" s="33"/>
       <c r="J273" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K273" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L273" s="35"/>
+      <c r="L273" s="36"/>
       <c r="M273" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N273" s="17" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="O273" s="18" t="s">
         <v>26</v>
@@ -10641,31 +10682,31 @@
         <v>107</v>
       </c>
       <c r="T273" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="274" spans="1:20" s="17" customFormat="1">
-      <c r="A274" s="33"/>
-      <c r="B274" s="32"/>
-      <c r="C274" s="32"/>
-      <c r="D274" s="32"/>
-      <c r="E274" s="32"/>
-      <c r="F274" s="32"/>
-      <c r="G274" s="33"/>
-      <c r="H274" s="32"/>
-      <c r="I274" s="32"/>
+      <c r="A274" s="34"/>
+      <c r="B274" s="33"/>
+      <c r="C274" s="33"/>
+      <c r="D274" s="33"/>
+      <c r="E274" s="33"/>
+      <c r="F274" s="33"/>
+      <c r="G274" s="34"/>
+      <c r="H274" s="33"/>
+      <c r="I274" s="33"/>
       <c r="J274" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K274" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L274" s="35"/>
+      <c r="L274" s="36"/>
       <c r="M274" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N274" s="17" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="O274" s="17" t="s">
         <v>30</v>
@@ -10680,26 +10721,26 @@
         <v>107</v>
       </c>
       <c r="T274" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" s="17" customFormat="1" ht="49.5">
+      <c r="A275" s="34"/>
+      <c r="B275" s="33"/>
+      <c r="C275" s="33"/>
+      <c r="D275" s="33"/>
+      <c r="E275" s="33"/>
+      <c r="F275" s="33"/>
+      <c r="G275" s="34"/>
+      <c r="H275" s="33"/>
+      <c r="I275" s="33"/>
+      <c r="J275" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K275" s="20" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="275" spans="1:20" s="17" customFormat="1" ht="49.5">
-      <c r="A275" s="33"/>
-      <c r="B275" s="32"/>
-      <c r="C275" s="32"/>
-      <c r="D275" s="32"/>
-      <c r="E275" s="32"/>
-      <c r="F275" s="32"/>
-      <c r="G275" s="33"/>
-      <c r="H275" s="32"/>
-      <c r="I275" s="32"/>
-      <c r="J275" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="K275" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="L275" s="35"/>
+      <c r="L275" s="36"/>
       <c r="M275" s="3" t="s">
         <v>32</v>
       </c>
@@ -10717,22 +10758,22 @@
       </c>
     </row>
     <row r="276" spans="1:20" s="17" customFormat="1" ht="49.5">
-      <c r="A276" s="33"/>
-      <c r="B276" s="32"/>
-      <c r="C276" s="32"/>
-      <c r="D276" s="32"/>
-      <c r="E276" s="32"/>
-      <c r="F276" s="32"/>
-      <c r="G276" s="33"/>
-      <c r="H276" s="32"/>
-      <c r="I276" s="32"/>
+      <c r="A276" s="34"/>
+      <c r="B276" s="33"/>
+      <c r="C276" s="33"/>
+      <c r="D276" s="33"/>
+      <c r="E276" s="33"/>
+      <c r="F276" s="33"/>
+      <c r="G276" s="34"/>
+      <c r="H276" s="33"/>
+      <c r="I276" s="33"/>
       <c r="J276" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K276" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="L276" s="35"/>
+        <v>217</v>
+      </c>
+      <c r="L276" s="36"/>
       <c r="M276" s="3" t="s">
         <v>35</v>
       </c>
@@ -10750,17 +10791,17 @@
       </c>
     </row>
     <row r="277" spans="1:20" s="17" customFormat="1">
-      <c r="A277" s="33"/>
-      <c r="B277" s="32"/>
-      <c r="C277" s="32"/>
-      <c r="D277" s="32"/>
-      <c r="E277" s="32"/>
-      <c r="F277" s="32"/>
-      <c r="G277" s="33"/>
-      <c r="H277" s="32"/>
-      <c r="I277" s="32"/>
+      <c r="A277" s="34"/>
+      <c r="B277" s="33"/>
+      <c r="C277" s="33"/>
+      <c r="D277" s="33"/>
+      <c r="E277" s="33"/>
+      <c r="F277" s="33"/>
+      <c r="G277" s="34"/>
+      <c r="H277" s="33"/>
+      <c r="I277" s="33"/>
       <c r="K277" s="21"/>
-      <c r="L277" s="35"/>
+      <c r="L277" s="36"/>
       <c r="M277" s="3" t="s">
         <v>38</v>
       </c>
@@ -10778,17 +10819,17 @@
       </c>
     </row>
     <row r="278" spans="1:20" s="17" customFormat="1">
-      <c r="A278" s="33"/>
-      <c r="B278" s="32"/>
-      <c r="C278" s="32"/>
-      <c r="D278" s="32"/>
-      <c r="E278" s="32"/>
-      <c r="F278" s="32"/>
-      <c r="G278" s="33"/>
-      <c r="H278" s="32"/>
-      <c r="I278" s="32"/>
+      <c r="A278" s="34"/>
+      <c r="B278" s="33"/>
+      <c r="C278" s="33"/>
+      <c r="D278" s="33"/>
+      <c r="E278" s="33"/>
+      <c r="F278" s="33"/>
+      <c r="G278" s="34"/>
+      <c r="H278" s="33"/>
+      <c r="I278" s="33"/>
       <c r="K278" s="21"/>
-      <c r="L278" s="35"/>
+      <c r="L278" s="36"/>
       <c r="M278" s="3" t="s">
         <v>41</v>
       </c>
@@ -10806,17 +10847,17 @@
       </c>
     </row>
     <row r="279" spans="1:20" s="17" customFormat="1">
-      <c r="A279" s="33"/>
-      <c r="B279" s="32"/>
-      <c r="C279" s="32"/>
-      <c r="D279" s="32"/>
-      <c r="E279" s="32"/>
-      <c r="F279" s="32"/>
-      <c r="G279" s="33"/>
-      <c r="H279" s="32"/>
-      <c r="I279" s="32"/>
+      <c r="A279" s="34"/>
+      <c r="B279" s="33"/>
+      <c r="C279" s="33"/>
+      <c r="D279" s="33"/>
+      <c r="E279" s="33"/>
+      <c r="F279" s="33"/>
+      <c r="G279" s="34"/>
+      <c r="H279" s="33"/>
+      <c r="I279" s="33"/>
       <c r="K279" s="21"/>
-      <c r="L279" s="35"/>
+      <c r="L279" s="36"/>
       <c r="M279" s="3" t="s">
         <v>44</v>
       </c>
@@ -10834,17 +10875,17 @@
       </c>
     </row>
     <row r="280" spans="1:20" s="17" customFormat="1">
-      <c r="A280" s="33"/>
-      <c r="B280" s="32"/>
-      <c r="C280" s="32"/>
-      <c r="D280" s="32"/>
-      <c r="E280" s="32"/>
-      <c r="F280" s="32"/>
-      <c r="G280" s="33"/>
-      <c r="H280" s="32"/>
-      <c r="I280" s="32"/>
+      <c r="A280" s="34"/>
+      <c r="B280" s="33"/>
+      <c r="C280" s="33"/>
+      <c r="D280" s="33"/>
+      <c r="E280" s="33"/>
+      <c r="F280" s="33"/>
+      <c r="G280" s="34"/>
+      <c r="H280" s="33"/>
+      <c r="I280" s="33"/>
       <c r="K280" s="21"/>
-      <c r="L280" s="35"/>
+      <c r="L280" s="36"/>
       <c r="M280" s="3" t="s">
         <v>47</v>
       </c>
@@ -10862,17 +10903,17 @@
       </c>
     </row>
     <row r="281" spans="1:20" s="17" customFormat="1">
-      <c r="A281" s="33"/>
-      <c r="B281" s="32"/>
-      <c r="C281" s="32"/>
-      <c r="D281" s="32"/>
-      <c r="E281" s="32"/>
-      <c r="F281" s="32"/>
-      <c r="G281" s="33"/>
-      <c r="H281" s="32"/>
-      <c r="I281" s="32"/>
+      <c r="A281" s="34"/>
+      <c r="B281" s="33"/>
+      <c r="C281" s="33"/>
+      <c r="D281" s="33"/>
+      <c r="E281" s="33"/>
+      <c r="F281" s="33"/>
+      <c r="G281" s="34"/>
+      <c r="H281" s="33"/>
+      <c r="I281" s="33"/>
       <c r="K281" s="21"/>
-      <c r="L281" s="35"/>
+      <c r="L281" s="36"/>
       <c r="M281" s="3" t="s">
         <v>50</v>
       </c>
@@ -10890,17 +10931,17 @@
       </c>
     </row>
     <row r="282" spans="1:20" s="17" customFormat="1">
-      <c r="A282" s="33"/>
-      <c r="B282" s="32"/>
-      <c r="C282" s="32"/>
-      <c r="D282" s="32"/>
-      <c r="E282" s="32"/>
-      <c r="F282" s="32"/>
-      <c r="G282" s="33"/>
-      <c r="H282" s="32"/>
-      <c r="I282" s="32"/>
+      <c r="A282" s="34"/>
+      <c r="B282" s="33"/>
+      <c r="C282" s="33"/>
+      <c r="D282" s="33"/>
+      <c r="E282" s="33"/>
+      <c r="F282" s="33"/>
+      <c r="G282" s="34"/>
+      <c r="H282" s="33"/>
+      <c r="I282" s="33"/>
       <c r="K282" s="21"/>
-      <c r="L282" s="35"/>
+      <c r="L282" s="36"/>
       <c r="M282" s="3" t="s">
         <v>24</v>
       </c>
@@ -10918,17 +10959,17 @@
       </c>
     </row>
     <row r="283" spans="1:20" s="17" customFormat="1">
-      <c r="A283" s="33"/>
-      <c r="B283" s="32"/>
-      <c r="C283" s="32"/>
-      <c r="D283" s="32"/>
-      <c r="E283" s="32"/>
-      <c r="F283" s="32"/>
-      <c r="G283" s="33"/>
-      <c r="H283" s="32"/>
-      <c r="I283" s="32"/>
+      <c r="A283" s="34"/>
+      <c r="B283" s="33"/>
+      <c r="C283" s="33"/>
+      <c r="D283" s="33"/>
+      <c r="E283" s="33"/>
+      <c r="F283" s="33"/>
+      <c r="G283" s="34"/>
+      <c r="H283" s="33"/>
+      <c r="I283" s="33"/>
       <c r="K283" s="21"/>
-      <c r="L283" s="35"/>
+      <c r="L283" s="36"/>
       <c r="M283" s="3" t="s">
         <v>54</v>
       </c>
@@ -10945,38 +10986,38 @@
         <v>28</v>
       </c>
     </row>
-    <row r="284" spans="1:20" s="17" customFormat="1" ht="66">
-      <c r="A284" s="33"/>
-      <c r="B284" s="32"/>
-      <c r="C284" s="32"/>
-      <c r="D284" s="32"/>
-      <c r="E284" s="32"/>
-      <c r="F284" s="32"/>
-      <c r="G284" s="33"/>
-      <c r="H284" s="32"/>
-      <c r="I284" s="32"/>
+    <row r="284" spans="1:20" s="17" customFormat="1" ht="33">
+      <c r="A284" s="34"/>
+      <c r="B284" s="33"/>
+      <c r="C284" s="33"/>
+      <c r="D284" s="33"/>
+      <c r="E284" s="33"/>
+      <c r="F284" s="33"/>
+      <c r="G284" s="34"/>
+      <c r="H284" s="33"/>
+      <c r="I284" s="33"/>
       <c r="K284" s="21"/>
       <c r="L284" s="28" t="s">
         <v>57</v>
       </c>
       <c r="M284" s="29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N284" s="30" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="O284" s="31" t="s">
         <v>58</v>
       </c>
       <c r="P284" s="30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="Q284" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R284" s="18"/>
       <c r="T284" s="18" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
     </row>
     <row r="287" spans="1:20">
@@ -11049,6 +11090,12 @@
     <mergeCell ref="D118:D130"/>
     <mergeCell ref="I118:I130"/>
     <mergeCell ref="F118:F130"/>
+    <mergeCell ref="A102:A114"/>
+    <mergeCell ref="B102:B114"/>
+    <mergeCell ref="C102:C114"/>
+    <mergeCell ref="D102:D114"/>
+    <mergeCell ref="E102:E114"/>
+    <mergeCell ref="I102:I114"/>
     <mergeCell ref="L150:L161"/>
     <mergeCell ref="L134:L145"/>
     <mergeCell ref="L118:L129"/>
@@ -11071,6 +11118,8 @@
     <mergeCell ref="H134:H146"/>
     <mergeCell ref="F134:F146"/>
     <mergeCell ref="I150:I162"/>
+    <mergeCell ref="G102:G114"/>
+    <mergeCell ref="H102:H114"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A3:A15"/>
     <mergeCell ref="B3:B15"/>
@@ -11081,36 +11130,9 @@
     <mergeCell ref="H3:H15"/>
     <mergeCell ref="I3:I15"/>
     <mergeCell ref="F3:F15"/>
-    <mergeCell ref="A52:A64"/>
-    <mergeCell ref="B52:B64"/>
-    <mergeCell ref="C52:C64"/>
-    <mergeCell ref="D52:D64"/>
-    <mergeCell ref="E52:E64"/>
-    <mergeCell ref="G52:G64"/>
-    <mergeCell ref="F35:F47"/>
-    <mergeCell ref="H52:H64"/>
     <mergeCell ref="L3:L14"/>
     <mergeCell ref="L47:L48"/>
     <mergeCell ref="L64:L65"/>
-    <mergeCell ref="B69:B81"/>
-    <mergeCell ref="C69:C81"/>
-    <mergeCell ref="D69:D81"/>
-    <mergeCell ref="E69:E81"/>
-    <mergeCell ref="G69:G81"/>
-    <mergeCell ref="F69:F81"/>
-    <mergeCell ref="F52:F64"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L52:L63"/>
-    <mergeCell ref="I52:I64"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="A102:A114"/>
-    <mergeCell ref="B102:B114"/>
-    <mergeCell ref="C102:C114"/>
-    <mergeCell ref="D102:D114"/>
-    <mergeCell ref="E102:E114"/>
-    <mergeCell ref="G102:G114"/>
-    <mergeCell ref="H102:H114"/>
-    <mergeCell ref="I102:I114"/>
     <mergeCell ref="L19:L30"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="H35:H47"/>
@@ -11122,10 +11144,20 @@
     <mergeCell ref="E35:E47"/>
     <mergeCell ref="G35:G47"/>
     <mergeCell ref="L35:L46"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L52:L63"/>
+    <mergeCell ref="I52:I64"/>
+    <mergeCell ref="L81:L82"/>
     <mergeCell ref="H69:H81"/>
     <mergeCell ref="I69:I81"/>
     <mergeCell ref="L69:L80"/>
-    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="A52:A64"/>
+    <mergeCell ref="B52:B64"/>
+    <mergeCell ref="C52:C64"/>
+    <mergeCell ref="D52:D64"/>
+    <mergeCell ref="E52:E64"/>
+    <mergeCell ref="G52:G64"/>
+    <mergeCell ref="H52:H64"/>
     <mergeCell ref="A69:A81"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="A19:A31"/>
@@ -11137,6 +11169,15 @@
     <mergeCell ref="H19:H31"/>
     <mergeCell ref="I19:I31"/>
     <mergeCell ref="F19:F31"/>
+    <mergeCell ref="B69:B81"/>
+    <mergeCell ref="C69:C81"/>
+    <mergeCell ref="D69:D81"/>
+    <mergeCell ref="E69:E81"/>
+    <mergeCell ref="G69:G81"/>
+    <mergeCell ref="F69:F81"/>
+    <mergeCell ref="F52:F64"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="F35:F47"/>
     <mergeCell ref="A165:A177"/>
     <mergeCell ref="B165:B177"/>
     <mergeCell ref="C165:C177"/>

--- a/gd/美术需求文档/怪物需求/Ver0.3怪物需求.xlsx
+++ b/gd/美术需求文档/怪物需求/Ver0.3怪物需求.xlsx
@@ -10,12 +10,12 @@
     <sheet name="小怪" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="289">
   <si>
     <t>id</t>
   </si>
@@ -979,10 +979,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>嘶吼亮相时伴随碎裂的绿色外壳状特效（感觉像是皮肤崩开裂开），冲撞时角带刀光。敌方身上复用物攻特效。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>聚气时顺着鞭子旋转的方向，藤蔓和花朵特效从脚底旋转向上，放出时藤蔓和花朵都化为绿光和闪光向上冲出。被回复的对象身边复用强效治疗特效</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1024,23 +1020,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>水流汇聚：ultAmutePre
-盾：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ultAmuteBuff</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>爪子闪：ultLuoxinfuPre
 背景骷髅：ultLuoxinfuPre01</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1079,16 +1058,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>镰刀旋转：Kairuisi1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>镰刀旋转带起紫色粒子跟随，中间夹杂亮紫色的飘带状光，被劈的怪身上横向紫色刀光+紫色粒子星云爆炸。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色气旋：Anpusha1
-扩散：Anpusha2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1102,10 +1072,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>暂无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>相扑式登场时左右脚踏地面分别激起水花，释放时向前手刀，对面敌人身上各自出现小水龙卷爆裂（复用水龙卷）。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1139,6 +1105,35 @@
   </si>
   <si>
     <t>蓄力时金色粒子漩涡装收到手捧的光球，放出法术时做光环散射状</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镰刀旋转：Kairuisi1
+爆炸：karongposui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水流汇聚：ultAmutePre
+盾：ultAmuteBuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跺脚，爆气，冲撞时角带刀光。敌方身上复用物攻特效。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跺脚：Momo1
+爆气：Hapi1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huapo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色气旋：Anpusha1
+扩散：Anpusha2
+命中：Karonganyingbo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1146,7 +1141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1183,15 +1178,8 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1213,12 +1201,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,7 +1314,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1347,13 +1329,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1879,10 +1861,10 @@
   <dimension ref="A1:V287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="L99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="N130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R114" sqref="R114"/>
+      <selection pane="bottomRight" activeCell="T146" sqref="T146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1970,7 +1952,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="33" t="s">
@@ -2018,7 +2000,7 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="38"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -2055,7 +2037,7 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -2091,7 +2073,7 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -2117,7 +2099,7 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -2143,7 +2125,7 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -2169,7 +2151,7 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -2195,7 +2177,7 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -2221,7 +2203,7 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -2247,7 +2229,7 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -2273,7 +2255,7 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -2299,7 +2281,7 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -2326,7 +2308,7 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
@@ -2418,7 +2400,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>81</v>
       </c>
       <c r="B19" s="33" t="s">
@@ -2466,7 +2448,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="33">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -2503,7 +2485,7 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="38"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
@@ -2539,7 +2521,7 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="38"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
@@ -2565,7 +2547,7 @@
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="38"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
@@ -2591,7 +2573,7 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="38"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
@@ -2617,7 +2599,7 @@
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="38"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
@@ -2643,7 +2625,7 @@
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="38"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
@@ -2669,7 +2651,7 @@
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="38"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
@@ -2695,7 +2677,7 @@
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="38"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
@@ -2721,7 +2703,7 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="38"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
@@ -2747,7 +2729,7 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
@@ -2774,7 +2756,7 @@
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="38"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
@@ -3252,13 +3234,13 @@
         <v>28</v>
       </c>
       <c r="R47" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S47" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T47" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="U47" s="17"/>
     </row>
@@ -3287,7 +3269,7 @@
       </c>
       <c r="R48" s="26"/>
       <c r="T48" s="18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:21" s="1" customFormat="1"/>
@@ -3773,13 +3755,13 @@
         <v>28</v>
       </c>
       <c r="R64" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="S64" s="17" t="s">
         <v>229</v>
       </c>
       <c r="T64" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="U64" s="17"/>
     </row>
@@ -3884,7 +3866,7 @@
       <c r="D69" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E69" s="37" t="s">
         <v>104</v>
       </c>
       <c r="F69" s="33" t="s">
@@ -3927,7 +3909,7 @@
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
-      <c r="E70" s="39"/>
+      <c r="E70" s="37"/>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
       <c r="H70" s="34"/>
@@ -3966,7 +3948,7 @@
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
-      <c r="E71" s="39"/>
+      <c r="E71" s="37"/>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
       <c r="H71" s="34"/>
@@ -4005,7 +3987,7 @@
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
-      <c r="E72" s="39"/>
+      <c r="E72" s="37"/>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
       <c r="H72" s="34"/>
@@ -4038,7 +4020,7 @@
       <c r="B73" s="33"/>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
-      <c r="E73" s="39"/>
+      <c r="E73" s="37"/>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
       <c r="H73" s="34"/>
@@ -4071,7 +4053,7 @@
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
-      <c r="E74" s="39"/>
+      <c r="E74" s="37"/>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
       <c r="H74" s="34"/>
@@ -4104,7 +4086,7 @@
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
-      <c r="E75" s="39"/>
+      <c r="E75" s="37"/>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
       <c r="H75" s="34"/>
@@ -4137,7 +4119,7 @@
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
-      <c r="E76" s="39"/>
+      <c r="E76" s="37"/>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
       <c r="H76" s="34"/>
@@ -4170,7 +4152,7 @@
       <c r="B77" s="33"/>
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
-      <c r="E77" s="39"/>
+      <c r="E77" s="37"/>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
       <c r="H77" s="34"/>
@@ -4203,7 +4185,7 @@
       <c r="B78" s="33"/>
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
-      <c r="E78" s="39"/>
+      <c r="E78" s="37"/>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
       <c r="H78" s="34"/>
@@ -4236,7 +4218,7 @@
       <c r="B79" s="33"/>
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
-      <c r="E79" s="39"/>
+      <c r="E79" s="37"/>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
       <c r="H79" s="34"/>
@@ -4265,7 +4247,7 @@
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
       <c r="D80" s="33"/>
-      <c r="E80" s="39"/>
+      <c r="E80" s="37"/>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
       <c r="H80" s="34"/>
@@ -4294,7 +4276,7 @@
       <c r="B81" s="33"/>
       <c r="C81" s="33"/>
       <c r="D81" s="33"/>
-      <c r="E81" s="39"/>
+      <c r="E81" s="37"/>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
       <c r="H81" s="34"/>
@@ -4320,13 +4302,13 @@
         <v>28</v>
       </c>
       <c r="R81" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S81" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="T81" s="18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="U81" s="17"/>
     </row>
@@ -4355,7 +4337,7 @@
       </c>
       <c r="R82" s="26"/>
       <c r="T82" s="18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="1:21" s="1" customFormat="1"/>
@@ -4421,7 +4403,7 @@
       </c>
     </row>
     <row r="86" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A86" s="37" t="s">
+      <c r="A86" s="38" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="33" t="s">
@@ -4472,7 +4454,7 @@
       </c>
     </row>
     <row r="87" spans="1:21" ht="33">
-      <c r="A87" s="38"/>
+      <c r="A87" s="39"/>
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
@@ -4511,7 +4493,7 @@
       </c>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="38"/>
+      <c r="A88" s="39"/>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
       <c r="D88" s="33"/>
@@ -4550,7 +4532,7 @@
       </c>
     </row>
     <row r="89" spans="1:21">
-      <c r="A89" s="38"/>
+      <c r="A89" s="39"/>
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
@@ -4579,7 +4561,7 @@
       </c>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="38"/>
+      <c r="A90" s="39"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
       <c r="D90" s="33"/>
@@ -4608,7 +4590,7 @@
       </c>
     </row>
     <row r="91" spans="1:21">
-      <c r="A91" s="38"/>
+      <c r="A91" s="39"/>
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
@@ -4637,7 +4619,7 @@
       </c>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="38"/>
+      <c r="A92" s="39"/>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
       <c r="D92" s="33"/>
@@ -4666,7 +4648,7 @@
       </c>
     </row>
     <row r="93" spans="1:21">
-      <c r="A93" s="38"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
@@ -4695,7 +4677,7 @@
       </c>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="38"/>
+      <c r="A94" s="39"/>
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
       <c r="D94" s="33"/>
@@ -4724,7 +4706,7 @@
       </c>
     </row>
     <row r="95" spans="1:21">
-      <c r="A95" s="38"/>
+      <c r="A95" s="39"/>
       <c r="B95" s="33"/>
       <c r="C95" s="33"/>
       <c r="D95" s="33"/>
@@ -4753,7 +4735,7 @@
       </c>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="38"/>
+      <c r="A96" s="39"/>
       <c r="B96" s="33"/>
       <c r="C96" s="33"/>
       <c r="D96" s="33"/>
@@ -4782,7 +4764,7 @@
       </c>
     </row>
     <row r="97" spans="1:21">
-      <c r="A97" s="38"/>
+      <c r="A97" s="39"/>
       <c r="B97" s="33"/>
       <c r="C97" s="33"/>
       <c r="D97" s="33"/>
@@ -4811,7 +4793,7 @@
       </c>
     </row>
     <row r="98" spans="1:21" ht="33">
-      <c r="A98" s="38"/>
+      <c r="A98" s="39"/>
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
       <c r="D98" s="33"/>
@@ -5341,13 +5323,13 @@
         <v>28</v>
       </c>
       <c r="R114" s="26" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="S114" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T114" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -5849,13 +5831,13 @@
         <v>28</v>
       </c>
       <c r="R130" s="26" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="S130" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="T130" s="32" t="s">
-        <v>274</v>
+      <c r="T130" s="31" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -6334,7 +6316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="66">
+    <row r="146" spans="1:21" ht="82.5">
       <c r="A146" s="34"/>
       <c r="B146" s="33"/>
       <c r="C146" s="33"/>
@@ -6365,13 +6347,13 @@
         <v>28</v>
       </c>
       <c r="R146" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S146" s="18" t="s">
         <v>231</v>
       </c>
       <c r="T146" s="18" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -6885,13 +6867,13 @@
         <v>28</v>
       </c>
       <c r="R162" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="S162" s="18" t="s">
-        <v>264</v>
+        <v>255</v>
+      </c>
+      <c r="S162" s="32" t="s">
+        <v>284</v>
       </c>
       <c r="T162" s="18" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -7401,13 +7383,13 @@
         <v>28</v>
       </c>
       <c r="R177" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S177" s="17" t="s">
         <v>232</v>
       </c>
       <c r="T177" s="18" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="178" spans="1:22" s="17" customFormat="1">
@@ -7901,7 +7883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:22" s="17" customFormat="1" ht="66">
+    <row r="193" spans="1:22" s="17" customFormat="1" ht="33">
       <c r="A193" s="34"/>
       <c r="B193" s="33"/>
       <c r="C193" s="33"/>
@@ -7931,13 +7913,13 @@
         <v>28</v>
       </c>
       <c r="R193" s="26" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="S193" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="T193" s="32" t="s">
-        <v>279</v>
+        <v>260</v>
+      </c>
+      <c r="T193" s="31" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="194" spans="1:22" s="17" customFormat="1">
@@ -8471,13 +8453,13 @@
         <v>28</v>
       </c>
       <c r="R209" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S209" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="T209" s="32" t="s">
-        <v>279</v>
+      <c r="T209" s="31" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="210" spans="1:22" s="17" customFormat="1">
@@ -8976,7 +8958,7 @@
         <v>28</v>
       </c>
       <c r="R224" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S224" s="17" t="s">
         <v>234</v>
@@ -9481,13 +9463,13 @@
         <v>28</v>
       </c>
       <c r="R239" s="26" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="S239" s="17" t="s">
         <v>235</v>
       </c>
       <c r="T239" s="18" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="240" spans="1:22" s="17" customFormat="1">
@@ -9996,13 +9978,13 @@
         <v>28</v>
       </c>
       <c r="R254" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S254" s="18" t="s">
         <v>236</v>
       </c>
       <c r="T254" s="18" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="255" spans="1:22" s="17" customFormat="1">
@@ -10489,7 +10471,7 @@
         <v>239</v>
       </c>
       <c r="N269" s="30" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O269" s="31" t="s">
         <v>58</v>
@@ -10501,13 +10483,13 @@
         <v>28</v>
       </c>
       <c r="R269" s="26" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="S269" s="17" t="s">
         <v>237</v>
       </c>
       <c r="T269" s="18" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="270" spans="1:22" s="17" customFormat="1">
@@ -11017,7 +10999,7 @@
       </c>
       <c r="R284" s="18"/>
       <c r="T284" s="18" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="287" spans="1:20">
@@ -11147,6 +11129,13 @@
     <mergeCell ref="J51:K51"/>
     <mergeCell ref="L52:L63"/>
     <mergeCell ref="I52:I64"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="B19:B31"/>
+    <mergeCell ref="C19:C31"/>
+    <mergeCell ref="D19:D31"/>
+    <mergeCell ref="E19:E31"/>
+    <mergeCell ref="G19:G31"/>
     <mergeCell ref="L81:L82"/>
     <mergeCell ref="H69:H81"/>
     <mergeCell ref="I69:I81"/>
@@ -11159,13 +11148,7 @@
     <mergeCell ref="G52:G64"/>
     <mergeCell ref="H52:H64"/>
     <mergeCell ref="A69:A81"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="A19:A31"/>
-    <mergeCell ref="B19:B31"/>
-    <mergeCell ref="C19:C31"/>
-    <mergeCell ref="D19:D31"/>
-    <mergeCell ref="E19:E31"/>
-    <mergeCell ref="G19:G31"/>
+    <mergeCell ref="J68:K68"/>
     <mergeCell ref="H19:H31"/>
     <mergeCell ref="I19:I31"/>
     <mergeCell ref="F19:F31"/>
@@ -11176,7 +11159,6 @@
     <mergeCell ref="G69:G81"/>
     <mergeCell ref="F69:F81"/>
     <mergeCell ref="F52:F64"/>
-    <mergeCell ref="J68:K68"/>
     <mergeCell ref="F35:F47"/>
     <mergeCell ref="A165:A177"/>
     <mergeCell ref="B165:B177"/>

--- a/gd/美术需求文档/怪物需求/Ver0.3怪物需求.xlsx
+++ b/gd/美术需求文档/怪物需求/Ver0.3怪物需求.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/美术需求文档/怪物需求/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11355"/>
+    <workbookView xWindow="2960" yWindow="1000" windowWidth="33000" windowHeight="18940"/>
   </bookViews>
   <sheets>
     <sheet name="小怪" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3250" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="392">
   <si>
     <t>id</t>
   </si>
@@ -1186,10 +1196,6 @@
   </si>
   <si>
     <t>龙女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下为0.5新增怪物</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1513,7 +1519,36 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>弱点5（挂接点+mesh)</t>
+    <t>魂器1
+三个状态：mesh名：mesh_soul1，挂接点如图所示，挂接点名：wp_soul1;
+死亡状态：mesh_soul1隐藏（骷髅消失）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂器2
+三个状态：mesh名：mesh_soul2，挂接点如图所示，挂接点名：wp_soul2;
+死亡状态：mesh_soul2隐藏（骷髅消失）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5秒1次扇扇子冒火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇子冒火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5秒1次角刺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xg_bingyan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点6（挂接点+mesh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1541,50 +1576,74 @@
       <t>扰球旋转，挂接点名：wp_rune1
 死亡状态：特效消失</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魂器1
-三个状态：mesh名：mesh_soul1，挂接点如图所示，挂接点名：wp_soul1;
-死亡状态：mesh_soul1隐藏（骷髅消失）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魂器2
-三个状态：mesh名：mesh_soul2，挂接点如图所示，挂接点名：wp_soul2;
-死亡状态：mesh_soul2隐藏（骷髅消失）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5秒1次扇扇子冒火</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扇子冒火</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5秒1次角刺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xg_bingyan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点6（挂接点+mesh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵印的两个弱点需要有气聚发出点的效果。</t>
+  </si>
+  <si>
+    <t>暂定方案 ： 1s 展示蓄力动作， 疯狂敲打，物理伤害</t>
+  </si>
+  <si>
+    <t>暂定方案 ： 1s 展示蓄力动作， 魅影突袭， 物理。</t>
+  </si>
+  <si>
+    <t>暂定方案 ： 2s 展示蓄力动作 窒息漩涡 被动型；对目标单体释放水属性伤害并附加水泡debuff</t>
+  </si>
+  <si>
+    <t>大招炫耀（x2）</t>
+  </si>
+  <si>
+    <t>暂定方案 ： 2s 展示蓄力动作 大招：入葬之歌：主动型，30秒5次，造成法术伤害，如果此伤害导致目标死亡，死亡目标所在队伍剩余场上宠物物攻下降（死亡反应由被动配置）Boss大招：.绞刑，对敌方全体造成法攻伤害，有死亡印记的造成大量伤害（T生命力百分之80左右伤害），每5回合使用一次</t>
+  </si>
+  <si>
+    <t>大招炫耀（x2)</t>
+  </si>
+  <si>
+    <t>暂定方案 ： 2s 展示蓄力动作 大招：1. 翎羽飞射：被动型，攻击敌方全体，造成法术伤害，并提高自身速度 ； Boss 大招：2. 浴火重生；回复大量HP</t>
+  </si>
+  <si>
+    <t>暂定方案 ： 1s 展示蓄力动作 净化烈火：被动型。对敌方单体施加火属性强伤害，并附加驱散增益buff效果。</t>
+  </si>
+  <si>
+    <t>暂定方案 ： 1s 展示蓄力动作 狂冲乱撞</t>
+  </si>
+  <si>
+    <t>暂定方案 ：2s展示蓄力 ； 须左之炎，5次法术伤害，如果自身有buff加成时（有beneficial标签的都算加成），伤害翻倍（switch另外一个effect）。</t>
+  </si>
+  <si>
+    <t>暂定方案 ： 2s 展示蓄力动作 龙吟：被动型，攻击所有敌人并一定几率附带减速效果。2.潮汐之盾：对自身施加物理+法术减免护盾，减少99%受到的伤害。</t>
+  </si>
+  <si>
+    <t>暂定方案 ： 1s 展示蓄力动作； 大招：撕扯伤口：主动型，3秒20次，如果被攻击目标身上有Debuff，则附加物理中dot。Boss大招1.吃活的!：攻击单体目标造成物理伤害，当目标有流血buff时，大量回复生命。Boss大招2：2.角刺：对目标造成物理伤害，并附加弱流血效果（非通用），持续2回合，（待原画出来后再商定）</t>
+  </si>
+  <si>
+    <t>暂定方案：2s 蓄力动作；天火燎原：被动型，群体伤害，每个敌人分别判断身上是否附加火属性弱dot，如果有则造成双倍伤害（换一个effect）</t>
+  </si>
+  <si>
+    <t>暂定方案 ： 1s 展示蓄力动作 地裂山崩：主动型，3秒20次物理攻击（Npc 5次），一定几率附加溅射伤害，对敌方全体再造成少量物理伤害。（名称待商榷）</t>
+  </si>
+  <si>
+    <t>大招炫耀x3</t>
+  </si>
+  <si>
+    <t>以下为0.5新增怪物 （基础逻辑更新 1. 物理大招 按1s蓄力动作， 法术大招按2s蓄力和发出动作。</t>
+  </si>
+  <si>
+    <t>麻烦帆爷问问ZZ， 这种弱点配置方法有没有什么区别</t>
+  </si>
+  <si>
+    <t>身躯，一个状态：mesh名：mesh_body，挂接点如图所示，挂接点名：wp_body; 更接近胸前。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1598,7 +1657,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1625,7 +1684,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1656,6 +1715,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1671,7 +1736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1799,9 +1864,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2120,8 +2188,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7038975" y="87591901"/>
-          <a:ext cx="3631971" cy="2533649"/>
+          <a:off x="7011242" y="89522042"/>
+          <a:ext cx="3631971" cy="2610886"/>
           <a:chOff x="6324600" y="21008340"/>
           <a:chExt cx="4008120" cy="3541395"/>
         </a:xfrm>
@@ -2362,7 +2430,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>3182595</xdr:colOff>
       <xdr:row>384</xdr:row>
-      <xdr:rowOff>504826</xdr:rowOff>
+      <xdr:rowOff>504827</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2371,8 +2439,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7200900" y="107165776"/>
-          <a:ext cx="2877795" cy="3067050"/>
+          <a:off x="7173167" y="110418661"/>
+          <a:ext cx="2877795" cy="2934737"/>
           <a:chOff x="7820025" y="28441650"/>
           <a:chExt cx="2514305" cy="3362325"/>
         </a:xfrm>
@@ -3006,8 +3074,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6677025" y="118386226"/>
-          <a:ext cx="4026761" cy="3619499"/>
+          <a:off x="6644994" y="121770690"/>
+          <a:ext cx="4031059" cy="3728917"/>
           <a:chOff x="6766560" y="39159180"/>
           <a:chExt cx="4095238" cy="3657143"/>
         </a:xfrm>
@@ -3406,8 +3474,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7124702" y="136674225"/>
-          <a:ext cx="3467098" cy="3486150"/>
+          <a:off x="7096969" y="141266614"/>
+          <a:ext cx="3467098" cy="3633669"/>
           <a:chOff x="7283617" y="58232039"/>
           <a:chExt cx="3161023" cy="3596640"/>
         </a:xfrm>
@@ -4027,8 +4095,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6953250" y="128482728"/>
-          <a:ext cx="3020152" cy="4162422"/>
+          <a:off x="6925517" y="132824098"/>
+          <a:ext cx="3020152" cy="4284713"/>
           <a:chOff x="5581650" y="27422475"/>
           <a:chExt cx="2486025" cy="3279694"/>
         </a:xfrm>
@@ -4588,8 +4656,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3488251</xdr:colOff>
-      <xdr:row>355</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>406486</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4598,8 +4666,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7219953" y="95754825"/>
-          <a:ext cx="3164398" cy="2714625"/>
+          <a:off x="7192220" y="97929549"/>
+          <a:ext cx="3164398" cy="2798298"/>
           <a:chOff x="9029700" y="36328350"/>
           <a:chExt cx="2309917" cy="2295525"/>
         </a:xfrm>
@@ -5158,8 +5226,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6972301" y="112747426"/>
-          <a:ext cx="3684600" cy="3505200"/>
+          <a:off x="6944568" y="115958107"/>
+          <a:ext cx="3684600" cy="3614619"/>
           <a:chOff x="10153650" y="1819275"/>
           <a:chExt cx="3438525" cy="3164812"/>
         </a:xfrm>
@@ -5494,7 +5562,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>3733800</xdr:colOff>
       <xdr:row>368</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
+      <xdr:rowOff>1428749</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5503,8 +5571,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7048499" y="101679376"/>
-          <a:ext cx="3581401" cy="2638424"/>
+          <a:off x="7020766" y="104688714"/>
+          <a:ext cx="3581401" cy="2677042"/>
           <a:chOff x="6896099" y="101488875"/>
           <a:chExt cx="3581401" cy="2843213"/>
         </a:xfrm>
@@ -5988,6 +6056,482 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1243" name="Picture 219"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6934200" y="16103600"/>
+          <a:ext cx="3848100" cy="4064000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1176" name="Picture 152"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6934200" y="60591700"/>
+          <a:ext cx="3848100" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1182" name="Picture 158"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6883400" y="41948100"/>
+          <a:ext cx="3898900" cy="1549400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1220" name="Picture 196"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6883400" y="7531100"/>
+          <a:ext cx="3898900" cy="2908300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>838027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1239" name="Picture 215"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7747000" y="11493500"/>
+          <a:ext cx="3035300" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1304" name="Picture 280"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6883400" y="50800000"/>
+          <a:ext cx="3898900" cy="2387600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>215986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1307" name="Picture 283"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6985000" y="46748700"/>
+          <a:ext cx="3797300" cy="3619500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6246,49 +6790,49 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V469"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D285" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="F352" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J295" sqref="J295"/>
+      <selection pane="bottomRight" activeCell="K354" sqref="K354"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="6" customWidth="1"/>
     <col min="3" max="6" width="9" style="6"/>
-    <col min="7" max="7" width="9.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="51.125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="51.1640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" style="6" customWidth="1"/>
     <col min="11" max="11" width="38" style="8" customWidth="1"/>
     <col min="12" max="12" width="9" style="6"/>
     <col min="13" max="13" width="13" style="6" customWidth="1"/>
-    <col min="14" max="14" width="102.875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="102.83203125" style="6" customWidth="1"/>
     <col min="15" max="15" width="39.5" style="6" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="6" customWidth="1"/>
     <col min="17" max="17" width="9" style="6"/>
-    <col min="18" max="18" width="28.25" style="6" customWidth="1"/>
-    <col min="19" max="19" width="16.75" style="6" customWidth="1"/>
-    <col min="20" max="20" width="18.125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="28.1640625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="18.1640625" style="17" customWidth="1"/>
     <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K1" s="33"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6351,7 +6895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.5" customHeight="1">
+    <row r="3" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>80</v>
       </c>
@@ -6399,7 +6943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -6436,7 +6980,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="42"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -6472,7 +7016,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="42"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -6497,7 +7041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -6522,7 +7066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="42"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -6547,7 +7091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="42"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -6572,7 +7116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -6597,7 +7141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="42"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -6622,7 +7166,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="42"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -6647,7 +7191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="42"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -6672,7 +7216,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -6698,7 +7242,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -6727,10 +7271,10 @@
       </c>
       <c r="R15" s="10"/>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -6791,7 +7335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16.5" customHeight="1">
+    <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
         <v>81</v>
       </c>
@@ -6839,7 +7383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="33">
+    <row r="20" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="42"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -6876,7 +7420,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="42"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -6912,7 +7456,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="42"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -6937,7 +7481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="42"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -6962,7 +7506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="42"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -6987,7 +7531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="42"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -7012,7 +7556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="42"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -7037,7 +7581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="42"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -7062,7 +7606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="42"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -7087,7 +7631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -7112,7 +7656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -7138,7 +7682,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
@@ -7167,10 +7711,10 @@
       </c>
       <c r="R31" s="10"/>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K33" s="33"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
@@ -7233,7 +7777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="16.5" customHeight="1">
+    <row r="35" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
         <v>82</v>
       </c>
@@ -7281,7 +7825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
@@ -7318,7 +7862,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -7354,7 +7898,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
@@ -7379,7 +7923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -7404,7 +7948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
@@ -7429,7 +7973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -7454,7 +7998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -7479,7 +8023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -7504,7 +8048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -7529,7 +8073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -7554,7 +8098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -7580,7 +8124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="33">
+    <row r="47" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -7618,7 +8162,7 @@
       </c>
       <c r="U47" s="17"/>
     </row>
-    <row r="48" spans="1:21" s="17" customFormat="1">
+    <row r="48" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -7646,10 +8190,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="1" customFormat="1">
+    <row r="50" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K50" s="33"/>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -7710,7 +8254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="16.5" customHeight="1">
+    <row r="52" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="s">
         <v>83</v>
       </c>
@@ -7761,7 +8305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="33">
+    <row r="53" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -7800,7 +8344,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
@@ -7839,7 +8383,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -7867,7 +8411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -7895,7 +8439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -7923,7 +8467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -7951,7 +8495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -7979,7 +8523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -8007,7 +8551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -8035,7 +8579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -8063,7 +8607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -8091,7 +8635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="66" customHeight="1">
+    <row r="64" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -8131,7 +8675,7 @@
       </c>
       <c r="U64" s="17"/>
     </row>
-    <row r="65" spans="1:21" s="17" customFormat="1">
+    <row r="65" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -8157,10 +8701,10 @@
       <c r="R65" s="23"/>
       <c r="T65" s="18"/>
     </row>
-    <row r="67" spans="1:21" s="16" customFormat="1">
+    <row r="67" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K67" s="34"/>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>0</v>
       </c>
@@ -8221,7 +8765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="16.5" customHeight="1">
+    <row r="69" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="38" t="s">
         <v>84</v>
       </c>
@@ -8272,7 +8816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="33">
+    <row r="70" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -8311,7 +8855,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
@@ -8350,7 +8894,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="49.5">
+    <row r="72" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="39"/>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
@@ -8383,7 +8927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="49.5">
+    <row r="73" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
@@ -8416,7 +8960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="49.5">
+    <row r="74" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
@@ -8449,7 +8993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="49.5">
+    <row r="75" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
@@ -8482,7 +9026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="49.5">
+    <row r="76" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
@@ -8515,7 +9059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="49.5">
+    <row r="77" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
@@ -8548,7 +9092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="49.5">
+    <row r="78" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -8581,7 +9125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -8609,7 +9153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -8637,7 +9181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="66">
+    <row r="81" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -8677,7 +9221,7 @@
       </c>
       <c r="U81" s="17"/>
     </row>
-    <row r="82" spans="1:21" s="17" customFormat="1">
+    <row r="82" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -8705,10 +9249,10 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="1" customFormat="1">
+    <row r="84" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K84" s="33"/>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>0</v>
       </c>
@@ -8769,7 +9313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="16.5" customHeight="1">
+    <row r="86" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="41" t="s">
         <v>85</v>
       </c>
@@ -8820,7 +9364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="33">
+    <row r="87" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="42"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -8859,7 +9403,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="42"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
@@ -8898,7 +9442,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="42"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -8926,7 +9470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="42"/>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -8954,7 +9498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="42"/>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
@@ -8982,7 +9526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="42"/>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
@@ -9010,7 +9554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="42"/>
       <c r="B93" s="39"/>
       <c r="C93" s="39"/>
@@ -9038,7 +9582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="42"/>
       <c r="B94" s="39"/>
       <c r="C94" s="39"/>
@@ -9066,7 +9610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="42"/>
       <c r="B95" s="39"/>
       <c r="C95" s="39"/>
@@ -9094,7 +9638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="42"/>
       <c r="B96" s="39"/>
       <c r="C96" s="39"/>
@@ -9122,7 +9666,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="42"/>
       <c r="B97" s="39"/>
       <c r="C97" s="39"/>
@@ -9150,7 +9694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="33">
+    <row r="98" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="42"/>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
@@ -9181,7 +9725,7 @@
       </c>
       <c r="R98" s="10"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -9197,10 +9741,10 @@
       <c r="O99" s="10"/>
       <c r="R99" s="10"/>
     </row>
-    <row r="100" spans="1:21" s="1" customFormat="1">
+    <row r="100" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K100" s="33"/>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>0</v>
       </c>
@@ -9261,7 +9805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="16.5" customHeight="1">
+    <row r="102" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="38" t="s">
         <v>87</v>
       </c>
@@ -9312,7 +9856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="33">
+    <row r="103" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="38"/>
       <c r="B103" s="39"/>
       <c r="C103" s="39"/>
@@ -9351,7 +9895,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="38"/>
       <c r="B104" s="39"/>
       <c r="C104" s="39"/>
@@ -9390,7 +9934,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="38"/>
       <c r="B105" s="39"/>
       <c r="C105" s="39"/>
@@ -9418,7 +9962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="38"/>
       <c r="B106" s="39"/>
       <c r="C106" s="39"/>
@@ -9446,7 +9990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="38"/>
       <c r="B107" s="39"/>
       <c r="C107" s="39"/>
@@ -9474,7 +10018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="38"/>
       <c r="B108" s="39"/>
       <c r="C108" s="39"/>
@@ -9502,7 +10046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="38"/>
       <c r="B109" s="39"/>
       <c r="C109" s="39"/>
@@ -9530,7 +10074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="38"/>
       <c r="B110" s="39"/>
       <c r="C110" s="39"/>
@@ -9558,7 +10102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="38"/>
       <c r="B111" s="39"/>
       <c r="C111" s="39"/>
@@ -9586,7 +10130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="38"/>
       <c r="B112" s="39"/>
       <c r="C112" s="39"/>
@@ -9614,7 +10158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="38"/>
       <c r="B113" s="39"/>
       <c r="C113" s="39"/>
@@ -9642,7 +10186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="49.5">
+    <row r="114" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="38"/>
       <c r="B114" s="39"/>
       <c r="C114" s="39"/>
@@ -9681,7 +10225,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="14"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -9697,10 +10241,10 @@
       <c r="O115" s="10"/>
       <c r="R115" s="10"/>
     </row>
-    <row r="116" spans="1:21" s="16" customFormat="1">
+    <row r="116" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K116" s="34"/>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>0</v>
       </c>
@@ -9761,7 +10305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="16.5" customHeight="1">
+    <row r="118" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="38" t="s">
         <v>88</v>
       </c>
@@ -9812,7 +10356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="33">
+    <row r="119" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="38"/>
       <c r="B119" s="39"/>
       <c r="C119" s="39"/>
@@ -9851,7 +10395,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="38"/>
       <c r="B120" s="39"/>
       <c r="C120" s="39"/>
@@ -9890,7 +10434,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="38"/>
       <c r="B121" s="39"/>
       <c r="C121" s="39"/>
@@ -9918,7 +10462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="38"/>
       <c r="B122" s="39"/>
       <c r="C122" s="39"/>
@@ -9946,7 +10490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="38"/>
       <c r="B123" s="39"/>
       <c r="C123" s="39"/>
@@ -9974,7 +10518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="38"/>
       <c r="B124" s="39"/>
       <c r="C124" s="39"/>
@@ -10002,7 +10546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="38"/>
       <c r="B125" s="39"/>
       <c r="C125" s="39"/>
@@ -10030,7 +10574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="38"/>
       <c r="B126" s="39"/>
       <c r="C126" s="39"/>
@@ -10058,7 +10602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="38"/>
       <c r="B127" s="39"/>
       <c r="C127" s="39"/>
@@ -10086,7 +10630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="38"/>
       <c r="B128" s="39"/>
       <c r="C128" s="39"/>
@@ -10114,7 +10658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="38"/>
       <c r="B129" s="39"/>
       <c r="C129" s="39"/>
@@ -10142,7 +10686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="66">
+    <row r="130" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A130" s="38"/>
       <c r="B130" s="39"/>
       <c r="C130" s="39"/>
@@ -10181,7 +10725,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="14"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -10197,10 +10741,10 @@
       <c r="O131" s="10"/>
       <c r="R131" s="10"/>
     </row>
-    <row r="132" spans="1:21" s="1" customFormat="1">
+    <row r="132" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K132" s="33"/>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>0</v>
       </c>
@@ -10261,7 +10805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="16.5" customHeight="1">
+    <row r="134" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="38" t="s">
         <v>78</v>
       </c>
@@ -10312,7 +10856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="33">
+    <row r="135" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="38"/>
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
@@ -10351,7 +10895,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="38"/>
       <c r="B136" s="39"/>
       <c r="C136" s="39"/>
@@ -10390,7 +10934,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="49.5">
+    <row r="137" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="38"/>
       <c r="B137" s="39"/>
       <c r="C137" s="39"/>
@@ -10423,7 +10967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="49.5">
+    <row r="138" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A138" s="38"/>
       <c r="B138" s="39"/>
       <c r="C138" s="39"/>
@@ -10456,7 +11000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="38"/>
       <c r="B139" s="39"/>
       <c r="C139" s="39"/>
@@ -10485,7 +11029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="38"/>
       <c r="B140" s="39"/>
       <c r="C140" s="39"/>
@@ -10513,7 +11057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="38"/>
       <c r="B141" s="39"/>
       <c r="C141" s="39"/>
@@ -10541,7 +11085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="38"/>
       <c r="B142" s="39"/>
       <c r="C142" s="39"/>
@@ -10569,7 +11113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="38"/>
       <c r="B143" s="39"/>
       <c r="C143" s="39"/>
@@ -10597,7 +11141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="38"/>
       <c r="B144" s="39"/>
       <c r="C144" s="39"/>
@@ -10625,7 +11169,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="38"/>
       <c r="B145" s="39"/>
       <c r="C145" s="39"/>
@@ -10653,7 +11197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="82.5">
+    <row r="146" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A146" s="38"/>
       <c r="B146" s="39"/>
       <c r="C146" s="39"/>
@@ -10692,7 +11236,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="14"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -10708,10 +11252,10 @@
       <c r="O147" s="10"/>
       <c r="R147" s="10"/>
     </row>
-    <row r="148" spans="1:21" s="1" customFormat="1">
+    <row r="148" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="K148" s="33"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>0</v>
       </c>
@@ -10772,7 +11316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:21" ht="16.5" customHeight="1">
+    <row r="150" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="38" t="s">
         <v>79</v>
       </c>
@@ -10823,7 +11367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="33">
+    <row r="151" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A151" s="38"/>
       <c r="B151" s="39"/>
       <c r="C151" s="39"/>
@@ -10862,7 +11406,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="38"/>
       <c r="B152" s="39"/>
       <c r="C152" s="39"/>
@@ -10901,7 +11445,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="49.5">
+    <row r="153" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A153" s="38"/>
       <c r="B153" s="39"/>
       <c r="C153" s="39"/>
@@ -10934,7 +11478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="66">
+    <row r="154" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A154" s="38"/>
       <c r="B154" s="39"/>
       <c r="C154" s="39"/>
@@ -10967,7 +11511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="49.5">
+    <row r="155" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A155" s="38"/>
       <c r="B155" s="39"/>
       <c r="C155" s="39"/>
@@ -11000,7 +11544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="38"/>
       <c r="B156" s="39"/>
       <c r="C156" s="39"/>
@@ -11028,7 +11572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="38"/>
       <c r="B157" s="39"/>
       <c r="C157" s="39"/>
@@ -11056,7 +11600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="38"/>
       <c r="B158" s="39"/>
       <c r="C158" s="39"/>
@@ -11084,7 +11628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="38"/>
       <c r="B159" s="39"/>
       <c r="C159" s="39"/>
@@ -11112,7 +11656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="38"/>
       <c r="B160" s="39"/>
       <c r="C160" s="39"/>
@@ -11140,7 +11684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="1:22">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A161" s="38"/>
       <c r="B161" s="39"/>
       <c r="C161" s="39"/>
@@ -11168,7 +11712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:22" ht="66">
+    <row r="162" spans="1:22" ht="68" x14ac:dyDescent="0.2">
       <c r="A162" s="38"/>
       <c r="B162" s="39"/>
       <c r="C162" s="39"/>
@@ -11207,7 +11751,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="163" spans="1:22">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -11231,7 +11775,7 @@
       <c r="U163" s="1"/>
       <c r="V163" s="1"/>
     </row>
-    <row r="164" spans="1:22">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>0</v>
       </c>
@@ -11293,7 +11837,7 @@
       </c>
       <c r="V164" s="17"/>
     </row>
-    <row r="165" spans="1:22">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" s="38" t="s">
         <v>148</v>
       </c>
@@ -11345,7 +11889,7 @@
       </c>
       <c r="R165" s="17"/>
     </row>
-    <row r="166" spans="1:22" ht="33">
+    <row r="166" spans="1:22" ht="34" x14ac:dyDescent="0.2">
       <c r="A166" s="38"/>
       <c r="B166" s="39"/>
       <c r="C166" s="39"/>
@@ -11384,7 +11928,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="167" spans="1:22">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" s="38"/>
       <c r="B167" s="39"/>
       <c r="C167" s="39"/>
@@ -11423,7 +11967,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="168" spans="1:22">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" s="38"/>
       <c r="B168" s="39"/>
       <c r="C168" s="39"/>
@@ -11451,7 +11995,7 @@
       </c>
       <c r="R168" s="17"/>
     </row>
-    <row r="169" spans="1:22">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" s="38"/>
       <c r="B169" s="39"/>
       <c r="C169" s="39"/>
@@ -11479,7 +12023,7 @@
       </c>
       <c r="R169" s="17"/>
     </row>
-    <row r="170" spans="1:22">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" s="38"/>
       <c r="B170" s="39"/>
       <c r="C170" s="39"/>
@@ -11507,7 +12051,7 @@
       </c>
       <c r="R170" s="17"/>
     </row>
-    <row r="171" spans="1:22">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A171" s="38"/>
       <c r="B171" s="39"/>
       <c r="C171" s="39"/>
@@ -11535,7 +12079,7 @@
       </c>
       <c r="R171" s="17"/>
     </row>
-    <row r="172" spans="1:22">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A172" s="38"/>
       <c r="B172" s="39"/>
       <c r="C172" s="39"/>
@@ -11563,7 +12107,7 @@
       </c>
       <c r="R172" s="17"/>
     </row>
-    <row r="173" spans="1:22">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A173" s="38"/>
       <c r="B173" s="39"/>
       <c r="C173" s="39"/>
@@ -11591,7 +12135,7 @@
       </c>
       <c r="R173" s="17"/>
     </row>
-    <row r="174" spans="1:22">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" s="38"/>
       <c r="B174" s="39"/>
       <c r="C174" s="39"/>
@@ -11619,7 +12163,7 @@
       </c>
       <c r="R174" s="17"/>
     </row>
-    <row r="175" spans="1:22">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A175" s="38"/>
       <c r="B175" s="39"/>
       <c r="C175" s="39"/>
@@ -11647,7 +12191,7 @@
       </c>
       <c r="R175" s="17"/>
     </row>
-    <row r="176" spans="1:22">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A176" s="38"/>
       <c r="B176" s="39"/>
       <c r="C176" s="39"/>
@@ -11675,7 +12219,7 @@
       </c>
       <c r="R176" s="17"/>
     </row>
-    <row r="177" spans="1:22" ht="49.5">
+    <row r="177" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A177" s="38"/>
       <c r="B177" s="39"/>
       <c r="C177" s="39"/>
@@ -11713,7 +12257,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="178" spans="1:22" s="17" customFormat="1">
+    <row r="178" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="21"/>
       <c r="B178" s="20"/>
       <c r="C178" s="20"/>
@@ -11738,7 +12282,7 @@
       <c r="R178" s="23"/>
       <c r="T178" s="18"/>
     </row>
-    <row r="179" spans="1:22" s="17" customFormat="1">
+    <row r="179" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -11762,7 +12306,7 @@
       <c r="U179" s="1"/>
       <c r="V179" s="1"/>
     </row>
-    <row r="180" spans="1:22" s="17" customFormat="1">
+    <row r="180" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>0</v>
       </c>
@@ -11823,7 +12367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:22" s="17" customFormat="1">
+    <row r="181" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="38" t="s">
         <v>196</v>
       </c>
@@ -11874,7 +12418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="182" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" s="38"/>
       <c r="B182" s="39"/>
       <c r="C182" s="39"/>
@@ -11913,7 +12457,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="183" spans="1:22" s="17" customFormat="1">
+    <row r="183" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="38"/>
       <c r="B183" s="39"/>
       <c r="C183" s="39"/>
@@ -11952,7 +12496,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="184" spans="1:22" s="17" customFormat="1">
+    <row r="184" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="38"/>
       <c r="B184" s="39"/>
       <c r="C184" s="39"/>
@@ -11980,7 +12524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:22" s="17" customFormat="1">
+    <row r="185" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="38"/>
       <c r="B185" s="39"/>
       <c r="C185" s="39"/>
@@ -12008,7 +12552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:22" s="17" customFormat="1">
+    <row r="186" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="38"/>
       <c r="B186" s="39"/>
       <c r="C186" s="39"/>
@@ -12036,7 +12580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:22" s="17" customFormat="1">
+    <row r="187" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="38"/>
       <c r="B187" s="39"/>
       <c r="C187" s="39"/>
@@ -12064,7 +12608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:22" s="17" customFormat="1">
+    <row r="188" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="38"/>
       <c r="B188" s="39"/>
       <c r="C188" s="39"/>
@@ -12092,7 +12636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:22" s="17" customFormat="1">
+    <row r="189" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="38"/>
       <c r="B189" s="39"/>
       <c r="C189" s="39"/>
@@ -12120,7 +12664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:22" s="17" customFormat="1">
+    <row r="190" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="38"/>
       <c r="B190" s="39"/>
       <c r="C190" s="39"/>
@@ -12148,7 +12692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:22" s="17" customFormat="1">
+    <row r="191" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="38"/>
       <c r="B191" s="39"/>
       <c r="C191" s="39"/>
@@ -12176,7 +12720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:22" s="17" customFormat="1">
+    <row r="192" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="38"/>
       <c r="B192" s="39"/>
       <c r="C192" s="39"/>
@@ -12204,7 +12748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="193" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="38"/>
       <c r="B193" s="39"/>
       <c r="C193" s="39"/>
@@ -12243,7 +12787,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="194" spans="1:22" s="17" customFormat="1">
+    <row r="194" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="21"/>
       <c r="B194" s="20"/>
       <c r="C194" s="20"/>
@@ -12268,7 +12812,7 @@
       <c r="R194" s="23"/>
       <c r="T194" s="18"/>
     </row>
-    <row r="195" spans="1:22" s="17" customFormat="1">
+    <row r="195" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -12292,7 +12836,7 @@
       <c r="U195" s="1"/>
       <c r="V195" s="1"/>
     </row>
-    <row r="196" spans="1:22" s="17" customFormat="1">
+    <row r="196" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>0</v>
       </c>
@@ -12353,7 +12897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:22" s="17" customFormat="1">
+    <row r="197" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="38" t="s">
         <v>195</v>
       </c>
@@ -12404,7 +12948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="198" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A198" s="38"/>
       <c r="B198" s="39"/>
       <c r="C198" s="39"/>
@@ -12443,7 +12987,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="199" spans="1:22" s="17" customFormat="1">
+    <row r="199" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="38"/>
       <c r="B199" s="39"/>
       <c r="C199" s="39"/>
@@ -12482,7 +13026,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="200" spans="1:22" s="17" customFormat="1" ht="49.5">
+    <row r="200" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A200" s="38"/>
       <c r="B200" s="39"/>
       <c r="C200" s="39"/>
@@ -12515,7 +13059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:22" s="17" customFormat="1" ht="49.5">
+    <row r="201" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A201" s="38"/>
       <c r="B201" s="39"/>
       <c r="C201" s="39"/>
@@ -12548,7 +13092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="1:22" s="17" customFormat="1">
+    <row r="202" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="38"/>
       <c r="B202" s="39"/>
       <c r="C202" s="39"/>
@@ -12576,7 +13120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:22" s="17" customFormat="1">
+    <row r="203" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="38"/>
       <c r="B203" s="39"/>
       <c r="C203" s="39"/>
@@ -12604,7 +13148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:22" s="17" customFormat="1">
+    <row r="204" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="38"/>
       <c r="B204" s="39"/>
       <c r="C204" s="39"/>
@@ -12632,7 +13176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:22" s="17" customFormat="1">
+    <row r="205" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="38"/>
       <c r="B205" s="39"/>
       <c r="C205" s="39"/>
@@ -12660,7 +13204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:22" s="17" customFormat="1">
+    <row r="206" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="38"/>
       <c r="B206" s="39"/>
       <c r="C206" s="39"/>
@@ -12688,7 +13232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:22" s="17" customFormat="1">
+    <row r="207" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="38"/>
       <c r="B207" s="39"/>
       <c r="C207" s="39"/>
@@ -12716,7 +13260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:22" s="17" customFormat="1">
+    <row r="208" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="38"/>
       <c r="B208" s="39"/>
       <c r="C208" s="39"/>
@@ -12744,7 +13288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="1:22" s="17" customFormat="1" ht="82.5">
+    <row r="209" spans="1:22" s="17" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A209" s="38"/>
       <c r="B209" s="39"/>
       <c r="C209" s="39"/>
@@ -12783,7 +13327,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="210" spans="1:22" s="17" customFormat="1">
+    <row r="210" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -12807,7 +13351,7 @@
       <c r="U210" s="1"/>
       <c r="V210" s="1"/>
     </row>
-    <row r="211" spans="1:22" s="17" customFormat="1">
+    <row r="211" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>0</v>
       </c>
@@ -12868,7 +13412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:22" s="17" customFormat="1">
+    <row r="212" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="38" t="s">
         <v>194</v>
       </c>
@@ -12919,7 +13463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="213" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A213" s="38"/>
       <c r="B213" s="39"/>
       <c r="C213" s="39"/>
@@ -12958,7 +13502,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="214" spans="1:22" s="17" customFormat="1">
+    <row r="214" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="38"/>
       <c r="B214" s="39"/>
       <c r="C214" s="39"/>
@@ -12997,7 +13541,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="215" spans="1:22" s="17" customFormat="1">
+    <row r="215" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="38"/>
       <c r="B215" s="39"/>
       <c r="C215" s="39"/>
@@ -13025,7 +13569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:22" s="17" customFormat="1">
+    <row r="216" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="38"/>
       <c r="B216" s="39"/>
       <c r="C216" s="39"/>
@@ -13053,7 +13597,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="217" spans="1:22" s="17" customFormat="1">
+    <row r="217" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="38"/>
       <c r="B217" s="39"/>
       <c r="C217" s="39"/>
@@ -13081,7 +13625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:22" s="17" customFormat="1">
+    <row r="218" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="38"/>
       <c r="B218" s="39"/>
       <c r="C218" s="39"/>
@@ -13109,7 +13653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:22" s="17" customFormat="1">
+    <row r="219" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="38"/>
       <c r="B219" s="39"/>
       <c r="C219" s="39"/>
@@ -13137,7 +13681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:22" s="17" customFormat="1">
+    <row r="220" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="38"/>
       <c r="B220" s="39"/>
       <c r="C220" s="39"/>
@@ -13165,7 +13709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:22" s="17" customFormat="1">
+    <row r="221" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="38"/>
       <c r="B221" s="39"/>
       <c r="C221" s="39"/>
@@ -13193,7 +13737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:22" s="17" customFormat="1">
+    <row r="222" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="38"/>
       <c r="B222" s="39"/>
       <c r="C222" s="39"/>
@@ -13221,7 +13765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:22" s="17" customFormat="1">
+    <row r="223" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="38"/>
       <c r="B223" s="39"/>
       <c r="C223" s="39"/>
@@ -13249,7 +13793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:22" s="17" customFormat="1" ht="66">
+    <row r="224" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A224" s="38"/>
       <c r="B224" s="39"/>
       <c r="C224" s="39"/>
@@ -13288,7 +13832,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="225" spans="1:22" s="17" customFormat="1">
+    <row r="225" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -13312,7 +13856,7 @@
       <c r="U225" s="1"/>
       <c r="V225" s="1"/>
     </row>
-    <row r="226" spans="1:22" s="17" customFormat="1">
+    <row r="226" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>0</v>
       </c>
@@ -13373,7 +13917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:22" s="17" customFormat="1">
+    <row r="227" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="38" t="s">
         <v>193</v>
       </c>
@@ -13424,7 +13968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="228" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A228" s="38"/>
       <c r="B228" s="39"/>
       <c r="C228" s="39"/>
@@ -13463,7 +14007,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="229" spans="1:22" s="17" customFormat="1">
+    <row r="229" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="38"/>
       <c r="B229" s="39"/>
       <c r="C229" s="39"/>
@@ -13502,7 +14046,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="230" spans="1:22" s="17" customFormat="1">
+    <row r="230" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="38"/>
       <c r="B230" s="39"/>
       <c r="C230" s="39"/>
@@ -13530,7 +14074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:22" s="17" customFormat="1">
+    <row r="231" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="38"/>
       <c r="B231" s="39"/>
       <c r="C231" s="39"/>
@@ -13558,7 +14102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="1:22" s="17" customFormat="1">
+    <row r="232" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="38"/>
       <c r="B232" s="39"/>
       <c r="C232" s="39"/>
@@ -13586,7 +14130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:22" s="17" customFormat="1">
+    <row r="233" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="38"/>
       <c r="B233" s="39"/>
       <c r="C233" s="39"/>
@@ -13614,7 +14158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:22" s="17" customFormat="1">
+    <row r="234" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="38"/>
       <c r="B234" s="39"/>
       <c r="C234" s="39"/>
@@ -13642,7 +14186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="1:22" s="17" customFormat="1">
+    <row r="235" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="38"/>
       <c r="B235" s="39"/>
       <c r="C235" s="39"/>
@@ -13670,7 +14214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:22" s="17" customFormat="1">
+    <row r="236" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="38"/>
       <c r="B236" s="39"/>
       <c r="C236" s="39"/>
@@ -13698,7 +14242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:22" s="17" customFormat="1">
+    <row r="237" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="38"/>
       <c r="B237" s="39"/>
       <c r="C237" s="39"/>
@@ -13726,7 +14270,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="238" spans="1:22" s="17" customFormat="1">
+    <row r="238" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="38"/>
       <c r="B238" s="39"/>
       <c r="C238" s="39"/>
@@ -13754,7 +14298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:22" s="17" customFormat="1" ht="66">
+    <row r="239" spans="1:22" s="17" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A239" s="38"/>
       <c r="B239" s="39"/>
       <c r="C239" s="39"/>
@@ -13793,7 +14337,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="240" spans="1:22" s="17" customFormat="1">
+    <row r="240" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -13817,7 +14361,7 @@
       <c r="U240" s="1"/>
       <c r="V240" s="1"/>
     </row>
-    <row r="241" spans="1:22" s="17" customFormat="1">
+    <row r="241" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>0</v>
       </c>
@@ -13878,7 +14422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:22" s="17" customFormat="1">
+    <row r="242" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="38" t="s">
         <v>192</v>
       </c>
@@ -13929,7 +14473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="243" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A243" s="38"/>
       <c r="B243" s="39"/>
       <c r="C243" s="39"/>
@@ -13968,7 +14512,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="244" spans="1:22" s="17" customFormat="1">
+    <row r="244" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="38"/>
       <c r="B244" s="39"/>
       <c r="C244" s="39"/>
@@ -14007,7 +14551,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="245" spans="1:22" s="17" customFormat="1" ht="49.5">
+    <row r="245" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A245" s="38"/>
       <c r="B245" s="39"/>
       <c r="C245" s="39"/>
@@ -14040,7 +14584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:22" s="17" customFormat="1" ht="49.5">
+    <row r="246" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A246" s="38"/>
       <c r="B246" s="39"/>
       <c r="C246" s="39"/>
@@ -14073,7 +14617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="247" spans="1:22" s="17" customFormat="1">
+    <row r="247" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="38"/>
       <c r="B247" s="39"/>
       <c r="C247" s="39"/>
@@ -14101,7 +14645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:22" s="17" customFormat="1">
+    <row r="248" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="38"/>
       <c r="B248" s="39"/>
       <c r="C248" s="39"/>
@@ -14129,7 +14673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:22" s="17" customFormat="1">
+    <row r="249" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="38"/>
       <c r="B249" s="39"/>
       <c r="C249" s="39"/>
@@ -14157,7 +14701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:22" s="17" customFormat="1">
+    <row r="250" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="38"/>
       <c r="B250" s="39"/>
       <c r="C250" s="39"/>
@@ -14185,7 +14729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="1:22" s="17" customFormat="1">
+    <row r="251" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="38"/>
       <c r="B251" s="39"/>
       <c r="C251" s="39"/>
@@ -14213,7 +14757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:22" s="17" customFormat="1">
+    <row r="252" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="38"/>
       <c r="B252" s="39"/>
       <c r="C252" s="39"/>
@@ -14241,7 +14785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="253" spans="1:22" s="17" customFormat="1">
+    <row r="253" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="38"/>
       <c r="B253" s="39"/>
       <c r="C253" s="39"/>
@@ -14269,7 +14813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="254" spans="1:22" s="17" customFormat="1" ht="115.5">
+    <row r="254" spans="1:22" s="17" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A254" s="38"/>
       <c r="B254" s="39"/>
       <c r="C254" s="39"/>
@@ -14308,7 +14852,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="255" spans="1:22" s="17" customFormat="1">
+    <row r="255" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -14332,7 +14876,7 @@
       <c r="U255" s="1"/>
       <c r="V255" s="1"/>
     </row>
-    <row r="256" spans="1:22" s="17" customFormat="1">
+    <row r="256" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>0</v>
       </c>
@@ -14393,7 +14937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:22" s="17" customFormat="1">
+    <row r="257" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="38" t="s">
         <v>191</v>
       </c>
@@ -14444,7 +14988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="258" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A258" s="38"/>
       <c r="B258" s="39"/>
       <c r="C258" s="39"/>
@@ -14483,7 +15027,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="259" spans="1:22" s="17" customFormat="1">
+    <row r="259" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="38"/>
       <c r="B259" s="39"/>
       <c r="C259" s="39"/>
@@ -14522,7 +15066,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="260" spans="1:22" s="17" customFormat="1">
+    <row r="260" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="38"/>
       <c r="B260" s="39"/>
       <c r="C260" s="39"/>
@@ -14550,7 +15094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:22" s="17" customFormat="1">
+    <row r="261" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="38"/>
       <c r="B261" s="39"/>
       <c r="C261" s="39"/>
@@ -14578,7 +15122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="262" spans="1:22" s="17" customFormat="1">
+    <row r="262" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="38"/>
       <c r="B262" s="39"/>
       <c r="C262" s="39"/>
@@ -14606,7 +15150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:22" s="17" customFormat="1">
+    <row r="263" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="38"/>
       <c r="B263" s="39"/>
       <c r="C263" s="39"/>
@@ -14634,7 +15178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:22" s="17" customFormat="1">
+    <row r="264" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="38"/>
       <c r="B264" s="39"/>
       <c r="C264" s="39"/>
@@ -14662,7 +15206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:22" s="17" customFormat="1">
+    <row r="265" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265" s="38"/>
       <c r="B265" s="39"/>
       <c r="C265" s="39"/>
@@ -14690,7 +15234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="266" spans="1:22" s="17" customFormat="1">
+    <row r="266" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="38"/>
       <c r="B266" s="39"/>
       <c r="C266" s="39"/>
@@ -14718,7 +15262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:22" s="17" customFormat="1">
+    <row r="267" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="38"/>
       <c r="B267" s="39"/>
       <c r="C267" s="39"/>
@@ -14746,7 +15290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="268" spans="1:22" s="17" customFormat="1">
+    <row r="268" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="38"/>
       <c r="B268" s="39"/>
       <c r="C268" s="39"/>
@@ -14774,7 +15318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:22" s="17" customFormat="1" ht="49.5">
+    <row r="269" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A269" s="38"/>
       <c r="B269" s="39"/>
       <c r="C269" s="39"/>
@@ -14813,7 +15357,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="270" spans="1:22" s="17" customFormat="1">
+    <row r="270" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -14837,7 +15381,7 @@
       <c r="U270" s="1"/>
       <c r="V270" s="1"/>
     </row>
-    <row r="271" spans="1:22" s="17" customFormat="1">
+    <row r="271" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>0</v>
       </c>
@@ -14898,7 +15442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:22" s="17" customFormat="1">
+    <row r="272" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="38" t="s">
         <v>188</v>
       </c>
@@ -14949,7 +15493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="273" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A273" s="38"/>
       <c r="B273" s="39"/>
       <c r="C273" s="39"/>
@@ -14988,7 +15532,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="274" spans="1:22" s="17" customFormat="1">
+    <row r="274" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="38"/>
       <c r="B274" s="39"/>
       <c r="C274" s="39"/>
@@ -15027,7 +15571,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="275" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="275" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A275" s="38"/>
       <c r="B275" s="39"/>
       <c r="C275" s="39"/>
@@ -15060,7 +15604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="1:22" s="17" customFormat="1" ht="49.5">
+    <row r="276" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A276" s="38"/>
       <c r="B276" s="39"/>
       <c r="C276" s="39"/>
@@ -15093,7 +15637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="277" spans="1:22" s="17" customFormat="1">
+    <row r="277" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="38"/>
       <c r="B277" s="39"/>
       <c r="C277" s="39"/>
@@ -15121,7 +15665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:22" s="17" customFormat="1">
+    <row r="278" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="38"/>
       <c r="B278" s="39"/>
       <c r="C278" s="39"/>
@@ -15149,7 +15693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:22" s="17" customFormat="1">
+    <row r="279" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="38"/>
       <c r="B279" s="39"/>
       <c r="C279" s="39"/>
@@ -15177,7 +15721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280" spans="1:22" s="17" customFormat="1">
+    <row r="280" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="38"/>
       <c r="B280" s="39"/>
       <c r="C280" s="39"/>
@@ -15205,7 +15749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="281" spans="1:22" s="17" customFormat="1">
+    <row r="281" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="38"/>
       <c r="B281" s="39"/>
       <c r="C281" s="39"/>
@@ -15233,7 +15777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:22" s="17" customFormat="1">
+    <row r="282" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="38"/>
       <c r="B282" s="39"/>
       <c r="C282" s="39"/>
@@ -15261,7 +15805,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="283" spans="1:22" s="17" customFormat="1">
+    <row r="283" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="38"/>
       <c r="B283" s="39"/>
       <c r="C283" s="39"/>
@@ -15289,7 +15833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="284" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="284" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A284" s="38"/>
       <c r="B284" s="39"/>
       <c r="C284" s="39"/>
@@ -15323,13 +15867,13 @@
         <v>281</v>
       </c>
     </row>
-    <row r="285" spans="1:22" s="32" customFormat="1">
+    <row r="285" spans="1:22" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="32" t="s">
-        <v>302</v>
+        <v>389</v>
       </c>
       <c r="K285" s="35"/>
     </row>
-    <row r="286" spans="1:22" s="17" customFormat="1">
+    <row r="286" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -15353,7 +15897,7 @@
       <c r="U286" s="1"/>
       <c r="V286" s="1"/>
     </row>
-    <row r="287" spans="1:22" s="17" customFormat="1">
+    <row r="287" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>0</v>
       </c>
@@ -15414,9 +15958,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:22" s="17" customFormat="1">
+    <row r="288" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="38" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B288" s="39" t="s">
         <v>290</v>
@@ -15465,7 +16009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="289" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="289" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A289" s="38"/>
       <c r="B289" s="39"/>
       <c r="C289" s="39"/>
@@ -15486,7 +16030,7 @@
         <v>25</v>
       </c>
       <c r="N289" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O289" s="18" t="s">
         <v>26</v>
@@ -15504,7 +16048,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="290" spans="1:22" s="17" customFormat="1">
+    <row r="290" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="38"/>
       <c r="B290" s="39"/>
       <c r="C290" s="39"/>
@@ -15525,7 +16069,7 @@
         <v>29</v>
       </c>
       <c r="N290" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O290" s="17" t="s">
         <v>30</v>
@@ -15543,7 +16087,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="291" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="291" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A291" s="38"/>
       <c r="B291" s="39"/>
       <c r="C291" s="39"/>
@@ -15554,10 +16098,10 @@
       <c r="H291" s="39"/>
       <c r="I291" s="39"/>
       <c r="J291" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="K291" s="11" t="s">
         <v>348</v>
-      </c>
-      <c r="K291" s="11" t="s">
-        <v>349</v>
       </c>
       <c r="L291" s="36"/>
       <c r="M291" s="3" t="s">
@@ -15576,7 +16120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:22" s="17" customFormat="1">
+    <row r="292" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="38"/>
       <c r="B292" s="39"/>
       <c r="C292" s="39"/>
@@ -15605,7 +16149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="293" spans="1:22" s="17" customFormat="1">
+    <row r="293" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="38"/>
       <c r="B293" s="39"/>
       <c r="C293" s="39"/>
@@ -15615,7 +16159,9 @@
       <c r="G293" s="38"/>
       <c r="H293" s="39"/>
       <c r="I293" s="39"/>
-      <c r="K293" s="8"/>
+      <c r="K293" s="8" t="s">
+        <v>390</v>
+      </c>
       <c r="L293" s="36"/>
       <c r="M293" s="3" t="s">
         <v>38</v>
@@ -15633,7 +16179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:22" s="17" customFormat="1">
+    <row r="294" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="38"/>
       <c r="B294" s="39"/>
       <c r="C294" s="39"/>
@@ -15661,7 +16207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:22" s="17" customFormat="1">
+    <row r="295" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="38"/>
       <c r="B295" s="39"/>
       <c r="C295" s="39"/>
@@ -15689,7 +16235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:22" s="17" customFormat="1">
+    <row r="296" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="38"/>
       <c r="B296" s="39"/>
       <c r="C296" s="39"/>
@@ -15717,7 +16263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="297" spans="1:22" s="17" customFormat="1">
+    <row r="297" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="38"/>
       <c r="B297" s="39"/>
       <c r="C297" s="39"/>
@@ -15733,7 +16279,7 @@
         <v>50</v>
       </c>
       <c r="N297" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O297" s="17" t="s">
         <v>45</v>
@@ -15745,7 +16291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:22" s="17" customFormat="1">
+    <row r="298" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="38"/>
       <c r="B298" s="39"/>
       <c r="C298" s="39"/>
@@ -15761,7 +16307,7 @@
         <v>24</v>
       </c>
       <c r="N298" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O298" s="17" t="s">
         <v>52</v>
@@ -15773,7 +16319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="299" spans="1:22" s="17" customFormat="1">
+    <row r="299" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="38"/>
       <c r="B299" s="39"/>
       <c r="C299" s="39"/>
@@ -15801,7 +16347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="300" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="300" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A300" s="38"/>
       <c r="B300" s="39"/>
       <c r="C300" s="39"/>
@@ -15818,7 +16364,9 @@
       <c r="M300" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="N300" s="26"/>
+      <c r="N300" s="27" t="s">
+        <v>387</v>
+      </c>
       <c r="O300" s="27" t="s">
         <v>58</v>
       </c>
@@ -15831,7 +16379,7 @@
       <c r="R300" s="18"/>
       <c r="T300" s="18"/>
     </row>
-    <row r="301" spans="1:22" s="17" customFormat="1">
+    <row r="301" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -15855,7 +16403,7 @@
       <c r="U301" s="1"/>
       <c r="V301" s="1"/>
     </row>
-    <row r="302" spans="1:22" s="17" customFormat="1">
+    <row r="302" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>0</v>
       </c>
@@ -15916,9 +16464,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="1:22" s="17" customFormat="1">
+    <row r="303" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B303" s="39" t="s">
         <v>291</v>
@@ -15967,7 +16515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="304" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A304" s="38"/>
       <c r="B304" s="39"/>
       <c r="C304" s="39"/>
@@ -15988,7 +16536,7 @@
         <v>25</v>
       </c>
       <c r="N304" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O304" s="18" t="s">
         <v>26</v>
@@ -16006,7 +16554,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="305" spans="1:22" s="17" customFormat="1">
+    <row r="305" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="38"/>
       <c r="B305" s="39"/>
       <c r="C305" s="39"/>
@@ -16027,7 +16575,7 @@
         <v>29</v>
       </c>
       <c r="N305" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O305" s="17" t="s">
         <v>30</v>
@@ -16045,7 +16593,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="306" spans="1:22" s="17" customFormat="1">
+    <row r="306" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="38"/>
       <c r="B306" s="39"/>
       <c r="C306" s="39"/>
@@ -16074,7 +16622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:22" s="17" customFormat="1">
+    <row r="307" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="38"/>
       <c r="B307" s="39"/>
       <c r="C307" s="39"/>
@@ -16103,7 +16651,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="308" spans="1:22" s="17" customFormat="1">
+    <row r="308" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="38"/>
       <c r="B308" s="39"/>
       <c r="C308" s="39"/>
@@ -16131,7 +16679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309" spans="1:22" s="17" customFormat="1">
+    <row r="309" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="38"/>
       <c r="B309" s="39"/>
       <c r="C309" s="39"/>
@@ -16159,7 +16707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="310" spans="1:22" s="17" customFormat="1">
+    <row r="310" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="38"/>
       <c r="B310" s="39"/>
       <c r="C310" s="39"/>
@@ -16187,7 +16735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:22" s="17" customFormat="1">
+    <row r="311" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="38"/>
       <c r="B311" s="39"/>
       <c r="C311" s="39"/>
@@ -16215,7 +16763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="312" spans="1:22" s="17" customFormat="1">
+    <row r="312" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="38"/>
       <c r="B312" s="39"/>
       <c r="C312" s="39"/>
@@ -16231,7 +16779,7 @@
         <v>50</v>
       </c>
       <c r="N312" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O312" s="17" t="s">
         <v>45</v>
@@ -16243,7 +16791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:22" s="17" customFormat="1">
+    <row r="313" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="38"/>
       <c r="B313" s="39"/>
       <c r="C313" s="39"/>
@@ -16259,7 +16807,7 @@
         <v>24</v>
       </c>
       <c r="N313" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O313" s="17" t="s">
         <v>52</v>
@@ -16271,7 +16819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="314" spans="1:22" s="17" customFormat="1">
+    <row r="314" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="38"/>
       <c r="B314" s="39"/>
       <c r="C314" s="39"/>
@@ -16299,7 +16847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="315" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="315" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A315" s="38"/>
       <c r="B315" s="39"/>
       <c r="C315" s="39"/>
@@ -16316,7 +16864,9 @@
       <c r="M315" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="N315" s="26"/>
+      <c r="N315" s="26" t="s">
+        <v>374</v>
+      </c>
       <c r="O315" s="27" t="s">
         <v>58</v>
       </c>
@@ -16329,7 +16879,7 @@
       <c r="R315" s="18"/>
       <c r="T315" s="18"/>
     </row>
-    <row r="316" spans="1:22" s="17" customFormat="1">
+    <row r="316" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="30"/>
       <c r="B316" s="31"/>
       <c r="C316" s="31"/>
@@ -16342,22 +16892,22 @@
       <c r="K316" s="8"/>
       <c r="L316" s="37"/>
       <c r="M316" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="N316" s="27" t="s">
         <v>322</v>
-      </c>
-      <c r="N316" s="27" t="s">
-        <v>323</v>
       </c>
       <c r="O316" s="27"/>
       <c r="P316" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q316" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="Q316" s="17" t="s">
-        <v>325</v>
       </c>
       <c r="R316" s="18"/>
       <c r="T316" s="18"/>
     </row>
-    <row r="317" spans="1:22" s="17" customFormat="1">
+    <row r="317" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1" t="s">
@@ -16383,7 +16933,7 @@
       <c r="U317" s="1"/>
       <c r="V317" s="1"/>
     </row>
-    <row r="318" spans="1:22" s="17" customFormat="1">
+    <row r="318" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>0</v>
       </c>
@@ -16444,9 +16994,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="1:22" s="17" customFormat="1">
+    <row r="319" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B319" s="39" t="s">
         <v>293</v>
@@ -16458,7 +17008,7 @@
         <v>17</v>
       </c>
       <c r="E319" s="39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F319" s="39" t="s">
         <v>93</v>
@@ -16495,7 +17045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="320" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A320" s="38"/>
       <c r="B320" s="39"/>
       <c r="C320" s="39"/>
@@ -16516,7 +17066,7 @@
         <v>25</v>
       </c>
       <c r="N320" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O320" s="18" t="s">
         <v>26</v>
@@ -16534,7 +17084,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="321" spans="1:22" s="17" customFormat="1">
+    <row r="321" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="38"/>
       <c r="B321" s="39"/>
       <c r="C321" s="39"/>
@@ -16555,7 +17105,7 @@
         <v>29</v>
       </c>
       <c r="N321" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O321" s="17" t="s">
         <v>30</v>
@@ -16573,7 +17123,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="322" spans="1:22" s="17" customFormat="1" ht="49.5">
+    <row r="322" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A322" s="38"/>
       <c r="B322" s="39"/>
       <c r="C322" s="39"/>
@@ -16584,10 +17134,10 @@
       <c r="H322" s="39"/>
       <c r="I322" s="39"/>
       <c r="J322" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K322" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L322" s="36"/>
       <c r="M322" s="3" t="s">
@@ -16606,7 +17156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:22" s="17" customFormat="1" ht="49.5">
+    <row r="323" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A323" s="38"/>
       <c r="B323" s="39"/>
       <c r="C323" s="39"/>
@@ -16617,10 +17167,10 @@
       <c r="H323" s="39"/>
       <c r="I323" s="39"/>
       <c r="J323" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K323" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L323" s="36"/>
       <c r="M323" s="3" t="s">
@@ -16639,7 +17189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="324" spans="1:22" s="17" customFormat="1">
+    <row r="324" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="38"/>
       <c r="B324" s="39"/>
       <c r="C324" s="39"/>
@@ -16667,7 +17217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" spans="1:22" s="17" customFormat="1">
+    <row r="325" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="38"/>
       <c r="B325" s="39"/>
       <c r="C325" s="39"/>
@@ -16683,7 +17233,7 @@
         <v>41</v>
       </c>
       <c r="N325" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O325" s="17" t="s">
         <v>42</v>
@@ -16695,7 +17245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:22" s="17" customFormat="1">
+    <row r="326" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="38"/>
       <c r="B326" s="39"/>
       <c r="C326" s="39"/>
@@ -16723,7 +17273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:22" s="17" customFormat="1">
+    <row r="327" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="38"/>
       <c r="B327" s="39"/>
       <c r="C327" s="39"/>
@@ -16751,7 +17301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="328" spans="1:22" s="17" customFormat="1">
+    <row r="328" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="38"/>
       <c r="B328" s="39"/>
       <c r="C328" s="39"/>
@@ -16767,7 +17317,7 @@
         <v>50</v>
       </c>
       <c r="N328" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O328" s="17" t="s">
         <v>45</v>
@@ -16779,7 +17329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="329" spans="1:22" s="17" customFormat="1">
+    <row r="329" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A329" s="38"/>
       <c r="B329" s="39"/>
       <c r="C329" s="39"/>
@@ -16795,7 +17345,7 @@
         <v>24</v>
       </c>
       <c r="N329" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O329" s="17" t="s">
         <v>52</v>
@@ -16807,7 +17357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="330" spans="1:22" s="17" customFormat="1">
+    <row r="330" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="38"/>
       <c r="B330" s="39"/>
       <c r="C330" s="39"/>
@@ -16835,7 +17385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="331" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="331" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A331" s="38"/>
       <c r="B331" s="39"/>
       <c r="C331" s="39"/>
@@ -16852,7 +17402,9 @@
       <c r="M331" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="N331" s="26"/>
+      <c r="N331" s="26" t="s">
+        <v>375</v>
+      </c>
       <c r="O331" s="27" t="s">
         <v>58</v>
       </c>
@@ -16865,7 +17417,7 @@
       <c r="R331" s="18"/>
       <c r="T331" s="18"/>
     </row>
-    <row r="332" spans="1:22" s="17" customFormat="1">
+    <row r="332" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="30"/>
       <c r="B332" s="31"/>
       <c r="C332" s="31"/>
@@ -16878,19 +17430,19 @@
       <c r="K332" s="8"/>
       <c r="L332" s="37"/>
       <c r="M332" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N332" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O332" s="27"/>
       <c r="P332" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R332" s="18"/>
       <c r="T332" s="18"/>
     </row>
-    <row r="333" spans="1:22" s="17" customFormat="1">
+    <row r="333" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -16914,7 +17466,7 @@
       <c r="U333" s="1"/>
       <c r="V333" s="1"/>
     </row>
-    <row r="334" spans="1:22" s="17" customFormat="1">
+    <row r="334" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>0</v>
       </c>
@@ -16975,9 +17527,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="335" spans="1:22" s="17" customFormat="1">
+    <row r="335" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B335" s="39" t="s">
         <v>294</v>
@@ -17026,7 +17578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="336" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="336" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A336" s="38"/>
       <c r="B336" s="39"/>
       <c r="C336" s="39"/>
@@ -17047,7 +17599,7 @@
         <v>25</v>
       </c>
       <c r="N336" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O336" s="18" t="s">
         <v>26</v>
@@ -17065,7 +17617,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="337" spans="1:22" s="17" customFormat="1">
+    <row r="337" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="38"/>
       <c r="B337" s="39"/>
       <c r="C337" s="39"/>
@@ -17086,7 +17638,7 @@
         <v>29</v>
       </c>
       <c r="N337" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O337" s="17" t="s">
         <v>30</v>
@@ -17104,7 +17656,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="338" spans="1:22" s="17" customFormat="1">
+    <row r="338" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="38"/>
       <c r="B338" s="39"/>
       <c r="C338" s="39"/>
@@ -17133,7 +17685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339" spans="1:22" s="17" customFormat="1">
+    <row r="339" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="38"/>
       <c r="B339" s="39"/>
       <c r="C339" s="39"/>
@@ -17162,7 +17714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="340" spans="1:22" s="17" customFormat="1">
+    <row r="340" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="38"/>
       <c r="B340" s="39"/>
       <c r="C340" s="39"/>
@@ -17190,7 +17742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" spans="1:22" s="17" customFormat="1">
+    <row r="341" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A341" s="38"/>
       <c r="B341" s="39"/>
       <c r="C341" s="39"/>
@@ -17218,7 +17770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="342" spans="1:22" s="17" customFormat="1">
+    <row r="342" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="38"/>
       <c r="B342" s="39"/>
       <c r="C342" s="39"/>
@@ -17246,7 +17798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="343" spans="1:22" s="17" customFormat="1">
+    <row r="343" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343" s="38"/>
       <c r="B343" s="39"/>
       <c r="C343" s="39"/>
@@ -17274,7 +17826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="344" spans="1:22" s="17" customFormat="1">
+    <row r="344" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="38"/>
       <c r="B344" s="39"/>
       <c r="C344" s="39"/>
@@ -17290,7 +17842,7 @@
         <v>50</v>
       </c>
       <c r="N344" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O344" s="17" t="s">
         <v>45</v>
@@ -17302,7 +17854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:22" s="17" customFormat="1">
+    <row r="345" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345" s="38"/>
       <c r="B345" s="39"/>
       <c r="C345" s="39"/>
@@ -17318,7 +17870,7 @@
         <v>24</v>
       </c>
       <c r="N345" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O345" s="17" t="s">
         <v>52</v>
@@ -17330,7 +17882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="1:22" s="17" customFormat="1">
+    <row r="346" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="38"/>
       <c r="B346" s="39"/>
       <c r="C346" s="39"/>
@@ -17358,7 +17910,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="347" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A347" s="38"/>
       <c r="B347" s="39"/>
       <c r="C347" s="39"/>
@@ -17375,7 +17927,9 @@
       <c r="M347" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="N347" s="26"/>
+      <c r="N347" s="26" t="s">
+        <v>376</v>
+      </c>
       <c r="O347" s="27" t="s">
         <v>58</v>
       </c>
@@ -17388,7 +17942,7 @@
       <c r="R347" s="18"/>
       <c r="T347" s="18"/>
     </row>
-    <row r="348" spans="1:22" s="17" customFormat="1">
+    <row r="348" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -17412,7 +17966,7 @@
       <c r="U348" s="1"/>
       <c r="V348" s="1"/>
     </row>
-    <row r="349" spans="1:22" s="17" customFormat="1">
+    <row r="349" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>0</v>
       </c>
@@ -17473,9 +18027,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:22" s="17" customFormat="1">
+    <row r="350" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B350" s="39" t="s">
         <v>67</v>
@@ -17487,7 +18041,7 @@
         <v>17</v>
       </c>
       <c r="E350" s="39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F350" s="39" t="s">
         <v>93</v>
@@ -17524,7 +18078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="351" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="351" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A351" s="38"/>
       <c r="B351" s="39"/>
       <c r="C351" s="39"/>
@@ -17545,7 +18099,7 @@
         <v>25</v>
       </c>
       <c r="N351" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O351" s="18" t="s">
         <v>26</v>
@@ -17563,7 +18117,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="352" spans="1:22" s="17" customFormat="1">
+    <row r="352" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A352" s="38"/>
       <c r="B352" s="39"/>
       <c r="C352" s="39"/>
@@ -17574,7 +18128,7 @@
       <c r="H352" s="39"/>
       <c r="I352" s="39"/>
       <c r="J352" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K352" s="11" t="s">
         <v>100</v>
@@ -17584,7 +18138,7 @@
         <v>29</v>
       </c>
       <c r="N352" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O352" s="17" t="s">
         <v>30</v>
@@ -17602,7 +18156,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="353" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="353" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A353" s="38"/>
       <c r="B353" s="39"/>
       <c r="C353" s="39"/>
@@ -17613,10 +18167,10 @@
       <c r="H353" s="39"/>
       <c r="I353" s="39"/>
       <c r="J353" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K353" s="11" t="s">
-        <v>333</v>
+        <v>391</v>
       </c>
       <c r="L353" s="36"/>
       <c r="M353" s="3" t="s">
@@ -17635,7 +18189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" spans="1:22" s="17" customFormat="1" ht="82.5">
+    <row r="354" spans="1:22" s="17" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A354" s="38"/>
       <c r="B354" s="39"/>
       <c r="C354" s="39"/>
@@ -17646,10 +18200,10 @@
       <c r="H354" s="39"/>
       <c r="I354" s="39"/>
       <c r="J354" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K354" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L354" s="36"/>
       <c r="M354" s="3" t="s">
@@ -17668,7 +18222,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="355" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="355" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A355" s="38"/>
       <c r="B355" s="39"/>
       <c r="C355" s="39"/>
@@ -17679,10 +18233,10 @@
       <c r="H355" s="39"/>
       <c r="I355" s="39"/>
       <c r="J355" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K355" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L355" s="36"/>
       <c r="M355" s="3" t="s">
@@ -17701,7 +18255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:22" s="17" customFormat="1" ht="66">
+    <row r="356" spans="1:22" s="17" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A356" s="38"/>
       <c r="B356" s="39"/>
       <c r="C356" s="39"/>
@@ -17712,10 +18266,10 @@
       <c r="H356" s="39"/>
       <c r="I356" s="39"/>
       <c r="J356" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K356" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L356" s="36"/>
       <c r="M356" s="3" t="s">
@@ -17734,7 +18288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="357" spans="1:22" s="17" customFormat="1" ht="66">
+    <row r="357" spans="1:22" s="17" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A357" s="38"/>
       <c r="B357" s="39"/>
       <c r="C357" s="39"/>
@@ -17745,10 +18299,10 @@
       <c r="H357" s="39"/>
       <c r="I357" s="39"/>
       <c r="J357" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K357" s="11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L357" s="36"/>
       <c r="M357" s="3" t="s">
@@ -17767,7 +18321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="358" spans="1:22" s="17" customFormat="1">
+    <row r="358" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="38"/>
       <c r="B358" s="39"/>
       <c r="C358" s="39"/>
@@ -17795,7 +18349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="359" spans="1:22" s="17" customFormat="1">
+    <row r="359" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="38"/>
       <c r="B359" s="39"/>
       <c r="C359" s="39"/>
@@ -17811,7 +18365,7 @@
         <v>50</v>
       </c>
       <c r="N359" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O359" s="17" t="s">
         <v>45</v>
@@ -17823,7 +18377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360" spans="1:22" s="17" customFormat="1">
+    <row r="360" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="38"/>
       <c r="B360" s="39"/>
       <c r="C360" s="39"/>
@@ -17839,7 +18393,7 @@
         <v>24</v>
       </c>
       <c r="N360" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O360" s="17" t="s">
         <v>52</v>
@@ -17851,7 +18405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="361" spans="1:22" s="17" customFormat="1">
+    <row r="361" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="38"/>
       <c r="B361" s="39"/>
       <c r="C361" s="39"/>
@@ -17879,7 +18433,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="362" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="362" spans="1:22" s="17" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A362" s="38"/>
       <c r="B362" s="39"/>
       <c r="C362" s="39"/>
@@ -17894,9 +18448,11 @@
         <v>57</v>
       </c>
       <c r="M362" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="N362" s="26"/>
+        <v>377</v>
+      </c>
+      <c r="N362" s="27" t="s">
+        <v>378</v>
+      </c>
       <c r="O362" s="27" t="s">
         <v>58</v>
       </c>
@@ -17909,7 +18465,7 @@
       <c r="R362" s="18"/>
       <c r="T362" s="18"/>
     </row>
-    <row r="363" spans="1:22" s="17" customFormat="1">
+    <row r="363" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -17933,7 +18489,7 @@
       <c r="U363" s="1"/>
       <c r="V363" s="1"/>
     </row>
-    <row r="364" spans="1:22" s="17" customFormat="1">
+    <row r="364" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>0</v>
       </c>
@@ -17994,9 +18550,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="365" spans="1:22" s="17" customFormat="1">
+    <row r="365" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B365" s="39" t="s">
         <v>295</v>
@@ -18045,7 +18601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="366" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A366" s="38"/>
       <c r="B366" s="39"/>
       <c r="C366" s="39"/>
@@ -18066,7 +18622,7 @@
         <v>25</v>
       </c>
       <c r="N366" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O366" s="18" t="s">
         <v>26</v>
@@ -18084,7 +18640,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="367" spans="1:22" s="17" customFormat="1">
+    <row r="367" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" s="38"/>
       <c r="B367" s="39"/>
       <c r="C367" s="39"/>
@@ -18105,7 +18661,7 @@
         <v>29</v>
       </c>
       <c r="N367" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O367" s="17" t="s">
         <v>30</v>
@@ -18123,7 +18679,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="368" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="368" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A368" s="38"/>
       <c r="B368" s="39"/>
       <c r="C368" s="39"/>
@@ -18134,10 +18690,10 @@
       <c r="H368" s="39"/>
       <c r="I368" s="39"/>
       <c r="J368" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K368" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L368" s="36"/>
       <c r="M368" s="3" t="s">
@@ -18156,7 +18712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369" spans="1:22" s="17" customFormat="1" ht="115.5">
+    <row r="369" spans="1:22" s="17" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A369" s="38"/>
       <c r="B369" s="39"/>
       <c r="C369" s="39"/>
@@ -18167,10 +18723,10 @@
       <c r="H369" s="39"/>
       <c r="I369" s="39"/>
       <c r="J369" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K369" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L369" s="36"/>
       <c r="M369" s="3" t="s">
@@ -18189,7 +18745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="370" spans="1:22" s="17" customFormat="1" ht="30">
+    <row r="370" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A370" s="38"/>
       <c r="B370" s="39"/>
       <c r="C370" s="39"/>
@@ -18200,10 +18756,10 @@
       <c r="H370" s="39"/>
       <c r="I370" s="39"/>
       <c r="J370" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K370" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L370" s="36"/>
       <c r="M370" s="3" t="s">
@@ -18222,7 +18778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="1:22" s="17" customFormat="1" ht="30">
+    <row r="371" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A371" s="38"/>
       <c r="B371" s="39"/>
       <c r="C371" s="39"/>
@@ -18233,10 +18789,10 @@
       <c r="H371" s="39"/>
       <c r="I371" s="39"/>
       <c r="J371" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K371" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L371" s="36"/>
       <c r="M371" s="3" t="s">
@@ -18255,7 +18811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="372" spans="1:22" s="17" customFormat="1">
+    <row r="372" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A372" s="38"/>
       <c r="B372" s="39"/>
       <c r="C372" s="39"/>
@@ -18283,7 +18839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="373" spans="1:22" s="17" customFormat="1">
+    <row r="373" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="38"/>
       <c r="B373" s="39"/>
       <c r="C373" s="39"/>
@@ -18311,7 +18867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="374" spans="1:22" s="17" customFormat="1">
+    <row r="374" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A374" s="38"/>
       <c r="B374" s="39"/>
       <c r="C374" s="39"/>
@@ -18327,7 +18883,7 @@
         <v>50</v>
       </c>
       <c r="N374" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O374" s="17" t="s">
         <v>45</v>
@@ -18339,7 +18895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375" spans="1:22" s="17" customFormat="1">
+    <row r="375" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="38"/>
       <c r="B375" s="39"/>
       <c r="C375" s="39"/>
@@ -18355,7 +18911,7 @@
         <v>24</v>
       </c>
       <c r="N375" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O375" s="17" t="s">
         <v>52</v>
@@ -18367,7 +18923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" spans="1:22" s="17" customFormat="1">
+    <row r="376" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A376" s="38"/>
       <c r="B376" s="39"/>
       <c r="C376" s="39"/>
@@ -18395,7 +18951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="377" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="377" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A377" s="38"/>
       <c r="B377" s="39"/>
       <c r="C377" s="39"/>
@@ -18410,9 +18966,11 @@
         <v>57</v>
       </c>
       <c r="M377" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="N377" s="26"/>
+        <v>379</v>
+      </c>
+      <c r="N377" s="27" t="s">
+        <v>380</v>
+      </c>
       <c r="O377" s="27" t="s">
         <v>58</v>
       </c>
@@ -18425,7 +18983,7 @@
       <c r="R377" s="18"/>
       <c r="T377" s="18"/>
     </row>
-    <row r="378" spans="1:22" s="17" customFormat="1">
+    <row r="378" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -18449,7 +19007,7 @@
       <c r="U378" s="1"/>
       <c r="V378" s="1"/>
     </row>
-    <row r="379" spans="1:22" s="17" customFormat="1">
+    <row r="379" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>0</v>
       </c>
@@ -18510,9 +19068,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:22" s="17" customFormat="1">
+    <row r="380" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B380" s="39" t="s">
         <v>296</v>
@@ -18561,7 +19119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="381" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A381" s="38"/>
       <c r="B381" s="39"/>
       <c r="C381" s="39"/>
@@ -18582,7 +19140,7 @@
         <v>25</v>
       </c>
       <c r="N381" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O381" s="18" t="s">
         <v>26</v>
@@ -18600,7 +19158,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="382" spans="1:22" s="17" customFormat="1">
+    <row r="382" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A382" s="38"/>
       <c r="B382" s="39"/>
       <c r="C382" s="39"/>
@@ -18621,7 +19179,7 @@
         <v>29</v>
       </c>
       <c r="N382" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O382" s="17" t="s">
         <v>30</v>
@@ -18639,7 +19197,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="383" spans="1:22" s="17" customFormat="1" ht="49.5">
+    <row r="383" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A383" s="38"/>
       <c r="B383" s="39"/>
       <c r="C383" s="39"/>
@@ -18653,7 +19211,7 @@
         <v>213</v>
       </c>
       <c r="K383" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L383" s="36"/>
       <c r="M383" s="3" t="s">
@@ -18672,7 +19230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="384" spans="1:22" s="17" customFormat="1" ht="99">
+    <row r="384" spans="1:22" s="17" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A384" s="38"/>
       <c r="B384" s="39"/>
       <c r="C384" s="39"/>
@@ -18686,7 +19244,7 @@
         <v>214</v>
       </c>
       <c r="K384" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L384" s="36"/>
       <c r="M384" s="3" t="s">
@@ -18705,7 +19263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="385" spans="1:22" s="17" customFormat="1" ht="66">
+    <row r="385" spans="1:22" s="17" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A385" s="38"/>
       <c r="B385" s="39"/>
       <c r="C385" s="39"/>
@@ -18716,10 +19274,10 @@
       <c r="H385" s="39"/>
       <c r="I385" s="39"/>
       <c r="J385" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K385" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L385" s="36"/>
       <c r="M385" s="3" t="s">
@@ -18738,7 +19296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" spans="1:22" s="17" customFormat="1">
+    <row r="386" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="38"/>
       <c r="B386" s="39"/>
       <c r="C386" s="39"/>
@@ -18766,7 +19324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="1:22" s="17" customFormat="1">
+    <row r="387" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="38"/>
       <c r="B387" s="39"/>
       <c r="C387" s="39"/>
@@ -18794,7 +19352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388" spans="1:22" s="17" customFormat="1">
+    <row r="388" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="38"/>
       <c r="B388" s="39"/>
       <c r="C388" s="39"/>
@@ -18822,7 +19380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="389" spans="1:22" s="17" customFormat="1">
+    <row r="389" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="38"/>
       <c r="B389" s="39"/>
       <c r="C389" s="39"/>
@@ -18838,7 +19396,7 @@
         <v>50</v>
       </c>
       <c r="N389" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O389" s="17" t="s">
         <v>45</v>
@@ -18850,7 +19408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="390" spans="1:22" s="17" customFormat="1">
+    <row r="390" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="38"/>
       <c r="B390" s="39"/>
       <c r="C390" s="39"/>
@@ -18866,7 +19424,7 @@
         <v>24</v>
       </c>
       <c r="N390" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O390" s="17" t="s">
         <v>52</v>
@@ -18878,7 +19436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="391" spans="1:22" s="17" customFormat="1">
+    <row r="391" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="38"/>
       <c r="B391" s="39"/>
       <c r="C391" s="39"/>
@@ -18906,7 +19464,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="392" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="392" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A392" s="38"/>
       <c r="B392" s="39"/>
       <c r="C392" s="39"/>
@@ -18923,7 +19481,9 @@
       <c r="M392" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="N392" s="26"/>
+      <c r="N392" s="26" t="s">
+        <v>381</v>
+      </c>
       <c r="O392" s="27" t="s">
         <v>58</v>
       </c>
@@ -18936,7 +19496,7 @@
       <c r="R392" s="18"/>
       <c r="T392" s="18"/>
     </row>
-    <row r="393" spans="1:22" s="17" customFormat="1">
+    <row r="393" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -18960,7 +19520,7 @@
       <c r="U393" s="1"/>
       <c r="V393" s="1"/>
     </row>
-    <row r="394" spans="1:22" s="17" customFormat="1">
+    <row r="394" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>0</v>
       </c>
@@ -19021,9 +19581,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:22" s="17" customFormat="1">
+    <row r="395" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B395" s="39" t="s">
         <v>297</v>
@@ -19072,7 +19632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="396" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="396" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A396" s="38"/>
       <c r="B396" s="39"/>
       <c r="C396" s="39"/>
@@ -19093,7 +19653,7 @@
         <v>25</v>
       </c>
       <c r="N396" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O396" s="18" t="s">
         <v>26</v>
@@ -19111,7 +19671,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="397" spans="1:22" s="17" customFormat="1">
+    <row r="397" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="38"/>
       <c r="B397" s="39"/>
       <c r="C397" s="39"/>
@@ -19132,7 +19692,7 @@
         <v>29</v>
       </c>
       <c r="N397" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O397" s="17" t="s">
         <v>30</v>
@@ -19150,7 +19710,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="398" spans="1:22" s="17" customFormat="1" ht="82.5">
+    <row r="398" spans="1:22" s="17" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A398" s="38"/>
       <c r="B398" s="39"/>
       <c r="C398" s="39"/>
@@ -19164,7 +19724,7 @@
         <v>213</v>
       </c>
       <c r="K398" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L398" s="36"/>
       <c r="M398" s="3" t="s">
@@ -19183,7 +19743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="399" spans="1:22" s="17" customFormat="1" ht="82.5">
+    <row r="399" spans="1:22" s="17" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A399" s="38"/>
       <c r="B399" s="39"/>
       <c r="C399" s="39"/>
@@ -19194,10 +19754,10 @@
       <c r="H399" s="39"/>
       <c r="I399" s="39"/>
       <c r="J399" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K399" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L399" s="36"/>
       <c r="M399" s="3" t="s">
@@ -19216,7 +19776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="400" spans="1:22" s="17" customFormat="1" ht="49.5">
+    <row r="400" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A400" s="38"/>
       <c r="B400" s="39"/>
       <c r="C400" s="39"/>
@@ -19227,10 +19787,10 @@
       <c r="H400" s="39"/>
       <c r="I400" s="39"/>
       <c r="J400" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K400" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L400" s="36"/>
       <c r="M400" s="3" t="s">
@@ -19249,7 +19809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="401" spans="1:22" s="17" customFormat="1">
+    <row r="401" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="38"/>
       <c r="B401" s="39"/>
       <c r="C401" s="39"/>
@@ -19278,7 +19838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="402" spans="1:22" s="17" customFormat="1">
+    <row r="402" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="38"/>
       <c r="B402" s="39"/>
       <c r="C402" s="39"/>
@@ -19306,7 +19866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="403" spans="1:22" s="17" customFormat="1">
+    <row r="403" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="38"/>
       <c r="B403" s="39"/>
       <c r="C403" s="39"/>
@@ -19334,7 +19894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="404" spans="1:22" s="17" customFormat="1">
+    <row r="404" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="38"/>
       <c r="B404" s="39"/>
       <c r="C404" s="39"/>
@@ -19350,7 +19910,7 @@
         <v>50</v>
       </c>
       <c r="N404" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O404" s="17" t="s">
         <v>45</v>
@@ -19362,7 +19922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="405" spans="1:22" s="17" customFormat="1">
+    <row r="405" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="38"/>
       <c r="B405" s="39"/>
       <c r="C405" s="39"/>
@@ -19378,7 +19938,7 @@
         <v>24</v>
       </c>
       <c r="N405" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O405" s="17" t="s">
         <v>52</v>
@@ -19390,7 +19950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="406" spans="1:22" s="17" customFormat="1">
+    <row r="406" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="38"/>
       <c r="B406" s="39"/>
       <c r="C406" s="39"/>
@@ -19418,7 +19978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="407" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="407" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A407" s="38"/>
       <c r="B407" s="39"/>
       <c r="C407" s="39"/>
@@ -19435,7 +19995,9 @@
       <c r="M407" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="N407" s="26"/>
+      <c r="N407" s="26" t="s">
+        <v>382</v>
+      </c>
       <c r="O407" s="27" t="s">
         <v>58</v>
       </c>
@@ -19448,7 +20010,7 @@
       <c r="R407" s="18"/>
       <c r="T407" s="18"/>
     </row>
-    <row r="408" spans="1:22" s="17" customFormat="1">
+    <row r="408" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -19472,7 +20034,7 @@
       <c r="U408" s="1"/>
       <c r="V408" s="1"/>
     </row>
-    <row r="409" spans="1:22" s="17" customFormat="1">
+    <row r="409" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>0</v>
       </c>
@@ -19533,9 +20095,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="410" spans="1:22" s="17" customFormat="1">
+    <row r="410" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B410" s="39" t="s">
         <v>298</v>
@@ -19584,7 +20146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="411" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A411" s="38"/>
       <c r="B411" s="39"/>
       <c r="C411" s="39"/>
@@ -19605,7 +20167,7 @@
         <v>25</v>
       </c>
       <c r="N411" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O411" s="18" t="s">
         <v>26</v>
@@ -19623,7 +20185,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="412" spans="1:22" s="17" customFormat="1">
+    <row r="412" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="38"/>
       <c r="B412" s="39"/>
       <c r="C412" s="39"/>
@@ -19644,7 +20206,7 @@
         <v>29</v>
       </c>
       <c r="N412" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O412" s="17" t="s">
         <v>30</v>
@@ -19662,7 +20224,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="413" spans="1:22" s="17" customFormat="1" ht="82.5">
+    <row r="413" spans="1:22" s="17" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A413" s="38"/>
       <c r="B413" s="39"/>
       <c r="C413" s="39"/>
@@ -19673,10 +20235,10 @@
       <c r="H413" s="39"/>
       <c r="I413" s="39"/>
       <c r="J413" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K413" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L413" s="36"/>
       <c r="M413" s="3" t="s">
@@ -19695,7 +20257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="1:22" s="17" customFormat="1" ht="82.5">
+    <row r="414" spans="1:22" s="17" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A414" s="38"/>
       <c r="B414" s="39"/>
       <c r="C414" s="39"/>
@@ -19706,10 +20268,10 @@
       <c r="H414" s="39"/>
       <c r="I414" s="39"/>
       <c r="J414" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K414" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L414" s="36"/>
       <c r="M414" s="3" t="s">
@@ -19728,7 +20290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="415" spans="1:22" s="17" customFormat="1" ht="49.5">
+    <row r="415" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A415" s="38"/>
       <c r="B415" s="39"/>
       <c r="C415" s="39"/>
@@ -19739,10 +20301,10 @@
       <c r="H415" s="39"/>
       <c r="I415" s="39"/>
       <c r="J415" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K415" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L415" s="36"/>
       <c r="M415" s="3" t="s">
@@ -19761,7 +20323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="416" spans="1:22" s="17" customFormat="1" ht="66">
+    <row r="416" spans="1:22" s="17" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A416" s="38"/>
       <c r="B416" s="39"/>
       <c r="C416" s="39"/>
@@ -19772,10 +20334,10 @@
       <c r="H416" s="39"/>
       <c r="I416" s="39"/>
       <c r="J416" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K416" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L416" s="36"/>
       <c r="M416" s="3" t="s">
@@ -19794,7 +20356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="417" spans="1:22" s="17" customFormat="1">
+    <row r="417" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A417" s="38"/>
       <c r="B417" s="39"/>
       <c r="C417" s="39"/>
@@ -19822,7 +20384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="418" spans="1:22" s="17" customFormat="1">
+    <row r="418" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="38"/>
       <c r="B418" s="39"/>
       <c r="C418" s="39"/>
@@ -19850,7 +20412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="419" spans="1:22" s="17" customFormat="1">
+    <row r="419" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A419" s="38"/>
       <c r="B419" s="39"/>
       <c r="C419" s="39"/>
@@ -19866,7 +20428,7 @@
         <v>50</v>
       </c>
       <c r="N419" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O419" s="17" t="s">
         <v>45</v>
@@ -19878,7 +20440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="420" spans="1:22" s="17" customFormat="1">
+    <row r="420" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="38"/>
       <c r="B420" s="39"/>
       <c r="C420" s="39"/>
@@ -19894,7 +20456,7 @@
         <v>24</v>
       </c>
       <c r="N420" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O420" s="17" t="s">
         <v>52</v>
@@ -19906,7 +20468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="421" spans="1:22" s="17" customFormat="1">
+    <row r="421" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="38"/>
       <c r="B421" s="39"/>
       <c r="C421" s="39"/>
@@ -19934,7 +20496,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="422" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="422" spans="1:22" s="17" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A422" s="38"/>
       <c r="B422" s="39"/>
       <c r="C422" s="39"/>
@@ -19949,9 +20511,11 @@
         <v>57</v>
       </c>
       <c r="M422" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="N422" s="26"/>
+        <v>388</v>
+      </c>
+      <c r="N422" s="27" t="s">
+        <v>385</v>
+      </c>
       <c r="O422" s="27" t="s">
         <v>58</v>
       </c>
@@ -19964,7 +20528,7 @@
       <c r="R422" s="18"/>
       <c r="T422" s="18"/>
     </row>
-    <row r="423" spans="1:22" s="17" customFormat="1">
+    <row r="423" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="30"/>
       <c r="B423" s="31"/>
       <c r="C423" s="31"/>
@@ -19980,16 +20544,16 @@
         <v>240</v>
       </c>
       <c r="N423" s="26" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="O423" s="27"/>
       <c r="P423" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R423" s="18"/>
       <c r="T423" s="18"/>
     </row>
-    <row r="424" spans="1:22" s="17" customFormat="1">
+    <row r="424" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -20013,7 +20577,7 @@
       <c r="U424" s="1"/>
       <c r="V424" s="1"/>
     </row>
-    <row r="425" spans="1:22" s="17" customFormat="1">
+    <row r="425" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>0</v>
       </c>
@@ -20074,9 +20638,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="1:22" s="17" customFormat="1">
+    <row r="426" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A426" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B426" s="39" t="s">
         <v>299</v>
@@ -20088,7 +20652,7 @@
         <v>17</v>
       </c>
       <c r="E426" s="39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F426" s="39" t="s">
         <v>93</v>
@@ -20125,7 +20689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="427" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="427" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A427" s="38"/>
       <c r="B427" s="39"/>
       <c r="C427" s="39"/>
@@ -20146,7 +20710,7 @@
         <v>25</v>
       </c>
       <c r="N427" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O427" s="18" t="s">
         <v>26</v>
@@ -20164,7 +20728,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="428" spans="1:22" s="17" customFormat="1">
+    <row r="428" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A428" s="38"/>
       <c r="B428" s="39"/>
       <c r="C428" s="39"/>
@@ -20185,7 +20749,7 @@
         <v>29</v>
       </c>
       <c r="N428" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O428" s="17" t="s">
         <v>30</v>
@@ -20203,7 +20767,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="429" spans="1:22" s="17" customFormat="1">
+    <row r="429" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="38"/>
       <c r="B429" s="39"/>
       <c r="C429" s="39"/>
@@ -20232,7 +20796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="430" spans="1:22" s="17" customFormat="1">
+    <row r="430" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="38"/>
       <c r="B430" s="39"/>
       <c r="C430" s="39"/>
@@ -20261,7 +20825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="431" spans="1:22" s="17" customFormat="1">
+    <row r="431" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="38"/>
       <c r="B431" s="39"/>
       <c r="C431" s="39"/>
@@ -20289,7 +20853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="432" spans="1:22" s="17" customFormat="1">
+    <row r="432" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="38"/>
       <c r="B432" s="39"/>
       <c r="C432" s="39"/>
@@ -20317,7 +20881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="433" spans="1:22" s="17" customFormat="1">
+    <row r="433" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="38"/>
       <c r="B433" s="39"/>
       <c r="C433" s="39"/>
@@ -20345,7 +20909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="434" spans="1:22" s="17" customFormat="1">
+    <row r="434" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="38"/>
       <c r="B434" s="39"/>
       <c r="C434" s="39"/>
@@ -20373,7 +20937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="435" spans="1:22" s="17" customFormat="1">
+    <row r="435" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="38"/>
       <c r="B435" s="39"/>
       <c r="C435" s="39"/>
@@ -20389,7 +20953,7 @@
         <v>50</v>
       </c>
       <c r="N435" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O435" s="17" t="s">
         <v>45</v>
@@ -20401,7 +20965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="436" spans="1:22" s="17" customFormat="1">
+    <row r="436" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="38"/>
       <c r="B436" s="39"/>
       <c r="C436" s="39"/>
@@ -20417,7 +20981,7 @@
         <v>24</v>
       </c>
       <c r="N436" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O436" s="17" t="s">
         <v>52</v>
@@ -20429,7 +20993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="437" spans="1:22" s="17" customFormat="1">
+    <row r="437" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="38"/>
       <c r="B437" s="39"/>
       <c r="C437" s="39"/>
@@ -20457,7 +21021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="438" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="438" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A438" s="38"/>
       <c r="B438" s="39"/>
       <c r="C438" s="39"/>
@@ -20474,7 +21038,9 @@
       <c r="M438" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="N438" s="26"/>
+      <c r="N438" s="27" t="s">
+        <v>386</v>
+      </c>
       <c r="O438" s="27" t="s">
         <v>58</v>
       </c>
@@ -20487,7 +21053,7 @@
       <c r="R438" s="18"/>
       <c r="T438" s="18"/>
     </row>
-    <row r="439" spans="1:22" s="17" customFormat="1">
+    <row r="439" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -20511,7 +21077,7 @@
       <c r="U439" s="1"/>
       <c r="V439" s="1"/>
     </row>
-    <row r="440" spans="1:22" s="17" customFormat="1">
+    <row r="440" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>0</v>
       </c>
@@ -20572,9 +21138,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="441" spans="1:22" s="17" customFormat="1">
+    <row r="441" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B441" s="39" t="s">
         <v>300</v>
@@ -20623,7 +21189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="442" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A442" s="38"/>
       <c r="B442" s="39"/>
       <c r="C442" s="39"/>
@@ -20644,7 +21210,7 @@
         <v>25</v>
       </c>
       <c r="N442" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O442" s="18" t="s">
         <v>26</v>
@@ -20662,7 +21228,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="443" spans="1:22" s="17" customFormat="1">
+    <row r="443" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="38"/>
       <c r="B443" s="39"/>
       <c r="C443" s="39"/>
@@ -20683,7 +21249,7 @@
         <v>29</v>
       </c>
       <c r="N443" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O443" s="17" t="s">
         <v>30</v>
@@ -20701,7 +21267,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="444" spans="1:22" s="17" customFormat="1" ht="82.5">
+    <row r="444" spans="1:22" s="17" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A444" s="38"/>
       <c r="B444" s="39"/>
       <c r="C444" s="39"/>
@@ -20715,7 +21281,7 @@
         <v>213</v>
       </c>
       <c r="K444" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L444" s="36"/>
       <c r="M444" s="3" t="s">
@@ -20734,7 +21300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" spans="1:22" s="17" customFormat="1" ht="82.5">
+    <row r="445" spans="1:22" s="17" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A445" s="38"/>
       <c r="B445" s="39"/>
       <c r="C445" s="39"/>
@@ -20748,7 +21314,7 @@
         <v>214</v>
       </c>
       <c r="K445" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L445" s="36"/>
       <c r="M445" s="3" t="s">
@@ -20767,7 +21333,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="446" spans="1:22" s="17" customFormat="1" ht="82.5">
+    <row r="446" spans="1:22" s="17" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A446" s="38"/>
       <c r="B446" s="39"/>
       <c r="C446" s="39"/>
@@ -20781,7 +21347,7 @@
         <v>215</v>
       </c>
       <c r="K446" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L446" s="36"/>
       <c r="M446" s="3" t="s">
@@ -20800,7 +21366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="447" spans="1:22" s="17" customFormat="1" ht="49.5">
+    <row r="447" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A447" s="38"/>
       <c r="B447" s="39"/>
       <c r="C447" s="39"/>
@@ -20811,10 +21377,10 @@
       <c r="H447" s="39"/>
       <c r="I447" s="39"/>
       <c r="J447" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K447" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L447" s="36"/>
       <c r="M447" s="3" t="s">
@@ -20833,7 +21399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="448" spans="1:22" s="17" customFormat="1" ht="99">
+    <row r="448" spans="1:22" s="17" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A448" s="38"/>
       <c r="B448" s="39"/>
       <c r="C448" s="39"/>
@@ -20844,10 +21410,10 @@
       <c r="H448" s="39"/>
       <c r="I448" s="39"/>
       <c r="J448" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K448" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L448" s="36"/>
       <c r="M448" s="3" t="s">
@@ -20866,7 +21432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="1:22" s="17" customFormat="1" ht="49.5">
+    <row r="449" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A449" s="38"/>
       <c r="B449" s="39"/>
       <c r="C449" s="39"/>
@@ -20877,10 +21443,10 @@
       <c r="H449" s="39"/>
       <c r="I449" s="39"/>
       <c r="J449" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K449" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L449" s="36"/>
       <c r="M449" s="3" t="s">
@@ -20899,7 +21465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="450" spans="1:22" s="17" customFormat="1">
+    <row r="450" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A450" s="38"/>
       <c r="B450" s="39"/>
       <c r="C450" s="39"/>
@@ -20915,7 +21481,7 @@
         <v>50</v>
       </c>
       <c r="N450" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O450" s="17" t="s">
         <v>45</v>
@@ -20927,7 +21493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="451" spans="1:22" s="17" customFormat="1">
+    <row r="451" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="38"/>
       <c r="B451" s="39"/>
       <c r="C451" s="39"/>
@@ -20943,7 +21509,7 @@
         <v>24</v>
       </c>
       <c r="N451" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O451" s="17" t="s">
         <v>52</v>
@@ -20955,7 +21521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="452" spans="1:22" s="17" customFormat="1">
+    <row r="452" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A452" s="38"/>
       <c r="B452" s="39"/>
       <c r="C452" s="39"/>
@@ -20983,7 +21549,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="453" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="453" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A453" s="38"/>
       <c r="B453" s="39"/>
       <c r="C453" s="39"/>
@@ -21000,7 +21566,9 @@
       <c r="M453" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="N453" s="26"/>
+      <c r="N453" s="27" t="s">
+        <v>383</v>
+      </c>
       <c r="O453" s="27" t="s">
         <v>58</v>
       </c>
@@ -21013,7 +21581,7 @@
       <c r="R453" s="18"/>
       <c r="T453" s="18"/>
     </row>
-    <row r="454" spans="1:22" s="17" customFormat="1">
+    <row r="454" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A454" s="30"/>
       <c r="B454" s="31"/>
       <c r="C454" s="31"/>
@@ -21026,24 +21594,24 @@
       <c r="K454" s="8"/>
       <c r="L454" s="37"/>
       <c r="M454" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N454" s="26" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O454" s="27"/>
       <c r="P454" s="26" t="s">
         <v>250</v>
       </c>
       <c r="Q454" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R454" s="18" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="T454" s="18"/>
     </row>
-    <row r="455" spans="1:22" s="17" customFormat="1">
+    <row r="455" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -21067,7 +21635,7 @@
       <c r="U455" s="1"/>
       <c r="V455" s="1"/>
     </row>
-    <row r="456" spans="1:22" s="17" customFormat="1">
+    <row r="456" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>0</v>
       </c>
@@ -21128,9 +21696,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="457" spans="1:22" s="17" customFormat="1">
+    <row r="457" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B457" s="39" t="s">
         <v>301</v>
@@ -21179,7 +21747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="458" spans="1:22" s="17" customFormat="1" ht="33">
+    <row r="458" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A458" s="38"/>
       <c r="B458" s="39"/>
       <c r="C458" s="39"/>
@@ -21200,7 +21768,7 @@
         <v>25</v>
       </c>
       <c r="N458" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O458" s="18" t="s">
         <v>26</v>
@@ -21218,7 +21786,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="459" spans="1:22" s="17" customFormat="1">
+    <row r="459" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="38"/>
       <c r="B459" s="39"/>
       <c r="C459" s="39"/>
@@ -21239,7 +21807,7 @@
         <v>29</v>
       </c>
       <c r="N459" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O459" s="17" t="s">
         <v>30</v>
@@ -21257,7 +21825,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="460" spans="1:22" s="17" customFormat="1" ht="49.5">
+    <row r="460" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A460" s="38"/>
       <c r="B460" s="39"/>
       <c r="C460" s="39"/>
@@ -21268,10 +21836,10 @@
       <c r="H460" s="39"/>
       <c r="I460" s="39"/>
       <c r="J460" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K460" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L460" s="36"/>
       <c r="M460" s="3" t="s">
@@ -21290,7 +21858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="461" spans="1:22" s="17" customFormat="1" ht="49.5">
+    <row r="461" spans="1:22" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A461" s="38"/>
       <c r="B461" s="39"/>
       <c r="C461" s="39"/>
@@ -21301,10 +21869,10 @@
       <c r="H461" s="39"/>
       <c r="I461" s="39"/>
       <c r="J461" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K461" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L461" s="36"/>
       <c r="M461" s="3" t="s">
@@ -21323,7 +21891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="462" spans="1:22" s="17" customFormat="1" ht="82.5">
+    <row r="462" spans="1:22" s="17" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A462" s="38"/>
       <c r="B462" s="39"/>
       <c r="C462" s="39"/>
@@ -21334,10 +21902,10 @@
       <c r="H462" s="39"/>
       <c r="I462" s="39"/>
       <c r="J462" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K462" s="11" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="L462" s="36"/>
       <c r="M462" s="3" t="s">
@@ -21356,7 +21924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="463" spans="1:22" s="17" customFormat="1" ht="30">
+    <row r="463" spans="1:22" s="17" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A463" s="38"/>
       <c r="B463" s="39"/>
       <c r="C463" s="39"/>
@@ -21367,10 +21935,10 @@
       <c r="H463" s="39"/>
       <c r="I463" s="39"/>
       <c r="J463" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K463" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L463" s="36"/>
       <c r="M463" s="3" t="s">
@@ -21389,7 +21957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="464" spans="1:22" s="17" customFormat="1" ht="30">
+    <row r="464" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A464" s="38"/>
       <c r="B464" s="39"/>
       <c r="C464" s="39"/>
@@ -21399,11 +21967,9 @@
       <c r="G464" s="38"/>
       <c r="H464" s="39"/>
       <c r="I464" s="39"/>
-      <c r="J464" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="K464" s="11" t="s">
-        <v>354</v>
+      <c r="J464" s="19"/>
+      <c r="K464" s="43" t="s">
+        <v>373</v>
       </c>
       <c r="L464" s="36"/>
       <c r="M464" s="3" t="s">
@@ -21422,7 +21988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="465" spans="1:20" s="17" customFormat="1">
+    <row r="465" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="38"/>
       <c r="B465" s="39"/>
       <c r="C465" s="39"/>
@@ -21450,7 +22016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="466" spans="1:20" s="17" customFormat="1">
+    <row r="466" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="38"/>
       <c r="B466" s="39"/>
       <c r="C466" s="39"/>
@@ -21466,7 +22032,7 @@
         <v>50</v>
       </c>
       <c r="N466" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O466" s="17" t="s">
         <v>45</v>
@@ -21478,7 +22044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="1:20" s="17" customFormat="1">
+    <row r="467" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="38"/>
       <c r="B467" s="39"/>
       <c r="C467" s="39"/>
@@ -21494,7 +22060,7 @@
         <v>24</v>
       </c>
       <c r="N467" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O467" s="17" t="s">
         <v>52</v>
@@ -21506,7 +22072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="468" spans="1:20" s="17" customFormat="1">
+    <row r="468" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="38"/>
       <c r="B468" s="39"/>
       <c r="C468" s="39"/>
@@ -21534,7 +22100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="469" spans="1:20" s="17" customFormat="1" ht="33">
+    <row r="469" spans="1:20" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A469" s="38"/>
       <c r="B469" s="39"/>
       <c r="C469" s="39"/>
@@ -21549,9 +22115,11 @@
         <v>57</v>
       </c>
       <c r="M469" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="N469" s="26"/>
+        <v>379</v>
+      </c>
+      <c r="N469" s="27" t="s">
+        <v>384</v>
+      </c>
       <c r="O469" s="27" t="s">
         <v>58</v>
       </c>
@@ -21910,17 +22478,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
